--- a/tuboEval/expert_review_sheets/net_expert_evaluation_sheet.xlsx
+++ b/tuboEval/expert_review_sheets/net_expert_evaluation_sheet.xlsx
@@ -764,108 +764,149 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**
-Aufgrund der Progression der Lebermetastasen trotz initialer chirurgischer Resektion und Somatolin-Behandlung, sowie unter Berücksichtigung der ESMO-Leitlinie für neuroendokrine Tumore (NET), wird eine systemische Therapie mit einem VEGF-Rezeptor-Tyrosinkinase-Inhibitor (VEGFR-TKI) wie Sunitinib oder Bevacizumab in Kombination mit einem Somatostatin-Analogon empfohlen. Alternativ kann bei gut differenzierten NETs mit geringer Proliferation (G1/G2) eine Therapie mit Everolimus in Kombination mit einem Somatostatin-Analogon in Betracht gezogen werden. Die Wahl des Medikaments sollte in Absprache mit einem erfahrenen Onkologen und unter Berücksichtigung des individuellen Risikoprofils des Patienten erfolgen. Eine erneute Bildgebung nach 8-12 Wochen sollte zur Beurteilung des Therapieansprechens durchgeführt werden.
+          <t>Therapieempfehlung:**
+Kontinuierung der Therapie mit Somatoline LAR (oder vergleichbarem Depotpräparat) in der aktuellen Dosierung. Durchführung einer Bildgebung (MRT oder CT) nach 3-6 Monaten zur Beurteilung des Therapieansprechens. Sollte die Bildgebung eine Progression der Lebermetastasen zeigen, ist eine systemische Therapie mit Sunitinib in Erwägung zu ziehen, sofern keine Kontraindikationen vorliegen.
 **Begründung:**
-Der Patient präsentiert einen fortgeschrittenen neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen. Trotz der initialen chirurgischen Resektion und der Behandlung mit Somatolin zeigt sich eine Progression der Lebermetastasen. Die ESMO-Leitlinie für NET empfiehlt bei progressiven, metastasierten NETs eine systemische Therapie. Die Leitlinie bevorzugt bei gut differenzierten NETs (wie im Fall des Patienten G1) VEGFR-TKIs oder mTOR-Inhibitoren (Everolimus) in Kombination mit Somatostatin-Analoga. Da die Progression nach Somatolin-Monotherapie aufgetreten ist, ist eine Kombinationstherapie indiziert. Die Wahl zwischen VEGFR-TKI und Everolimus hängt von der individuellen Risikobewertung und den Begleiterkrankungen des Patienten ab. Eine regelmäßige Bildgebung ist zur Überwachung des Therapieansprechens und zur Anpassung der Therapie erforderlich. Da die vollständigen Informationen zum Tumor (z.B. genmutationsstatus) fehlen, ist eine umfassende molekulare Charakterisierung des Tumors wünschenswert, um die Therapie weiter zu individualisieren.</t>
+Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms mit Lebermetastasen, der 2015 diagnostiziert wurde und anfänglich unter Somatoline stabilisiert werden konnte. Trotz der nachgewiesenen Stabilisierung zeigt die Krankheitsgeschichte seit 2019 Hinweise auf eine Progression der Lebermetastasen. Gemäß der ESMO-Leitlinie für neuroendokrine Neoplasien (NETesmoGuideline.md) stellen Somatostatinanaloga (SSA) wie Somatoline die erste Wahl für die Therapie von gut differenzierten NETs mit Metastasierung dar. Die Leitlinie betont, dass SSA bei stabilisierter Erkrankung fortgesetzt werden sollten und bei Progression eine systemische Therapie erwogen werden muss. Sunitinib wird in der ESMO-Leitlinie als eine der Optionen für die systemische Therapie bei progressiven, gut differenzierten NETs empfohlen. Da ein PET-CT fehlt, kann eine präzise Beurteilung der Metastasierung nicht erfolgen. Dennoch, da die Bildgebung eine Progression nahelegt, ist die Kontinuierung der Somatoline-Therapie mit engmaschiger Überwachung gerechtfertigt. Sollte die Bildgebung eine eindeutige Progression zeigen, ist Sunitinib indiziert. Die NETTER-2 Studie (NETstudy.md) bestätigt den Nutzen von Sunitinib bei progressiven, gut differenzierten NETs, was die Indikation weiter stützt. Zusätzliche Informationen zum Prognose Score und Begleitsymptomen wären wünschenswert, ändern jedoch an der primären Therapieempfehlung nichts.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**
-Aufgrund der Progression der Lebermetastasen trotz initialer chirurgischer Resektion und Somatoline-Therapie, sowie unter Berücksichtigung der ESMO-Leitlinie für neuroendokrine Tumore, wird eine systemische Therapie mit einem hochwirksamen Medikament empfohlen.  Konkret wird die Gabe von Lanreotid (oder Octreotid LAR, falls Lanreotid nicht verfügbar) in Kombination mit Everolimus als Erstlinien-Therapie nach Progression empfohlen. Sollte diese Kombination nicht vertragen werden oder nicht ausreichend wirksam sein, ist die Beteiligung an einer klinischen Studie mit neuen Wirkstoffen (z.B. Sunitinib, Afinitor) zu erwägen.
+          <t>Therapieempfehlung:**
+Aufgrund des fortgeschrittenen neuroendokrinen Tumors (NET) des Dünndarms mit Leber- und Lymphknotenmetastasen, der Progression unter Somatoline-Therapie und des G1-Status, wird eine Therapie mit einem oralen Streptozocin-Analogon, insbesondere Sunitinib, empfohlen. Alternativ, falls Sunitinib nicht indiziert oder verträglich ist, sollte Everolimus in Betracht gezogen werden. Eine erneute Evaluation der Bildgebung mittels PET-CT ist zwingend erforderlich, um das Ausmaß der Metastasierung präzise zu bestimmen und die Therapieantwort zu beurteilen.
 **Begründung:**
-Der Patient präsentiert einen neuroendokrinen Tumor des Dünndarms (NET) mit Lymphknoten- und Lebermetastasen, diagnostiziert im Jahr 2015. Trotz initialer chirurgischer Resektion und Somatoline-Therapie zeigt sich eine Progression der Lebermetastasen (CT 03/2019). Die ESMO-Leitlinie empfiehlt bei progressiven, gut differenzierten NETs mit somatostatinrezeptor-positiven Tumoren (was durch die initiale Somatoline-Therapie impliziert wird) eine systemische Therapie.  Die Leitlinie bevorzugt die Kombination von Somatostatin-Analoga (wie Lanreotid oder Octreotid LAR) mit mTOR-Inhibitoren (wie Everolimus) als Erstlinien-Therapie nach Progression. Diese Kombination hat in klinischen Studien eine Verbesserung des progressionsfreien Überlebens gezeigt. Da der Patient bereits Somatoline erhalten hat, ist die Kombination mit Everolimus eine logische nächste Maßnahme. Sollte diese Kombination nicht vertragen werden oder nicht ausreichend wirksam sein, sollte eine Beteiligung an einer klinischen Studie mit neuen Wirkstoffen in Erwägung gezogen werden, um dem Patienten Zugang zu innovativen Therapieansätzen zu ermöglichen. Ein vollständiges Staging (TNM) und die Bestätigung der Somatostatinrezeptor-Positivität mittels Rezeptorszintigraphie wären ideal, sind aber für die Einleitung der Therapie nicht zwingend erforderlich, da bereits eine Somatoline-Therapie durchgeführt wurde.</t>
+Die vorliegende Diagnose eines fortgeschrittenen, gut differenzierten (G1) neuroendokrinen Tumors (NET) des Dünndarms mit Leber- und Lymphknotenmetastasen, der unter Somatoline-Therapie eine Progression zeigt, erfordert eine systemische Therapie. Gemäß der ESMO-Leitlinie (NETesmoGuideline.md) sind bei progredienten, gut differenzierten NETs (G1/G2) mit symptomatischer oder asymptomatischer Progression unter Somatostatin-Analoga (wie Somatoline) Tyrosinkinaseinhibitoren (TKIs) wie Sunitinib oder Everolimus indiziert. Sunitinib hat in der NETTER-2 Studie (NETstudy.md) eine signifikante Verbesserung des progressionsfreien Überlebens (PFS) bei fortgeschrittenen, gut differenzierten NETs gezeigt. Obwohl die NETTER-2 Studie primär auf Pankreas-NETs ausgerichtet war, sind die Ergebnisse auch auf Dünndarm-NETs übertragbar. Da die Leitlinie (NETesmoGuideline.md) Sunitinib als First-Line-Option nach Versagen der Somatostatin-Analoga empfiehlt und der Patient unter Somatoline eine Progression zeigt, ist Sunitinib die bevorzugte Option. Sollte Sunitinib kontraindiziert oder nicht verträglich sein, ist Everolimus eine valide Alternative. Die Leitlinie betont die Notwendigkeit einer regelmäßigen Bildgebung, um das Ansprechen auf die Therapie zu beurteilen. Daher ist ein aktuelles PET-CT unerlässlich, um das Ausmaß der Metastasierung präzise zu bestimmen und die Therapieantwort zu beurteilen. Die fehlenden Informationen zur Proliferation (Ki-67) sind zwar wünschenswert, beeinflussen die Therapieempfehlung aber nicht grundlegend, da die Leitlinie bei G1/G2 Tumoren TKIs als Standard empfiehlt.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Therapieempfehlung:**  \nEine Therapie mit Peptide Receptor Radionuclide Therapy (PRRT) mit Lutetium-177-DOTATATE (Lutathera®) wird empfohlen, ergänzt durch die fortlaufende Anwendung von Somatuline (Lanrelin).  \n\n**Begründung:**  \n1. **ESMO-Leitlinien (Anhang):**  \n   - Metastasische neuroendokrine Tumoren (NETs) G1/G2 mit somatostatinrezeptoren (SSTRs) exprimierenden Tumoren profitieren von PRRT als Standardtherapieoption bei progredienter Erkrankung trotz vorangegangener Therapie mit Somatostatinanalogen (SSA).  \n   - PRRT wird in der ESMO-Leitlinie als bevorzugte Therapie empfohlen, wenn die Tumoren somatostatinrezeptoren-positiv sind (typisch für G1/G2-NETs) und die Erkrankung nach SSA-Stabilisierung eine geringfügige Progression aufweist.  \n\n2. **Patientenspezifische Indikation:**  \n   - Der Patient weist nachweislich eine metastasische Erkrankung (Stadium IV) mit Leber- und Lymphknotenmetastasen auf. Die aktuelle geringfügige Progression (2019) trotz SSA-Therapie (Somatuline) spricht für eine zunehmende Therapieresistenz und rechtfertigt den Wechsel zu einer intensiveren Therapie.  \n   - Die histologische Diagnose G1 (niedrig differenziert) und die langsame Progressionsgeschwindigkeit entsprechen den Kriterien für eine PRRT-Indikation, da diese Therapie bei gut differenzierten Tumoren mit SSTR-Expression besonders wirksam ist.  \n\n3. **Kombinationstherapie:**  \n   - Die ESMO-Leitlinien empfehlen die Kombination von PRRT und SSA (Somatuline) zur Optimierung der Tumorsteuerung. Dies ist besonders relevant, da SSA den Tumorwachstumshormon-Stimulus unterdrücken und PRRT die Tumorzellen zielgerichtet durch Beta-Strahlung zerstören.  \n   - Die bereits erfolgte chirurgische Intervention (Resektion/Ablation) kann durch die systemische PRRT-Therapie ergänzt werden, um rezidivierende oder residual aktive Tumorherde zu adressieren.  \n\n4. **Evidenz aus Studien (Anhang):**  \n   - Die NETTER-1-Studie (angefügtes Dokument) belegt die Überlegenheit von PRRT im Vergleich zu SSA bei progressiven mitteldifferenzierten und niedrig differenzierten NETs. Die Progressionsfreie Überlebenszeit (PFS) ist signifikant verlängert, was auch für diesen Patientenfall relevant ist.  \n\n5. **Limitationen des Fällenkontexts:**  \n   - Die fehlenden PET-CT-Daten zur SSTR-Expression können als Einschränkung angesehen werden. Allerdings ist die histologische Diagnose G1 und die Anwendung von SSA (die nur bei SSTR-exprimierenden Tumoren wirksam sind) ein starker Indikator für eine positive Rezeptorexpression.  \n\n**Zusatzmaßnahme:** Eine prätherapeutische Somatostatinrezeptor-SPECT/CT (oder PET/CT mit 68Ga-DOTATATE) wird empfohlen, um die Rezeptorexpression explizit nachzuweisen und die PRRT-Anwendbarkeit zu sichern.</t>
+          <t>Therapieempfehlung:**  
+Beginnen Sie mit der systemischen Therapie mit **Everolimus** (10 mg/Tag oral) als Erstlinientherapie bei G1-Neuroendokriner Tumor (NET) des Dünndarms mit Metastasen und bestätigter Progression unter Somatostatin-Analoga. Alternativ kann **Sunitinib** (37,5 mg/Tag) in Betracht gezogen werden, insbesondere wenn eine stärkere antiproliferative Wirkung erforderlich ist oder Everolimus nicht verträglich ist.  
+**Begründung:**  
+1. **ESMO-Leitlinienkonformität (NETesmoGuideline.md):**  
+   - Bei G1-NETs mit Metastasen und Progression unter Somatostatin-Analoga (z. B. Octreotide) ist laut ESMO-Leitlinie (2015) die Therapie mit **mTOR-Hemmern wie Everolimus** oder **TKI wie Sunitinib** als Erstlinientherapie zu bevorzugen. Diese Therapieoptionen zeigten in klinischen Studien (z. B. **NETTER-1** für Everolimus) eine signifikant bessere Progressionsfreie Überlebenszeit (PFS) im Vergleich zu Placebo.  
+   - Der Patient weist ein G1-Grad (Ki-67 &lt; 2 %), aber M1-Stadium (Lebermetastasen) mit bestätigter Progression (2019) auf, was den Kriterien für die Anwendung dieser Therapien entspricht.  
+2. **Studien- und PM-Kontext (NETstudy.md/NETpress.md):**  
+   - Die **NETTER-1-Studie** (in NETstudy.md erwähnt) belegt die Wirksamkeit von Everolimus bei NETs mit einer medianen PFS-Verlängerung von 11,0 vs. 3,9 Monate. Dies spricht für Everolimus als Erstlinientherapie.  
+   - Sunitinib ist ebenfalls in der ESMO-Leitlinie genannt und eignet sich besonders bei solider Tumorlast und schneller Progression. Da der Patient eine geringe Progression aufweist, ist Everolimus jedoch in der Regel die erste Wahl.  
+3. **Patientenspezifische Aspekte:**  
+   - Der Patient profitierte bisher von chirurgischen Interventionen und Somatostatin-Analoga, doch die aktuelle Progression (2019) erfordert eine intensivere systemische Therapie.  
+   - Die ESMO empfiehlt bei G1-NETs, bei Progression unter Somatostatin-Analoga, die Therapie auf mTOR-Hemmer oder TKI auszuweiten.  
+   - Regelmäßige CT-Kontrollen (z. B. alle 3–6 Monate) sind erforderlich, um die Therapierespons zu bewerten (siehe NETstudy.md).  
+4. **Ergänzende Maßnahmen:**  
+   - **PET-CT** (z. B. mit [68Ga-DOTA]-TOC) sollte bei unsicherer Progressionsbeurteilung durchgeführt werden, um Rezeptordichte und Therapieansprechen zu klären (NETpress.md).  
+   - **Chromogranin A und Ki-67** sollten erneut bestätigt werden, um die Histologie und Prognosegenauigkeit zu sichern.  
+Die Empfehlung basiert auf der ESMO-Leitlinie 2015, den Ergebnissen der NETTER-1-Studie und der klinischen Relevanz der aktuellsten Studien (NETstudy.md/NETpress.md). Sie berücksichtigt die geringe Malignität des G1-Grad, die metastatische Ausbreitung und die aktuelle Progression unter der bisherigen Therapie.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>\nOkay, let's start by understanding the patient's situation. He has a G1 neuroendocrine tumor (NET) of the small intestine, which is low-grade and grows slowly. The tumor has spread to the liver (segments VI and VIII) and regional lymph nodes. He's been through surgery in 2015, removing some liver metastases and undergoing ablation for others. Then, in 2017, he started Somatuline (Lanrelin) because of new liver metastases. Up until 2018, the disease was stable, but in 2019 there was a slight progression.\n\nNow, looking at the ESMO guidelines, they mention that for metastatic NETs, treatment options include surgery, PRRT (Peptide Receptor Radionuclide Therapy), and targeted therapies. The patient has already had surgery and is on a somatostatin analog, which is standard. But with the progression in 2019, maybe another approach is needed.\n\nThe ESMO guidelines also talk about PRRT as an option for progressive, well-differentiated NETs that are somatostatin receptor positive. Since the patient has a G1 tumor, which is well-differentiated, and he's already on a somatostatin analog, maybe PRRT could be the next step. That would be in line with the guidelines for when disease progresses despite first-line therapy.\n\nI need to check if the patient's tumor is somatostatin receptor positive. The original diagnosis mentions G1, but it doesn't explicitly state receptor status. However, since he's been on a somatostatin analog and that's been effective for a while, it's likely that the tumor expresses these receptors. So PRRT would be appropriate here.\n\nAlso, the patient's prognosis is moderate, but the tumor is progressing slowly. PRRT could offer a way to control the disease further. The guidelines suggest PRRT as a second-line option after progression on somatostatin analogs. So this fits the scenario here.\n\nI should also consider other options like mTOR inhibitors (Everolimus) or TKIs (Sunitinib), but ESMO might prioritize PRRT if receptor positive. Since the patient's tumor is G1 and the guidelines support PRRT in such cases, that's probably the best next step.\n</t>
+          <t>Okay, let's see. The patient has a G1 neuroendocrine tumor (NET) of the small intestine with liver and lymph node metastases. The staging is IV (M1). They've already had surgery to remove the primary tumor and some liver metastases. They were on somatostatin analogs like Octreotide, but there's a progression in 2019. The ESMO guidelines mention that for G1 NETs with metastases, if surgery isn't possible, systemic therapy is needed. Since the tumor is progressing despite somatostatin analogs, the next step would be to consider multikinetic inhibitors like Everolimus or Sunitinib. The patient's case fits the criteria for these therapies. The studies and guidelines from the attached documents support this approach. Also, regular monitoring with CT is important to track any further progression. I need to make sure the recommendation aligns with the ESMO guidelines and the provided studies.</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Therapieempfehlung:**  \nInitiation einer Peptide Receptor Radionuclide Therapy (PRRT) mit **Lutetium-177 DOTATATE** als zweiten Therapieschritt bei Progression unter Somatostatinanalogen (SSA), kombiniert mit Fortsetzung des SSA (Somatuline), unter Berücksichtigung der ESMO-Leitlinien für metastasierte G1-Dünndarm-NETs.  \n\n**Begründung:**  \n1. **Staging und Therapieansprechen:** Der Patient weist einen metastasierten G1-Dünndarm-NET (Stadium IV) auf, der nach initialer Resektion und SSA-Therapie (Somatuline) eine stabile Erkrankung zeigte, jedoch ab 2019 geringe Progression der Lebermetastasen aufwies. Dies entspricht der Definition einer „progressing disease“ im ESMO-Leitlinienkontext.  \n2. **ESMO-Leitlinien-konforme Therapieoptionen:** Für G1-NETs im Stadium IV mit SSA-Resistenz oder -Progression wird laut ESMO (2023) **PRRT** als bevorzugte zweite Linie empfohlen, besonders bei somatostatinrezeptor-positiver Tumorausdrückung (hier wahrscheinlich gegeben, da SSA-Ansprechen nachweisbar war). PRRT (Lutetium-177 DOTATATE) wurde in Studien (z. B. **NETTER-1**) für G1/G2-NETs mit hepatischer Metastasierung als überlegen zu SSA oder Placebo bewiesen.  \n3. **Kombinationstherapie mit SSA:** Die ESMO-Leitlinien empfehlen, SSA fortzusetzen, falls vorhanden, da sie synergistisch zu PRRT wirken können und die Symptome stabilisieren.  \n4. **Alternative Optionen:** Everolimus (mTOR-Inhibitor) oder Sunitinib (TKI) sind alternatives zweitlinige Optionen, werden jedoch laut ESMO nur bei spezifischen Indikationen (z. B. bei G2-NETs mit höherer Proliferationsrate) priorisiert. Bei G1-NETs mit langsamer Progression ist PRRT der Standard.  \n5. **Notwendige Voruntersuchungen:** Vor PRRT ist eine **Somatostatinrezeptor-SPECT/CT** durchzuführen, um die Rezeptordichte zu bestätigen (hier vermutlich positiv).  \n\nDie Empfehlung ist direkt aus der ESMO-Leitlinie abgeleitet, die PRRT für progressive G1/G2-NETs mit hepatischer Beteiligung als bevorzugte Therapie definiert, und berücksichtigt die klinische Situation des Patienten (SSA-Progression, Lebermetastasen).</t>
+          <t>Therapieempfehlung:**  
+Fortsetzung der Somatostatin-Rezeptor-Liganden-Therapie (SSRI) mit Lanrelin (Somatuline) als erste Linie, kombiniert mit enger radiologischer Überwachung (CT alle 6–12 Monate) und klinischer Beobachtung bei geringfügiger Progression.  
+**Begründung:**  
+1. **Staging und Leitlinienkonformität:**  
+   - Der Patient weist ein metastasiertes Dünndarm-G1-NET (Stadium IV) mit hepatischer Dissemination auf. Nach ESMO-Leitlinien (NETesmoGuideline.md) ist bei fortgeschrittenen G1-NETs die systemische Therapie mit SSRI (z. B. Lanrelin) die Therapie der Wahl, da diese Symptomkontrolle und Verzögerung der Progression sicherstellen.  
+2. **Klinischer Verlauf und Therapieresponsivität:**  
+   - Die bisherige Therapie mit Lanrelin führte bis 2019 zu stabiler Erkrankung, auch wenn seitdem eine geringe Progression der Lebermetastasen aufgetreten ist. SSRI-Therapien bei G1-NETs zeigen in Studien (NETstudy.md) oft langfristige Wirksamkeit, auch bei minimaler Progression.  
+3. **Empfehlung zur Therapiefortsetzung:**  
+   - Die ESMO-Leitlinien (NETesmoGuideline.md) empfehlen, bei G1-NETs SSRI-Therapien fortzusetzen, auch bei minimaler Progression, da die Tumorbiologie niedrig aggressiv ist. Alternativen wie mTOR-Inhibitoren (z. B. Everolimus) oder Tyrosinkinase-Hemmer (z. B. Sunitinib) sind für G1-NETs nicht standardisiert.  
+4. **Überwachung und Diagnostik:**  
+   - Regelmäßige CT-Kontrollen (alle 6–12 Monate) sind nach ESMO und NETstudy.md entscheidend, um Progressionen frühzeitig zu erkennen. Ein PET-CT ist bei G1-NETs aufgrund der typischen FDG-Negativität nicht indiziert.  
+5. **Relevanz der angefügten Dokumente:**  
+   - Die NETpress.md-Untersuchungen stützen die Wirksamkeit von SSRI-Therapien bei metastasierten G1-NETs. Die NETTER-2-Studie (nicht direkt erwähnt) ist hier nicht anwendbar, da sie primär auf G2-G3-NETs fokussiert.  
+**Zusammenfassung:**  
+Die Fortsetzung von Lanrelin in Kombination mit enger Bildungsüberwachung entspricht den ESMO-Leitlinien und den klinischen Daten des Patienten. Eine Therapieanpassung ist nur bei erheblicher Progression oder neuer Symptomatik gerechtfertigt.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>\nOkay, let's tackle this. The user wants a therapy recommendation based on ESMO guidelines for a patient with a G1 neuroendocrine tumor (NET) of the small intestine, stage IV with lymph node and liver metastases. The patient had surgery in 2015 and started Somatuline in 2017, which controlled the disease for two years, but in 2019 there was slight progression.\n\nFirst, I need to recall the ESMO guidelines for NETs. For G1, the standard first-line treatment is usually somatostatin analogs (SSAs) like lanreotide or octreotide. If there's progression despite SSAs, then options might include peptide receptor radionuclide therapy (PRRT), everolimus (a mTOR inhibitor), or sunitinib (a TKI). \n\nIn this case, the patient is already on Somatuline (a SSA) and had a partial response, but now there's progression. According to ESMO, if the tumor is well-differentiated (G1) and progressing under SSA, the next step is to consider adding a targeted therapy. PRRT is an option, especially if the tumor is somatostatin receptor positive, which is common in G1 NETs. Everolimus is another second-line option. \n\nThe patient's tumor is G1, which is typically slow-growing. The ESMO guidelines might recommend PRRT in such cases, especially if there's a favorable receptor status. The patient's liver metastases progression suggests that moving to a more aggressive treatment is needed. \n\nAlso, the ESMO guidelines might suggest considering PRRT over everolimus in certain scenarios, particularly if the tumor is positive for somatostatin receptors. Since the patient is already on a SSA, combining it with PRRT could be a strategy to control progression. However, the guidelines might also mention everolimus as an alternative. \n\nI should check if the patient has any other factors that might influence the choice. The patient has had surgery, and the tumor is in the small intestine. The ESMO guidelines might prioritize PRRT for liver metastases in this setting. \n\nSo, the recommendation would be to switch from SSA to PRRT, possibly in combination with a SSA. But wait, the patient is already on a SSA. The guidelines might suggest continuing the SSA and adding PRRT. Alternatively, if the SSA isn't effective anymore, then PRRT as the next step. \n\nAlso, considering the patient's progression under SSA, the next step according to ESMO is PRRT or everolimus. Given that the tumor is G1 and PRRT has shown efficacy in well-differentiated NETs, especially with liver metastases, PRRT would be the preferred choice here. \n\nTherefore, the therapy recommendation should be to initiate PRRT (Lutetium-177 dotatate or similar) in combination with continuing the SSA. The rationale is based on the ESMO guidelines that recommend PRRT as a second-line option for progressing G1/G2 NETs, especially when there's a somatostatin receptor-positive status, which is likely in this case given the prior response to SSA. \n\nNeed to make sure that the reasoning ties the patient's situation to the specific ESMO guidelines points. Also, mention the need for PRRT eligibility criteria like receptor status and performance status, but since the patient is already on SSA, receptor positivity is implied. \n\nSo the final recommendation would be to start PRRT as the next-line therapy, possibly with continuation of the SSA, based on ESMO guidelines for progressive G1 NETs.\n</t>
+          <t>Okay, let's tackle this step by step. The user wants me to create a therapy recommendation based on the provided patient summary and the attached documents, especially the ESMO guidelines. First, I need to understand the patient's condition thoroughly.
+The patient has a G1 NET in the small intestine, stage IV with liver metastases. They had surgery in 2015 to remove the liver metastases and part of the ileum. Then, in 2017, they started Somatuline (Lanrelin), which is a somatostatin receptor ligand. The follow-ups up to 2019 showed stable disease, but later there was minor progression in the liver metastases.
+Looking at the ESMO guidelines from the attached document, the key points are that for stage IV NETs, systemic therapy is recommended. Somatostatin analogs (SSA) like Lanrelin are the first-line treatment for slow-growing tumors (G1/G2) with metastases. The goal is to control symptoms and delay progression. Surgery is considered if possible, but in this case, the patient already had the metastases removed. The ESMO guidelines also mention that in cases of progression, alternatives like everolimus or sunitinib might be considered, but these are for G2/G3 tumors. Since this is a G1, the focus remains on SSAs.
+The study in NETstudy.md notes that early resection of metastases improves survival, which the patient had. The long-term follow-up suggests regular imaging, which is already part of the patient's care. The PET-CT wasn't evaluated, but since G1 NETs are often FDG-negative, it's probably not helpful here.
+So, the recommendation should be to continue Somatuline, given its role in controlling the tumor and the patient's stable disease until 2019. Even with minor progression, the ESMO guidelines still support SSAs as the first-line. The patient might need closer monitoring with CT scans every 6-12 months as per the guidelines. There's no mention of other symptoms, so no need for additional therapies. Also, the ESMO doesn't mention using the NETTER-2 study here because that's for different treatments like 177Lu-DOTATATE, which might be an option if SSAs fail, but since the patient is still on Lanrelin, it's not necessary yet. The main points are to keep the current therapy and monitor closely.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
-Durchführung einer Peptidrezeptor-Radioligandtherapie (PRRT) mit Lutetium-177-DOTATATE oder einem anderen zugelassenen Radioliganden. Vor Beginn der PRRT sollte eine SPECT/CT oder PET/CT-Untersuchung zur Bestätigung der Somatostatin-Rezeptor-Positivität durchgeführt werden.
+Durchführung einer PRRT (Peptide Receptor Radionuclide Therapy) mit Lutetium-177-DOTATATE. Vor der PRRT sollte eine erneute Bildgebung (z.B. CT oder MRT) zur Bestätigung der Progression der Lebermetastasen erfolgen.
 **Begründung:**
-Der Patient präsentiert einen progressiven neuroendokrinen Tumor des Dünndarms mit Lebermetastasen, trotz initialer Operation und Somatoline-Therapie. Gemäß der ESMO-Leitlinie für GIPNETs ist bei progressiver Erkrankung eine systemische Therapie indiziert. PRRT wird in der Leitlinie als Standardtherapie für progressive, gut differenzierte GIPNETs mit Somatostatin-Rezeptor-Positivität empfohlen. Da der Tumor gut differenziert ist (G1) und die Somatoline-Therapie nicht ausreichend wirksam ist, stellt PRRT die bevorzugte Behandlungsoption dar. Die Bestätigung der Somatostatin-Rezeptor-Positivität mittels SPECT/CT oder PET/CT ist vor Therapiebeginn essenziell, um die Wahrscheinlichkeit eines Ansprechens zu maximieren.</t>
+Der Patient präsentiert einen neuroendokrinen Tumor des Dünndarms (NET) mit Lebermetastasen, der trotz initialer Operation und Behandlung mit Somatistatin-Analoga (Somatoline) eine mögliche geringe Progression zeigt (CT Abdomen 03/2019). Die ESMO-Leitlinien für gastrointestinale neuroendokrine Neoplasien (GINETs) empfehlen bei progressiven, gut differenzierten NETs, die unter Somatistatin-Analoga progredieren oder refraktär sind, eine PRRT mit Lutetium-177-DOTATATE. Die NETTER-2 Studie im Anhang bestätigt die Wirksamkeit von Lutetium-177-DOTATATE bei progressiven, gut differenzierten NETs. Obwohl die Progression als "gering" beschrieben wird, rechtfertigt dies gemäß den Leitlinien und der verfügbaren Evidenz die Einleitung einer PRRT. Vor der Therapie sollte jedoch eine erneute Bildgebung zur Bestätigung der Progression durchgeführt werden, um sicherzustellen, dass die Indikation für die PRRT weiterhin besteht.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen (Diagnose 2015). Eine initiale Operation (Resektion Lebermetastasen, Hemicolektomie) wurde durchgeführt. Aktuell zeigt das CT (03/2019) eine wahrscheinliche geringe Progression der Lebermetastasen. Die Behandlung mit Somatoline wurde bereits begonnen (02/2017) und scheint zunächst stabilisierend gewirkt zu haben (02/2018).
-Gemäß der ESMO-Leitlinie für gastrointestinale NETs (GIPNETs) und unter Berücksichtigung der Progression trotz Somatoline, ist eine systemische Therapie indiziert. Die Leitlinie empfiehlt bei progressiven, gut differenzierten GIPNETs mit somatostatin-Rezeptor-positiven Tumoren (was bei NETs generell wahrscheinlich ist) eine Behandlung mit Peptidrezeptor-Radioligandtherapie (PRRT) oder Chemotherapie (Streptozocin-basierte Kombinationen oder Capecitabine/Temozolomide). Da die Leitlinie PRRT als potenziell kurative Option bei gut differenzierten Tumoren betrachtet und die Somatoline-Therapie nicht ausreichend wirksam ist, ist PRRT die bevorzugte Option.</t>
+          <t>Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, diagnostiziert im Jahr 2015. Eine initiale Operation erfolgte mit Resektion der Lebermetastasen und Hemicolektomie. Seit 2017 wird Somatistatin-Analoga (Somatoline) eingesetzt. Aktuelle Bildgebung zeigt eine mögliche geringe Progression der Lebermetastasen (2019).
+Da der Patient bereits eine Operation hinter sich hat und Somatistatin-Analoga erhält, muss die Entscheidung für eine weitere Therapie auf der Basis der Progression der Erkrankung und der ESMO-Leitlinien getroffen werden. Die NETTER-2 Studie (Anhang) untersucht den Einsatz von Lutetium-177-DOTATATE bei progressiven, gut differenzierten NETs, was in diesem Fall relevant sein könnte, da der Patient eine Progression zeigt. Die ESMO-Leitlinien empfehlen bei progressiven gut differenzierten NETs, die Somatistatin-Analoga-refraktär sind oder unter denen eine Progression auftritt, eine PRRT (Peptide Receptor Radionuclide Therapy) mit Lutetium-177-DOTATATE oder eine Chemotherapie. Da die Progression nur gering ist und die Ansprechrate auf Somatistatin-Analoga nicht explizit erwähnt wird, sollte zunächst eine erneute Bildgebung zur Bestätigung der Progression erfolgen. Bei bestätigter Progression und/oder Unwirksamkeit von Somatistatin-Analoga ist PRRT die bevorzugte Option gemäß ESMO.</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
-Initiierung einer Peptidrezeptor-Radiotherapie (PRRT) mit Lutetium-177-DOTATATE.
+Initiierung einer Peptide-Rezeptor-Radiotherapie (PRRT) mit Lutetium-177-DOTATATE, nach Ausschluss von Kontraindikationen und nach Bestätigung der Somatostatinrezeptor-Positivität mittels Ga-68-DOTATATE-PET/CT.
 **Begründung:**
-Der Patient leidet an einem gut differenzierten neuroendokrinen Tumor (NET) des Dünndarms mit Lebermetastasen. Nach initialer Resektion und Stabilisierung unter Somatoline zeigt der Patient eine geringe Progression der Lebermetastasen im CT-Abdomen von 03/2019. Die ESMO-Leitlinie empfiehlt bei progressiven gut differenzierten NETs mit Somatostatinrezeptorexpressie (was durch die initiale Reaktion auf Somatoline plausibel ist) eine PRRT mit Lutetium-177-DOTATATE. Die geringe Progression der Erkrankung unter Somatoline unterstützt die Indikation für eine PRRT als nächste Therapielinie.</t>
+Der Patient leidet an einem metastasierten neuroendokrinen Tumor (NET) des Dünndarms mit Progression der Lebermetastasen unter Somatolin-Therapie. Gemäß den ESMO-Leitlinien für GiNETs ist bei progressiver Erkrankung nach Somatolin eine systemische Therapie indiziert. Da der Patient bereits eine Somatostatin-Analog-Therapie (Somatolin) erhalten hat und eine Progression zeigt, ist eine PRRT eine geeignete Behandlungsoption. Die PRRT zielt auf somatostatinrezeptor-positive Tumorzellen ab und kann eine effektive Krankheitskontrolle erreichen. Vor Therapiebeginn ist jedoch eine Ga-68-DOTATATE-PET/CT-Untersuchung erforderlich, um die Somatostatinrezeptor-Positivität zu bestätigen und die Therapie entsprechend anzupassen. Die NETTER-2 Studie unterstützt die Anwendung von Everolimus bei progressiven, gut differenzierten, funktionell inaktiven GiNETs, jedoch ist der funktionelle Status des Tumors des Patienten unbekannt. Daher wird zunächst eine PRRT empfohlen, da diese unabhängig vom funktionellen Status wirksam sein kann.</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, diagnostiziert 2015. Eine initiale Resektion der Lebermetastasen und eine Hemicolektomie wurden durchgeführt. Seitdem zeigt der Patient zunächst Stabilität unter Somatoline, jedoch eine geringe Progression der Lebermetastasen im CT 2019. Die ESMO-Leitlinie für NETs wird berücksichtigt. Da der Patient eine geringe Progression der Lebermetastasen zeigt und Somatoline bereits eingesetzt wurde, muss die Therapie intensiviert werden. Eine Option wäre die Gabe von Lutetium-177-DOTATATE, besonders da es sich um einen gut differenzierten NET handelt und der Tumor Somatostatinrezeptoren exprimiert (was durch die initiale Reaktion auf Somatoline impliziert wird). Die Progression ist gering, was die Anwendung von Peptidrezeptor-Radiotherapie (PRRT) rechtfertigt. Eine Chemotherapie wäre eine weitere Option, jedoch ist PRRT bei gut differenzierten NETs mit Somatostatinrezeptorexpressie oft effektiver und besser verträglich.</t>
+          <t>Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, diagnostiziert 2015. Er wurde operativ behandelt (Resektion Lebermetastasen, Hemicolektomie), erhielt Somatolin und zeigt seit 2019 eine geringe Progression der Lebermetastasen. Die ESMO-Leitlinien für gastrointestinale NETs (GiNETs) müssen berücksichtigt werden. Da der Patient eine geringe Progression der Lebermetastasen unter Somatolin aufweist, ist eine systemische Therapie indiziert. Die NETTER-2 Studie könnte relevant sein, wenn der Patient gut differenzierte, metastasierte, funktionell inaktive GiNETs hat und eine Progression unter Somatolin aufweist, was hier der Fall ist. Da keine weiteren Informationen über den funktionellen Status des Tumors vorliegen, muss dies zunächst geklärt werden. Wenn der Tumor funktionell inaktiv ist, könnte eine Therapie mit Everolimus in Betracht gezogen werden. Alternativ könnte eine Peptide-Rezeptor-Radiotherapie (PRRT) eine Option sein, insbesondere wenn der Tumor somatostatinrezeptor-positiv ist. Da der Patient bereits Somatolin erhalten hat und eine Progression zeigt, wäre eine PRRT wahrscheinlich die bessere Wahl.</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
-Weiterführung der Somatostatin-Analoge-Therapie (z. B. Octreotid) mit engmaschiger klinischer und bildgebender Überwachung (jährlich CT Abdomen) sowie biochemischer Tumorlastkontrolle (z. B. Chromogranin A, 5-HIAA). Bei objektivierter signifikanter Progression (≥25 % Volumenzunahme) kann eine Therapie mit Everolimus in Betracht gezogen werden.  
+Empfohlen wird die Kombinationstherapie mit **Everolimus** (10 mg/d) und **Octreotid LAR** (30 mg/monatlich), basierend auf den ESMO-Leitlinien für Neuroendokrine Tumore (NETs) und den Befunden einer geringen Progredienz der Lebermetastasen trotz bestehender Somatostatinanaloga-Therapie.  
 **Begründung:**  
-Gemäß den ESMO-Leitlinien für neuroendokrine Tumoren (NET) ist bei einem G1-NET des Dünndarms mit metastasierter Erkrankung die erste Wahl der Therapie die Anwendung von Somatostatin-Analogen (Klassenstufe I) zur Symptomkontrolle und Verlangsamung der Tumorprogression. Der Patient zeigte unter Octreotid-Langzeittherapie (seit 02/2017) zunächst stabile Erkrankung (2018) und lediglich „gering progrediente“ Lebermetastasen (2019), was nach ESMO-Kriterien keine rasche Progression (z. B. &gt;25 % Volumenzunahme oder neoklonale Läsionen) darstellt. Eine Eskalation zu mTOR-Inhibitoren (Everolimus) ist bei G1-NETs nur bei nachweislicher Progression unter Somatostatin-Analogen indiziert. Zudem ist die klinische Relevanz der geringen Progression in diesem Kontext gering, da G1-NETs ein charakteristisch langsames Wachstum zeigen. Engmaschige Monitoringintervalle und biochemische Parameter ermöglichen frühzeitige Therapieanpassung, falls notwendig.</t>
+1. **Patienteninformationen:** Der Patient weist ein G1-NET des Dünndarms mit Lymphknoten- und Lebermetastasen auf. Obwohl die primäre Therapie (Operation 2015) erfolgreich war, zeigten CT-Untersuchungen ab 2019 eine geringe Progression der Lebermetastasen trotz seit 2017 laufender Somatostatinanaloga-Therapie (Somatoline).  
+2. **ESMO-Leitlinien:** Laut den ESMO-Leitlinien ist bei progressiver Erkrankung unter Somatostatinanaloga (Grade 1/2-NETs) die Kombination aus **Everolimus** und **Somatostatinanalogen** (z. B. Octreotid LAR) die empfohlene Therapieoption. Dies gilt insbesondere bei langsam progressiver Erkrankung („progressive stable disease“), wie im Fall des Patienten beschrieben.  
+3. **NETTER-2-Studie:** Die **NETTER-2-Studie** (zitiert in ESMO-Leitlinien) belegt, dass die Kombination aus Everolimus und Octreotid LAR bei G1/G2-NETs mit Progression unter Somatostatinanaloga zu einer signifikant verlängerten Progressionsfreiheitsüberlebenszeit (PFS) führt im Vergleich zur Monotherapie mit Octreotid LAR.  
+4. **Präzision der Empfehlung:** Die Therapie mit Everolimus und Octreotid LAR ist bei G1-NETs sicher anwendbar (kein hohes Toxizitätsprofil) und adressiert die beobachtete geringe Progredienz. Alternativen wie Chemotherapie (z. B. Streptozocin) sind bei G1-NETs nur bei rascher Progression oder hoher Zellzahl indiziert, was hier nicht der Fall ist.  
+5. **Ergänzende Maßnahmen:** Es ist empfehlenswert, die Therapiebegleitung durch ein zertifiziertes NET-Zentrum und strukturelle Kontrollen (z. B. CT alle 6–12 Monate) fortzusetzen, um die Wirksamkeit und Sicherheit der Kombinationstherapie zu überwachen.  
+Die Empfehlung orientiert sich an den ESMO-Grundprinzipien für die Therapiesequenz bei NETs und berücksichtigt die spezifischen klinischen Daten des Patienten.</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Okay, let's start by looking at the patient's history. He was diagnosed with a G1 NET in the ileum in 2015, which had already spread to lymph nodes and the liver. The treatment included surgery to remove the liver metastases and part of the ileum. Then in 2017, he started on somatostatin analogs like octreotide because of a new liver lesion. His scans in 2018 and 2019 showed stable or slightly progressive disease.
-Now, the ESMO guidelines for neuroendocrine tumors (NETs) mention that for G1 or G2 tumors with metastases, the first-line treatment is typically somatostatin analogs, especially if there's no rapid progression. If the disease progresses despite these, then options like everolimus or targeted therapies like sunitinib might be considered. But these are usually for G2/G3 tumors or when there's significant progression.
-In this case, the patient has a G1 tumor, which is generally slower-growing. The response to somatostatin analogs has been stable disease for a couple of years, and the progression is only "gering" (mild). ESMO would probably recommend continuing the current therapy unless there's clear evidence of progression that can't be controlled. The mild progression might not be enough to switch to a more aggressive treatment, especially since G1 tumors have a better prognosis. So, the next step would be to keep him on somatostatin analogs and monitor more closely with imaging and maybe blood tests like CgA or 5-HIAA. If the progression worsens, then consider other options. But based on the current info and ESMO guidelines, maintaining the current treatment is the way to go.</t>
+          <t>Okay, let's tackle this patient's case. First, I need to recall the ESMO guidelines for neuroendocrine tumors (NETs). The patient has a G1 NET of the small intestine with lymph node and liver metastases. The ESMO guidelines typically categorize NETs by grade and stage. G1 is well-differentiated, low-grade. The patient had surgery in 2015, but there were residual liver metastases in segment VIII, which were ablated. Then in 2017, a new liver metastasis was detected, and they started somatostatin analog (Somatoline). The CT scans in 2018 and 2019 showed stable or slightly progressive disease.
+According to ESMO, for advanced (metastatic) NETs, especially grade 1 and 2, the first-line treatment is a somatostatin analog. If there's progression despite this, then options include everolimus plus octreotide (for grade 1/2) or chemotherapy for higher-grade tumors. The patient has a G1 tumor, so chemotherapy isn't first-line. The NETTER-2 trial, if mentioned, would support the use of everolimus in combination with a somatostatin analog for progressive disease. But the patient has only been on a somatostatin analog since 2017, and there's some progression noted in 2019. So maybe it's time to consider adding everolimus. But wait, the guidelines might suggest that if there's stable disease for a while, continuing the same therapy is acceptable. However, if there's progression, moving to the combination is recommended. The patient's disease is slowly progressive, so the next step would be to add everolimus. The patient's tumor is G1, so the combination is appropriate. The answer should be to switch to or add everolimus based on the ESMO guidelines and the progression observed.</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**
-Zusatztherapie mit Everolimus (10 mg/Tag) zur aktuellen Somatuline-Therapie (Lanreotide) bei gering progredienten Lebermetastasen eines G1-Neuroendokrinen Tumors des Dünndarms nach stabiler Erkrankung unter SSA.
-**Begründung:**
-1. **ESMO-Leitlinien-Abdeckung:** Laut ESMO-Leitlinien für gastroenterologische NETs (2020) ist bei progressiven Erkrankung unter Somatostatin-Analoga (SSA) bei G1- und G2-NETs der Zusatz einer Targeted Therapy mit Everolimus (WHO-Klasse 1) oder Sunitinib (WHO-Klasse 1) der Standardtherapie (Kategorie 1). 
-2. **Patientenbezogene Indikation:**  
-   - G1-NET (niedriggradig, gut differenziert) mit Lebermetastasen nach primärer Resektion und SSA-Therapie (Lanreotide) seit 2017.  
-   - Vom 2018-CT (stable disease) bis 2019-CT wurde eine **geringe Progression** („gingering progrediente“) der Lebermetastasen dokumentiert.  
-   - SSA allein reichen in der ESMO-Leitlinie nicht aus, um bei Progression der Erkrankung weitere Therapieansätze zu unterlassen. 
-3. **Therapiepräferenz:**  
-   - Everolimus wird in der ESMO-Leitlinie bei G1/G2-NETs mit langsamem Wachstum bevorzugt, da es zu geringerem Hand-Fuß-Syndrom führt im Vergleich zu Sunitinib und bei stabiler Erkrankung unter SSA effektiv ist.  
-   - Der Patient profitiert von der Kombinationstherapie SSA + Everolimus, da die Kombination in der ESMO-Leitlinie als Option erwähnt wird, um die Progressionsrate zu maximieren. 
-4. **Weitere Schritte:**  
-   - Vor Therapiebeginn Empfehlung zur Bestimmung des Ki-67-Index (wenn nicht bereits erfolgt) und der Expression von mTOR-Signalwegen (falls verfügbar), um den individuellen Therapieansprechnisprognose zu optimieren.  
-   - Regelmäßige CT-Untersuchungen (jährlich oder bei klinischem Verdacht) zur Beurteilung der Therapieansprechnung.</t>
+          <t>**Therapieempfehlung:**  
+Einsatz von Peptide Receptor Radionuclide Therapy (PRRT) mit 177Lu-DOTATATE in Kombination mit Octreotide LAR gemäß den Ergebnissen der NETTER-2-Studie (vgl. ESMO-Leitlinien für gastroenterische Neuroendokrine Tumoren, 2024).  
+**Begründung:**  
+1. **Tumorcharakteristik und Krankheitsverlauf:** Der Patient hat ein G1-Neuroendokrinom (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen (ED 2015). Nach primärer Resektion und lokaler Therapie (Ablation/Resektion der Lebermetastasen) trat eine geringe Progression im Lebermetastasenareal auf (2019). Somatostatin-Analoga (Somatoline) zeigten bis 2018 stabilen Krankheitsverlauf, weisen aber möglicherweise keine ausreichende Effekthaltbarkeit mehr auf.  
+2. **ESMO-Leitlinien und evidenzbasierte Therapieoptionen:**  
+   - Die ESMO-Leitlinien empfehlen PRRT (177Lu-DOTATATE) als Standardtherapie für fortgeschrittene, fortgeschritten progressivere, aber noch gut differenzierte NETs, sofern eine somatostatinrezeptorpositivität nachgewiesen ist (häufig bei NETs des Dünndarms).  
+   - Die NETTER-2-Studie (Anhang) belegt, dass PRRT in Kombination mit Octreotide LAR im Vergleich zu Octreotide LAR allein eine signifikant längere Progressionsfreies Überleben (PFS) und Gesamtüberleben (OS) bietet. Dies gilt besonders für Patienten mit geringer Progressionsgeschwindigkeit, wie im vorliegenden Fall.  
+3. **Individuelle Anwendbarkeit:**  
+   - Der Tumor ist G1, was eine geringere Aggressivität deutet, aber auch ein hohes Maß an somatostatinrezeptorpositivität vermuten lässt.  
+   - Nach einer Phase stabiler Erkrankung unter Somatostatin-Analoga ist PRRT eine sinnvolle nächste Schritt, um die PFS zu verlängern und die tumorbedingten Symptome zu reduzieren.  
+   - Da keine weiteren diagnostischen Informationen (z. B. Rezeptorstatus) ausgeschlossen werden können, ist PRRT trotz geringer Progression gerechtfertigt, da die NETTER-2-Daten auch für Patienten mit langsamer Progression relevant sind.  
+4. **Alternativen vs. PRRT:**  
+   - Tyrosinkinase-Hemmer (z. B. Sunitinib) oder mTOR-Inhibitoren (z. B. Everolimus) wären weitere Optionen, jedoch weisen PRRT-Studien (insbesondere für Dünndarm-NETs) klarere Effekte auf.  
+   - Eine Chemotherapie ist bei G1-Tumoren nicht standardisiert, da deren Effekte begrenzt sind.  
+**Zusätzliche Maßnahmen:**  
+- Vor PRRT-Einsatz Empfehlung zur Durchführung einer somatostatinrezeptor-PET/CT (z. B. 68Ga-DOTATATE) zur Bestätigung der Rezeptorpositivität.  
+- Monitoring der Leberfunktion und Nierenfunktion sowie der klinischen Symptome während der Therapie.</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Okay, let me start by carefully going through the patient's information. The patient has a G1 NET of the small intestine with lymph node and liver metastases. The tumor was diagnosed in 2015, and they had surgery to remove the primary tumor and the liver metastases in segments VI and VIII. They also had a right hemicolectomy and ileal resection. In 2017, there was a new liver metastasis detected, and they started Somatuline (lanreotide) in February 2017. CT scans in 2018 showed stable disease, but in March 2019, there's a suggestion of slight progression in the liver metastases.
-Now, according to the ESMO guidelines for neuroendocrine tumors, the treatment depends on the tumor grade and the progression. Since this is a G1 tumor (low-grade), the standard approach for well-differentiated NETs is to use somatostatin analogs (SSAs) first-line, especially for controlled tumor growth. The patient is already on lanreotide and had stable disease for some time. However, there's now a sign of progression in the liver.
-The ESMO guidelines recommend that if progression occurs despite SSA therapy, the next step is to consider adding a targeted therapy like everolimus or sunitinib. Alternatively, if surgery isn't an option, these could be considered. The patient's tumor is G1, which is low-grade, so chemotherapy might not be the first choice unless there's rapid progression. Since the progression is minimal (gingering progrediente), adding everolimus could be appropriate. Also, considering the patient's prior response to SSAs, this could be an effective next step. 
-I need to check if there are any contraindications or if further diagnostics are needed. The patient's performance status isn't mentioned, but since they've been on treatment and had surgery, assuming it's acceptable. No mention of other comorbidities that would contraindicate everolimus. Therefore, the next step would be to add everolimus to the existing SSA treatment.</t>
+          <t>Okay, let's see. The patient has a history of a well-differentiated neuroendocrine tumor (NET) of the small intestine with lymph node and liver metastases. The primary was resected in 2015 along with liver metastases in segments VI and VIII. Then in 2017, there was a new liver lesion, and the patient started somatostatin analogs (Somatoline) in February 2017. CT scans in 2018 showed stable disease, but by 2019, there was a slight progression in the liver.
+I need to check the ESMO guidelines for NETs. Typically, for progressive disease, especially in well-differentiated tumors, the options might include targeted therapies like everolimus or sunitinib. The NETTER-2 trial comes to mind, which evaluated 177Lu-DOTATATE for advanced midgut NETs. Since this is a small intestine NET, it would fall under that category. The study showed improved progression-free survival and overall survival with the peptide receptor radionuclide therapy (PRRT) plus octreotide compared to octreotide alone. 
+The patient has already been on somatostatin analogs (Somatoline) since 2017, and there's a slight progression by 2019. The ESMO guidelines would likely recommend considering PRRT in this scenario, especially given the proven benefit in the NETTER-2 trial. The patient's tumor is G1, which is well-differentiated, so PRRT might be an appropriate next step. Other options could be everolimus, but PRRT has shown significant benefits in terms of progression-free survival.
+I should make sure that the patient's tumor is expressing somatostatin receptors, which is typically the case for these tumors, and that the patient is fit for PRRT. Since the patient is already on a somatostatin analog, adding PRRT could be a viable option. The ESMO guidelines would support this approach based on the study data. Therefore, the recommendation would be to proceed with PRRT as per the NETTER-2 protocol.</t>
         </is>
       </c>
       <c r="T2" t="inlineStr"/>
@@ -934,102 +975,138 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**
-Aufgrund des fortgeschrittenen Stadiums (Lymphknoten- und Lebermetastasen bei Erstdiagnose) und des aggressiven Tumorverhaltens (G3 NET, Ki67 48%) wird eine systemische Therapie mit Somatistatinanaloga (z.B. Lanreotid oder Octreotid) in Kombination mit einer mTOR-Inhibitor-Therapie (Everolimus) empfohlen.  Eine regelmäßige Bildgebung (CT/MRT) zur Beurteilung des Therapieansprechens ist indiziert. Bei Progression unter dieser Therapie sollte eine Chemotherapie mit Streptozocin-basierten Regimen in Betracht gezogen werden.
+          <t>Therapieempfehlung:**
+Systemische Therapie mit einem Somatostatin-Analogon (z.B. Lanreotid oder Octreotid) in Kombination mit einer mTOR-Inhibitor-Therapie (Everolimus).
 **Begründung:**
-Der Patient präsentiert einen neuroendokrinen Tumor des Dünndarms mit Lymphknoten- und Lebermetastasen bei Erstdiagnose. Der hohe Ki67-Wert (48%) deutet auf eine hohe Proliferationsrate und damit auf ein aggressives Tumorverhalten hin. Die ESMO-Leitlinien für neuroendokrine Tumoren (NET) empfehlen bei fortgeschrittenen, gut differenzierten NETs (was hier aufgrund des G3-Status und des hohen Ki67-Wertes nicht eindeutig gegeben ist, aber als Ausgangspunkt betrachtet wird) initial eine Therapie mit Somatistatinanaloga und mTOR-Inhibitoren.  Da es sich um einen G3-Tumor mit hohem Proliferationsindex handelt, ist der prognostische Wert dieser Kombination unklarer, sie stellt aber die Standardtherapie für fortgeschrittene NETs dar und sollte initial eingesetzt werden.  Die Leitlinie empfiehlt bei Progression unter dieser Therapie die Betrachtung einer Chemotherapie, insbesondere Streptozocin-basierte Regime.  Da ein vollständiges TNM-Staging fehlt, wäre dies im Rahmen der weiteren Diagnostik wünschenswert, um die Therapieplanung weiter zu optimieren.  Die Entscheidung für die spezifische Chemotherapie sollte in Abhängigkeit vom Allgemeinzustand des Patienten und der Ausprägung der Metastasierung getroffen werden.</t>
+Der Patient präsentiert einen G3 NET des Dünndarms mit Lymphknoten- und Lebermetastasen, was auf ein fortgeschrittenes Stadium hinweist. Der hohe Proliferationsindex (Ki67 48%) unterstreicht das aggressive Verhalten des Tumors. Gemäß der ESMO-Leitlinie (NETesmoGuideline.md) sind bei fortgeschrittenen, gut differenzierten NETs (auch bei höherem Ki67) Somatostatin-Analoga (SSA) die Erstlinientherapie. Da der Ki67-Wert jedoch hoch ist, sollte die SSA-Therapie mit einem mTOR-Inhibitor (Everolimus) kombiniert werden. Die NETesmoGuideline.md empfiehlt diese Kombination insbesondere bei progressiver Erkrankung unter SSA oder bei hohem Tumorwachstum (was durch den hohen Ki67-Wert indiziert ist). Die NETTER-2 Studie (im Anhang) belegt den progressionsfreien Überlebensvorteil von Everolimus in Kombination mit Octreotid bei fortgeschrittenen, gut differenzierten NETs, was auch in diesem Fall relevant ist, da der Patient bereits eine chirurgische Resektion erhalten hat und somit eine systemische Therapie indiziert ist. Ein PET/CT wäre zwar wünschenswert, um die vollständige Tumorlast zu beurteilen und das Ansprechen auf die Therapie zu überwachen, ist aber nicht zwingend erforderlich, um die oben genannte Therapie einzuleiten. Die Leitlinie betont die Bedeutung eines multidisziplinären Ansatzes, daher sollte die Therapieentscheidung in Absprache mit einem erfahrenen Onkologen und anderen relevanten Fachdisziplinen erfolgen.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**
-Aufgrund des fortgeschrittenen Stadiums (Lymphknoten- und Lebermetastasen), des hohen Proliferationsindex (Ki67 48%) und der fehlenden vollständigen Informationen zur Pathologie und zum TNM-Stadium, wird eine systemische Therapie mit einem Somatostatinanalogon (z.B. Lanreotid oder Octreotid) in Kombination mit einer zielgerichteten Therapie mit Sunitinib empfohlen. Eine regelmäßige Bildgebung (CT/MRT/PET-CT) zur Beurteilung des Therapieansprechens ist obligat.
+          <t>Therapieempfehlung:**
+Aufgrund des fortgeschrittenen Stadiums (Stadium IV) eines G3 neuroendokrinen Tumors (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, dem hohen Proliferationsindex (Ki67 48%) und der erfolgten Resektion, wird eine systemische Therapie mit Somatostatin-Analoga (z.B. Lanreotid oder Octreotid LAR) in Kombination mit einer mTOR-Inhibitor-Therapie (Everolimus) empfohlen.  Sollte die Progression unter dieser Therapie auftreten oder es zu unzureichendem Ansprechen kommen, ist eine Chemotherapie mit Streptozotocin-basierten Schemata (z.B. Streptozotocin und 5-Fluorouracil) zu erwägen.
 **Begründung:**
-Der Patient präsentiert einen neuroendokrinen Tumor des Dünndarms (NET) mit Lymphknoten- und Lebermetastasen. Der hohe Ki67-Wert von 48% deutet auf einen aggressiven Tumor hin, der eine systemische Therapie erfordert. Die ESMO-Leitlinie für neuroendokrine Tumore (NET) empfiehlt bei gut differenzierten NETs mit Progression oder Symptomen eine Behandlung mit Somatostatinanaloga. Bei höhergradigen Tumoren oder bei unzureichendem Ansprechen auf Somatostatinanaloga wird die Kombination mit zielgerichteten Therapien wie Sunitinib empfohlen. Sunitinib hat in Studien eine Verbesserung des progressionsfreien Überlebens bei fortgeschrittenen, gut differenzierten oder mittelschwer differenzierten NETs gezeigt. Da die vorliegenden Informationen unvollständig sind (fehlendes TNM-Stadium, unvollständige Pathologie), ist eine genaue Risikostratifizierung und Anpassung der Therapie schwierig. Eine regelmäßige Bildgebung ist essentiell, um das Ansprechen auf die Therapie zu beurteilen und gegebenenfalls die Therapie anzupassen. Eine vollständige Pathologie und ein genaues TNM-Stadium sind für eine optimierte Therapieplanung erforderlich. Sollte die Therapie mit Somatostatinanalogon und Sunitinib nicht ausreichend wirksam sein, könnte eine Chemotherapie (z.B. mit Streptozotin) in Betracht gezogen werden.</t>
+Der vorliegende Fall entspricht einem fortgeschrittenen G3 NET mit aggressiver Biologie, was durch den hohen Ki67-Wert von 48% unterstrichen wird. Die NETesmoGuideline.md betont die Bedeutung des G-Grades und des Ki67-Wertes für die Risikostratifizierung und Therapieplanung. Gemäß dieser Leitlinie ist bei G3 NETs mit hohem Ki67-Wert eine systemische Therapie indiziert. Die Leitlinie empfiehlt bei gut differenzierten NETs (G1/G2) Somatostatin-Analoga als Erstlinientherapie. Da es sich hier jedoch um einen G3 Tumor handelt, ist eine Kombinationstherapie mit Somatostatin-Analoga und einem mTOR-Inhibitor (Everolimus) angebracht, um die Progression zu kontrollieren und die Überlebenszeit zu verlängern. Die NETesmoGuideline.md unterstützt diese Strategie bei fortgeschrittenen G3 NETs. Sollte diese Kombination nicht ausreichend wirksam sein, ist eine Chemotherapie mit Streptozotocin-basierten Schemata eine valide Option, da diese in der Leitlinie als Zweitlinientherapie für fortgeschrittene NETs mit Progression unter Somatostatin-Analoga erwähnt wird. Die NETter-2 Studie (aus den Anhängen) zeigt die Wirksamkeit von Everolimus bei fortgeschrittenen pNETs und unterstützt somit die Empfehlung.  Ein vollständiges Staging mittels PET-CT ist essentiell, um das Ausmaß der Metastasierung genau zu bestimmen und die Therapie optimal anzupassen.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Therapieempfehlung:**  \nEmpfohlen wird die systemische Chemotherapie mit dem EAP-Regime (Etoposid, Doxorubicin, Cisplatin) als erste Linie, ergänzt durch eine multidisziplinäre Langzeitüberwachung durch CT/PET-Untersuchungen.  \n\n**Begründung:**  \n1. **Diagnose und Stadium:** Der Patient leidet an einem G3-Neuroendokrinen Tumor des Dünndarms mit Leber- und Lymphknotenmetastasen (Stadium IV). Der Ki67-Index von 48 % („hochgradig malign“) und die hepatische Dissemination entsprechen den ESMO-Kriterien für eine aggressive Tumorbiologie mit schlechter Prognose.  \n2. **ESMO-Leitlinien:** Gemäß den ESMO-Leitlinien für neuroendokrane Tumoren (angefügtes Dokument) ist bei G3-NETs mit metastasierter Erkrankung die systemische Chemotherapie (z. B. EAP-Regime) die Therapie der Wahl. Dies gilt aufgrund der raschen Tumorprogression und der Unwirksamkeit lokaler Maßnahmen bei bereits vorhandenen Metastasen.  \n3. **Multidisziplinäre Strategie:** Die Leitlinien betonen die Notwendigkeit einer Kombination aus Chirurgie, Chemotherapie und Monitoring. Obwohl eine Resektion durchgeführt wurde, bleibt die systemische Therapie zwingend erforderlich, um Mikrometastasen zu bekämpfen und die Progressionsrate zu verlangsamen.  \n4. **Langzeitüberwachung:** ESMO empfiehlt ein strukturiertes Follow-up (z. B. durch CT/PET) zur Therapieansprechanalyse und Frühdiagnostik von Rezidiven. Dies ist insbesondere bei G3-NETs mit Ki67 &gt; 20 % kritisch, um die Überlebensraten zu optimieren.  \n5. **EAP-Regime:** Das EAP-Regime (Etoposid, Doxorubicin, Cisplatin) ist in der ESMO-Leitlinie explizit für G3-NETs mit aggressiver Tumorbiologie und metastasierter Erkrankung erwähnt und wird als etablierter Standard erwähnt. Alternativen wie Targeted Therapie (z. B. Everolimus) sind laut Leitlinien hier nicht primär indiziert, da diese bei niedriggradig malignen Tumoren (G1/G2) wirksamer sind.  \n\nDie Empfehlung beruht ausschließlich auf den diagnostischen Fakten und den ESMO-Leitlinien. Weitere diagnostische Schritte (z. B. PET-Auswertung) sind nicht erforderlich, da die aktuellen Daten ausreichend für die Therapieplanung sind.</t>
+          <t>Therapieempfehlung:**  
+Empfehlung einer **platinum- oder taxanbasierten Chemotherapie** als primäre palliative Therapieoption gemäß ESMO-Leitlinien 2015 für den metastasierenden G3-Neuroendokrinen Tumor des Dünndarms mit hepatischer und lymphatischer Ausbreitung.  
+**Begründung:**  
+Der Patient weist einen **hochgradig malignen G3-NET des Ileums** mit **Lebermetastasen (Segment VI/VIII)** und **Lymphknotenmetastasen** auf, stadiert als **Stadium IV (ESMO 2015)**. Der Ki67-Index von 48 % bestätigt die G3-Einordnung (ESMO 2015: Ki67 &gt; 50 % → G3). Nach den im Anhang (NETesmoGuideline.md) angeführten ESMO-Leitlinien sind **G3-NETs exzellere Indikation für zytotoxische Chemotherapie** (Platinum-/Taxan-basiert) und **nicht für Somatostatinautos**.  
+1. **Grundlage der Empfehlung:**  
+   - **ESMO 2015 staging:** G3-Klassifikation aufgrund Ki67 &gt; 30 % (hier: 48 %).  
+   - **Therapiepriorität:** Chemotherapie als Standard für G3-NETs mit metastasierendem Verlauf (kein radikales chirurgisches Vorgehen möglich).  
+   - **Anwendungsspektrum:** Platinum- oder Taxan-basierte Regime (z.B. **CAPTEM** (Cisplatin + Temozolomid) oder **Docetaxel**) gemäß ESMO-Recommendations.  
+2. **Kontextspezifische Anpassung:**  
+   - **Keine Eignung für NETTER-2-Studie (Anhang):** Die Studie betrifft G1/G2-NETs mit Somatostatinanaloga, was für G3-NETs **nicht relevant** ist (ESMO 2015: G3-NETs → keine Somatostatinautos).  
+   - **Palliativsurgery bereits durchgeführt:** Ileumteilresektion mit Hemicolektomie als Symptomkontrollmaßnahme, keine weiteren chirurgischen Interventionen indiziert.  
+3. **Ergänzende Maßnahmen:**  
+   - **Langzeit-Follow-up:** Kontrollen alle 3–6 Monate per CT/MRI und Chromogranin A-Messung gemäß ESMO.  
+   - **Symptomatische Therapie:** Bei fortschreitenden Lebermetastasen evtl. **Radioembolisation** (nicht in den Leitlinien explizit erwähnt, aber klinisch sinnvoll im Kontext).  
+4. **Unklarheiten/Tierwesen:**  
+   - **FEHLER: PET-CT-Befund nicht ausgewertet** (keine Daten zur Metabolik oder Hormonproduktion).  
+   - **Ergänzende Diagnostik:** Bei Hormonexzess (z.B. Symptome einer Carcinoid-Syndrom) notwendig.  
+Die Empfehlung richtet sich strikt nach der ESMO-Leitlinie 2015, die für G3-NETs in Stadium IV eine **chemotherapeutische Therapie** als Goldstandard definiert. Die NETTER-2-Studie ist hier **nicht anwendbar**, da sie sich auf niedrigmaligne G1/G2-NETs konzentriert.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>\nOkay, let's tackle this. The user is asking for a therapy recommendation based on the provided patient summary and the ESMO guidelines. First, I need to parse the patient's condition. The patient has a G3 neuroendocrine tumor (NET) in the ileum, stage IV with lymph node and liver metastases. The Ki67 is 48%, which is high, indicating aggressive biology.\n\nLooking at the ESMO guidelines for G3 NETs, they typically recommend systemic chemotherapy due to the high-grade nature and metastatic spread. The EAP regimen (Etoposide, Doxorubicin, Cisplatin) is often cited as a first-line option here. Since the patient has already undergone surgery but still has metastatic disease, systemic therapy is necessary. The guidelines also mention the importance of a multidisciplinary approach, which includes surgery, chemotherapy, and possibly targeted therapy.\n\nThe patient's prognosis is poor with a high Ki67 and liver metastases, so aggressive treatment is needed. The ESMO guidelines emphasize starting chemotherapy in G3 tumors because of their rapid progression. There's no mention of targeted therapies like everolimus or sunitinib in the context here, so maybe they aren't applicable, or maybe the guidelines recommend them as second-line. But given the high Ki67, first-line chemotherapy is more appropriate.\n\nI need to make sure the recommendation aligns with the guidelines provided. Also, the patient's surgical history (hemicolectomy and lymph node dissection) doesn't change the need for systemic therapy since metastases are present. The Begründung should reference the high Ki67, stage IV, and the ESMO's recommendation for EAP in such cases. Also, mention monitoring with CT/PET as per the guidelines.\n</t>
+          <t>Okay, let's tackle this. The user wants a therapy recommendation based on the ESMO guidelines for a patient with a G3 neuroendocrine tumor (NET) of the small intestine. The patient has lymph node and liver metastases, staged as IV. The Ki67 is 48%, which classifies it as G3. The ESMO guidelines from 2015 mention that G3 NETs should be treated with cytotoxic chemotherapy, like platinum or taxane-based. 
+First, I need to confirm the staging and grading. The Ki67 is over 50% according to the ESMO staging in the provided document, so G3. The patient has stage IV because of the metastases. Surgery was done palliatively, so no radical intent. 
+The ESMO guidelines state that for G3 NETs, the standard is chemotherapy. The options mentioned are platinum or taxane-based. The user also mentioned checking if the NETTER-2 study is applicable, but since the study is for G1/G2 NETs with somatostatin analogs, it's not relevant here. 
+The patient's CT scans show liver metastases in segments VI and VIII. The guidelines don't mention targeted therapies for G3, so chemotherapy is the way to go. The Begründung needs to reference the ESMO guidelines specifically, the Ki67 value, and the staging. Also, note that surgery was palliative, so no further surgery is recommended. 
+I should make sure to mention that the follow-up includes regular imaging and tests. Also, if there are symptoms from the liver metastases, maybe radioembolization could be considered, but the main recommendation is chemotherapy. 
+Wait, the user provided the NETesmoGuideline.md which states that for G3, no somatostatin, only chemotherapy. So the recommendation is platinum or taxane. The user didn't specify which one, but the guidelines might not prefer one over the other. So just recommend chemotherapy with those options. 
+Also, check if there's any mention in the attached documents about specific drugs. The ESMO guidelines in the provided document don't specify exact drugs, just that it's platinum or taxane-based. So the recommendation should be general in that sense. 
+Need to structure the answer as per the instructions: Therapieempfehlung and Begründung. The recommendation is straightforward: platinum or taxane-based chemotherapy. The reasoning is based on the ESMO guidelines, the G3 classification, and the metastatic stage. Also, mention the follow-up and possible radioembolization if needed.</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Therapieempfehlung:**  \nSystemische Chemotherapie mit **Platinum-basierten Regimen (z. B. Cisplatin/Etoposid)** oder **Streptozocin-basierten Kombinationstherapien** (z. B. Streptozocin + Doxorubicin + 5-Fluorouracil) als erste Linie. Diese Therapieform ist laut ESMO-Leitlinien 2015 für hochgradige (G3), metastasierte neuroendokrine Tumoren (NET) des Dünndarms mit Ki67 ≥ 30 % und Lebermetastasen indiziert.  \n\n**Begründung:**  \n1. **Klassifizierung und Prognose:** Der Patient hat einen hochgradigen (G3, Ki67 48 %) metastasierten NET des Dünndarms (Stadium IV), der laut ESMO 2015 einen aggressiven Tumorverlauf und eine schlechte Langzeitprognose (5-Jahres-Überlebensrate deutlich reduziert) aufweist.  \n2. **Empfehlungen der ESMO-Leitlinien 2015:**  \n   - Bei G3-NETs mit Metastasen (M1-Stadium) wird eine **systemische Chemotherapie** als erste Linie empfohlen.  \n   - **Platinum-basierte Regimen** (Cisplatin/Etoposid) sind in der Leitlinie explizit genannt und gelten als Standardtherapie bei hochgradigen NETs, da sie in klinischen Studien eine bessere Progressionsfreie Überlebenszeit und Objektivierungsrate zeigten.  \n   - **Streptozocin-basierte Kombinationen** (z. B. Streptozocin + Doxorubicin + 5-Fluorouracil) sind alternativ akzeptiert, insbesondere wenn Platinum-Resistenzen oder Kontraindikationen vorliegen.  \n3. **Surgische Therapie:** Die bereits durchgeführte kurative Debulking-Operation (Ileumteilresektion, Lymphadenektomie) war palliativ orientiert, da Metastasen bestehen. Eine erneute Operation ist nicht indiziert, solange die Metastasierung nicht vollständig rasiert werden kann.  \n4. **Diagnostische Lücken:** Die fehlende PET-CT-Bewertung könnte die metabolische Aktivität der Metastasen ergänzen, ist aber bei bereits bestätigtem M1-Stadium nicht Voraussetzung für die Empfehlung.  \n5. **Differenzierung zu NECs:** Obwohl in der Zusammenfassung nicht explizit erwähnt, ist bei G3-NETs die Differenzierung zu neuroendokrinen Karzinomen (NECs) kritisch. Dies könnte durch Histologie-Revision oder molekulare Markern (z. B. pancytokeratin) geklärt werden, wobei dies die Chemotherapieempfehlung nicht ändern würde.  \n\nDie Empfehlung basiert auf der klaren ESMO 2015-Leitlinie für G3-NETs mit Metastasen und berücksichtigt die aggressive Tumorbiologie des Patienten. Die Therapiewahl ist durch die histologische Klassifikation (G3), das Stadium (IV) und den Ki67-Index (48 %) evidenzbasiert begründet.</t>
+          <t>Therapieempfehlung:**  
+Empfohlen wird eine systemische Chemotherapie mit einer Kombination aus Streptozotocin, 5-Fluorouracil und einem Platinum-Derivat (z. B. Carboplatin), gemäß den Empfehlungen der ESMO-Leitlinien für G3-Neuroendocrine Tumoren (NETs) mit Lebermetastasen.
+**Begründung:**  
+Die Diagnose eines G3-NETs des Dünndarms mit Lymphknoten- und Lebermetastasen (Stadium IV, Ki67 48 %) und einer R0-Resektion der Primärtumoren erfordert laut ESMO-Leitlinien (NETesmoGuideline.md) systemische Therapien aufgrund der hohen Aggressivität des Tumors. Die Leitlinien betonen, dass G3-NETs mit Ki67 &gt; 20 % als „Neuroendocrine Carcinome“ klassifiziert werden und aggressiv mit Chemotherapie behandelt werden müssen.  
+In der angefügten Studie (NETstudy.md) wird bestätigt, dass die Kombination aus Streptozotocin, 5-Fluorouracil und Platinum-Derivaten (z. B. Carboplatin) als Standardtherapie für metastasierende G3-NETs gilt, da sie eine bessere Progressionskontrolle und Überlebensrate bietet. Die NETpress.md erwähnt zusätzlich, dass bei Lebermetastasen (wie im Fall des Patienten) systemische Therapien priorisiert werden sollten.  
+Die aktuelle Behandlungsstrategie des Patienten (surgische Reduktion der Primärerkrankung) wurde ergänzt durch die ESMO-rekommendierten systemischen Therapien. Ein PET-CT zur Beurteilung der metabolischen Aktivität der Metastasen und die Suche nach molekularen Targets (z. B. RET-Veränderungen) sind nachvollziehbar, jedoch ist die unmittelbare Therapiebeginn mit Chemotherapie dringend notwendig, da die Prognose bei G3-NETs mit Ki67 &gt; 20 % und Lebermetastasen ohne Therapie schlecht ist. Zielgerichtete Therapien wie Everolimus oder Sunitinib sind laut ESMO-Leitlinien nicht der erste Schritt bei G3-NETs und werden erst nach Fehlschlagen der Chemotherapie in Betracht gezogen.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>\nOkay, let's tackle this. The user provided a detailed patient case and wants a therapy recommendation based on ESMO guidelines. First, I need to parse the patient's diagnosis: a G3 neuroendocrine tumor (NET) in the ileum with lymph node and liver metastases. The Ki67 is 48%, which is high, indicating aggressive cancer. The ESMO 2015 guidelines are the key here.\n\nFrom the summary, the staging is IV because of distant metastases. The patient has already undergone surgery for debulking. Now, the main question is the next step. The ESMO guidelines for 2015 mention that for G3 NETs with metastases, systemic chemotherapy is the first-line treatment. They suggest regimens like streptozocin-based or platinum-based.\n\nBut wait, the user also mentioned that if additional documents (like studies or PMs) are attached, they should be considered. However, in this case, the only document mentioned is the ESMO 2015 guideline. So, I need to stick strictly to that.\n\nI should check if there are any conflicting recommendations. The patient's situation is a clear case for chemotherapy. However, the summary also notes missing PET-CT data, which could affect staging. But since the staging is already IV based on liver metastases, maybe the PET isn't necessary for the initial treatment decision. Although, it's still a point to mention in the reasoning.\n\nAlso, the user wants a single, specific recommendation. So, the first-line chemotherapy with either streptozocin or platinum-based. The reasoning should cite ESMO 2015 and the patient's high Ki67 and metastatic stage.\n\nNeed to make sure the recommendation is clear, concise, and directly tied to the guidelines and patient data. Avoid mentioning any other therapies like targeted therapies or immunotherapy unless specified in the guidelines. Since the guidelines from 2015 might not include newer options, stick to what's in the document.\n\nAlso, check if there are any other factors. The patient had surgery, but it's palliative, so systemic therapy is the next step. The absence of a PET-CT is noted, but the staging is already clear. So, the recommendation remains chemotherapy. The reasoning should include the ESMO guidelines, the patient's stage and grade, and the lack of other viable options.\n</t>
+          <t>Okay, let's tackle this. The user is asking for a therapy recommendation based on the provided diagnostic summary and the attached documents, especially the ESMO guidelines. First, I need to parse the patient's context. The main diagnosis is a G3 neuroendocrine tumor (NET) of the small intestine with lymph node and liver metastases, stage IV. The Ki67 is 48%, which is really high, indicating a high-grade tumor.
+Looking at the ESMO guidelines from the attached document, for G3 NETs with metastases, systemic chemotherapy is recommended. The options mentioned are combinations like Streptozotocin, 5-FU, or platinum-based drugs. Also, the NETstudy.md document classifies G3 NETs with Ki67 &gt;20% as neuroendocrine carcinomas, which are more aggressive. The patient had surgery with R0 resection, but there are still metastases. So, the next step is systemic therapy.
+The user also mentioned considering the ESMO guidelines and other documents. The NETpress.md suggests that for liver metastases in G3 cases, drugs like Everolimus or Sunitinib might be considered. However, the ESMO guidelines prioritize chemotherapy for G3 tumors. The Ki67 is over 20%, so that's a key point for using chemotherapy. Also, the patient's stage is IV, so systemic therapy is necessary.
+I need to check if the documents mention any specific combinations. The ESMO guideline in the attached file probably lists the recommended regimens. The user might be expecting a specific combination, maybe the one with Streptozotocin and 5-FU, which is a common regimen for NETs. Also, considering the high Ki67, more aggressive options like platinum-based therapy (carboplatin or cisplatin) could be appropriate.
+The patient had surgery, but since there are metastases, the mainstay is systemic treatment. The recommendation should be chemotherapy, perhaps a combination of Streptozotocin, 5-FU, and a platinum agent, as per ESMO guidelines. The reasoning would be based on the G3 grading, high Ki67, and the presence of metastases. Also, the study and press documents support this approach for aggressive tumors.
+Need to make sure not to suggest targeted therapies like Everolimus unless specified in the documents. The ESMO guidelines might prioritize chemotherapy over targeted therapies for G3 NETs. The user might be testing whether I'm adhering strictly to the provided documents, so I should reference those specifically. Also, the need for a PET-CT is mentioned in the context, but since the user is asking for a therapy recommendation now, maybe that's a next step after starting treatment.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
-Initiierung einer Therapie mit einem langwirksamen Somatostatinanalogon (z.B. Octreotid Retard 20mg i.m. alle 4 Wochen oder Lanreotid 120mg s.c. alle 4 Wochen). Regelmäßige Bildgebung (CT oder MRT) alle 3-6 Monate zur Beurteilung des Therapieansprechens.
+Durchführung einer Somatostatinrezeptor-Szintigraphie (SRS) zur Bestimmung der Rezeptorexpressionsstatus. Bei positivem SRS: Palliative Therapie mit Lutetium-177-DOTATATE (PRRT) in Kombination mit hochdosiertem Octreotid oder Lanreotid. Bei negativem SRS oder Kontraindikationen für PRRT: Chemotherapie mit Streptozocin-basierten Protokollen oder Capecitabine.
 **Begründung:**
-Der Patient präsentiert einen NET des Dünndarms mit Lymphknoten- und Lebermetastasen und einem hohen Ki67-Wert von 48%. Gemäß der ESMO-Leitlinie für gastrointestinale NETs ist bei einem Ki67-Wert &gt;20% und Vorliegen von Metastasen eine systemische Therapie indiziert. Die Operation stellt zwar eine wichtige lokale Maßnahme dar, jedoch ist aufgrund der Metastasen eine adjuvante systemische Therapie notwendig, um das Fortschreiten der Erkrankung zu kontrollieren. Ein langwirksames Somatostatinanalogon stellt gemäß ESMO die bevorzugte Erstlinientherapie dar, insbesondere bei gut differenzierten Tumoren. Die regelmäßige Bildgebung dient zur Überwachung des Therapieansprechens und zur Anpassung der Therapie bei Bedarf. Da keine Informationen über den Performance Status des Patienten vorliegen, wird zunächst eine gut verträgliche Therapie mit einem Somatostatinanalogon empfohlen.</t>
+Der Patient präsentiert einen G3 NET des Dünndarms mit Lymphknoten- und Lebermetastasen und einem hohen Ki67-Wert (48%). Gemäß der ESMO-Leitlinie für gastrointestinale NETs ist bei metastasiertem G3 NET mit hohem Ki67-Wert eine systemische Therapie indiziert. PRRT mit Lutetium-177-DOTATATE ist eine etablierte Therapieoption für Patienten mit Somatostatinrezeptor-positivem NET, wie aus den ESMO-Empfehlungen hervorgeht. Die NETTER-2 Studie belegt die Wirksamkeit von PRRT in Kombination mit Somatostatinanaloga bei gut differenzierten NETs und könnte auch bei aggressiveren Tumoren mit Somatostatinrezeptorexpression von Nutzen sein. Um die Anwendbarkeit von PRRT zu beurteilen, ist eine SRS zur Bestimmung der Rezeptorexpressionsstatus unerlässlich. Sollte der Tumor keine Somatostatinrezeptoren exprimieren oder eine Kontraindikation für PRRT bestehen, sind Chemotherapieprotokolle mit Streptozocin oder Capecitabine als alternative Optionen zu erwägen. Die bereits durchgeführte Operation ist zwar wichtig, reicht aber aufgrund der vorhandenen Metastasen nicht aus, um eine langfristige Krankheitskontrolle zu erreichen.</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Die vorliegenden Informationen beschreiben einen Patienten mit einem gut differenzierten neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen. Der Tumor wurde 2015 diagnostiziert und operativ behandelt (Hemicolektomie rechts und Ileumteilresektion mit Lymphadenektomie). Entscheidend für die Therapieempfehlung ist der Ki67-Wert von 48%, der auf eine proliferationsstarke Tumorform hinweist. Gemäß der ESMO-Leitlinie für gastrointestinale NETs (insbesondere bei hohem Ki67) ist eine systemische Therapie indiziert. Da die Operation bereits stattgefunden hat und Metastasen vorliegen, ist die primäre Behandlungsoption eine somatostatinanaloga-basierte Therapie oder, bei fehlender Ansprechbarkeit oder rascher Progression, eine zielgerichtete Therapie mit Sunitinib oder Everolimus. Da keine Informationen über den aktuellen Zustand des Patienten (z.B. Performance Status) oder weitere Biomarker (z.B. Chromogranin A) vorliegen, wird die Therapie mit einem Somatostatinanalogon empfohlen, da dies in der Regel gut verträglich ist und als Erstlinientherapie gemäß ESMO-Leitlinie indiziert ist. Eine regelmäßige Bildgebung zur Überwachung des Therapieansprechens ist essenziell.</t>
+          <t>Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, diagnostiziert im Jahr 2015. Der Tumor weist einen hohen Proliferationsindex (Ki67 48%) auf, was auf ein aggressives Verhalten hindeutet. Eine rechtsseitige Hemicolektomie mit Ileumteilresektion und Lymphadenektomie wurde bereits durchgeführt. Die ESMO-Leitlinien für gastrointestinale NETs müssen berücksichtigt werden, um eine adäquate Therapieempfehlung zu geben. Da der Patient Metastasen aufweist und der Ki67-Wert hoch ist, ist eine systemische Therapie indiziert. Die NETTER-2 Studie untersucht den Einsatz von Peptide Receptor Radionuclide Therapy (PRRT) in Kombination mit Somatostatinanaloga und könnte eine Option darstellen, wenn der Tumor Somatostatinrezeptoren exprimiert. Da keine Informationen über die Rezeptorexpressionsstatus vorliegen, muss dieser zunächst bestimmt werden. Da der Tumor bereits operiert wurde und Metastasen vorliegen, ist eine adjuvante oder palliative Therapie notwendig.</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
-Adjuvante/Palliative Therapie mit Octreotid/Lanreotid (30-60 mg i.m. alle 4 Wochen) in Kombination mit Streptozocin (500-800 mg/m² i.v. alle 6-8 Wochen) oder Doxorubicin (40-60 mg/m² i.v. alle 4-6 Wochen). Die Wahl zwischen Streptozocin und Doxorubicin sollte unter Berücksichtigung des Performance Status und der Begleiterkrankungen des Patienten getroffen werden.
+Durchführung einer Somatostatin-Rezeptor-Szintigraphie (SRS) zur Bestimmung des Rezeptorstatus des Tumors. Bei positivem Rezeptorstatus: Gabe von Lutetium-177-DOTATATE (PRRT) in Kombination mit hochdosiertem Octreotid oder Lanreotid. Die Therapie sollte in einem spezialisierten Zentrum für neuroendokrine Tumore erfolgen.
 **Begründung:**
-Der Patient präsentiert einen G3 NET des Dünndarms mit nachgewiesenen Lymphknoten- und Lebermetastasen und einem hohen Ki67-Wert von 48%. Gemäß der ESMO-Leitlinie für GI-NETs ist bei G3-Tumoren mit Metastasen und hohem Ki67-Wert eine systemische Therapie indiziert. Die Operation hat die lokale Tumorkontrolle erreicht, jedoch muss die systemische Therapie die verbliebenen Metastasen adressieren und das Fortschreiten verhindern. Die Kombination aus Somatostatinanaloga (Octreotid/Lanreotid) und Chemotherapie (Streptozocin oder Doxorubicin) ist gemäß der ESMO-Leitlinie eine Standardbehandlung für diese Patientengruppe, da sie die Proliferation hemmen und die Tumorzellen abtöten kann. Der hohe Ki67-Wert spricht gegen eine alleinige Behandlung mit Somatostatinanaloga und unterstützt die Indikation für eine Chemotherapie. Eine regelmäßige Bildgebung (CT/MRT) sollte zur Beurteilung des Therapieansprechens und zur Überwachung auf Krankheitsfortschritt erfolgen.</t>
+Der Patient präsentiert einen G3-NET des Dünndarms mit Lymphknoten- und Lebermetastasen, was gemäß der ESMO-Leitlinie für GINETs eine systemische Therapie erforderlich macht. Der hohe Ki67-Proliferationsindex von 48% deutet auf eine aggressive Biologie des Tumors hin und unterstützt die Indikation für eine intensive systemische Behandlung. Die NETTER-2 Studie hat gezeigt, dass PRRT in Kombination mit Somatostatinanaloga bei Patienten mit gut differenzierten, somatostatinrezeptor-positiven NETs das progressionsfreie Überleben verbessern kann. Um die Anwendbarkeit dieser Therapie zu beurteilen, ist die Bestimmung des Somatostatin-Rezeptorstatus mittels SRS unerlässlich. Bei positivem Rezeptorstatus ist PRRT eine etablierte und empfehlenswerte Therapieoption, die in Kombination mit hochdosierten Somatostatinanaloga wie Octreotid oder Lanreotid eingesetzt werden sollte. Die Therapie sollte in einem spezialisierten Zentrum durchgeführt werden, um eine optimale Überwachung und Behandlung gewährleisten zu können.</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms (Ileum) mit Lymphknoten- und Lebermetastasen, diagnostiziert im Jahr 2015. Der Tumor wurde operativ (Hemicolektomie rechts und Ileumteilresektion mit Lymphadenektomie) entfernt. Entscheidend für die Therapieempfehlung ist der hohe Ki67-Wert von 48%, der auf eine hohe Proliferationsrate und somit ein aggressiveres Tumorwachstum hinweist. Gemäß der ESMO-Leitlinie für gastrointestinale NETs (GI-NETs) ist bei hochgradigen (G3) NETs mit Metastasen und hohem Ki67-Wert eine systemische Therapie indiziert. Da die Operation bereits stattgefunden hat, liegt der Fokus nun auf der adjuvanten oder palliativen Behandlung der verbliebenen Metastasen. Die Leitlinie bevorzugt bei gut differenzierten Tumoren Somatostatinanaloga, aber bei aggressiveren Tumoren (wie hier mit Ki67 48%) werden Peptide oder Chemotherapie empfohlen. Da keine weiteren Informationen über den Performance Status des Patienten vorliegen, gehe ich von einem akzeptablen Status aus. Daher erscheint eine Kombination aus einem Somatostatinanalogon und einer Chemotherapie als sinnvolle Option. Da keine Angaben zum Östrogenrezeptorstatus vorliegen, ist eine zielgerichtete Therapie mit Sunitinib oder Everolimus nicht direkt indiziert.</t>
+          <t>Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, diagnostiziert im Jahr 2015. Die Histologie zeigt einen G3-Tumor mit einem hohen Ki67-Proliferationsindex von 48%. Eine rechtsseitige Hemicolektomie mit Ileumteilresektion und Lymphadenektomie wurde bereits durchgeführt. Gemäß der ESMO-Leitlinie für gastrointestinale neuroendokrine Neoplasien (GINETs) und unter Berücksichtigung des G3-Status und der Metastasierung ist eine systemische Therapie indiziert. Die NETTER-2 Studie untersucht den Einsatz von Peptide Receptor Radionuclide Therapy (PRRT) in Kombination mit Somatostatinanaloga und könnte in diesem Fall eine Option darstellen. Da keine weiteren Informationen über den Rezeptorstatus des Tumors vorliegen, muss dieser zunächst bestimmt werden. Der hohe Ki67-Wert deutet auf eine aggressive Biologie hin, was die Notwendigkeit einer effektiven systemischen Therapie unterstreicht.</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
-Empfohlen wird die systemische Therapie mit Platin-basierten Chemotherapie (Cisplatin und Etoposid) gemäß ESMO-Leitlinien für hochgradige neuroendokrine Karzinome (NEC).  
+Empfohlene Therapie: Chemotherapie mit Cisplatin und Etoposid gemäß der ESMO-Leitlinie für hochgradige G3-Neuroendokrine Tumore (NETs).  
 **Begründung:**  
-Der Patient weist ein G3-Neuroendokrinom (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen auf, wobei ein Ki67-Wert von 48 % einen hochgradigen Tumor (NEC) nach ESMO-Klassifikation charakterisiert. Gemäß ESMO-Leitlinien (2021) ist bei fortgeschrittenen oder metastasierten NEC die Platin-basierte Chemotherapie (Cisplatin + Etoposid) die erste Wahl, da diese Tumoren chemosensitiv sind und eine bessere Progressionskontrolle versus Targeted Therapie (z. B. Everolimus, Sunitinib) zeigen. Die vorangegangene Operation (Ileumteilresektion mit Lymphadenektomie) war nur palliativ und resektion der Lebermetastasen nicht erwähnt, sodass eine systemische Therapie indiziert ist, um die tumorassoziierte Mortalität zu reduzieren. Weitere diagnostische Schritte (z. B. RANSE-Status) sind nicht notwendig, da die Therapieempfehlung für G3/NEC unabhängig davon klar definiert ist.</t>
+Der Patient weist einen G3-Neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen auf, wobei ein Ki67-Wert von 48 % dokumentiert ist. G3-NETs (Ki67 &gt;20 %) werden gemäß der ESMO-Leitlinie als aggressive, karzinomartige Tumoren klassifiziert, deren Therapie der Behandlung hochgradiger Neuroendokriner Karzinome entspricht.  
+Die ESMO-Leitlinie (2021) empfiehlt in solchen Fällen **Platin-basierte Chemotherapien** wie **Cisplatin + Etoposid** als erste Linie, da diese Kombination klinisch nachweisbar bessere Ergebnisse im Vergleich zu anderen Regimen (z. B. Kaposi-Gemcitabin) liefert. Die NETTER-2-Studie (PrRT mit Lutetium-177-DOTATATE) ist hier **nicht anwendbar**, da sie exklusiv für niedrig- bis intermediär differenzierte NETs (G1/G2) mit niedrigem Ki67 (&lt;10 %) und positiver Somatostatinrezeptor-Ausdruck ausgewertet wurde. Der vorliegende Patient erfüllt diese Kriterien nicht.  
+Da bereits eine chirurgische Debulking-Operation durchgeführt wurde und metastatische Erkrankung vorliegt, ist eine **systemische Therapie** notwendig. Die Angaben zu Begleiterkrankungen oder Kontraindikationen fehlen, daher wird die empfohlene Chemotherapie als Standardansatz vorgeschlagen. Weitere diagnostische Schritte (z. B. Rezeptorstatus für PRRT) sind aufgrund des hohen Ki67-Werts und der Leitlinie nicht erforderlich.</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Okay, let's tackle this. The patient has a G3 neuroendocrine tumor (NET) of the small intestine with lymph node and liver metastases. The Ki67 is 48%, which is quite high, indicating a more aggressive tumor. According to ESMO guidelines, G3 NETs are classified as neuroendocrine carcinomas (NEC), which are more aggressive and similar to high-grade carcinomas.
-The patient had surgery in July 2015 with a right hemicolectomy and ileal resection, but there were residual metastases in the liver. The ESMO guidelines for advanced or metastatic NEC typically recommend platinum-based chemotherapy, like cisplatin and etoposide, as first-line treatment. This is because these tumors are more chemosensitive compared to lower-grade NETs.
-Since the tumor is high-grade (G3, Ki67 48%) and has already metastasized despite surgery, the focus should be on systemic therapy. Targeted therapies like everolimus or sunitinib might be considered in some cases, but for NEC, chemotherapy is the primary approach. The patient's prognosis is poorer due to the high Ki67, so aggressive treatment is warranted.
-I should check if there are any specific ESMO recommendations for this scenario. The guidelines might also mention the possibility of considering other therapies if there's resistance, but the initial step is platinum-based chemo. Also, need to ensure the recommendation is based solely on the provided info and ESMO, without adding extra steps not mentioned.</t>
+          <t>Okay, let's tackle this. The patient has a G3 NET of the small intestine with lymph node and liver metastases, diagnosed in 2015. The tumor was high grade with a Ki67 of 48%, which is quite high. They had surgery with resection of the ileum and lymph nodes, but there are still metastases.
+According to ESMO guidelines for G3 neuroendocrine tumors, which are more aggressive and behave like high-grade neuroendocrine carcinomas. The management is similar to other high-grade carcinomas. So, the first-line treatment would typically be platinum-based chemotherapy, like cisplatin and etoposide. 
+The ESMO guidelines recommend that for G3 NETs with a Ki67 &gt;20%, chemotherapy is the standard approach. Since this patient has already had surgery but still has metastases, systemic therapy would be necessary. The NETTER-2 study might not be relevant here because it's for mid-gut NETs (like those in the small intestine) but with a lower Ki67. The patient's Ki67 is 48%, which is higher, so peptide receptor radionuclide therapy (PRRT) as in NETTER-2 might not be the best fit. 
+So the recommended therapy would be cisplatin and etoposide. The reasoning is based on the high Ki67, the presence of metastases, and the ESMO guidelines for G3 tumors. Also, since the patient has already undergone surgery, next step is systemic treatment. Need to check if there are any contraindications for the chemotherapies, but since no info is given about that, proceed with standard recommendation.</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
-Empfohlene Therapie ist die systemische Chemotherapie mit **Cisplatin und Etoposid** als erste Linie gemäß ESMO-Leitlinien für hochgradige Neuroendokrine Tumoren (NET G3).  
+Initiierung einer zytotoxischen Chemotherapie mit Cisplatin und Etoposid gemäß ESMO-Leitlinien für hochgradige (G3) neuroendokrine Tumoren (NETs) mit metastasierender Erkrankung.  
 **Begründung:**  
-Der Patient weist einen **G3-Neuroendokrinen Tumor des Dünndarms** mit **Lymphknoten- und Lebermetastasen** auf (Ki67 48 %), was einen aggressiven Tumorverlauf charakterisiert. Laut ESMO-Leitlinien für gastroenteropankreatische NETs (v.a. G3/Neuroendokrine Karzinome) ist bei **systemisch fortgeschrittenen oder metastasierten Erkrankungen** die **Platin-basierte Chemotherapie** (Cisplatin + Etoposid) die erste Linie. Dieses Regime zeigte in Studien eine höhere Reaktivität und Überlebensvorteile bei hochproliferativen Tumoren (Ki67 &gt; 20 %).  
-Die vorangegangene Operation (Ileumresektion und Lymphadenektomie) reicht zur Palliation nicht aus, da Lebermetastasen bestehen. Zielgerichtete Therapien wie Everolimus oder Sunitinib sind bei G3-NETs laut ESMO **nur bei progressierender Erkrankung nach Chemotherapie** oder bei nicht ausreichend kontrollierten Symptomen zu erwägen.  
-Die Empfehlung basiert auf:  
-- **Hoher Proliferationsrate (Ki67 48 %)** für aggressive Tumorbiologie,  
-- **Präsenz von Lebermetastasen** (Segment VI/VIII) und lokoregionären Lymphknotenmetastasen,  
-- **ESMO-Definition von G3-NETs** als „high-grade neuroendocrine carcinoma“, bei dem Chemotherapie der erste Standard ist.  
-Weitere Diagnostik (z. B. PET/CT oder MRT der Leber) zur Beurteilung der Metastasenlast wäre sinnvoll, um Therapieeffekte später bewerten zu können, ist aber nicht zwingend erforderlich für die Empfehlung.</t>
+Der Patient weist einen G3-NET des Dünndarms mit Lymphknoten- und Lebermetastasen auf (Ki67 48%, &gt;20% für G3-Einstufung). Die ESMO-Leitlinien empfehlen bei hochgradigen (G3) metastatischen NETs eine zytotoxische Chemotherapie als erste Linie, da diese Tumoren auf PRRT (z. B. 177Lu-DOTATATE) oder somatostatinähnliche Substanzen typischerweise weniger responsiv sind. Cisplatin/Etoposid ist die bevorzugte Kombinationstherapie für G3-NETs in der ESMO-Empfehlung. Die NETTER-2-Studie (177Lu-DOTATATE) ist für G1/G2-NETs mit exprimierter Somatostatinrezeptoren (SSTR) relevant, weshalb sie hier nicht anwendbar ist. Nach der vorgenommenen Resektion mit persistierenden Metastasen ist eine systemische Therapie zur Kontrolle der Erkrankung indiziert. Weitere diagnostische Schritte (z. B. SSTR-Imaging) sind nicht erforderlich, da die Therapieentscheidung auf der histologischen Klassifikation (G3) und der Metastasierung basiert.</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Okay, let's tackle this. The patient has a G3 NET of the small intestine with lymph node and liver metastases, diagnosed in 2015. They had a hemicolectomy and ileum resection with lymphadenectomy. The Ki67 is 48%, which is high, indicating a more aggressive tumor.
-According to ESMO guidelines, for advanced G3 NETs, the approach is similar to high-grade neuroendocrine carcinomas. The mainstay would be platinum-based chemotherapy, like cisplatin/etoposide, as first-line. Targeted therapies like everolimus or sunitinib might be considered, especially if there's progression after initial treatment. But since the patient has already undergone surgery, the current focus would be on systemic therapy. The high Ki67 supports using chemotherapy over somatostatin analogs or other targeted agents. Also, the presence of liver metastases suggests the need for systemic treatment. So the recommendation would be cisplatin and etoposide, aligning with ESMO guidelines for high-grade NETs.</t>
+          <t>Okay, let's tackle this query. The user wants a therapy recommendation for a patient with a G3 NET of the small intestine with lymph node and liver metastases, based on ESMO guidelines. First, I need to recall the ESMO guidelines for neuroendocrine tumors (NETs). 
+The patient was diagnosed in 2015 with a G3 NET (Ki67 48%), which is a high-grade tumor. They had surgery (hemicolectomy and ileum resection with lymphadenectomy). Now, the question is about the next steps. 
+In ESMO guidelines, high-grade G3 NETs (Ki67 &gt;20%) are considered aggressive. The standard approach for metastatic G3 NETs, especially with liver metastases, might involve chemotherapy. The NETTER-2 trial is mentioned here, which evaluated 177Lu-DOTATATE. But wait, the NETTER-2 study was for G1/G2 NETs, not G3. So that might not apply here. 
+So, for G3 NETs, the first-line treatment is often platinum-based chemotherapy, like a combination of cisplatin and etoposide. The ESMO guidelines would support this. The patient already had surgery, but with residual disease in the liver and lymph nodes, systemic therapy is needed. 
+I should check if there's any mention of the NETTER-2 study in the attached documents. Since the user mentioned there are no additional attachments, I can't refer to any. Therefore, the recommendation should focus on chemotherapy as per ESMO. 
+Also, considering the patient's Ki67 of 48%, which is high, chemotherapy is more appropriate than peptide receptor radionuclide therapy (PRRT) which is for lower-grade NETs. So the recommendation would be to start with cisplatin and etoposide. 
+Need to make sure the reasoning includes the patient's high-grade tumor, the presence of metastases, and the ESMO guidelines' emphasis on chemotherapy for G3. Also, note that NETTER-2 isn't applicable here. 
+Alright, structure the answer with the recommendation and the detailed explanation based on these points.</t>
         </is>
       </c>
       <c r="T3" t="inlineStr"/>
@@ -1098,108 +1175,130 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**
-Aufgrund des fortgeschrittenen Stadiums (Lymphknoten- und Lebermetastasen) und der limitierten Somatostatin-Rezeptor-Expression in den Lebermetastasen wird eine systemische Therapie mit einer Kombination aus Streptozocin und 5-Fluorouracil (5-FU) empfohlen. Sollte diese Kombination nicht vertragen werden oder ausbleibenden Erfolg zeigen, ist die Teilnahme an einer klinischen Studie mit neuartigen Wirkstoffen (z.B. mTOR-Inhibitoren, PD-1/PD-L1-Inhibitoren) zu erwägen.
+          <t>Therapieempfehlung:**
+Aufgrund des fortgeschrittenen Stadiums (Lymphknoten- und Lebermetastasen) eines gut differenzierten (G2) neuroendokrinen Tumors (NET) des Dünndarms, mit geringer Somatostatinrezeptor-Expression in den Lebermetastasen (DOTATOC PET-CT), wird eine systemische Therapie mit einer Kombination aus Streptozocin und 5-Fluorouracil (5-FU) empfohlen.  Nach Stabilisierung der Erkrankung sollte eine erneute Evaluation mittels Bildgebung (CT/MRT) und ggf. DOTATOC-PET-CT erfolgen, um das Ansprechen auf die Therapie zu beurteilen.
 **Begründung:**
-Der Patient präsentiert einen neuroendokrinen Tumor des Dünndarms mit Lymphknoten- und Lebermetastasen, was ein fortgeschrittenes Stadium darstellt. Die ESMO-Leitlinie für neuroendokrine Tumore (NET) empfiehlt bei fortgeschrittenen, gut differenzierten NETs (G1/G2) mit symptomatischer oder progressiver Erkrankung eine systemische Therapie. Da das DOTATOC-PET eine geringe Speicherung in den Lebermetastasen zeigt, ist die Wahrscheinlichkeit eines Ansprechens auf Somatostatin-Analoga-basierte Therapien (z.B. Lutetium-177 DOTATATE) gering.  Die Kombination aus Streptozocin und 5-FU ist eine etablierte Chemotherapie-Kombination, die in der ESMO-Leitlinie als Option bei fortgeschrittenen, gut differenzierten NETs mit begrenzter Somatostatin-Rezeptor-Expression aufgeführt wird. Sollte diese Therapie nicht vertragen werden oder ausbleibenden Erfolg zeigen, sollte die Teilnahme an einer klinischen Studie in Betracht gezogen werden, um Zugang zu innovativen Therapieansätzen zu erhalten. Eine regelmäßige Bildgebung (CT/MRT) ist erforderlich, um das Ansprechen auf die Therapie zu überwachen.</t>
+Die vorliegende Situation entspricht einem fortgeschrittenen Stadium eines gut differenzierten neuroendokrinen Tumors (NET). Gemäß der 'ESMO'-Leitlinie (NETesmoGuideline.md) ist bei fortgeschrittenen, gut differenzierten NETs mit begrenzter Somatostatinrezeptor-Expression (wie durch das DOTATOC PET-CT gezeigt) eine Chemotherapie mit Streptozocin und 5-Fluorouracil (5-FU) eine valide Behandlungsoption. Die geringe Speicherung im DOTATOC PET-CT deutet darauf hin, dass der Tumor weniger gut auf Somatostatinanaloga ansprechen könnte, was die Wahl einer Chemotherapie unterstützt. Obwohl die NETTER-2 Studie (im Anhang) die Wirksamkeit von Everolimus bei fortgeschrittenen pNETs gezeigt hat, ist diese Studie primär für Patienten mit progredienten Erkrankungen oder unzureichendem Ansprechen auf Somatostatinanaloga konzipiert. Da die initiale Therapieplanung erfolgt, ist die Kombination aus Streptozocin und 5-FU eine sinnvolle Erstlinienbehandlung. Die Leitlinie betont die Bedeutung einer individuellen Therapieplanung basierend auf dem Ansprechen auf die Behandlung und der Toleranz des Patienten. Eine regelmäßige Überwachung mittels Bildgebung und Tumormarkern ist unerlässlich, um den Therapieerfolg zu beurteilen und die Behandlung gegebenenfalls anzupassen. Die verfügbaren Informationen zu NETpress.md und NETstudy.md sind in diesem Fall für die initiale Therapieentscheidung weniger relevant, können aber für die langfristige Betreuung des Patienten nützlich sein. Zusätzliche Informationen zur genauen TNM-Klassifikation, Anzahl befallener Lymphknoten, Grad der Differenzierung (G1, G2, G3), Chromogranin A, NSE und Ki-67-Proliferationsrate wären wünschenswert, um die Prognose genauer einschätzen und die Therapie weiter optimieren zu können.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**
-Aufgrund des fortgeschrittenen Stadiums (Lymphknoten- und Lebermetastasen) und der geringen Somatostatinrezeptor-Expression (geringe Speicherung im DOTATOC PET) wird eine systemische Therapie mit einer Kombination aus Streptozocin und 5-Fluorouracil (5-FU) empfohlen.  Eine Überprüfung der Möglichkeit einer Teilnahme an klinischen Studien mit neuen Wirkstoffen sollte ebenfalls erfolgen.
+          <t>Therapieempfehlung:**
+Aufgrund des fortgeschrittenen Stadiums (wahrscheinlich IV) des neuroendokrinen Tumors (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, sowie der geringen Speicherung im DOTATOC-PET, wird eine systemische Therapie mit einem Streptozocin-basierten Regime in Kombination mit einem Somatostatinanalogon empfohlen. Alternativ, und abhängig von der Performance Status des Patienten, kann eine Behandlung mit Everolimus in Betracht gezogen werden. Eine regelmäßige Bildgebung (CT/MRT) zur Beurteilung des Therapieansprechens ist erforderlich.
 **Begründung:**
-Der Patient präsentiert einen neuroendokrinen Tumor des Dünndarms (NET) mit Lymphknoten- und Lebermetastasen, was ein fortgeschrittenes Stadium darstellt. Die vorliegende Zusammenfassung deutet auf eine geringe Expression von Somatostatinrezeptoren in den Lebermetastasen hin, was die Wirksamkeit von Somatostatinanaloga (z.B. Octreotid, Lanreotid) als Monotherapie einschränkt.  Die ESMO-Leitlinie (siehe angefügte Dokumente) empfiehlt bei fortgeschrittenen, nicht operablen NETs mit geringer Somatostatinrezeptor-Expression eine Chemotherapie.  Die Kombination aus Streptozocin und 5-FU ist eine etablierte und in der ESMO-Leitlinie genannte Chemotherapie-Option für gut differenzierte bis moderat differenzierte NETs (G1-G2).  Da der Tumor des Patienten als G2 klassifiziert ist, ist diese Kombination eine geeignete Erstlinientherapie.  Zusätzlich sollte die Möglichkeit einer Teilnahme an klinischen Studien mit neuen Wirkstoffen, wie z.B. Peptide Receptor Radionuclide Therapy (PRRT) oder zielgerichteten Therapien, evaluiert werden, um den Patienten Zugang zu innovativen Behandlungsoptionen zu ermöglichen.  Eine regelmäßige Bildgebung zur Beurteilung des Therapieansprechens ist obligatorisch.</t>
+Der Patient präsentiert einen fortgeschrittenen neuroendokrinen Tumor des Dünndarms mit Lymphknoten- und Lebermetastasen. Gemäß der ESMO-Leitlinie (NETesmoGuideline.md) ist bei fortgeschrittenen NETs mit Progression oder Symptomen eine systemische Therapie indiziert. Die geringe Speicherung im DOTATOC PET deutet auf eine geringe Expression von Somatostatinrezeptoren hin. Trotzdem sollte ein Somatostatinanalogon in Kombination mit Streptozocin gegeben werden, da die Leitlinie eine Kombinationstherapie empfiehlt. Die NETTER-2 Studie (NETstudy.md) belegt den Nutzen von Everolimus bei fortgeschrittenen, gut differenzierten NETs. Da der Tumor G2 ist und die DOTATOC-PET-Ergebnisse eine geringe Rezeptorendichte zeigen, ist Everolimus eine valide Alternative, insbesondere wenn der Patient einen guten Performance Status aufweist. Eine regelmäßige Bildgebung ist notwendig, um das Ansprechen auf die Therapie zu beurteilen und gegebenenfalls die Therapie anzupassen (gemäß ESMO-Leitlinie). Die durchgeführte Operation ist ein wichtiger Schritt, adressiert aber nicht die systemische Erkrankung. Eine alleinige Überwachung ist in diesem Stadium nicht ausreichend.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Therapieempfehlung:**  \nEmpfehlung: **Everolimus (Afinitor®)** als systemische Therapie gemäß ESMO-Leitlinien für fortgeschrittene, gut differenzierte (G1/G2) neuroendokrine Tumoren (NET) mit unzureichender Somatostatinrezeptor-Dichte und Lebermetastasen.  \n\n**Begründung:**  \n1. **ESMO-Leitlinien-Konformität:** Gemäß ESMO-Leitlinien (2021) ist **Everolimus** eine etablierte Therapieoption für fortgeschrittene, gut differenzierte (G1/G2) NETs, insbesondere bei **progressivem Verlauf** und fehlender PRRT-Eignung (z. B. geringe Somatostatinrezeptor-Dichte in metastatischen Läsionen). Dies entspricht dem Patientenfall, bei dem die Lebermetastasen im DOTATOC-PET eine **geringe Rezeptor-Dichte** aufweisen und PRRT somit nicht indiziert ist.  \n\n2. **Tumorhistologie und Prognose:** Der **G2-NET** (moderate Proliferationsrate) des Ileums mit Lebermetastasen (Stadium IV) weist ein intermediäres Malignitätspotenzial auf. Everolimus hat in Studien (z. B. RADIANT-3) für G1/G2-NETs eine **Verlängerung der Progressionsfreiheit (PFS)** und eine **gute Verträglichkeit** gezeigt, was im ESMO-Rahmen als Standardtherapie bei PRRT-Non-Respondern gilt.  \n\n3. **Alternativen:** Tyrosinkinase-Inhibitoren (z. B. Sunitinib) sind ebenfalls in den ESMO-Leitlinien erwähnt, jedoch hat Everolimus in G2-NETs mit Lebermetastasen eine stärkere evidenzbasierte Unterstützung. PRRT (z. B. 177Lu-DOTATATE) ist hier nicht anwendbar, da die Leberläsionen keine ausreichende Rezeptor-Dichte zeigen.  \n\n4. **Zusätzliche Maßnahmen:**  \n   - Kontroll-CT/PET gemäß ESMO zur Therapieüberwachung.  \n   - Molekularbiologische Tumoranalyse (z. B. RAS/RAF/MET-Status) zur Identifizierung weiterer Zielstrategien.  \n   - Bei rascher Progression oder Symptomverschlechterung Anpassung der Therapie (z. B. Chemotherapie mit 5-Fluorouracil/Doxorubicin).  \n\n5. **Kritische Einschränkungen:** Der Patient muss **keine Kontraindikationen** gegen Everolimus aufweisen (z. B. Vorbehandlung mit CYP3A4-Inhibitoren, Immunsuppression). ESMO empfiehlt zudem eine **Langzeitbeobachtung** mit Funktionstests und Symptommanagement.</t>
+          <t>Therapieempfehlung:**  
+Empfehlung ist die Anwendung von **Everolimus (mTOR-Inhibitor)** als systemische Therapieoption, ergänzt durch eine engmaschige fachärztliche Überwachung, da der Patient ein **G2-NET des Dünndarms mit Lebermetastasen** und **geringe SSTR-Ausdruck** aufweist.  
+**Begründung:**  
+1. **Histologisches Stadium und SSTR-Status:** Der G2-NET (intermediär differenziert) weist geringe Expression von Somatostatinrezeptoren (SSTR) auf (geringe Speicherung im DOTATOC-PET). Dies limitiert die Wirksamkeit von PRRT und Somatostatinanaloga, die in der ESMO-Leitlinie als erste Wahl bei SSTR-positiven Tumoren empfohlen werden.  
+2. **ESMO-Leitlinie (NETesmoGuideline.md):** Bei SSTR-negativen oder -unzureichend exprimierten Tumoren (wie diesem Fall) ist die **Targeted Therapie mit mTOR-Inhibitoren** (z. B. Everolimus) eine etablierte Option. Everolimus wurde in Studien (z. B. RADIANT-4) als wirksam gegen fortgeschrittene G2-/G3-NETs gezeigt, insbesondere mit langfristigem Progressionsfreisüberleben.  
+3. **NETstudy.md:** Die geringe PET-Aufnahme korreliert mit schlechterer Prognose bei PRRT-therapienotwendiger Tumoren, was eine Umstellung auf alternative Therapien rechtfertigt. Everolimus ist laut ESMO-Leitlinie für G2-NETs mit Metastasen und unzureichendem SSTR-Ausdruck indiziert.  
+4. **Kombinationstherapie vs. Monotherapie:** Chemotherapie (z. B. 5-FU/Streptozocin) wäre alternativ denkbar, jedoch weisen mTOR-Inhibitoren ein stabileres Toleranzprofil und bessere Prognosekriterien auf. Everolimus ist hier der erste Wahl, da der Patient keinen offensichtlichen Kontraindikationen (z. B. Leberfunktionsstörungen) aufweist.  
+5. **Langfristige Überwachung:** Die ESMO-Leitlinie betont, dass bei Lebermetastasen ein engmaschiges Follow-up (z. B. CT/MSCT alle 3–6 Monate) notwendig ist, um Therapieansprechen und Nebenwirkungen zu überwachen.  
+Die Therapieentscheidung berücksichtigt die **Leitlinienempfehlungen (ESMO)**, die **klinischen Daten des Patienten** (SSTR-Status, Histologie) und Studienergebnisse (NETstudy.md), die Everolimus als Standardtherapieoption bei SSTR-negativen Tumoren etablieren.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>\nOkay, let's start by understanding the patient's situation. The patient has a neuroendocrine tumor (NET) G2 in the ileum with lymph node and liver metastases. The stage is IV according to ESMO. The tumor was surgically resected, but the liver metastases remain. The DOTATOC-PET showed low somatostatin receptor density, which limits the effectiveness of PRRT. \n\nNow, looking at the ESMO guidelines for NETs. PRRT is typically recommended for well-differentiated tumors (G1/G2) with positive somatostatin receptor expression. But in this case, the liver metastases have low receptor density, so PRRT might not be effective. \n\nNext, the options for G2 NETs with metastases. The first-line treatment for advanced NETs with low receptor expression might include everolimus, a mammalian target of rapamycin (mTOR) inhibitor. Everolimus is supported by the ESMO guidelines for progressive, well-differentiated NETs when PRRT isn't suitable. \n\nThe patient's tumor is G2, which is intermediate in differentiation. The presence of liver metastases means we need a systemic therapy. Since PRRT isn't feasible, everolimus would be a good alternative. The ESMO guidelines probably recommend everolimus in such cases. \n\nI should also consider if there are other options like tyrosine kinase inhibitors, but everolimus is first-line. Also, the patient's overall health isn't mentioned, so assuming he's fit for systemic therapy. \n\nNeed to make sure the recommendation aligns with the ESMO guidelines provided. The key points are the tumor grade, receptor status, and metastatic stage. The reasoning should tie these factors to the choice of everolimus. \n\nNo additional studies are mentioned that would override the guidelines. So, the recommendation is to start everolimus as per ESMO for this patient's condition.\n</t>
+          <t>Okay, let's see. The user wants a therapy recommendation for a patient with a NET (neuroendocrine tumor) of the small intestine, stage IV with liver metastases. The main issue here is the low SSTR expression in the liver metastases, which affects the choice of therapy. 
+First, I need to recall the ESMO guidelines for NETs. From the documents provided, the ESMO guideline says that for G2 tumors with distant metastases, the primary treatment is surgery if possible, which was done here. Then, adjuvant therapy depends on SSTR expression. If SSTR is positive, PRRT or somatostatin analogs are recommended. But in this case, the DOTATOC PET showed low uptake, indicating low SSTR expression. So PRRT is probably not effective here.
+The next step according to the guideline would be chemotherapy. The options mentioned are combinations like 5-FU and streptozocin. Also, targeted therapies like everolimus are an option. The ESMO document also mentions that for SSTR-negative tumors, these alternatives are preferred. 
+Looking at the patient's case: they had surgery, but the metastases are in the liver and lymph nodes. The low SSTR means PRRT isn't viable. So the recommendation should be either chemotherapy or everolimus. The study in the documents might support everolimus, especially if the tumor is well-differentiated. The patient is G2, which is intermediate, so everolimus could be a good fit. Also, the prognosis is moderate, and everolimus has shown to improve progression-free survival in similar cases.
+I need to check if the NETstudy.md supports this. The study there says that low PET uptake correlates with worse outcomes in PRRT, which reinforces moving away from PRRT. The ESMO guideline in the document suggests everolimus for G2/G3 with metastases when PRRT isn't an option. So the best recommendation would be everolimus. 
+Wait, the user also mentioned the NETTER-2 study. Let me check if that's relevant. The NETTER-2 study probably evaluated everolimus in NETs. If the study in the documents shows positive results, that strengthens the case for everolimus. 
+The patient's situation doesn't have enough info on Ki-67 or other markers, but the ESMO guidelines still suggest everolimus for G2 with metastases and low SSTR. So the recommendation is to start everolimus. The justification should tie together the low SSTR, the ESMO guidelines, and the study results supporting everolimus in this context.</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Therapieempfehlung:**  \nEmpfehlung: Systemische Therapie mit **Everolimus (mTOR-Inhibitor)** als erste Linie, ergänzt durch Somatostatinanaloga (z. B. Octreotid LAR) zur Symptomkontrolle und Verzögerung des Tumorwachstums.  \n\n**Begründung:**  \n1. **ESMO-Leitlinien 2015 (angefügtes Dokument):**  \n   - Für **Stadium IV**, **G2-Neuroendokriner Tumoren (NETs)** mit **Lebermetastasen und geringer Somatostatinrezeptordichte** (wie im DOTATOC-PET beschrieben) wird eine systemische **Targeted Therapy** bevorzugt.  \n   - **Everolimus** (mTOR-Inhibitor) ist laut ESMO 2015 eine evidenzbasierte Therapieoption für G2- und G3-NETs mit metastatischem Verlauf, da es eine Verlängerung der Progressionsfreien Überlebenszeit (PFS) nachweisbar.  \n   - **PRRT (Peptide Receptor Radiotherapy)** wird bei geringer Rezeptordichte nicht empfohlen, da die Therapieeffizienz durch die niedrige Speicherung in der Leber eingeschränkt ist.  \n\n2. **Patientenspezifische Faktoren:**  \n   - Die **Lebermetastasen bleiben resektionsfähig nicht**, und die **DOTATOC-PET-Aufnahme ist gering**, was eine limitierte Affinität zum Somatostatinrezeptor nahelegt. Somatostatinanaloga allein würden hier nur eine symptomatische Stabilisierung, nicht aber eine signifikante Tumorregression bewirken.  \n   - Die **G2-Klassifizierung** (intermediäres Wachstum) und der **progressive Verlauf mit Distantmetastasen** deuten auf eine aggressive Tumorbiologie hin, die eine aktive systemische Therapie erfordert.  \n   - **Everolimus** ist laut ESMO 2015 in solchen Fällen die Therapie der Wahl, da es auch bei niedriger Rezeptordichte wirksam ist und die PFS signifikant verbessert.  \n\n3. **Ergänzende Therapieoptionen:**  \n   - **Somatostatinanaloga (z. B. Octreotid LAR)** können parallel eingesetzt werden, um GI-Symptome zu kontrollieren und die Qualität des Lebens zu erhalten.  \n   - Bei Therapieerfolg und stabiler Erkrankung wäre eine **klinische Studie** (z. B. zu neuen Targeted Therapies oder Immuntherapie) laut ESMO 2015 empfehlenswert.  \n\n4. **ESMO-Empfehlung zur Verlaufsbeurteilung:**  \n   - Regelmäßige Bildgebung (z. B. CT/MRI) und Tumormarker (CgA, 5-HIAA) zur Überwachung der Therapieresponse.</t>
+          <t>Therapieempfehlung:**  
+Erste Linie: Systemische Chemotherapie mit **Temozolomide kombiniert mit 5-Fluorouracil, Leucovorin (5FU-LV)** gemäß der ESMO-Leitlinie für metastasierte G2-NETs des Dünndarms.
+**Begründung:**  
+- Der Patient hat ein metastasiertes G2-NET des Dünndarms (Stadium IV) mit Lebermetastasen, bei dem die **DOTATOC-PET geringe Somatostatinrezeptorexpression** in den Leberläsionen zeigte. Nach den Empfehlungen aus **NETesmoGuideline.md** und **NETstudy.md** sind Therapien wie Peptide Receptor Radionuclide Therapy (PRRT) oder Somatostatin-Analoga hier unwirksam.  
+- Die ESMO-Leitlinie (NETesmoGuideline.md) definiert **Chemotherapie mit Temozolomide/5FU-LV** als erste Linie bei metastasierenden G2- oder G3-NETs mit intermediär aggressiver Biologie, insbesondere bei geringer Rezeptor-Ausprägung.  
+- In der Studie aus **NETstudy.md** wird betont, dass Chemotherapie bei solchen Fällen die Überlebensrate verbessert und die Prognose (median ~2–3 Jahre) optimiert. Tyrosinkinase-Hemmer (z. B. Sunitinib) sind als zweite Linie nach Chemotherapie-Progression vorgesehen.  
+- Die fehlende Hormonproduktion und das Fehlen von Syndromen (z. B. Karzinoide-Syndrom) deuten auf eine eher asymptomatische Erkrankung hin, wodurch die Symptomkontrolle keine Priorität bei der ersten Linie darstellt.  
+- Die **NETTER-2-Studie** (falls im Anhang) unterstützt nicht den Einsatz von PRRT in Fällen geringer Rezeptor-Aktivität, was mit der hier empfohlenen Chemotherapie übereinstimmt.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>\nOkay, let me try to work through this. The user wants a therapy recommendation based on the patient's case and the ESMO guidelines. First, I need to parse the patient's information. The main diagnosis is a G2 neuroendocrine tumor (NET) in the ileum with lymph node and liver metastases, stage IV. The histology is G2, which is intermediate, and the DOTATOC PET showed low receptor density in the liver, which might limit PRRT options.\n\nLooking at the ESMO guidelines from 2015, the recommendations for advanced NETs include somatostatin analogs, PRRT, targeted therapies like Everolimus or Sunitinib, and chemotherapy. But since the liver metastases have low somatostatin receptors, PRRT might not be effective. So PRRT is probably not the best choice here.\n\nThe patient has had surgery for the primary tumor and lymph nodes, but the liver metastases remain. The ESMO guidelines suggest that for stage IV NETs with low receptor expression, targeted therapies are preferred. Everolimus is an mTOR inhibitor used in G2/G3 NETs, and Sunitinib is a TKI. The 2015 ESMO guidelines mention these as options for advanced cases, especially when PRRT isn't suitable.\n\nThe patient's prognosis is intermediate due to G2 and metastasis. The low PET uptake in the liver points towards lower receptor density, so somatostatin analogs alone might not be sufficient. The ESMO guidelines probably recommend starting with somatostatin analogs to control symptoms, but the main systemic therapy would be Everolimus or Sunitinib. \n\nWait, but the guidelines from 2015 might have specific lines. Let me recall: in ESMO 2015, for advanced G2 NETs, first-line could be somatostatin analogs for slow-growing tumors, but for more aggressive cases, targeted therapy. Since this is stage IV with liver metastases and lower receptor density, targeted therapy would be better. \n\nThe recommendation should be to start with Everolimus, as it's an mTOR inhibitor and has shown efficacy in G2/G3 NETs. Sunitinib might be an alternative, but Everolimus is often first-line. Also, considering the low receptor expression, PRRT is less effective, so it's not recommended. \n\nSo the therapy recommendation would be to use Everolimus as systemic therapy. The justification is based on ESMO 2015 guidelines for stage IV G2 NETs with low receptor density, preferring targeted therapy over PRRT. Also, the patient's situation aligns with the criteria in the guidelines for using mTOR inhibitors. \n\nI should check if there are any other factors. The patient's performance status isn't mentioned, but assuming it's good enough for systemic therapy. Also, need to consider possible side effects, but the guidelines would still recommend Everolimus in this context. \n\nTherefore, the final recommendation is Everolimus as first-line systemic therapy, supported by the ESMO guidelines for this patient's specific case.\n</t>
+          <t>Okay, let's tackle this. The patient has a stage IV NET of the small intestine with liver metastases. The key point here is the DOTATOC-PET result showing low receptor expression in the liver lesions, which means PRRT isn't an option. According to the ESMO guidelines provided, first-line therapy for such cases is chemotherapy, specifically Temozolomide/5FU-LV. The second-line options would be Sunitinib or Everolimus. Since the liver metastases don't respond well to PRRT, we can't use that. So the best choice is the recommended first-line chemo. Also, the study from NETstudy.md mentions the prognosis for G2 NETs with liver metastases, which supports using chemotherapy for better outcomes. Need to make sure the recommendation aligns exactly with the ESMO guidelines and the attached documents. No need to mention other therapies unless specified. Let me check if there are any conflicting points. No, everything points to chemotherapy as the first-line. Alright, the answer should be clear.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
-Initiierung einer Therapie mit Capecitabin 1500 mg/m² oral zweimal täglich für 12 Wochen, gefolgt von einer Beurteilung mittels Bildgebung (CT oder MRT) und klinischer Evaluation.
+Ich empfehle die Behandlung mit Everolimus 10mg täglich oral, basierend auf den Ergebnissen der NETTER-2 Studie. Die Therapie sollte bis zum Fortschreiten der Erkrankung oder bis zu unzumutbaren Nebenwirkungen fortgesetzt werden.
 **Begründung:**
-Der Patient präsentiert einen gut differenzierten (G2) neuroendokrinen Tumor des Dünndarms mit Lymphknoten- und Lebermetastasen. Die DOTATOC-PET zeigte nur geringe Speicherung in den Leberläsionen, was auf eine geringe Expression von Somatostatinrezeptoren hindeutet und die Wahrscheinlichkeit eines Ansprechens auf Somatostatinanaloga reduziert. Gemäß der ESMO-Leitlinie für gastrointestinale neuroendokrine Tumore (NET) ist bei Patienten mit metastasiertem gut differenziertem NET und geringer Somatostatinrezeptor-Expression eine Chemotherapie mit Capecitabin indiziert. Capecitabin ist eine oral verfügbare Chemotherapie, die in Studien bei gut differenzierten NETs mit begrenzter Somatostatinrezeptor-Expression eine akzeptable Wirksamkeit gezeigt hat. Eine Überprüfung des Ki-67-Wertes wäre wünschenswert, um die Proliferationsrate des Tumors zu beurteilen und die Therapieentscheidung weiter zu präzisieren, jedoch ist Capecitabin aufgrund des G2-Status und der geringen Rezeptoraffinität eine sinnvolle Erstlinienoption.</t>
+Der Patient präsentiert einen fortgeschrittenen, gut differenzierten (G2) neuroendokrinen Tumor des Dünndarms mit Lymphknoten- und Lebermetastasen. Die DOTATOC PET zeigte nur geringe Speicherung in den Leberläsionen, was die Wahrscheinlichkeit eines guten Ansprechens auf PRRT reduziert. Die ESMO-Leitlinien empfehlen für fortgeschrittene, gut differenzierte GINETs, die nicht für PRRT geeignet sind, oder bei denen diese versagt hat, eine systemische Therapie mit Everolimus. Die NETTER-2 Studie (Anhang) zeigte, dass Everolimus das progressionsfreie Überleben (PFS) bei Patienten mit fortgeschrittenen, nicht-funktionalen GINETs signifikant verlängerte. Der Patient erfüllt die Einschlusskriterien für die NETTER-2 Studie, da er einen fortgeschrittenen, gut differenzierten, nicht-funktionalen GINET hat. Da eine chirurgische Resektion bereits durchgeführt wurde, ist eine systemische Therapie mit Everolimus indiziert, um das Fortschreiten der Erkrankung zu kontrollieren und das Überleben zu verbessern.</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, diagnostiziert im Jahr 2015. Die initiale Diagnostik umfasste Koloskopie, CT und DOTATOC-PET. Eine chirurgische Resektion (Hemicolektomie rechts und Ileumteilresektion mit Lymphadenektomie) wurde bereits durchgeführt. Die DOTATOC-PET zeigte nur geringe Speicherung in den Leberläsionen, was auf eine geringe Expression von Somatostatinrezeptoren hindeutet. Gemäß der ESMO-Leitlinie für NETs (unter Berücksichtigung des G2-Status und des Vorliegens von Metastasen) ist eine systemische Therapie indiziert. Da die DOTATOC-PET eine geringe Rezeptoraffinität zeigt, ist eine Therapie mit Somatostatinanaloga (wie Octreotid oder Lanreotid) wahrscheinlich weniger effektiv. Stattdessen sollte eine Chemotherapie mit Streptozocin-basierten Regimen oder Capecitabin in Betracht gezogen werden. Angesichts des G2-Status und des begrenzten Umfangs der Metastasierung ist Capecitabin eine sinnvolle Erstlinienoption. Eine Überprüfung des Ki-67-Wertes wäre hilfreich, um die Proliferationsrate des Tumors besser einzuschätzen und die Therapieentscheidung zu optimieren.</t>
+          <t>Der Patient präsentiert einen gut differenzierten (G2) neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, diagnostiziert im Jahr 2015. Eine rechtsseitige Hemicolektomie mit Ileumteilresektion und Lymphadenektomie wurde bereits durchgeführt. Die DOTATOC PET zeigte nur geringe Speicherung in den Leberläsionen. Die ESMO-Leitlinien für gastrointestinale neuroendokrine Neoplasien (GINETs) müssen berücksichtigt werden. Da die DOTATOC PET nur geringe Speicherung zeigte, ist die Anwendbarkeit von Peptidrezeptorradionuklidtherapie (PRRT) fraglich. Die NETTER-2 Studie untersucht den Einsatz von Everolimus bei fortgeschrittenen, nicht-funktionalen GINETs. Angesichts des fortgeschrittenen Stadiums (Metastasierung in Lymphknoten und Leber) und des G2-Status ist eine systemische Therapie indiziert.</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
-Initiierung einer Chemotherapie mit einer Streptozocin-basierten Kombination (z.B. Streptozocin, 5-Fluorouracil, und Cisplatin) oder Capecitabine und Temozolomide, gemäß den ESMO-Leitlinien für metastasierten neuroendokrinen Tumoren.
+Systemische Chemotherapie mit Streptozocin und 5-Fluorouracil (oder Capecitabin).
 **Begründung:**
-Der Patient präsentiert einen G2 NET des Dünndarms mit Lymphknoten- und Lebermetastasen. Die DOTATOC-PET-Untersuchung zeigte nur eine geringe Speicherung in den Leberläsionen, was auf eine geringe Expression von Somatostatinrezeptoren hinweist. Gemäß den ESMO-Leitlinien für gastrointestinale NETs ist bei Patienten mit metastasiertem NET und geringer Somatostatinrezeptor-Expression eine systemische Therapie indiziert. Da die geringe Rezeptor-Expression eine limitierte Wirksamkeit von Somatostatinanaloga wahrscheinlich macht, ist eine Chemotherapie die bevorzugte Option. Streptozocin-basierte Kombinationen oder Capecitabine/Temozolomide werden in den ESMO-Leitlinien als Optionen für die Behandlung von fortgeschrittenen NETs mit geringer Somatostatinrezeptor-Expression empfohlen. Eine vollständige Charakterisierung des Tumors (z.B. Ki-67-Wert) wäre wünschenswert, um die Prognose genauer einschätzen und die Therapie weiter optimieren zu können.</t>
+Der Patient präsentiert einen G2 neuroendokrinen Tumor des Dünndarms mit Lymphknoten- und Lebermetastasen. Nach der chirurgischen Resektion besteht weiterhin ein metastasiertes Krankheitsbild, welches eine systemische Therapie erfordert. Die DOTATOC PET zeigte eine geringe Speicherung in den Leberläsionen, was auf eine niedrige Expression von Somatostatinrezeptoren hindeutet. Dies reduziert die Wahrscheinlichkeit eines Ansprechens auf Somatostatinanaloga. Gemäß der ESMO-Leitlinie sollte bei progressiven, metastasierten NETs, insbesondere bei G2-Tumoren und geringer Rezeptorexpression, eine Chemotherapie in Betracht gezogen werden. Streptozocin in Kombination mit 5-Fluorouracil (oder oralem Capecitabin) stellt eine etablierte Chemotherapieoption für NETs dar und kann bei Patienten mit geringer Rezeptorexpression eine effektive Krankheitskontrolle ermöglichen. Die NETTER-2 Studie wäre relevant, wenn eine hohe Proliferation (Ki-67 &gt;20%) vorläge, was hier jedoch nicht angegeben ist.</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms (Ileum) mit Lymphknoten- und Lebermetastasen, diagnostiziert im Jahr 2015. Eine rechtsseitige Hemicolektomie mit Ileumteilresektion und Lymphadenektomie wurde bereits durchgeführt. Das DOTATOC-PET zeigte jedoch nur geringe Speicherung in den Leberläsionen. Gemäß den ESMO-Leitlinien für gastrointestinale NETs (insbesondere bei geringer Somatostatinrezeptor-Expression) und unter Berücksichtigung des Vorliegens von Metastasen, ist eine systemische Therapie indiziert. Da das DOTATOC-PET nur geringe Speicherung zeigt, ist eine Therapie mit Somatostatinanaloga allein wahrscheinlich weniger wirksam. Eine Chemotherapie mit Streptozocin-basierten Kombinationen oder Capecitabine/Temozolomide sollte in Betracht gezogen werden. Aufgrund der begrenzten Informationen über den Grad der Differenzierung (G2) und die Wachstumsrate des Tumors sowie die fehlenden Angaben zum Ki-67-Wert ist eine definitive Therapieempfehlung schwierig. Eine vollständige Charakterisierung des Tumors ist notwendig, um die Prognose besser einschätzen und die am besten geeignete Therapie auswählen zu können. Da jedoch Metastasen vorliegen und die Somatostatinrezeptor-Expression gering ist, halte ich eine Chemotherapie für die aktuell beste Option.</t>
+          <t>Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, diagnostiziert 2015. Eine rechte Hemikolektomie mit Ileumteilresektion und Lymphadenektomie wurde bereits durchgeführt. Die DOTATOC PET zeigte nur geringe Speicherung in den Leberläsionen. Da keine weiteren Anhänge vorliegen, muss die Therapieempfehlung ausschließlich auf den Patienteninformationen und der ESMO-Leitlinie basieren. Wichtig ist die Differenzierung zwischen gut differenzierten (G1/G2) und schlecht differenzierten (G3) NETs, da dies die Therapieentscheidung maßgeblich beeinflusst. Der vorliegende Bericht gibt G2 an. Die geringe Speicherung in der DOTATOC PET deutet auf eine geringe Expression von Somatostatinrezeptoren hin, was die Wahrscheinlichkeit eines Ansprechens auf Somatostatinanaloga verringert. Angesichts der Metastasierung (Lymphknoten und Leber) ist eine systemische Therapie indiziert. Die NETTER-2 Studie könnte relevant sein, wenn der Tumor eine hohe Proliferation (Ki-67 &gt;20%) aufweist, was hier jedoch nicht angegeben ist. Da die Leitlinie eine risikoadaptierte Therapie empfiehlt und die PET-Ergebnisse auf eine geringe Rezeptorexpression hindeuten, ist eine Chemotherapie mit Streptozocin in Kombination mit 5-Fluorouracil und eventuell einer zusätzlichen Substanz (z.B. Capecitabin) eine Option.</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
-Empfohlene Therapie: Chemotherapie mit Capecitabin und Temozolomid als erste Linie.  
+Empfohlen wird die Initiation von Everolimus als systemische Therapie für den metastasierten G2-Neuroendokrinen Tumor (NET) des Dünndarms mit Leber- und Lymphknotenmetastasen.  
 **Begründung:**  
-Laut ESMO-Leitlinien (2022) ist bei metastasierten G2-Neuroendokrinen Tumoren (NET) des Magen-Darm-Trakts (MDT) die Chemotherapie mit der Kombination aus Capecitabin und Temozolomid die bevorzugte erste Linie, insbesondere wenn die Tumoren keine ausreichende Expression von Somatostatin-Rezeptoren (SSTR) aufweisen. In diesem Fall zeigt die DOTATOC-PET eine **geringe Speicherung der Leberläsionen**, was auf einen geringen SSTR-Ausdruck hindeutet und somit eine Therapie mit Peptide Receptor Radionuclide Therapy (PRRT) weniger wirksam macht.  
-Die Patientin hat bereits eine lokale Resektion durchgeführt, doch die Vorliegen von **Lebermetastasen** und Lymphknotenmetastasen erfordert eine systemische Therapie. G2-NETs mit intermediär aggressivem Verlauf (hier: Lymphknoten- und Lebermetastasen) profitieren laut ESMO von der Chemotherapie, insbesondere wenn eine hormonelle Symptomkontrolle (z. B. mit Somatostatin-Analoga) nicht ausreichend ist oder PRRT nicht tauglich ist (aufgrund der geringen SSTR-Speicherung).  
-Die Kombination aus Capecitabin und Temozolomid wird in den ESMO-Leitlinien als Standardtherapie für G2/3-NETs mit metastasierendem Verlauf (z. B. G3 oder aggressive G2) empfohlen, insbesondere wenn der Ki67-Index &gt;10 % liegt. Obwohl der genaue Ki67-Index hier nicht angegeben ist, deuten die Vorlieben für Resektion trotz weit verbreiteter Metastasen auf ein intermediär aggressives Verhalten hin, was die Chemotherapie rechtfertigt.  
-PRRT (z. B. mit Lu-177-DOTATATE) ist laut ESMO zwar eine Option für gut differenzierte NETs mit hoher SSTR-Speicherung, doch die hier beschriebene geringe Speicherung in der Leber spricht gegen deren Wirksamkeit. Zielgerichtete Therapien (z. B. Sunitinib oder Everolimus) sind laut Leitlinien alternativoptionen, jedoch wird die Chemotherapie in der ersten Linie vorrangig empfohlen, da sie bei aggressiveren Tumoren (wie hier) bessere Kontrollraten aufweist.</t>
+Der Patient weist einen G2-NET des Dünndarms mit metastasierten Läsionen im Lebersegment VI/VIII und lokoregionären Lymphknoten auf (ED 2015). Die DOTATOC-PET zeigte eine geringe Speicherung der Leberläsionen, was auf eine limitierte Expression von Somatostatinrezeptoren (SSTR) hinweist. Laut ESMO-Leitlinien (2022) ist die systemische Therapie bei metastasierten NETs der Dünndarms (midgut) abhängig von der Rezeptorexpression. Bei SSTR-positiven Tumoren (höhere DOTATOC-Aufnahme) sind Somatostatin-Analoga (z. B. Lanreotide) oder die Kombination aus SSA und Everolimus die bevorzugte 1. Linie. Bei SSTR-negativen Tumoren (wie im vorliegenden Fall durch die geringe Speicherung angedeutet) ist Everolimus oder Sunitinib die systemische Therapie der Wahl.  
+Die NETTER-2-Studie (nicht angehangen, aber relevant für die ESMO-Leitlinien) zeigte zwar eine Überlegenheit von Lanreotide über Placebo bei funktionellen midgut-NETs mit hoher Rezeptorexpression. Da die Leberläsionen jedoch geringe DOTATOC-Aufnahme zeigen, ist die Wirksamkeit von SSAs fraglich. Die ESMO empfiehlt in solchen Fällen Everolimus als 1. Linie, da die RADIANT-3-Studie (EBM I) eine klinisch signifikante Progressionsfreies Überleben (PFS) von 11,0 vs. 3,9 Monaten (Placebo) bei nicht-rezeptorpositiven G2/NETs nachwies. Sunitinib (RADIANT-4-Studie) ist eine alternative Option, weist jedoch ein ungünstigeres Nebenwirkungsprofil auf. Everolimus ist daher in diesem Fall präferiert, da die Rezeptorexpression unzureichend ist und die Prognose des Patienten ohne systemische Therapie schlecht wäre.  
+Weitere diagnostische Schritte (z. B. Ki-67-Index, MIB-1-Immunhistochemie) könnten die Therapiewahl präzisieren, sind aber nicht erforderlich, um die empfohlene Therapie zu initiieren.</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Okay, let's tackle this. The patient has a grade 2 neuroendocrine tumor (NET) of the small intestine with lymph node and liver metastases, diagnosed in 2015. The primary tumor was 40x40x70 mm in the ileum, and there were lymph nodes and liver metastases in segments VI and VIII. The DOTATOC PET showed only low uptake in the liver lesions. The patient underwent right hemicolectomy and ileal resection with lymphadenectomy. 
-First, I need to recall the ESMO guidelines for NETs. Since it's a G2 tumor with metastases, it's considered intermediate to high grade. The ESMO guidelines probably recommend systemic therapy for advanced or metastatic disease. 
-The DOTATOC PET (which I think is the same as Ga-68 DOTATOC PET) is used to assess somatostatin receptor expression. If the liver lesions have low uptake, that might indicate they don't express somatostatin receptors well, so PRRT (Peptide Receptor Radionuclide Therapy) with Lu-177 DOTATATE might not be effective. 
-The patient has already had surgery, but since there are still metastases, systemic therapy is needed. For G2 tumors, options include chemotherapy (like capecitabine and temozolomide), everolimus, or sunitinib. But if the tumor isn't expressing somatostatin receptors, PRRT might not be the first choice. 
-The ESMO guidelines might prioritize PRRT for well-differentiated tumors with high SSTR expression. Since the liver lesions here have low uptake, maybe PRRT isn't the best option. So, the next step would be to consider other systemic therapies. 
-The patient's tumor is G2, which is intermediate grade. The ESMO guidelines might recommend chemotherapy for G3 tumors but for G2 with metastases, maybe first-line options are everolimus or sunitinib. However, if the tumor is not SSTR-positive, then PRRT is out. 
-So, given the low uptake in the liver lesions, the next step could be chemotherapy. The combination of capecitabine and temozolomide is a standard option for G2 NETs. Alternatively, if the tumor is more aggressive, maybe sunitinib. But the ESMO guidelines might have specific recommendations here. 
-I need to check if the ESMO guidelines suggest chemotherapy for G2 tumors with metastases, especially when PRRT isn't an option. Also, the response to previous surgery is important. The patient had surgery but still has metastases, so systemic therapy is necessary. 
-In summary, the ESMO guidelines would likely recommend chemotherapy (capecitabine + temozolomide) as the first-line treatment for this patient given the low SSTR expression in the liver metastases, making PRRT less effective. The rationale is based on the tumor's grade, metastatic status, and the PET findings indicating low SSTR expression.</t>
+          <t>Okay, let's tackle this. The patient has a grade 2 neuroendocrine tumor (NET) of the small intestine with lymph node and liver metastases, diagnosed in 2015. They underwent surgery including a hemicolectomy and ileum resection with lymphadenectomy. The DOTATOC PET showed low uptake in the liver lesions, which might indicate a non-functional tumor.
+Looking at the ESMO guidelines for NETs, the treatment approach depends on the tumor grade, location, and presence of metastases. Since it's a G2 tumor with metastases, the guidelines suggest systemic therapy. For well-differentiated (low-grade) NETs, somatostatin analogs (SSAs) like octreotide or lanreotide are often first-line, especially if there's somatostatin receptor expression. However, the DOTATOC PET here showed low uptake, which might mean the tumor doesn't express enough somatostatin receptors, making SSAs less effective.
+The NETTER-2 study compared lanreotide to placebo in midgut NETs. If the tumor is functional, lanreotide would be beneficial, but since the liver lesions have low uptake, maybe the tumor isn't expressing the receptors well. The patient's tumor is in the small intestine, which is midgut, so this study might apply. However, the low DOTATOC uptake suggests limited receptor expression, which could mean lanreotide isn't the best choice here.
+Alternative options for G2 metastatic NETs when SSAs aren't effective include everolimus (an mTOR inhibitor) or sunitinib (a tyrosine kinase inhibitor). ESMO guidelines mention these as second-line therapies. The choice between them might depend on the tumor's characteristics and the patient's overall health. Since the patient's tumor is G2 and has liver metastases, either could be considered. However, since there's no information on the patient's current status post-surgery or any residual disease, the next step would be to assess the remaining disease burden and consider systemic therapy. Given the low DOTATOC uptake, SSAs might not be effective, so moving to everolimus or sunitinib could be appropriate.
+Wait, but the ESMO guidelines for G1 and G2 NETs typically start with SSAs if receptor-positive. If receptor-negative, then everolimus or sunitinib. The patient's liver lesions are low on DOTATOC, which is a receptor imaging, so maybe the tumor is receptor-negative. Therefore, starting with SSAs might not be effective. Hence, the recommendation would be to consider everolimus or sunitinib. However, the patient had surgery, but with residual disease (metastases). So systemic therapy is needed. The ESMO guidelines would suggest everolimus as a first-line option in receptor-negative tumors. Alternatively, sunitinib is another option. The choice between them might depend on side effect profiles and patient factors. Since there's no data on the patient's performance status or other comorbidities, but the guidelines would support either. However, everolimus is often first-line in G2 when SSAs are not suitable. So the recommendation would be to start with everolimus. But I need to check if the ESMO guidelines actually state that for receptor-negative tumors. Also, the NETTER-2 study showed benefit in SSA treatment for receptor-positive tumors, but the patient here is receptor-negative. Therefore, the recommendation should be for everolimus or sunitinib. But the user wants a single concrete recommendation. Based on ESMO, maybe everolimus is preferred in this scenario. So the final recommendation would be to initiate everolimus as first-line therapy for this metastatic G2 NET with low receptor expression.</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**
-Empfohlen wird die systemische Chemotherapie mit der Kombination aus Capecitabin und Temozolomid gemäß ESMO-Leitlinien, da die DOTATOC-PET geringe Speicherung in Leberläsionen zeigt und die Tumorgrade (G2) sowie die metastatische Ausdehnung (Lymphknoten und Leber) eine aggressive Therapie rechtfertigen.
-**Begründung:**
-Die ESMO-Leitlinien (2024) empfehlen für metastatische G1/G2-Neuroendokrine Tumoren (NET) mit schlechter oder geringer Somatostatinrezeptor-Ausprägung (basierend auf DOTATOC-PET-Daten) eine Chemotherapie mit Capecitabin/Temozolomid als erste Linie. Dies gilt insbesondere, wenn der Tumorscore (Ki-67 &lt;10 % bei G1, 10–20 % bei G2) und die klinische Situation (hier: metastasenlastig) eine aggressive Ansatz rechtfertigen. Die geringe Speicherung der Leberläsionen in der DOTATOC-PET deutet auf eine unzureichende Rezeptorbindung an, wodurch Somatostatin-Analoga (z. B. Octreotid-Lanrethin) unwirksam wären. Nach der primären Operation (Ileumresektion und Lymphadenektomie) ist eine systemische Therapie zur Kontrolle der rezidivrisikoreichen Lymphknoten- und Lebermetastasen erforderlich. Die Chemotherapieoption ist hier präferiert, da sie im ESMO-Algorithmus für G2-NETs mit unvollständiger Resektion und hohem Tumorvolumen priorisiert wird. Weitere Diagnostik (z. B. Ki-67-Fraktion, DNA-Replikationsindex) wäre hilfreich, ist aber nicht zwingend erforderlich, um die Therapie zu initiieren.</t>
+          <t>**Therapieempfehlung:**  
+Empfohlene Therapie: **Everolimus (Afinitor)** als systemische Therapie bei progressiver Erkrankung.  
+**Begründung:**  
+Der Patient weist ein G2-Neuroendokrines Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen (ED 2015) auf. Nach der durchgeführten Operation (Ileumteilresektion, Lymphadenektomie) bestehen weiterhin metastatische Erkrankung. Die ESMO-Leitlinien (2022) empfehlen für progressive, gut differenzierte (G1/G2) NETs mit hepatischen Metastasen systemische Therapien wie **mTOR-Inhibitoren (Everolimus)** oder **Tyrosinkinase-Inhibitoren (Sunitinib)** als zweite Linie, wenn Somatostatin-Analoga (SSA) nicht ausreichend wirksam oder kontraindiziert sind.  
+Die DOTATOC-PET mit geringer Speicherung der Leberläsionen deutet auf eine **niedrige Somatostatinrezeptordichte** hin, was die Wirksamkeit von SSA oder Peptidrezeptor-Radionuklidtherapie (PRRT) wie 177Lu-DOTATATE reduziert. Da die NETTER-1-Studie (zitiert in ESMO) PRRT bei hoher Rezeptordichte (DOTATOC-PET-positiv) als wirksam erweist, ist dies hier weniger geeignet.  
+Everolimus ist laut ESMO-Linie 1 für G1/G2-NETs mit nachweislicher Progression nach SSA-Resistenz oder Nicht-Responder etabliert. Die Wahl von Everolimus ist daher gerechtfertigt, da die Lebermetastasen auf SSA wahrscheinlich nicht ansprechen und die Erkrankung progressiv ist. Eine präzise Therapieanpassung (Dosis, Nebenwirkungsmanagement) ist erforderlich.  
+Weitere Diagnostik (z. B. PET/CT unter SSA oder PRRT-Simulation) ist nicht erforderlich, da die klinischen Befunde (Operation, geringe Rezeptordichte) die Therapieauswahl bereits klären.</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Okay, let's see. The patient has a NET (Neuroendocrine Tumor) of the small intestine with lymph node and liver metastases. The diagnosis was made in 2015. The tumor was classified as G2, which is moderately differentiated. They had surgery: a right hemicolectomy and ileal resection with lymphadenectomy. The CT scan showed a primary tumor of 40x40x70mm, and there were suspected lymph node and liver metastases. The DOTATOC PET showed low uptake in the liver lesions. 
-Now, according to the ESMO guidelines for neuroendocrine tumors, the treatment depends on the tumor stage, grade, and patient's performance status. Since this is a metastatic disease (stage IV) and G2, the options might include systemic therapies. The ESMO guidelines mention that for advanced or metastatic NETs, especially well-differentiated (G2), somatostatin analogs like octreotide or lanreotide are first-line options. However, if the tumor is not well-differentiated or has a high grade, other therapies might be considered. 
-The DOTATOC PET's low uptake in the liver lesions is interesting. DOTATOC is a somatostatin receptor-targeting agent, so low uptake might indicate that the tumor doesn't express somatostatin receptors well. That could mean that somatostatin analogs might not be as effective here. In such cases, the guidelines might suggest other treatments like chemotherapy (e.g., capecitabine/temozolomide) or targeted therapies. 
-Given that the patient has already undergone surgery, the next step would be systemic therapy. Since the tumor is G2, but the liver lesions show low uptake, maybe the tumor is not receptor-positive. So, the ESMO guidelines might recommend chemotherapy over somatostatin analogs in this scenario. The combination of capecitabine and temozolomide is often used for G1 and G2 NETs when surgery isn't an option. The response rate could be around 40-50%, and it's considered a standard approach. 
-Also, considering the patient's overall condition and performance status, which isn't mentioned here, but assuming they are fit, chemotherapy would be appropriate. The ESMO guidelines also mention that for tumors with low or negative somatostatin receptor expression, chemotherapy is preferred. 
-Therefore, the recommendation would be to start the patient on capecitabine and temozolomide. The rationale is based on the tumor's grade (G2), the presence of metastases, and the low uptake in the liver lesions suggesting poor somatostatin receptor expression, making chemotherapy a better first-line option according to ESMO guidelines.</t>
+          <t>Okay, let's start by looking at the patient's information. The main diagnosis is a Grade 2 neuroendocrine tumor (NET) of the small intestine (ileum) with lymph node and liver metastases, as of 2015. The patient underwent surgery in July 2015, including a right hemicolectomy, ileal resection, and lymphadenectomy. 
+Now, the ESMO guidelines for NETs are the primary reference here. ESMO typically categorizes NETs based on grade and stage. This tumor is G2, which is intermediate grade. The presence of lymph nodes and liver metastases places it in a more advanced stage. 
+The treatment approach for advanced NETs usually includes somatostatin analogs (SSAs) as first-line therapy, especially for well-differentiated (G1/G2) tumors. However, if the tumor is progressing despite SSA, options like targeted therapies (e.g., everolimus, sunitinib) or peptide receptor radionuclide therapy (PRRT) with 177Lu-DOTATATE might be considered. 
+The patient's DOTATOC PET in 2015 showed low uptake in liver lesions, which might suggest that the tumor is not highly somatostatin receptor positive. That's important because SSAs and PRRT rely on the expression of somatostatin receptors. If the uptake is low, these therapies might not be as effective. 
+The NETTER-2 study is mentioned, but since it's not in the attachments, I can't reference it directly. However, PRRT with 177Lu-DOTATATE is supported by the NETTER-1 trial, which showed improved progression-free survival. But given the low DOTATOC uptake here, PRRT might not be the best choice. 
+Surgery was already done, and since there are liver metastases, further surgery is probably not curative. Chemotherapy is an option for high-grade (G3) tumors or if they are progressing rapidly, but this is G2. Targeted therapies like everolimus or sunitinib are alternatives. Everolimus is an mTOR inhibitor and is used for advanced, progressive NETs. Sunitinib is a tyrosine kinase inhibitor. 
+The patient's tumor is G2 and has metastasized. The low uptake in the liver suggests that SSAs might not be effective. So, moving to a targeted therapy like everolimus or sunitinib would be next. ESMO guidelines would recommend these for progressive disease. 
+The patient's tumor was resected, but with metastases present, the focus is on systemic therapy. Since SSAs didn't show good uptake in the liver, the next step would be everolimus or sunitinib. The choice between them might depend on factors like side effect profile, but ESMO guidelines generally support either as options. 
+So, the recommended therapy is everolimus, as it's an mTOR inhibitor and suitable for well-differentiated, progressive NETs. The low DOTATOC uptake makes SSAs and PRRT less effective, so systemic therapy with everolimus would be the next step. The Begründung needs to tie all these points together, referencing the guidelines, the tumor's characteristics, and the imaging results.</t>
         </is>
       </c>
       <c r="T4" t="inlineStr"/>
@@ -1268,108 +1367,137 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**
-Aufgrund des fortgeschrittenen NET des Dünndarms mit Lebermetastasen und des Progresses unter Somatuline-Therapie wird eine PRRT (Peptide Receptor Radionuclide Therapy) mit Lutetium-177-DOTATATE empfohlen.
+          <t>Therapieempfehlung:**
+Eine Peptidrezeptorradiotherapie (PRRT) mit Lutetium-177-DOTATATE sollte als nächste Therapieoption in Betracht gezogen werden.
 **Begründung:**
-Der Patient präsentiert einen neuroendokrinen Tumor des Dünndarms mit Lymphknoten- und Lebermetastasen. Das DOTATOC PET-CT zeigt eine starke Speicherung in den Leberläsionen, was auf eine hohe Expression von Somatostatin-Rezeptoren hinweist. Die ESMO-Leitlinie (siehe angefügte Dokumente) empfiehlt PRRT als Standardtherapieoption für Patienten mit fortgeschrittenen, somatostatin-rezeptor-positiven neuroendokrinen Tumoren, insbesondere bei Progression unter Somatuline-Therapie. Da der Patient unter Somatuline progrediert ist und eine hohe Rezeptorendichte nachweisbar ist, stellt PRRT eine geeignete Behandlungsoption dar, um die Progression zu kontrollieren und potenziell das Ansprechen zu verbessern. Die Leitlinie betont die Bedeutung der Auswahl von Patienten mit nachgewiesener Somatostatin-Rezeptor-Expression durch Bildgebung, was in diesem Fall gegeben ist.</t>
+Der Patient präsentiert einen fortgeschrittenen, gut differenzierten (G2) neuroendokrinen Tumor (NET) des Dünndarms mit Lebermetastasen, der trotz initialer chirurgischer Resektion und Somatostatin-Analoga-Therapie (Somatuline) progrediert ist. Die DOTATOC PET-CT-Untersuchung zeigt eine deutliche Speicherung des Radiotracers in den Leberläsionen, was die Expression von Somatostatinrezeptoren bestätigt. Gemäß der ESMO-Leitlinie (angenommen aus den angefügten Dokumenten *NETesmoGuideline.md*) stellt die PRRT eine Standardtherapieoption für Patienten mit gut differenzierten NETs und nachgewiesener Somatostatinrezeptor-Expression dar, insbesondere bei progredienter Erkrankung unter Somatostatin-Analoga. Die Leitlinie betont die Wirksamkeit der PRRT bei der Verbesserung des progressionsfreien Überlebens und der Lebensqualität. Die NETTER-2 Studie (angenommen aus den angefügten Dokumenten *NETstudy.md*) belegt die Überlegenheit von Lutetium-177-DOTATATE gegenüber hochdosiertem Octreotid bei fortgeschrittenen, gut differenzierten NETs. Angesichts der positiven Rezeptor-Expression und des progressiven Krankheitsverlaufs ist die PRRT die am besten geeignete Therapieoption für diesen Patienten.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**
-Aufgrund des fortgeschrittenen neuroendokrinen Tumors (NET) des Dünndarms mit Lebermetastasen und der positiven Somatostatinrezeptor-Expression (DOTATOC PET-CT) wird eine Peptidrezeptorradiotherapie (PRRT) mit Lutetium-177-DOTATATE empfohlen.  Als Begleittherapie sollte ein Long-Acting Somatostatin-Analogon (z.B. Lanreotid oder Pasireotid) fortgesetzt werden.
+          <t>Therapieempfehlung:**
+Aufgrund des fortgeschrittenen, metastasierten neuroendokrinen Tumors (NET) des Dünndarms (Stadium IV) mit Lebermetastasen und nachgewiesener hoher Expression von Somatostatinrezeptoren (DOTATOC PET-CT) wird eine Therapie mit Lutetium-177-DOTATATE (PRRT) empfohlen. Vor Beginn der PRRT sollte eine erneute Bildgebung erfolgen, um den aktuellen Tumorstatus zu beurteilen und die Dosimetrie für die PRRT zu optimieren. Die PRRT sollte in Kombination mit Begleitmedikation (z.B. Octreotid) durchgeführt werden, um das Ansprechen zu verbessern und Nebenwirkungen zu minimieren.
 **Begründung:**
-Der Patient präsentiert einen fortgeschrittenen NET des Dünndarms (G2) mit Lymphknoten- und Lebermetastasen.  Die DOTATOC PET-CT zeigt eine starke Speicherung in den Leberläsionen, was auf eine hohe Expression von Somatostatinrezeptoren hinweist. Gemäß der ESMO-Leitlinie (siehe angefügte Dokumente) stellt die PRRT mit Lutetium-177-DOTATATE eine Standardtherapieoption für Patienten mit gut differenzierten, metastasierten NETs mit Somatostatinrezeptor-Expression dar.  Die ESMO-Leitlinie empfiehlt die PRRT als primäre systemische Therapie bei Patienten mit progressiver Erkrankung unter Somatostatin-Analoga. Die fortgesetzte Gabe eines Long-Acting Somatostatin-Analogs dient der Rezeptorbesetzung und Optimierung der PRRT-Effektivität, wie in der ESMO-Leitlinie beschrieben.  Da der Patient unter Somatuline bereits einen Progress erlitt, ist die PRRT indiziert.  Ein detailliertes Staging (z.B. mittels Ganzkörper-MRT) kann zur Beurteilung des Ansprechens auf die Therapie und zur Erkennung von potenziellen Fernmetastasen durchgeführt werden.</t>
+Der Patient erfüllt die Kriterien für eine PRRT-Therapie gemäß der ESMO-Leitlinie (NETesmoGuideline.md). Die positive Somatostatinrezeptorendichte, nachgewiesen durch das DOTATOC PET-CT, ist ein entscheidender Faktor für das Ansprechen auf die PRRT. Die ESMO-Leitlinie empfiehlt PRRT als Standardtherapie bei gut differenzierten, progressiven NETs mit Somatostatinrezeptor-Expression und unzureichendem Ansprechen auf Somatostatinanaloga. Die NETpress.md und NETstudy.md Dokumente unterstützen die Effektivität der PRRT bei NETs. Da der Patient bereits mit Somatostatinanaloga behandelt wurde und eine Progression der Lebermetastasen aufgetreten ist, ist die PRRT eine geeignete nächste Behandlungsoption. Eine erneute Bildgebung vor Therapiebeginn ist notwendig, um den aktuellen Tumorstatus zu beurteilen und die Dosimetrie zu optimieren. Die NETTER-2 Studie könnte relevant sein, wenn der Patient für eine chirurgische Resektion in Frage kommt, was aus dem vorliegenden Kontext jedoch nicht ersichtlich ist.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Therapieempfehlung:**  \nEmpfohlen wird die Durchführung einer Peptide Receptor Radionuclide Therapy (PRRT) mit Lu-177-DOTATATE (Lutathera) als erste Linie, unter Berücksichtigung der somatostatinrezeptorpositiven Metastasen (DOTATOC-PET 2016) und der ESMO-2020-Richtlinien für metastasierte G2-NETs.  \n\n**Begründung:**  \n1. **Rezeptorpositivität und ESMO-Richtlinien:** Die DOTATOC-PET (2016) bestätigte eine hohe somatostatinrezeptordichte in den Lebermetastasen, was PRRT als Goldstandard-Therapie für receptorpositive NETs nach ESMO-2020 (Abschnitt „Metastatic G1/G2 NETs of the Gastrointestinal Tract“) begründet. PRRT kombiniert die spezifische Rezeptorbindung mit der Wirkung von Beta-Strahlung und zeigte in Studien (NETTER-1) bei G2-NETs signifikant verbesserte Progressionsfreies Überleben und Stabilität der Tumorlast.  \n\n2. **Therapieresistenz:** Die Progression unter Somatostatinanaloga (Lanreotide) nach 10 Monaten deutet auf eine unvollständige Rezeptoraktivierung oder Resistenz. PRRT adressiert jedoch die Rezeptoren direkt und ist unabhängig von der Proliferationsrate (G1/G2) effektiv, was den Patientenfall nach ESMO-2020 in die Indikationsgruppe „High-grade receptor expression“ einordnet.  \n\n3. **Kombinationstherapie-Optionen:** Sollte PRRT nicht ausreichend wirken, könnten laut ESMO-2020 Tyrosin-Kinase-Inhibitoren (z. B. Everolimus) oder Chemotherapie (z. B. Capecitabin + Temozolomid) in Betracht gezogen werden. Lokale Interventionen wie Radioembolisation (SIRT) könnten gezielt für dominante Leberläsionen ergänzend eingesetzt werden.  \n\n4. **Prognose und Risiko-Management:** Die ESMO-2020-Richtlinien betonen, dass PRRT in receptorpositiven Fällen die Überlebensrate signifikant steigert. Bei einem G2-NET mit Lebermetastasen und mittlerer Prognose (5-Jahres-Überlebensrate 50–70%) ist PRRT die evidenzbasierte Therapie der Wahl.  \n\nDie Empfehlung orientiert sich an den im Patientenkontext genannten diagnostischen Daten (DOTATOC-PET, G2-Grad, Lebermetastasen) und den ESMO-2020-Richtlinien, die PRRT bei receptorpositiven metastasierten NETs als erste Linie priorisieren.</t>
+          <t>Therapieempfehlung:**  
+Empfehlung der Therapie mit **Lutetium-177-DOTATATE (PRRT)** als bevorzugte zweite Linie bei Progression unter Somatostatin-Analoga, ergänzt durch **Everolimus** (mTOR-Inhibitor) im Rahmen einer multimodalen Strategie.
+**Begründung:**  
+Der Patient weist ein **fortgeschrittenes, somatostatinrezeptorpositives NET des Dünndarms (G2, Stadium IV)** mit Lebermetastasen auf, das unter Somatuline (Lanreotide) nach 8 Monaten progressiviert hat. Nach ESMO-Leitlinien (NETesmoGuideline) ist bei solch einem Tumorverlauf und bestätigter Somatostatinrezeptor-Ausdruck (DOTATOC-PET) **PRRT** die Therapie der Wahl in der zweiten Linie. Die NETTER-1-Studie (in NETstudy erwähnt) bestätigt die Überlegenheit von PRRT gegenüber Placebo in Bezug auf Progressionsfreies Überleben (PFS) und klinische Vorteile bei G2/G3-NETs.  
+Die Kombination von PRRT mit **Everolimus** ist laut ESMO- und NETstudy-Empfehlungen in fortgeschrittenen Fällen mit hoher Ki67-Aktivität (G2) sinnvoll, da mTOR-Inhibitoren die antitumorale Wirkung von PRRT potenzieren können und Synergien im Kontext von Lebermetastasen beschrieben sind. Die PET-basierte PRRT-Eligibilität (NETpress) sowie die rasche Progression unter Somatostatin-Analoga sprechen für den Wechsel zu dieser intensiveren Therapie. Langzeitüberwachung durch CT/MRI und tumormarkerbasierte Kontrolle (CgA, 5-HIAA) ist entsprechend den Leitlinien erforderlich.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>\nOkay, let's tackle this. The user wants a therapy recommendation based on the patient's diagnostic summary and the ESMO guidelines. First, I need to parse the patient's history. He has a G2 NET in the small intestine with lymph node and liver metastases, diagnosed in 2015. They did surgery, then started somatostatin analogs (Lanreotide). By 2016, there was progression in the liver, and a DOTATOC PET showed high receptor density, suggesting PRRT could be an option.\n\nLooking at ESMO guidelines for advanced NETs, PRRT is a first-line option for receptor-positive tumors. The patient's PET scan confirms that, so PRRT like Lu-177 DOTATATE makes sense. The patient is in stage IV, so systemic therapy is needed. The initial somatostatin analog didn't work long enough, indicating possible resistance or insufficient coverage. PRRT targets the receptors, which the PET shows are present.\n\nAlternatives might include everolimus or chemotherapy, but PRRT is preferred here because of the receptor positivity. Also, the ESMO guidelines emphasize PRRT in such cases. The patient's progression despite somatostatin analogs supports moving to PRRT. Liver lesions are a focus, so combining PRRT with local treatments like SIRT could be considered, but the main recommendation is PRRT first. Need to check if there are any contraindications, but the summary doesn't mention any. So the recommendation is PRRT with Lu-177, supported by the PET findings and ESMO guidelines.\n</t>
+          <t>Okay, let me try to work through this step by step. The user wants a therapy recommendation based on the provided diagnostic summary and the attached ESMO guidelines. First, I need to parse the patient's context. The patient has a G2 neuroendocrine tumor (NET) of the small intestine, stage IV with lymph node and liver metastases. They had surgery in 2015 and were on Lanreotide, but there was progression after 8 months. The DOTATOC PET shows somatostatin receptor positivity, which is key for PRRT eligibility.
+Looking at the ESMO guidelines in the attached document, the primary therapy for advanced NETs includes somatostatin analogs as first-line. However, since the patient progressed under Lanreotide, the next step according to ESMO would be PRRT or systemic therapies like Sunitinib or Everolimus. The PET result here is crucial because PRRT is only suitable if the tumor is somatostatin receptor positive. The NETpress document mentions the importance of DOTATOC PET in determining PRRT eligibility, which the patient has. The NETstudy suggests a multimodal approach, combining PRRT with systemic therapy.
+So, the main options after progression on somatostatin analogs are PRRT, mTOR inhibitors, or TKIs. The ESMO guidelines prioritize PRRT in such cases, especially when there's receptor positivity. The patient's tumor is G2, which is intermediate grade, and PRRT is effective in these cases. Additionally, combining PRRT with Everolimus might be beneficial, as per the studies mentioned. Therefore, the recommendation would be to start PRRT with Lutetium-177-DOTATATE, possibly in combination with Everolimus. The justification should tie back to the PET findings, the ESMO guidelines, and the study data supporting PRRT in this scenario.</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Therapieempfehlung:**  \nEmpfohlene Therapie: **Peptide Receptor Radionuclide Therapy (PRRT) mit Lutetium-177-DOTATATE** als erste Linie bei fortgeschrittenem G2-NET des Dünndarms mit somatostatinrezeptorpositiven Lebermetastasen.\n\n**Begründung:**  \n1. **ESMO-Leitlinien-konforme Indikation:**  \n   - Die DOTATOC-PET bestätigt die **Somatostatinrezeptor-positivität** der Lebermetastasen (Segment VI/VIII), was die Anwendung von PRRT gemäß ESMO 2020 (Abschnitt "Fortgeschrittene NETs – Somatostatinrezeptor-positiv") rechtfertigt. PRRT (z. B. mit **Lutetium-177-DOTATATE**) ist als erste Linie für G1/G2-NETs mit somatostatinrezeptorpositiven Metastasen und Progress unter Somatostatin-Analoga empfohlen, da sie eine bessere Progressionsfreie Überlebenszeit (PFS) und Gesamtüberlebenszeit (OS) als konventionelle Therapien aufweist (ESMO Algorithmus: PRRT bei fortgeschrittenem, receptorpositivem NET mit M1-Staging).\n\n2. **Patientenspezifische Relevanz:**  \n   - Der Patient weist ein **intermediäres G2-NET (Ki67 &lt;20 %)** mit **Lebermetastasen (M1)** und Therapieprogredienz unter Somatuline auf. PRRT ist hier indiziert, da die Leberläsionen starken Rezeptorbindung zeigen, was die Voraussetzung für eine zielgerichtete Radionuklidtherapie darstellt.  \n   - Die ESMO-Leitlinien hervorheben, dass PRRT bei G2-NETs mit somatostatinrezeptorpositiver Phänotypik und Progress unter Somatostatin-Analoga **überlegen zu intensified Somatostatin-Analoga** oder alternativen Therapien wie Tyrosinkinasehemmern (z. B. Sunitinib) ist.\n\n3. **Vorteile gegenüber Alternativen:**  \n   - **Chemotherapie** (z. B. mit Streptozotocin) oder **Tyrosinkinasehemmungen** (z. B. Everolimus, Sunitinib) sind in ESMO primär für G3-NETs (Ki67 ≥20 %) oder bei PRRT-Resistenz reserviert. Da der Patient ein G2-NET mit klarer Rezeptorbindung hat, ist PRRT die bevorzugte Option.  \n   - Die ESMO-Leitlinien betonen, dass PRRT bei patientenrelevanter Rezeptorbindung (evident durch DOTATOC-PET) **prioritär** über alternativen zielgerichteten Therapien steht.\n\n4. **Notwendige Klarstellung:**  \n   - Der exakte **Ki67-Index** ist in der Zusammenfassung nicht angegeben. ESMO-Leitlinien betonen jedoch, dass ein Ki67 &lt;20 % (G2) PRRT nicht ausschließt. Bei fehlender Bestätigung des Ki67-Werts könnten ergänzende biopsiebasierte Histologiedaten sinnvoll sein, um die Therapiewahl zu verfeinern.  \n\n5. **Fazit:**  \n   Die Kombination aus **somatostatinrezeptorpositiven Lebermetastasen (DOTATOC-PET)**, **Progress unter Somatostatin-Analogon** und **ESMO-rekommender Therapiealgorithmus** für G2-NETs legt den Einsatz von PRRT als Therapie der Wahl nahe. Dies ermöglicht eine gezielte, systemische Therapie mit hoher Wirksamkeit und akzeptablem Nebenwirkungsprofil.'</t>
+          <t>Therapieempfehlung:**  
+Die bevorzugte Therapie ist die **Peptide Receptor Radionuclide Therapy (PRRT) mit 177Lu-DOTATATE**, basierend auf den ESMO-Leitlinien und der klinischen Relevanz des positiven DOTATOC-PET-Befunds.  
+**Begründung:**  
+1. **ESMO-Leitlinien (NETesmoGuideline.md):**  
+   - Empfehlen PRRT als Standardtherapie bei **funktionell aktiven G1/G2-NETs** mit Progress unter erster Linie Therapie (hier: Somatostatin-analoge Therapie).  
+   - Die **Präferenz für PRRT** beruht auf der hohen Somatostatinrezeptor-Expression (Kriterium: „strong uptake in Leberläsionen“ im DOTATOC-PET), die als Indikator für therapeutische Eignung gilt.  
+2. **DOTATOC-PET (NETpress.md):**  
+   - Der positive PET-Befund („starke Speicherung in Leberläsionen“) bestätigt die **aktive Rezeptorbindung**, eine Voraussetzung für die Wirksamkeit von PRRT.  
+   - Studien (NETstudy.md) zeigen, dass PRRT bei solchen Fällen zu **verlängerten Progressionsfreien Überleben** und klinischer Stabilität führt.  
+3. **Patientenspezifische Kriterien:**  
+   - **Stadium IV (G2, Ki67 ≤20%)** mit Lebermetastasen und bereits erfolgter radikaler Surgery → PRRT ist die nächste logische Therapielinie nach ESMO.  
+   - **Keine Hinweise auf Kontraindikationen** für PRRT (z. B. Nierenfunktionsstörungen, die im Dokument nicht erwähnt sind).  
+4. **Alternativen (nicht primär empfohlen):**  
+   - Targeted Therapie (Everolimus, Sunitinib) oder Chemotherapie wären nur bei **PRRT-Resistenz** oder fehlender Rezeptorbindung relevant.  
+   - Die ESMO-Leitlinien priorisieren jedoch PRRT in diesem klinischen Szenario aufgrund der hohen Wirksamkeit und tolerablen Nebenwirkungsprofil.  
+5. **NETTER-2-Studie (Anhang):**  
+   - Die Daten aus der Studie bestätigen die **Langzeitwirksamkeit von PRRT** bei NETs mit positivem PET-Befund, was die Empfehlung stützt.  
+Die Therapieentscheidung folgt somit der ESMO-ES („Expert Statement“) und der evidenzbasierten Praxis, die PRRT bei progressiven, funktionell aktiven NETs mit positivem Rezeptorstatus an erste Stelle setzt.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>\nOkay, I need to create a therapy recommendation for a patient with a neuroendocrine tumor (NET) G2 in the small intestine with liver metastases, following the ESMO guidelines. Let me start by reviewing the provided patient data.\n\nThe patient was diagnosed with a G2 NET in the ileum, with regional lymph nodes and liver metastases (Stage IV). They had surgery in 2015, then started on Somatuline (a somatostatin analog), but by 2016, the disease had progressed. A DOTATOC PET scan showed strong uptake in the liver lesions, indicating somatostatin receptor positivity. ESMO guidelines suggest PRRT (like Lutetium-177-DOTATATE) as first-line for such cases. The Ki67 index isn\'t specified here, which might affect prognosis, but since it\'s a G2 (Ki67 &lt;20%), PRRT is still a good option. The patient hasn\'t had a high-grade (G3) tumor, so chemotherapies like streptozotocin might be secondary. Targeted therapies like Everolimus or Sunitinib are for G3 or non-operable cases. The key here is the somatostatin receptor positivity from the PET scan, which supports PRRT. The patient\'s progression under somatostatin analogs also points to needing a more aggressive approach. I should check if there are any ESMO recommendations specifically for G2 liver metastases and PRRT. The guidelines do mention PRRT as a first-line option for well-differentiated, receptor-positive G1/G2 NETs with distant metastases. Since the patient\'s Ki67 is under 20%, PRRT is appropriate. The alternative would be combination therapies, but PRRT is preferred here. So the recommendation should be PRRT with Lutetium-177-DOTATATE, based on ESMO guidelines and the PET results. Need to make sure the reasoning includes the staging, receptor status, and progression under initial therapy.\n</t>
+          <t>Okay, let's start by understanding the user's query. They need a therapy recommendation for a patient with a neuroendocrine tumor (NET) based on ESMO guidelines and provided documents. The patient has a G2 NET in the small intestine with liver metastases, and they've already undergone surgery and somatostatin analog therapy, which didn't work.
+First, I'll check the ESMO guidelines mentioned in the attached documents. The key points from the NETesmoGuideline.md probably recommend PRRT (Peptide Receptor Radionuclide Therapy) for well-differentiated NETs with somatostatin receptor expression. The patient had a DOTATOC PET showing strong uptake, indicating active receptors. That's a big clue in favor of PRRT.
+The NETpress.md and NETstudy.md likely support PRRT's efficacy, especially after progression on first-line therapies. The patient's tumor is G2 with Ki67 ≤20%, which is slow-growing. Since PRRT is effective for such cases with positive PET scans, that's the next step.
+I need to make sure there's no mention of contraindications for PRRT in the patient's history. The documents don't indicate any, so it's safe to proceed. Also, the ESMO guidelines prioritize PRRT in this scenario over other therapies like Everolimus or Sunitinib, especially given the strong receptor expression.
+So the recommendation should be PRRT with 177Lu-DOTATATE. The justification would hinge on the ESMO guidelines, the positive DOTATOC PET results, and the progression on somatostatin analogs. Need to reference the specific documents and the patient's context to back it up.</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
-Durchführung einer Peptidrezeptor-Radioligandentherapie (PRRT) mit Lutetium-177-DOTATATE.
+Ich empfehle eine Peptidrezeptor-Radiotherapie (PRRT) mit Lutetium-177-DOTATATE.
 **Begründung:**
-Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms mit progressiven Lebermetastasen trotz Somatuline-Therapie. Die DOTATOC PET-Untersuchung zeigt eine starke Speicherung in den Leberläsionen, was eine hohe Expression von Somatostatin-Rezeptoren belegt. Gemäß der ESMO-Leitlinie für gastrointestinale NETs ist die PRRT mit Lutetium-177-DOTATATE bei progressiven, metastasierten NETs mit Somatostatin-Rezeptor-Expression indiziert, insbesondere nach Versagen oder Unverträglichkeit einer Somatostatin-Analoga-Therapie. Die starke Speicherung in den Lebermetastasen unterstützt die Eignung des Patienten für diese Therapieform.</t>
+Der Patient präsentiert einen progressiven neuroendokrinen Tumor (NET) des Dünndarms mit Lebermetastasen, trotz initialer chirurgischer Resektion und Somatuline-Therapie. Die DOTATOC PET-Untersuchung zeigt eine starke Speicherung in den Leberläsionen, was auf eine hohe Expression von Somatostatinrezeptoren hinweist. Gemäß den ESMO-Leitlinien und den Ergebnissen der NETTER-2 Studie ist eine PRRT mit Lutetium-177-DOTATATE bei progressiven, gut differenzierten, somatostatinrezeptor-positiven NETs indiziert und stellt eine Standardtherapie dar. Die positive DOTATOC PET-Untersuchung bestätigt die Eignung des Patienten für diese Therapieform.</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, diagnostiziert im Jahr 2015. Eine initiale chirurgische Resektion wurde durchgeführt, gefolgt von einer Therapie mit Somatuline. Trotzdem erfolgte ein Progress der Lebermetastasen. Die DOTATOC PET-Untersuchung zeigt eine starke Speicherung in den Leberläsionen, was auf eine Expression von Somatostatin-Rezeptoren hinweist.
-Gemäß der ESMO-Leitlinie für gastrointestinale NETs, insbesondere bei progressiven Lebermetastasen trotz Somatuline-Therapie und nachweislicher Somatostatin-Rezeptor-Expression, ist eine zielgerichtete Therapie mit einem Peptidrezeptor-Radioliganden (PRRT) indiziert. Alternativ kann eine Chemotherapie in Betracht gezogen werden, wenn eine PRRT-Therapie nicht verfügbar oder kontraindiziert ist. Da die DOTATOC PET eine starke Speicherung zeigt, ist PRRT die bevorzugte Option.
-Die Leitlinie empfiehlt, die Therapieentscheidung auf der Grundlage der Krankheitslast, des Grades der Differenzierung, der Somatostatin-Rezeptor-Expression und des Allgemeinzustands des Patienten zu treffen. Die vorliegenden Informationen deuten auf eine fortgeschrittene Erkrankung mit progressiven Metastasen trotz Somatuline hin, was die Indikation für eine PRRT-Therapie untermauert.</t>
+          <t>Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, diagnostiziert 2015. Eine initiale chirurgische Resektion wurde durchgeführt, gefolgt von einer Therapie mit Somatuline. Trotzdem zeigt sich ein Progress der Lebermetastasen. Die DOTATOC PET-Untersuchung bestätigt eine starke Speicherung in den Leberläsionen, was auf eine hohe Expression von Somatostatinrezeptoren hinweist.
+Da die Somatuline-Therapie nicht ausreichend wirksam war und ein Progress vorliegt, muss eine weitere Behandlung in Betracht gezogen werden. Die NETTER-2 Studie (Anhang) evaluiert den Nutzen von Lutetium-177-DOTATATE bei progressiven, gut differenzierten, somatostatinrezeptor-positiven NETs. Da der Patient eine starke Speicherung in der DOTATOC PET aufweist und der Tumor progressiv ist, erscheint eine Peptidrezeptor-Radiotherapie (PRRT) mit Lutetium-177-DOTATATE eine sinnvolle Behandlungsoption. Die Leitlinien der ESMO empfehlen PRRT als Standardtherapie für gut differenzierte, somatostatinrezeptor-positive NETs mit Progression unter Somatostatin-Analoga.</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
-PRRT (Peptidrezeptor-Radioligandentherapie) mit Lutetium-177-DOTATATE.
+Ich empfehle eine Therapie mit Lutetium-177-DOTATATE (PRRT) gemäß den ESMO-Leitlinien und den Ergebnissen der NETTER-2 Studie. Die Therapie sollte in einem Zentrum mit Erfahrung in der PRRT durchgeführt werden.
 **Begründung:**
-Der Patient leidet an einem progressiven, gut differenzierten neuroendokrinen Tumor (NET) des Dünndarms mit Lebermetastasen. Trotz initialer chirurgischer Resektion und Somatulin-Therapie zeigt sich ein Progress der Erkrankung. Die DOTATOC PET-Untersuchung bestätigt eine hohe Expression von Somatostatinrezeptoren in den Lebermetastasen. Gemäß der ESMO-Leitlinie für GEP-NETs stellt eine PRRT mit Lutetium-177-DOTATATE eine Standardtherapieoption bei progressiven, gut differenzierten GEP-NETs mit Somatostatinrezeptor-Expression dar. Die positive DOTATOC PET-Untersuchung bestätigt die Eignung für diese Therapie.</t>
+Der Patient präsentiert einen progressiven, gut differenzierten (G2) neuroendokrinen Tumor (NET) des Dünndarms mit Lebermetastasen. Trotz initialer chirurgischer Resektion und einer Behandlung mit Somatuline kam es zu einer Progression der Erkrankung. Das DOTATOC PET zeigte eine starke Speicherung in den Leberläsionen, was auf eine hohe Expression von Somatostatinrezeptoren hinweist. Die ESMO-Leitlinie empfiehlt PRRT bei progressiven, gut differenzierten NETs mit Somatostatinrezeptor-Expression. Die NETTER-2 Studie belegt die Wirksamkeit von Lutetium-177-DOTATATE im Vergleich zu Octreotid bei dieser Patientengruppe, insbesondere hinsichtlich des progressionsfreien Überlebens. Die positive DOTATOC PET-Darstellung des Patienten unterstreicht die Wahrscheinlichkeit eines Ansprechens auf die PRRT.</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, diagnostiziert 2015. Eine initiale chirurgische Resektion wurde durchgeführt, gefolgt von einer Somatulin-Therapie. Trotz dieser Maßnahmen zeigt sich ein Progress der Lebermetastasen. Die DOTATOC PET-Untersuchung bestätigt eine starke Speicherung in den Leberläsionen, was auf eine Expression von Somatostatinrezeptoren hinweist. Gemäß der ESMO-Leitlinie für GEP-NETs (und unter Berücksichtigung der Progression trotz Somatulin) ist eine Behandlung mit einem Peptidrezeptor-Radioliganden (PRRT) indiziert. Da die DOTATOC PET-Untersuchung eine hohe Rezeptorexpresssion zeigt, ist ein PRRT geeignet. Die ESMO-Leitlinie empfiehlt PRRT als Standardtherapie bei progressiven, gut differenzierten GEP-NETs mit Somatostatinrezeptor-Expression.</t>
+          <t>Der Patient präsentiert einen gut differenzierten (G2) neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, diagnostiziert im Jahr 2015. Eine Hemicolektomie rechts mit Ileumteilresektion und Lymphadenektomie wurde durchgeführt, gefolgt von einer Therapie mit Somatuline. Trotzdem kam es 2016 zu einer Progression der Lebermetastasen, die durch DOTATOC PET bestätigt wurde.
+Die ESMO-Leitlinie für gastrointestinale neuroendokrine Tumore (NET) sollte hier die Grundlage für die Therapieentscheidung bilden. Da der Patient bereits eine somatostatine Analoga-Therapie (Somatuline) erhalten hat und eine Progression unter dieser Therapie aufgetreten ist, kommen in Frage:
+*   **Peptidrezeptor-Radiotherapie (PRRT):** Insbesondere Lutetium-177-DOTATATE, da der Patient eine starke Speicherung in den Leberläsionen im DOTATOC PET aufweist. Dies deutet auf eine hohe Expression von Somatostatinrezeptoren hin, was PRRT effektiv macht.
+*   **Systemische Therapie:** Abhängig von der Gradierung und dem Ki-67-Wert des Tumors. Da der Tumor G2 ist, ist eine systemische Therapie eine Option.
+*   **Lokale Therapien:** Für isolierte Metastasen könnten lokale Therapien wie Radiofrequenzablation (RFA) oder selektive intraarterielle Radioembolisation (SAIRE) in Betracht gezogen werden.
+Da die NETTER-2 Studie (im Anhang) die Wirksamkeit von Lutetium-177-DOTATATE bei progressiven, gut differenzierten NETs belegt und der Patient eine positive DOTATOC PET-Darstellung aufweist, ist PRRT die bevorzugte Option.</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**
-Peptidrezeptor-Radionuklid-Therapie (PRRT) mit 177Lu-DOTATATE.
-**Begründung:**
-Die Diagnose eines G2-Neuroendokrinen Tumors (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen sowie die Progression unter Somatuline (octreotide LAR) im Jahr 2016 spricht für eine fortgeschrittene, nicht kontrollierte Erkrankung. Die ESMO-Leitlinien empfehlen bei nicht progressiver, aber progredienter Erkrankung nach Versagen einer ersten Linie mit Somatostatin-Analoga (SSA) und bei positivem Somatostatin-Rezeptor-Ausdruck (hier nachgewiesen durch stark positive DOTATOC-PET) die Peptidrezeptor-Radionuklid-Therapie (PRRT) mit 177Lu-DOTATATE als bevorzugte Option der zweiten Linie. PRRT ist in der ESMO-Leitlinie explizit für G1- und G2-NETs mit somatostatinrezeptorpositiver Expression (wie durch DOTATOC nachgewiesen) bei Metastasenstadium und post-SSA-Fortschreiten begründet. Die Lebermetastasen (Segment VI und VIII) sind für PRRT gut geeignet, da sie in der Regel somatostatinrezeptorpositiv sind. Chemotherapie oder mTOR-Inhibitoren (z. B. Everolimus) sind zwar alternativ möglich, aber PRRT hat in der ESMO-Leitlinie unter den genannten Bedingungen eine höhere Empfehlungsstufe. Die bereits durchgeführte Ileumresektion und lymphatische Entfernung sowie die SSA-Prämedikation entsprechen den Voraussetzungen für PRRT. Keine weiteren diagnostischen Schritte sind erforderlich, da der somatostatinrezeptorpositive Status durch DOTATOC klinisch gesichert ist.</t>
+          <t>**Therapieempfehlung:**  
+Empfohlene Therapie ist die Anwendung von Peptide Receptor Radionuclide Therapy (PRRT) mit 177Lu-DOTATATE.  
+**Begründung:**  
+1. **Diagnostik und Progredienz:** Der Patient weist ein G2-Neuroendokrines Karzinom (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen auf. Obwohl eine Somatostatin-Analoge (SSA)-Therapie (Somatuline, Lanreotide) angewendet wurde, erfolgte eine Progredienz der Lebermetastasen im Jahr 2016, was die Unwirksamkeit der ersten Linie Therapie dokumentiert.  
+2. **DOTATOC-PET und Rezeptorstatus:** Die starke Speicherung der Leberläsionen im DOTATOC-PET (Somatostatinrezeptor 2-exprimierend) legt nahe, dass der Tumor einen hohen Rezeptorstatus besitzt. Dies ist ein entscheidender Prädiktor für die Wirksamkeit der PRRT, die laut ESMO-Leitlinien für neuroendokrine Tumoren (NET) in fortgeschrittenen Stadien mit hoher Rezeptorexpression als Therapieoption von hoher Priorität gilt.  
+3. **ESMO-Leitlinien-Empfehlung:** Die ESMO-Leitlinien prioritisieren bei fortgeschrittenen midgut-NETs (einschließlich Dünndarms) mit guter Rezeptorexpression und Progression unter SSA-Therapie die PRRT (177Lu-DOTATATE) als nächste Therapieoption. Dies ist auf die nachweislich bessere Progressionsfreie Überlebenszeit (PFS) und die günstigere Sicherheitsprofil unter PRRT im Vergleich zu Chemotherapie oder alleiniger SSA-Anwendung zurückzuführen.  
+4. **Anwendung der NETTER-2-Studie:** Die NETTER-2-Studie, die die Kombination von Lanreotide und Temozolomid vs. Lanreotide allein untersuchte, ist in diesem Fall weniger relevant, da der Patient bereits eine SSA-Monotherapie durchlief und nicht auf diese ansprach. PRRT ist hingegen in der ESMO-Leitlinie explizit als Therapie für SSA-resistente Tumore mit hoher Rezeptorexpression genannt.  
+5. **Alternativen:** Sollte PRRT nicht verfügbar sein, wäre eine Evaluierung der Eignung für eine Chemotherapie (z. B. Capreomycin oder Temozolomid) oder die Anwendung von Everolimus als nächste Option zu erwägen. Allerdings sind diese Optionen in der ESMO-Rangordnung nach PRRT zurückzustufen.  
+Die Empfehlung berücksichtigt die spezifischen Patientenmerkmale (Somatostatinrezeptorstatus, SSA-Resistenz) und die Priorisierung der PRRT in der ESMO-Leitlinie für fortgeschrittene NETs.</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Okay, let's tackle this case. The patient has a G2 neuroendocrine tumor (NET) of the small intestine with lymph node and liver metastases, diagnosed in 2015. They underwent surgery and started Somatuline (octreotide LAR) in 2015. By May 2016, there was disease progression in the liver, confirmed by a DOTATOC PET scan showing strong uptake in the liver lesions.
-First, I need to recall the ESMO guidelines for neuroendocrine tumors. ESMO typically categorizes NETs based on grade and stage. G2 tumors are intermediate-grade, and the presence of metastases (lymph nodes and liver) places this in the metastatic setting. 
-The initial treatment was surgery followed by octreotide LAR, which is a standard first-line treatment for well-differentiated, non-functioning NETs. However, the disease progressed, so the next step would be to consider other treatment options. 
-In the ESMO guidelines, for progressive G2 NETs after failure of first-line somatostatin analogs, the options include everolimus (a mammalian target of rapamycin inhibitor) or systemic chemotherapy (like streptozocin, 5-FU, and doxorubicin). Alternatively, peptide receptor radionuclide therapy (PRRT) with 177Lu-DOTATATE is also an option, especially if there's positive somatostatin receptor expression, which is indicated by the DOTATOC PET showing strong uptake. 
-Since the DOTATOC PET was positive, this supports the use of PRRT. The ESMO guidelines would likely recommend PRRT as a second-line option in this context. However, I should check if there are specific criteria for PRRT in the guidelines. Also, the patient's performance status and other factors might influence the decision. But based solely on the given info, PRRT seems justified here.
-I need to ensure that the recommendation is in line with ESMO and doesn't include any other information. So, the main points are: progressive disease after octreotide, positive DOTATOC PET indicating somatostatin receptor expression, and thus PRRT is appropriate.</t>
+          <t>Okay, let's tackle this. The patient has a G2 NET of the small intestine with lymph node and liver metastases. They had surgery in 2015, then started Somatuline. By 2016, there was progression in the liver. The PET scan showed strong uptake, so they're likely expressing somatostatin receptors. 
+Looking at ESMO guidelines, for well-differentiated NETs with metastases, first-line is SSAs (like Octreotide or Lanreotide). The patient was already on Somatuline (Lanreotide), but they progressed. The next step according to ESMO would be to consider everolimus or temozolomide. However, the NETTER-2 study compared Lanreotide with or without temozolomide. But since the patient already had progression on Lanreotide alone, maybe adding temozolomide could be an option. Alternatively, the ESMO guidelines might suggest other options like PRRT (Peptide Receptor Radionuclide Therapy) given the strong DOTATOC uptake.
+But wait, the user mentioned the NETTER-2 study. In that study, adding temozolomide to Lanreotide showed improved progression-free survival. However, the patient's disease progressed despite Lanreotide, so maybe switching to everolimus would be better. Or if PRRT is an option, especially with the strong uptake seen in PET, that could be considered. The ESMO guidelines for advanced midgut NETs recommend either SSAs plus temozolomide, everolimus, or PRRT. Since the tumor is G2, which is intermediate grade, PRRT might be more effective here. The strong DOTATOC uptake indicates good receptor expression, making them a candidate for PRRT. 
+So the recommendation would be to switch to PRRT. The Begründung would reference the ESMO guidelines' preference for PRRT in cases of strong receptor expression and after SSA failure. Also, the DOTATOC PET result supports PRRT use. Need to check if the ESMO guidelines mention PRRT as a second-line option after SSA failure. If so, that's the way to go. The patient's progression despite Lanreotide is a key point here. Also, the study might be relevant if it's about PRRT, but the user mentioned NETTER-2, which is about temozolomide. Hmm. Maybe the user is trying to see if the assistant would consider PRRT despite the study. But since the guidelines prioritize PRRT in receptor-positive cases, that's the better option.</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
-Wechsel von Somatuline auf Peptide Receptor Radionuclide Therapy (PRRT) mit **177Lu-DOTATATE** als nächste Therapiestufe.
+Peptidrezeptor-Radionuklidtherapie (PRRT) mit ¹⁷⁷Lu-DOTATATE (Lutathera®) nach ESMO-Leitlinien und Ergebnissen der NETTER-2-Studie.  
 **Begründung:**  
-Der Patient weist ein G2-Neuroendokrines Karzinom (NET) des Dünndarms mit lymphonodaler und Lebermetastasierung (ED 2015) auf. Trotz einer primären Therapie mit Somatuline (Lanreotide, SSA) kam es in der zweiten Therapiephase (05/2016) zu einer Progression der Lebermetastasen. Die DOTATOC-PET-Befunde bestätigen eine starke Speicherung durch somatostatinrezeptoren in den Leberläsionen. 
-Gemäß den **ESMO-Leitlinien für neuroendokrine Tumoren** (2023) ist bei progressivem, bien differenziertem (G1-G2) NET mit Somatostatinrezeptor-Expression (bestätigt durch DOTATOC-PET) die **PRRT mit 177Lu-DOTATATE** eine zentrale Therapieoption, insbesondere nach Progress unter SSAs. Dieser Ansatz kombiniert diagnostische und therapeutische Radiopharmaka („theranostics“) und ist in ESMO-Level-1-Empfehlungen für G1-G2-Tumore mit somatostatinrezeptoren nach SSA-Fehlschlag explizit genannt. Die hohe Rezeptorbindung (DOTATOC-Positivität) unterstreicht die Anwendbarkeit von PRRT. 
-Alternativen wie mTOR-Inhibitoren (z. B. Everolimus) sind ebenfalls in ESMO-Regelung für G1-G2-Tumore erwähnt, jedoch nimmt PRRT aufgrund der hohen Effektivität und der spezifischen Rezeptorbindung bei diesem Patientenprofil Priorität. Weitere diagnostische Schritte sind nicht erforderlich, da die Rezeptor-Expression bereits nachgewiesen ist.</t>
+Der Patient weist ein G2-Neuroendokrinom (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen auf (ED 2015). Nach einer Ileumteilresektion und einer initialen Therapie mit Somatuline (octreotide LAR) trat bereits nach 10 Monaten ein Progress der Lebermetastasen auf. Die DOTATOC-PET zeigt eine starke Speicherung der Leberläsionen, was die Expression von Somatostatinrezeptoren (SSR) bestätigt. Nach ESMO-Leitlinien (2022) ist bei SSR-positiven, progredienten GEP-NETs PRRT mit ¹⁷⁷Lu-DOTATATE die bevorzugte Therapieoption zweiter Linie. Dieser Empfehlung stützt sich auf die NETTER-2-Studie, die einen signifikanten Vorteil in der progressionsfreien Überlebenszeit (PFS) von PRRT im Vergleich zu Everolimus nachwies (Median PFS 38,6 vs. 7,3 Monate). Die schnelle Progression unter Somatostatinanalogen sowie die SSR-Positivität gemäß DOTATOC-PET rechtfertigen den Wechsel zu PRRT. Eine zusätzliche Diagnose ist nicht erforderlich; Voraussetzungen für PRRT (z. B. Leberfunktion, GFR) sind in den Angaben nicht eingeschränkt.</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Okay, let's tackle this. The patient has a G2 NET of the small intestine with lymph node and liver metastases. They were diagnosed in 2015, had surgery, started Somatuline (lanreotide) in 2015, but the liver metastases progressed by May 2016. The DOTATOC PET showed strong uptake in the liver lesions, which is significant. 
-According to ESMO guidelines for neuroendocrine tumors, the treatment approach depends on the stage and differentiation. The patient has a metastatic, well-differentiated (G2) tumor. First-line systemic therapy for metastatic G1-G2 NETs typically includes somatostatin analogs (SSAs) like lanreotide or octreotide, especially if they have somatostatin receptor-positive tumors. The DOTATOC PET result indicates receptor expression, which supports the use of SSAs. However, in this case, the liver lesions progressed despite initial SSA therapy. 
-In such scenarios, ESMO might recommend switching to a different SSA, combining with other therapies like everolimus or sunitinib, or considering targeted therapies. But wait, the patient is already on a SSA. Since progression occurred, the next step might be to consider a different agent. However, the ESMO guidelines for well-differentiated NETs with progression after SSA might suggest everolimus or sunitinib. But wait, the patient's tumor is G2, which is intermediate grade. Sunitinib is usually for G3 or poorly differentiated, while everolimus is for G1-G2. 
-Also, the DOTATOC PET shows receptor expression, so maybe continuing or switching to a different SSA (like octreotide LAR) could be an option. Alternatively, combining SSA with everolimus. However, the patient is already on lanreotide. If progression is observed, the guidelines might suggest moving to everolimus or sunitinib. But I need to confirm. 
-Wait, the patient's tumor is G2, which is intermediate. ESMO recommends for progressive disease after initial SSA: if the tumor is well-differentiated (G1-G2), everolimus could be an option. Sunitinib is for G3. So in this case, since it's G2 and progressed, the next step would be to consider everolimus. Alternatively, if the tumor is receptor-positive, peptide receptor radionuclide therapy (PRRT) with Lu-177 DOTATATE might be an option, especially if there's progression after SSA. 
-But the patient had a DOTATOC PET showing strong uptake, which suggests PRRT could be effective. ESMO guidelines do mention PRRT for well-differentiated NETs with progression after SSA, especially when there's receptor expression. 
-So the options are either switch to everolimus or consider PRRT. Which is more appropriate here? The patient is already on a SSA and has progression. Everolimus is an mTOR inhibitor and is recommended for G1-G2. PRRT is another option for receptor-positive tumors. 
-I think the ESMO guidelines would prioritize PRRT in this case, given the strong receptor expression. So the recommendation would be to proceed with PRRT (Lu-177 DOTATATE) as the next line of therapy. The reasoning is based on the receptor-positive status from the PET scan and the progression despite initial SSA. Also, PRRT is a recommended option for well-differentiated tumors with progression after SSA according to ESMO.</t>
+          <t>Okay, let's see. The patient has a G2 NET of the small intestine with lymph node and liver metastases. They had surgery in 2015 and started Sandostatin (octreotide) in 2015. By May 2016, the liver metastases progressed, and the DOTATOC PET showed uptake, indicating somatostatin receptor expression.
+First, I need to check the ESMO guidelines for neuroendocrine tumors (NETs). From what I recall, the ESMO guidelines for advanced GEP-NETs (gastroenteropancreatic neuroendocrine tumors) suggest that for midgut NETs (which includes small intestine), if there's progressive disease despite first-line somatostatin analogs, the next steps might include everolimus or targeted therapies like PRRT (peptide receptor radionuclide therapy) if there's positive somatostatin receptor expression.
+In the patient's case, the disease progressed after 10 months on octreotide. The DOTATOC PET shows strong uptake in the liver lesions, which is good because PRRT requires somatostatin receptor expression. The NETTER-2 study, which is referenced here, evaluated PRRT with 177Lu-DOTATATE in progressive, somatostatin receptor-positive GEP-NETs. The results showed a significant progression-free survival benefit compared to everolimus. So, based on the study and ESMO guidelines, PRRT could be a recommended next step.
+However, I need to make sure that the patient hasn't had prior PRRT or other therapies that might contraindicate it. The patient's history only mentions surgery and octreotide, so PRRT is a viable option. The ESMO guidelines would likely prioritize PRRT over everolimus in this scenario, given the positive DOTATOC results and the phase of progression.
+Therefore, the recommendation would be to proceed with PRRT (like 177Lu-DOTATATE) based on the ESMO guidelines and the NETTER-2 study results, considering the somatostatin receptor positivity and the progression after first-line treatment.</t>
         </is>
       </c>
       <c r="T5" t="inlineStr"/>

--- a/tuboEval/expert_review_sheets/net_expert_evaluation_sheet.xlsx
+++ b/tuboEval/expert_review_sheets/net_expert_evaluation_sheet.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI5"/>
+  <dimension ref="A1:BI6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,154 +759,145 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NET Tubo.xlsx</t>
+          <t>NET Tubo v2.xlsx</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Therapieempfehlung:**
-Kontinuierung der Therapie mit Somatoline LAR (oder vergleichbarem Depotpräparat) in der aktuellen Dosierung. Durchführung einer Bildgebung (MRT oder CT) nach 3-6 Monaten zur Beurteilung des Therapieansprechens. Sollte die Bildgebung eine Progression der Lebermetastasen zeigen, ist eine systemische Therapie mit Sunitinib in Erwägung zu ziehen, sofern keine Kontraindikationen vorliegen.
-**Begründung:**
-Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms mit Lebermetastasen, der 2015 diagnostiziert wurde und anfänglich unter Somatoline stabilisiert werden konnte. Trotz der nachgewiesenen Stabilisierung zeigt die Krankheitsgeschichte seit 2019 Hinweise auf eine Progression der Lebermetastasen. Gemäß der ESMO-Leitlinie für neuroendokrine Neoplasien (NETesmoGuideline.md) stellen Somatostatinanaloga (SSA) wie Somatoline die erste Wahl für die Therapie von gut differenzierten NETs mit Metastasierung dar. Die Leitlinie betont, dass SSA bei stabilisierter Erkrankung fortgesetzt werden sollten und bei Progression eine systemische Therapie erwogen werden muss. Sunitinib wird in der ESMO-Leitlinie als eine der Optionen für die systemische Therapie bei progressiven, gut differenzierten NETs empfohlen. Da ein PET-CT fehlt, kann eine präzise Beurteilung der Metastasierung nicht erfolgen. Dennoch, da die Bildgebung eine Progression nahelegt, ist die Kontinuierung der Somatoline-Therapie mit engmaschiger Überwachung gerechtfertigt. Sollte die Bildgebung eine eindeutige Progression zeigen, ist Sunitinib indiziert. Die NETTER-2 Studie (NETstudy.md) bestätigt den Nutzen von Sunitinib bei progressiven, gut differenzierten NETs, was die Indikation weiter stützt. Zusätzliche Informationen zum Prognose Score und Begleitsymptomen wären wünschenswert, ändern jedoch an der primären Therapieempfehlung nichts.</t>
+          <t>**Therapieempfehlung:**
+Eine Therapie mit Lutetium-177-DOTATATE (Lutetium-Therapie) sollte in Erwägung gezogen werden, falls eine somatostatinrezeptor-positive (SSTR+) Erkrankung nachgewiesen wird. Alternativ, falls keine SSTR-Positivität vorliegt oder die Lutetium-Therapie nicht indiziert ist, sollte eine systemische Therapie mit Strep-Torcin oder Everolimus in Betracht gezogen werden. Eine erneute Stadienebestimmung mittels Ganzkörper-MRT oder CT ist vor Therapiebeginn notwendig.
+**Begründung:**
+Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen. Trotz initialer chirurgischer Resektion und Somatoline-Therapie kommt es zu einer Progression der Lebermetastasen, was auf ein fortgeschrittenes Stadium hinweist. Die ESMO-Leitlinie für neuroendokrine Tumore empfiehlt bei fortgeschrittenen, gut differenzierten NETs mit Progression unter Somatostatinanaloga eine Therapie mit Lutetium-177-DOTATATE, vorausgesetzt die Tumore exprimieren Somatostatinrezeptoren (SSTR). Da die SSTR-Positivität nicht explizit erwähnt wird, muss dies vor Therapiebeginn mittels SSTR-Scintigraphie oder PET/CT nachgewiesen werden. Sollte keine SSTR-Positivität vorliegen oder die Lutetium-Therapie kontraindiziert sein, sind Strep-Torcin oder Everolimus als Zweitlinienoptionen indiziert. Vor Therapiebeginn ist eine erneute Stadienebestimmung mittels Bildgebung (Ganzkörper-MRT oder CT) notwendig, um das Ausmaß der Erkrankung genau zu erfassen und die Therapieplanung zu optimieren.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Therapieempfehlung:**
-Aufgrund des fortgeschrittenen neuroendokrinen Tumors (NET) des Dünndarms mit Leber- und Lymphknotenmetastasen, der Progression unter Somatoline-Therapie und des G1-Status, wird eine Therapie mit einem oralen Streptozocin-Analogon, insbesondere Sunitinib, empfohlen. Alternativ, falls Sunitinib nicht indiziert oder verträglich ist, sollte Everolimus in Betracht gezogen werden. Eine erneute Evaluation der Bildgebung mittels PET-CT ist zwingend erforderlich, um das Ausmaß der Metastasierung präzise zu bestimmen und die Therapieantwort zu beurteilen.
-**Begründung:**
-Die vorliegende Diagnose eines fortgeschrittenen, gut differenzierten (G1) neuroendokrinen Tumors (NET) des Dünndarms mit Leber- und Lymphknotenmetastasen, der unter Somatoline-Therapie eine Progression zeigt, erfordert eine systemische Therapie. Gemäß der ESMO-Leitlinie (NETesmoGuideline.md) sind bei progredienten, gut differenzierten NETs (G1/G2) mit symptomatischer oder asymptomatischer Progression unter Somatostatin-Analoga (wie Somatoline) Tyrosinkinaseinhibitoren (TKIs) wie Sunitinib oder Everolimus indiziert. Sunitinib hat in der NETTER-2 Studie (NETstudy.md) eine signifikante Verbesserung des progressionsfreien Überlebens (PFS) bei fortgeschrittenen, gut differenzierten NETs gezeigt. Obwohl die NETTER-2 Studie primär auf Pankreas-NETs ausgerichtet war, sind die Ergebnisse auch auf Dünndarm-NETs übertragbar. Da die Leitlinie (NETesmoGuideline.md) Sunitinib als First-Line-Option nach Versagen der Somatostatin-Analoga empfiehlt und der Patient unter Somatoline eine Progression zeigt, ist Sunitinib die bevorzugte Option. Sollte Sunitinib kontraindiziert oder nicht verträglich sein, ist Everolimus eine valide Alternative. Die Leitlinie betont die Notwendigkeit einer regelmäßigen Bildgebung, um das Ansprechen auf die Therapie zu beurteilen. Daher ist ein aktuelles PET-CT unerlässlich, um das Ausmaß der Metastasierung präzise zu bestimmen und die Therapieantwort zu beurteilen. Die fehlenden Informationen zur Proliferation (Ki-67) sind zwar wünschenswert, beeinflussen die Therapieempfehlung aber nicht grundlegend, da die Leitlinie bei G1/G2 Tumoren TKIs als Standard empfiehlt.</t>
+          <t>**Therapieempfehlung:**
+Eine Therapie mit einem Lutetium-177-DOTATATE (LUTATE)-basierten Peptidrezeptor-Radiotherapie (PRRT) sollte in Erwägung gezogen werden. Alternativ, falls eine umfassende somatostatinrezeptor-Bildgebung (z.B. Ga-68-DOTATATE-PET/CT) eine ausreichende Expression der Somatostatinrezeptoren zeigt, kann eine Behandlung mit Everolimus in Kombination mit Somatostatinanaloga (z.B. Lanreotid oder Octreotid) erwogen werden.
+**Begründung:**
+Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, der trotz initialer Operation und Somatostatinanaloga (Somatoline) eine mögliche Progression zeigt. Die ESMO-Leitlinien für gastrointestinale NETs empfehlen für Patienten mit progressiver, metastasierter Erkrankung und gut differenzierten NETs (G1/G2) eine PRRT mit Lutetium-177-DOTATATE, insbesondere wenn eine ausreichende Expression der Somatostatinrezeptoren nachgewiesen wurde. Da der Patient bereits mit Somatostatinanaloga behandelt wurde und eine Progression zeigt, ist eine PRRT eine geeignete Option. Alternativ, und besonders wenn die Somatostatinrezeptor-Expression nicht ausreichend für eine PRRT ist, kann eine Kombinationstherapie aus Everolimus und Somatostatinanaloga in Betracht gezogen werden, da diese Kombination in klinischen Studien eine Verbesserung des progressionsfreien Überlebens gezeigt hat. Eine erneute histologische Überprüfung der Metastasen ist ratsam, um das Grading zu bestätigen und andere Therapieoptionen zu bewerten.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Therapieempfehlung:**  
-Beginnen Sie mit der systemischen Therapie mit **Everolimus** (10 mg/Tag oral) als Erstlinientherapie bei G1-Neuroendokriner Tumor (NET) des Dünndarms mit Metastasen und bestätigter Progression unter Somatostatin-Analoga. Alternativ kann **Sunitinib** (37,5 mg/Tag) in Betracht gezogen werden, insbesondere wenn eine stärkere antiproliferative Wirkung erforderlich ist oder Everolimus nicht verträglich ist.  
-**Begründung:**  
-1. **ESMO-Leitlinienkonformität (NETesmoGuideline.md):**  
-   - Bei G1-NETs mit Metastasen und Progression unter Somatostatin-Analoga (z. B. Octreotide) ist laut ESMO-Leitlinie (2015) die Therapie mit **mTOR-Hemmern wie Everolimus** oder **TKI wie Sunitinib** als Erstlinientherapie zu bevorzugen. Diese Therapieoptionen zeigten in klinischen Studien (z. B. **NETTER-1** für Everolimus) eine signifikant bessere Progressionsfreie Überlebenszeit (PFS) im Vergleich zu Placebo.  
-   - Der Patient weist ein G1-Grad (Ki-67 &lt; 2 %), aber M1-Stadium (Lebermetastasen) mit bestätigter Progression (2019) auf, was den Kriterien für die Anwendung dieser Therapien entspricht.  
-2. **Studien- und PM-Kontext (NETstudy.md/NETpress.md):**  
-   - Die **NETTER-1-Studie** (in NETstudy.md erwähnt) belegt die Wirksamkeit von Everolimus bei NETs mit einer medianen PFS-Verlängerung von 11,0 vs. 3,9 Monate. Dies spricht für Everolimus als Erstlinientherapie.  
-   - Sunitinib ist ebenfalls in der ESMO-Leitlinie genannt und eignet sich besonders bei solider Tumorlast und schneller Progression. Da der Patient eine geringe Progression aufweist, ist Everolimus jedoch in der Regel die erste Wahl.  
-3. **Patientenspezifische Aspekte:**  
-   - Der Patient profitierte bisher von chirurgischen Interventionen und Somatostatin-Analoga, doch die aktuelle Progression (2019) erfordert eine intensivere systemische Therapie.  
-   - Die ESMO empfiehlt bei G1-NETs, bei Progression unter Somatostatin-Analoga, die Therapie auf mTOR-Hemmer oder TKI auszuweiten.  
-   - Regelmäßige CT-Kontrollen (z. B. alle 3–6 Monate) sind erforderlich, um die Therapierespons zu bewerten (siehe NETstudy.md).  
-4. **Ergänzende Maßnahmen:**  
-   - **PET-CT** (z. B. mit [68Ga-DOTA]-TOC) sollte bei unsicherer Progressionsbeurteilung durchgeführt werden, um Rezeptordichte und Therapieansprechen zu klären (NETpress.md).  
-   - **Chromogranin A und Ki-67** sollten erneut bestätigt werden, um die Histologie und Prognosegenauigkeit zu sichern.  
-Die Empfehlung basiert auf der ESMO-Leitlinie 2015, den Ergebnissen der NETTER-1-Studie und der klinischen Relevanz der aktuellsten Studien (NETstudy.md/NETpress.md). Sie berücksichtigt die geringe Malignität des G1-Grad, die metastatische Ausbreitung und die aktuelle Progression unter der bisherigen Therapie.</t>
+          <t>**Therapieempfehlung:**  
+Empfohlen wird die Fortsetzung der Oktreotid-LAR-Therapie (Somatuline) in Kombination mit der Addition von Everolimus (Afinitor) als systemische Therapie gemäß ESMO-Leitlinien. Diese Kombinationstherapie ist bei rezidivierenden oder progressiven G1-Neuroendokrinen Tumoren (NET) mit Lebermetastasen indiziert, insbesondere bei nachgewiesener Stabilisierung unter Somatostatina-Somatostatin-Analoga und leichter Progression der Lebermetastasen.  
+**Begründung:**  
+Laut den ESMO-Leitlinien für neuroendokrine Tumoren ist bei G1-NETs mit Lebermetastasen und progressivem Verlauf eine Kombination aus somatostatin-ähnlichen Analoga (SSA) und mTOR-Inhibitoren wie Everolimus der Goldstandard. Der Patient weist trotz einer initialen Stabilisierung unter Oktreotid-LAR (Somatuline) in der CT von 2018 eine geringe Progression der Lebermetastasen im CT 2019 auf, was für eine Therapiereaktionsschwäche spricht. Everolimus verbessert in solchen Fällen die Progressionsfreie Überlebenszeit (PFS) und bietet eine zusätzliche systemische Anti-Tumor-Aktivität. Die ESMO empfiehlt diese Kombination auch bei niedriggradigen Tumoren, insbesondere wenn Debulking-Strategien (wie bereits erfolgte Leberresektionen) nicht vollständig sind. Klinisch relevante Hormonüberschüsse oder paraneoplastische Symptome sind nicht dokumentiert, weshalb eine Darm-Destabilisierung durch Chemotherapie vorerst nicht indiziert ist. Die fehlenden Ki-67-Index-Daten und der Prognose-Score begrenzen die Empfehlung, jedoch bleibt die Kombination aus SSA und mTOR-Inhibitoren im Kontext der ESMO-Leitlinien die evidenzbasierte Wahl. Ergänzend ist eine engmaschige Bildgebungskontrolle (CT alle 3–6 Monate) und eine Überwachung auf Nebenwirkungen (z. B. Lungenfibrose bei Everolimus) notwendig.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Okay, let's see. The patient has a G1 neuroendocrine tumor (NET) of the small intestine with liver and lymph node metastases. The staging is IV (M1). They've already had surgery to remove the primary tumor and some liver metastases. They were on somatostatin analogs like Octreotide, but there's a progression in 2019. The ESMO guidelines mention that for G1 NETs with metastases, if surgery isn't possible, systemic therapy is needed. Since the tumor is progressing despite somatostatin analogs, the next step would be to consider multikinetic inhibitors like Everolimus or Sunitinib. The patient's case fits the criteria for these therapies. The studies and guidelines from the attached documents support this approach. Also, regular monitoring with CT is important to track any further progression. I need to make sure the recommendation aligns with the ESMO guidelines and the provided studies.</t>
+          <t>Okay, let's tackle this. The user is asking for a therapy recommendation based on the provided patient summary and ESMO guidelines. First, I need to make sure I understand the patient's condition. The patient has a G1 neuroendocrine tumor (NET) in the ileum with lymph node and liver metastases (Stage IV). They've had surgery in 2015, including resection of liver metastases, and started Somatuline (octreotide LAR) in 2017. Follow-up CTs showed stable disease initially, but in 2019 there was a slight progression in liver metastases.
+Now, according to ESMO guidelines, the treatment for G1 NETs with metastases typically involves a combination of surgery and systemic therapy. The patient has already had debulking surgery, which is in line with the guidelines. The use of Somatuline (a somatostatin analog) is standard for slow-growing NETs, especially in the liver. However, there's a mention of progression in 2019, so maybe the current therapy isn't sufficient anymore.
+The ESMO guidelines might recommend switching to a targeted therapy like everolimus or adding a tyrosine kinase inhibitor if there's progression. Alternatively, if the tumor is hormone-secreting, that could affect treatment choice, but the patient's summary doesn't mention hormonal symptoms. Also, the Ki-67 index isn't provided, which is a key prognostic factor. Without it, the recommendation might be a bit uncertain, but given the G1 classification (which is low-grade), the options are more limited.
+Since the patient is already on a somatostatin analog, and there's progression, the next step per ESMO could be adding a targeted therapy. Everolimus is an mTOR inhibitor used in advanced NETs. The guidelines might suggest this as a second-line option. Also, considering the possibility of liver-directed therapies like hepatic artery embolization if the metastases are limited, but the patient has already had ablation in another segment. So, maybe everolimus would be the next step here. Need to check if ESMO supports this. Also, if the Ki-67 is very low, maybe chemotherapy isn't necessary yet, but since it's a G1, that's a lower-grade tumor. So the recommendation would be to continue Somatuline and add everolimus, monitoring for progression. But wait, in the patient's case, the progression is minimal, so maybe just continue the current therapy with closer monitoring. But the 2019 CT shows progression, so maybe a switch is needed. Alternatively, if the tumor isn't secreting hormones, maybe a different approach. However, the patient's context doesn't mention hormone symptoms, so it's unclear. In that case, sticking with the somatostatin analog and adding a targeted therapy makes sense. So the recommendation would be to continue Somatuline and add everolimus, as per ESMO guidelines for progressive disease. Also, mention that if progression continues, other options like chemotherapies (e.g., streptozocin) could be considered. Also, note that the lack of Ki-67 index and staging details might require further testing. But since the user wants a single, concrete recommendation, the best fit under ESMO for a progressive G1 NET with liver metastases would be adding everolimus to the existing therapy. So the final recommendation is to switch to everolimus, or continue with Somatuline and add everolimus. Wait, the patient is already on Somatuline. So combining with everolimus might be better. Need to verify if ESMO allows combination, but I think they do. So the answer is to continue Somatuline and add everolimus. Also, suggest monitoring with CTs every 3-6 months. Also, if there's no progression, maybe just continue the current therapy, but since there's a slight progression, the recommendation would be to add everolimus. So, the concrete recommendation is to continue octreotide LAR and add everolimus, based on ESMO guidelines for progressive G1 NET with liver metastases. The reasoning would be that the patient is already on a standard first-line treatment, but with progression, adding a targeted therapy is next. Also, note the missing Ki-67 and staging info as limitations. But the main point is the combination therapy.</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Therapieempfehlung:**  
-Fortsetzung der Somatostatin-Rezeptor-Liganden-Therapie (SSRI) mit Lanrelin (Somatuline) als erste Linie, kombiniert mit enger radiologischer Überwachung (CT alle 6–12 Monate) und klinischer Beobachtung bei geringfügiger Progression.  
-**Begründung:**  
-1. **Staging und Leitlinienkonformität:**  
-   - Der Patient weist ein metastasiertes Dünndarm-G1-NET (Stadium IV) mit hepatischer Dissemination auf. Nach ESMO-Leitlinien (NETesmoGuideline.md) ist bei fortgeschrittenen G1-NETs die systemische Therapie mit SSRI (z. B. Lanrelin) die Therapie der Wahl, da diese Symptomkontrolle und Verzögerung der Progression sicherstellen.  
-2. **Klinischer Verlauf und Therapieresponsivität:**  
-   - Die bisherige Therapie mit Lanrelin führte bis 2019 zu stabiler Erkrankung, auch wenn seitdem eine geringe Progression der Lebermetastasen aufgetreten ist. SSRI-Therapien bei G1-NETs zeigen in Studien (NETstudy.md) oft langfristige Wirksamkeit, auch bei minimaler Progression.  
-3. **Empfehlung zur Therapiefortsetzung:**  
-   - Die ESMO-Leitlinien (NETesmoGuideline.md) empfehlen, bei G1-NETs SSRI-Therapien fortzusetzen, auch bei minimaler Progression, da die Tumorbiologie niedrig aggressiv ist. Alternativen wie mTOR-Inhibitoren (z. B. Everolimus) oder Tyrosinkinase-Hemmer (z. B. Sunitinib) sind für G1-NETs nicht standardisiert.  
-4. **Überwachung und Diagnostik:**  
-   - Regelmäßige CT-Kontrollen (alle 6–12 Monate) sind nach ESMO und NETstudy.md entscheidend, um Progressionen frühzeitig zu erkennen. Ein PET-CT ist bei G1-NETs aufgrund der typischen FDG-Negativität nicht indiziert.  
-5. **Relevanz der angefügten Dokumente:**  
-   - Die NETpress.md-Untersuchungen stützen die Wirksamkeit von SSRI-Therapien bei metastasierten G1-NETs. Die NETTER-2-Studie (nicht direkt erwähnt) ist hier nicht anwendbar, da sie primär auf G2-G3-NETs fokussiert.  
-**Zusammenfassung:**  
-Die Fortsetzung von Lanrelin in Kombination mit enger Bildungsüberwachung entspricht den ESMO-Leitlinien und den klinischen Daten des Patienten. Eine Therapieanpassung ist nur bei erheblicher Progression oder neuer Symptomatik gerechtfertigt.</t>
+          <t>**Therapieempfehlung:**  
+Wechsel von dem Somatostatin-Analogon (Somatuline) zu einer Peptide Receptor Radionuclide Therapy (PRRT) mit Lu-177-Dotatocin (Lutathera) in Kombination mit fortlaufender Somatostatin-Analogon-Therapie.  
+**Begründung:**  
+Laut den ESMO-Leitlinien für neuroendokrine Tumoren (NET) ist PRRT bei progressiven G1/G2-NETs mit somatostatinrezeptor-positiven Metastasen (hier: Lebermetastasen) die empfohlene Therapieoption, insbesondere nach erfolgloser Kontrolle durch Somatostatin-Analoga. Der Patient hat unter Somatuline eine geringe Progression der Lebermetastasen gezeigt, was ein therapeutisches Umdenken rechtfertigt. PRRT bietet sowohl eine lokale Strahlentherapie der Tumoren als auch eine systemische Wirkung, wodurch die Progression verzögert und die Überlebensrate verbessert werden kann. Die Kombination mit Somatostatin-Analogonen („continuation strategy“) ist leitliniengemäß standardisiert, da sie die Affinität der PRRT-Moleküle zu den Rezeptoren erhöht und die Nebenwirkungen reduziert. Die Lebermetastasen (Segment VI/VIII) sind anatomisch für eine PRRT geeignet. Offene Punkte wie PET-CT-Daten oder der Prognose-Score sind für die PRRT-Indikation nicht zwingend erforderlich, da die histologische Rezeptorpositivität durch die ansprechende vorherige Somatostatin-Therapie bereits indirekt bestätigt ist. Eine erneute Operation oder ablative Verfahren sind nur bei lokalen Rezidiven relevant, was im aktuellen Stadium nicht beschrieben ist.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Okay, let's tackle this step by step. The user wants me to create a therapy recommendation based on the provided patient summary and the attached documents, especially the ESMO guidelines. First, I need to understand the patient's condition thoroughly.
-The patient has a G1 NET in the small intestine, stage IV with liver metastases. They had surgery in 2015 to remove the liver metastases and part of the ileum. Then, in 2017, they started Somatuline (Lanrelin), which is a somatostatin receptor ligand. The follow-ups up to 2019 showed stable disease, but later there was minor progression in the liver metastases.
-Looking at the ESMO guidelines from the attached document, the key points are that for stage IV NETs, systemic therapy is recommended. Somatostatin analogs (SSA) like Lanrelin are the first-line treatment for slow-growing tumors (G1/G2) with metastases. The goal is to control symptoms and delay progression. Surgery is considered if possible, but in this case, the patient already had the metastases removed. The ESMO guidelines also mention that in cases of progression, alternatives like everolimus or sunitinib might be considered, but these are for G2/G3 tumors. Since this is a G1, the focus remains on SSAs.
-The study in NETstudy.md notes that early resection of metastases improves survival, which the patient had. The long-term follow-up suggests regular imaging, which is already part of the patient's care. The PET-CT wasn't evaluated, but since G1 NETs are often FDG-negative, it's probably not helpful here.
-So, the recommendation should be to continue Somatuline, given its role in controlling the tumor and the patient's stable disease until 2019. Even with minor progression, the ESMO guidelines still support SSAs as the first-line. The patient might need closer monitoring with CT scans every 6-12 months as per the guidelines. There's no mention of other symptoms, so no need for additional therapies. Also, the ESMO doesn't mention using the NETTER-2 study here because that's for different treatments like 177Lu-DOTATATE, which might be an option if SSAs fail, but since the patient is still on Lanrelin, it's not necessary yet. The main points are to keep the current therapy and monitor closely.</t>
+          <t>Okay, let's tackle this. The user wants a therapy recommendation based on the patient's context and the ESMO guidelines. First, I need to parse all the given information. The patient has a G1 neuroendocrine tumor (NET) of the small intestine with liver metastases. The staging is IV. They had surgery in 2015 to remove some metastases and started Somatuline in 2017. But in 2019, there's a hint of progression.
+Now, according to ESMO guidelines for NETs, the treatment depends on the tumor grade and the patient's condition. Since this is a G1 tumor, which is low grade, the initial approach is usually surgery if possible. However, the patient already had surgery, and now there's progression. The next step for G1 NETs with progression after surgery might involve systemic therapy. But wait, G1 tumors are typically slow-growing. The ESMO guidelines might suggest PRRT (Peptide Receptor Radionuclide Therapy) with Lu-177 dotatate if the tumor is somatostatin receptor positive. Also, everolimus or sunitinib are options for progressive NETs. However, the patient is already on a somatostatin analog (Somatuline), but it's not controlling the disease anymore. 
+The user mentioned that the patient is on Somatuline and there's a slight progression. The ESMO guidelines might recommend adding another treatment. Since the patient has liver metastases, PRRT is a good option here. Also, if PRRT isn't feasible, then maybe everolimus. I should check the ESMO guidelines for the exact recommendation on G1 NETs with progressive disease after initial surgery. 
+Wait, but in the patient's context, the progression is only slight. Maybe the ESMO guidelines suggest continuing the somatostatin analog and monitoring, especially if the progression is very slow. However, the user's analysis says that the progression is under Somatuline, so perhaps it's time to switch. The key here is whether the progression is significant enough to warrant a change. 
+Also, the patient's tumor is G1, so maybe the progression is still slow. The ESMO guidelines might recommend PRRT for progressive G1/G2 NETs. So, considering the patient's history and the progression, the next step could be PRRT. Additionally, the patient might benefit from continued somatostatin analogs in combination with PRRT. 
+I need to make sure that the recommendation is in line with ESMO. The user's answer should be concise, one specific recommendation. So, the best option here might be PRRT (Lu-177) for the liver metastases. That's a key recommendation in ESMO for progressive NETs. Also, if the patient's tumor is somatostatin receptor positive, which is likely given they're responding to Somatuline, then PRRT is appropriate. 
+So the final recommendation would be to switch to PRRT with Lu-177 dotatate, given the progression under Somatostatin analog and the presence of liver metastases. The justification would include the ESMO guidelines supporting PRRT for progressive G1/G2 NETs with somatostatin receptor expression. Also, considering the patient's prior surgery and the need to control the disease progression.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
-Durchführung einer PRRT (Peptide Receptor Radionuclide Therapy) mit Lutetium-177-DOTATATE. Vor der PRRT sollte eine erneute Bildgebung (z.B. CT oder MRT) zur Bestätigung der Progression der Lebermetastasen erfolgen.
-**Begründung:**
-Der Patient präsentiert einen neuroendokrinen Tumor des Dünndarms (NET) mit Lebermetastasen, der trotz initialer Operation und Behandlung mit Somatistatin-Analoga (Somatoline) eine mögliche geringe Progression zeigt (CT Abdomen 03/2019). Die ESMO-Leitlinien für gastrointestinale neuroendokrine Neoplasien (GINETs) empfehlen bei progressiven, gut differenzierten NETs, die unter Somatistatin-Analoga progredieren oder refraktär sind, eine PRRT mit Lutetium-177-DOTATATE. Die NETTER-2 Studie im Anhang bestätigt die Wirksamkeit von Lutetium-177-DOTATATE bei progressiven, gut differenzierten NETs. Obwohl die Progression als "gering" beschrieben wird, rechtfertigt dies gemäß den Leitlinien und der verfügbaren Evidenz die Einleitung einer PRRT. Vor der Therapie sollte jedoch eine erneute Bildgebung zur Bestätigung der Progression durchgeführt werden, um sicherzustellen, dass die Indikation für die PRRT weiterhin besteht.</t>
+Fortsetzung der Somatostatin-Analoga-Therapie (Somatoline) in optimierter Dosierung, kombiniert mit einer regelmäßigen Bildgebungskontrolle (alle 3-6 Monate).
+**Begründung:**
+Der Patient präsentiert einen gut differenzierten (G1) neuroendokrinen Tumor (NET) des Dünndarms mit Lebermetastasen, der seit 2015 behandelt wird. Eine initiale chirurgische Resektion wurde durchgeführt, gefolgt von einer Somatostatin-Analoga-Therapie (Somatoline). Obwohl eine geringe Progression der Lebermetastasen im 03/2019 festgestellt wurde, ist der Tumor G1, was auf ein langsameres Wachstum hinweist. Die ESMO-Leitlinien empfehlen bei progressiven, aber gut differenzierten NETs mit somatostatin-Rezeptor-positiven Tumoren die Fortsetzung der Somatostatin-Analoga-Therapie, insbesondere wenn die Progression gering ist. Um die Therapieentscheidung zu validieren und die Wirksamkeit der Somatostatin-Analoga-Therapie zu überprüfen, ist es jedoch essentiell, den Somatostatin-Rezeptor-Status der Lebermetastasen zu bestimmen. Sollte dieser positiv sein und die Progression unter optimierter Dosierung anhalten, sind alternative Therapien wie Lutetium-177-DOTATATE oder zielgerichtete Therapien (Sunitinib, Everolimus) zu evaluieren.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, diagnostiziert im Jahr 2015. Eine initiale Operation erfolgte mit Resektion der Lebermetastasen und Hemicolektomie. Seit 2017 wird Somatistatin-Analoga (Somatoline) eingesetzt. Aktuelle Bildgebung zeigt eine mögliche geringe Progression der Lebermetastasen (2019).
-Da der Patient bereits eine Operation hinter sich hat und Somatistatin-Analoga erhält, muss die Entscheidung für eine weitere Therapie auf der Basis der Progression der Erkrankung und der ESMO-Leitlinien getroffen werden. Die NETTER-2 Studie (Anhang) untersucht den Einsatz von Lutetium-177-DOTATATE bei progressiven, gut differenzierten NETs, was in diesem Fall relevant sein könnte, da der Patient eine Progression zeigt. Die ESMO-Leitlinien empfehlen bei progressiven gut differenzierten NETs, die Somatistatin-Analoga-refraktär sind oder unter denen eine Progression auftritt, eine PRRT (Peptide Receptor Radionuclide Therapy) mit Lutetium-177-DOTATATE oder eine Chemotherapie. Da die Progression nur gering ist und die Ansprechrate auf Somatistatin-Analoga nicht explizit erwähnt wird, sollte zunächst eine erneute Bildgebung zur Bestätigung der Progression erfolgen. Bei bestätigter Progression und/oder Unwirksamkeit von Somatistatin-Analoga ist PRRT die bevorzugte Option gemäß ESMO.</t>
+          <t>Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, diagnostiziert 2015. Eine initiale chirurgische Resektion und Ablation wurden durchgeführt. Seit 2017 wird Somatistatin-Analoga (Somatoline) eingesetzt. Aktuelle Bildgebung zeigt eine mögliche geringe Progression der Lebermetastasen (03/2019).
+Die ESMO-Leitlinien für gastrointestinale NETs (insbesondere die Version, die dem Jahr 2015 und den folgenden Jahren entspricht) empfehlen bei progressiven oder symptomatischen gut differenzierten NETs (G1/G2) mit somatostatin-Rezeptor-positiven Tumoren die Fortsetzung der Somatostatin-Analoga-Therapie. Bei Progression unter Somatostatin-Analoga kommen Peptide (z.B. Lutetium-177-DOTATATE) oder zielgerichtete Therapien (Sunitinib, Everolimus) in Frage. Da die Informationen keine Angaben über die Rezeptorstatus (Somatostatin-Rezeptor-Positivität) der Tumoren enthalten, ist dies ein kritischer Punkt. Die geringe Progression unter Somatostatin-Analoga deutet auf eine mögliche Resistenzentwicklung hin oder eine unzureichende Dosierung.
+Da der Tumor G1 ist und die Progression gering ist, erscheint eine Intensivierung der Somatostatin-Analoga-Therapie zunächst als angemessener Schritt, sofern der Rezeptorstatus bestätigt wird. Sollte die Progression anhalten oder zunehmen, müssen alternative Therapien wie Peptide oder zielgerichtete Therapien in Betracht gezogen werden.</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
-Initiierung einer Peptide-Rezeptor-Radiotherapie (PRRT) mit Lutetium-177-DOTATATE, nach Ausschluss von Kontraindikationen und nach Bestätigung der Somatostatinrezeptor-Positivität mittels Ga-68-DOTATATE-PET/CT.
-**Begründung:**
-Der Patient leidet an einem metastasierten neuroendokrinen Tumor (NET) des Dünndarms mit Progression der Lebermetastasen unter Somatolin-Therapie. Gemäß den ESMO-Leitlinien für GiNETs ist bei progressiver Erkrankung nach Somatolin eine systemische Therapie indiziert. Da der Patient bereits eine Somatostatin-Analog-Therapie (Somatolin) erhalten hat und eine Progression zeigt, ist eine PRRT eine geeignete Behandlungsoption. Die PRRT zielt auf somatostatinrezeptor-positive Tumorzellen ab und kann eine effektive Krankheitskontrolle erreichen. Vor Therapiebeginn ist jedoch eine Ga-68-DOTATATE-PET/CT-Untersuchung erforderlich, um die Somatostatinrezeptor-Positivität zu bestätigen und die Therapie entsprechend anzupassen. Die NETTER-2 Studie unterstützt die Anwendung von Everolimus bei progressiven, gut differenzierten, funktionell inaktiven GiNETs, jedoch ist der funktionelle Status des Tumors des Patienten unbekannt. Daher wird zunächst eine PRRT empfohlen, da diese unabhängig vom funktionellen Status wirksam sein kann.</t>
+Initiierung einer Therapie mit Sunitinib 37,5 mg täglich oral. Regelmäßige Überwachung mittels CT-Bildgebung (alle 3-6 Monate) zur Beurteilung des Therapieansprechens gemäß RECIST-Kriterien.
+**Begründung:**
+Der Patient präsentiert einen gut differenzierten neuroendokrinen Tumor (NET) des Dünndarms mit Lebermetastasen, der trotz Behandlung mit Somatoline (Somatostatin-Analogon) eine geringe Progression zeigt (03/2019). Gemäß der ESMO-Leitlinie für GIPNETs ist bei progressiven, gut differenzierten NETs mit Lebermetastasen, die auf Somatostatin-Analoga nicht ansprechen oder unter ihnen progredieren, eine zielgerichtete Therapie mit Sunitinib indiziert. Sunitinib ist ein Tyrosinkinase-Inhibitor, der das Tumorwachstum hemmen kann. Eine regelmäßige Bildgebung ist notwendig, um das Therapieansprechen zu beurteilen und die Therapie gegebenenfalls anzupassen. Da keine Informationen über die Tumorlast (z.B. mittels Somatostatin-Rezeptor-PET) vorliegen, wird Sunitinib als nächste Therapiestufe empfohlen.</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, diagnostiziert 2015. Er wurde operativ behandelt (Resektion Lebermetastasen, Hemicolektomie), erhielt Somatolin und zeigt seit 2019 eine geringe Progression der Lebermetastasen. Die ESMO-Leitlinien für gastrointestinale NETs (GiNETs) müssen berücksichtigt werden. Da der Patient eine geringe Progression der Lebermetastasen unter Somatolin aufweist, ist eine systemische Therapie indiziert. Die NETTER-2 Studie könnte relevant sein, wenn der Patient gut differenzierte, metastasierte, funktionell inaktive GiNETs hat und eine Progression unter Somatolin aufweist, was hier der Fall ist. Da keine weiteren Informationen über den funktionellen Status des Tumors vorliegen, muss dies zunächst geklärt werden. Wenn der Tumor funktionell inaktiv ist, könnte eine Therapie mit Everolimus in Betracht gezogen werden. Alternativ könnte eine Peptide-Rezeptor-Radiotherapie (PRRT) eine Option sein, insbesondere wenn der Tumor somatostatinrezeptor-positiv ist. Da der Patient bereits Somatolin erhalten hat und eine Progression zeigt, wäre eine PRRT wahrscheinlich die bessere Wahl.</t>
+          <t>Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, diagnostiziert 2015. Eine initiale Operation (Resektion der Lebermetastasen, Hemicolektomie) erfolgte. Aktuell (03/2019) zeigt das CT Anzeichen einer geringen Progression der Lebermetastasen. Die Vorgeschichte beinhaltet eine Behandlung mit Somatoline.
+Gemäß der ESMO-Leitlinie für gastrointestinale NETs (GIPNETs) und unter Berücksichtigung des progressiven Verlaufs trotz Somatoline, ist eine systemische Therapie indiziert. Die Leitlinie empfiehlt bei progressiven, gut differenzierten GIPNETs mit Lebermetastasen, abhängig von der Tumorlast und dem Grad der Differenzierung, eine Behandlung mit Somatostatin-Analoga (wie Somatoline, die bereits eingesetzt wurde) oder eine zielgerichtete Therapie mit Sunitinib. Da die Progression unter Somatoline auftritt und die Tumorlast nicht detailliert bekannt ist, erscheint eine Umstellung auf Sunitinib als angemessene nächste Therapiestufe. Eine Chemotherapie ist in der Regel bei gut differenzierten NETs nicht die erste Wahl. Die Leitlinie betont die Notwendigkeit einer regelmäßigen Bildgebung zur Beurteilung des Therapieansprechens.</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
-Empfohlen wird die Kombinationstherapie mit **Everolimus** (10 mg/d) und **Octreotid LAR** (30 mg/monatlich), basierend auf den ESMO-Leitlinien für Neuroendokrine Tumore (NETs) und den Befunden einer geringen Progredienz der Lebermetastasen trotz bestehender Somatostatinanaloga-Therapie.  
-**Begründung:**  
-1. **Patienteninformationen:** Der Patient weist ein G1-NET des Dünndarms mit Lymphknoten- und Lebermetastasen auf. Obwohl die primäre Therapie (Operation 2015) erfolgreich war, zeigten CT-Untersuchungen ab 2019 eine geringe Progression der Lebermetastasen trotz seit 2017 laufender Somatostatinanaloga-Therapie (Somatoline).  
-2. **ESMO-Leitlinien:** Laut den ESMO-Leitlinien ist bei progressiver Erkrankung unter Somatostatinanaloga (Grade 1/2-NETs) die Kombination aus **Everolimus** und **Somatostatinanalogen** (z. B. Octreotid LAR) die empfohlene Therapieoption. Dies gilt insbesondere bei langsam progressiver Erkrankung („progressive stable disease“), wie im Fall des Patienten beschrieben.  
-3. **NETTER-2-Studie:** Die **NETTER-2-Studie** (zitiert in ESMO-Leitlinien) belegt, dass die Kombination aus Everolimus und Octreotid LAR bei G1/G2-NETs mit Progression unter Somatostatinanaloga zu einer signifikant verlängerten Progressionsfreiheitsüberlebenszeit (PFS) führt im Vergleich zur Monotherapie mit Octreotid LAR.  
-4. **Präzision der Empfehlung:** Die Therapie mit Everolimus und Octreotid LAR ist bei G1-NETs sicher anwendbar (kein hohes Toxizitätsprofil) und adressiert die beobachtete geringe Progredienz. Alternativen wie Chemotherapie (z. B. Streptozocin) sind bei G1-NETs nur bei rascher Progression oder hoher Zellzahl indiziert, was hier nicht der Fall ist.  
-5. **Ergänzende Maßnahmen:** Es ist empfehlenswert, die Therapiebegleitung durch ein zertifiziertes NET-Zentrum und strukturelle Kontrollen (z. B. CT alle 6–12 Monate) fortzusetzen, um die Wirksamkeit und Sicherheit der Kombinationstherapie zu überwachen.  
-Die Empfehlung orientiert sich an den ESMO-Grundprinzipien für die Therapiesequenz bei NETs und berücksichtigt die spezifischen klinischen Daten des Patienten.</t>
+Starten Sie die Therapie mit Peptide Receptor Radionuclide Therapy (PRRT) mit 177Lu-DOTATATE (Lutathera).  
+**Begründung:**  
+Der Patient hat ein G1-Neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen (ED 2015), der bereits im Rahmen einer hemicolektomischen Ileumresektion und hepatischen Debulking-Therapie operiert wurde. Trotz Anwendung von Somatuline (Lanreotide) seit 02/2017 und initial stabiler Erkrankung seit 02/2018 liegt aktuell eine geringe Progression der Lebermetastasen vor (03/2019).  
+Laut ESMO-Leitlinien für gastroenterologische NETs (Version 2023) ist PRRT mit 177Lu-DOTATATE bei progressivem, well-differentiateden NET mit somatostatinrezeptor-positiven Metastasen (insbesondere bei Lebermetastasen) eine etablierte Therapieoption, die nach Versagen von Somatostatin-Analoga angewendet werden sollte. Diese Empfehlung basiert auf der hohen Effektivität von PRRT in klinischen Studien (z. B. NETTER-1-Studie) für G1/G2-NETs mit somatostatinrezeptor-positiven Läsionen. Der Patient hat bereits eine positive Reaktion auf Somatostatin-Analoga gezeigt (stable disease bis 02/2018), was eine exprimierende Rezeptorlage nahelegt, was PRRT effektiv macht.  
+Alternativen wie mTOR-Inhibitoren (z. B. Everolimus) oder Chemotherapie (z. B. Temozolomid + Capecitabine) sind zwar laut Leitlinien möglich, jedoch ist PRRT aufgrund der besseren Progressionskontrolle und der spezifischen Affinität zur Tumorzelle in diesem Kontext bevorzugt. Eine weitere diagnostische Abklärung (z. B. DOTATOC-OCTREOSCAN) zur Bestätigung der somatostatinrezeptor-positiven Läsionen wäre sinnvoll, ist aber nicht zwingend erforderlich, da bereits die Wirksamkeit von Somatuline nachgewiesen ist.</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Okay, let's tackle this patient's case. First, I need to recall the ESMO guidelines for neuroendocrine tumors (NETs). The patient has a G1 NET of the small intestine with lymph node and liver metastases. The ESMO guidelines typically categorize NETs by grade and stage. G1 is well-differentiated, low-grade. The patient had surgery in 2015, but there were residual liver metastases in segment VIII, which were ablated. Then in 2017, a new liver metastasis was detected, and they started somatostatin analog (Somatoline). The CT scans in 2018 and 2019 showed stable or slightly progressive disease.
-According to ESMO, for advanced (metastatic) NETs, especially grade 1 and 2, the first-line treatment is a somatostatin analog. If there's progression despite this, then options include everolimus plus octreotide (for grade 1/2) or chemotherapy for higher-grade tumors. The patient has a G1 tumor, so chemotherapy isn't first-line. The NETTER-2 trial, if mentioned, would support the use of everolimus in combination with a somatostatin analog for progressive disease. But the patient has only been on a somatostatin analog since 2017, and there's some progression noted in 2019. So maybe it's time to consider adding everolimus. But wait, the guidelines might suggest that if there's stable disease for a while, continuing the same therapy is acceptable. However, if there's progression, moving to the combination is recommended. The patient's disease is slowly progressive, so the next step would be to add everolimus. The patient's tumor is G1, so the combination is appropriate. The answer should be to switch to or add everolimus based on the ESMO guidelines and the progression observed.</t>
+          <t>Okay, let's tackle this query step by step. The user is asking for a therapy recommendation based on specific patient information and the ESMO guidelines. First, I need to understand the patient's history thoroughly.
+The patient has a G1 neuroendocrine tumor (NET) of the small intestine, which was diagnosed in 2015. They had surgery to remove liver metastases and regional lymph nodes. In 2017, they started Somatuline (lanreotide), and their disease was stable until 2019 when there was a slight progression in the liver metastases. Now, in 2023, they're being evaluated again. 
+Next, I need to refer to the ESMO guidelines for NETs. ESMO typically categorizes NETs by grade and stage. G1 tumors are low-grade, but since there are lymph node and liver metastases, this is a stage IV disease. The initial treatment was surgery, followed by a somatostatin analog. Now, with progression despite Somatuline, the next step would be to consider other therapies. 
+Looking at ESMO guidelines, for progressive G1 or G2 NETs, after failure of somatostatin analogs, options include peptide receptor radionuclide therapy (PRRT) with 177Lu-DOTATATE, or systemic therapy like everolimus or temozolomide with capecitabine. Since PRRT is a well-established option for well-differentiated NETs with somatostatin receptor expression, which is likely in this case (as they responded to Somatuline), that might be the next step. 
+The patient's tumor is G1, so the growth is slow, but progression in the liver suggests the need for more aggressive treatment. PRRT is effective in controlling disease and can be used after progression on somatostatin analogs. The ESMO guidelines recommend PRRT as a first-line or second-line option depending on the situation. Since the patient has already used Somatuline and now has progression, PRRT would be appropriate. 
+I should also check if there are any contraindications for PRRT. The patient doesn't have any mentioned, so it's a viable option. The alternative would be everolimus, but PRRT is often preferred for its efficacy in liver metastases. 
+Therefore, the recommendation would be to start PRRT with 177Lu-DOTATATE, following ESMO guidelines for progressive G1 NET with somatostatin receptor expression.</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
-Einsatz von Peptide Receptor Radionuclide Therapy (PRRT) mit 177Lu-DOTATATE in Kombination mit Octreotide LAR gemäß den Ergebnissen der NETTER-2-Studie (vgl. ESMO-Leitlinien für gastroenterische Neuroendokrine Tumoren, 2024).  
-**Begründung:**  
-1. **Tumorcharakteristik und Krankheitsverlauf:** Der Patient hat ein G1-Neuroendokrinom (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen (ED 2015). Nach primärer Resektion und lokaler Therapie (Ablation/Resektion der Lebermetastasen) trat eine geringe Progression im Lebermetastasenareal auf (2019). Somatostatin-Analoga (Somatoline) zeigten bis 2018 stabilen Krankheitsverlauf, weisen aber möglicherweise keine ausreichende Effekthaltbarkeit mehr auf.  
-2. **ESMO-Leitlinien und evidenzbasierte Therapieoptionen:**  
-   - Die ESMO-Leitlinien empfehlen PRRT (177Lu-DOTATATE) als Standardtherapie für fortgeschrittene, fortgeschritten progressivere, aber noch gut differenzierte NETs, sofern eine somatostatinrezeptorpositivität nachgewiesen ist (häufig bei NETs des Dünndarms).  
-   - Die NETTER-2-Studie (Anhang) belegt, dass PRRT in Kombination mit Octreotide LAR im Vergleich zu Octreotide LAR allein eine signifikant längere Progressionsfreies Überleben (PFS) und Gesamtüberleben (OS) bietet. Dies gilt besonders für Patienten mit geringer Progressionsgeschwindigkeit, wie im vorliegenden Fall.  
-3. **Individuelle Anwendbarkeit:**  
-   - Der Tumor ist G1, was eine geringere Aggressivität deutet, aber auch ein hohes Maß an somatostatinrezeptorpositivität vermuten lässt.  
-   - Nach einer Phase stabiler Erkrankung unter Somatostatin-Analoga ist PRRT eine sinnvolle nächste Schritt, um die PFS zu verlängern und die tumorbedingten Symptome zu reduzieren.  
-   - Da keine weiteren diagnostischen Informationen (z. B. Rezeptorstatus) ausgeschlossen werden können, ist PRRT trotz geringer Progression gerechtfertigt, da die NETTER-2-Daten auch für Patienten mit langsamer Progression relevant sind.  
-4. **Alternativen vs. PRRT:**  
-   - Tyrosinkinase-Hemmer (z. B. Sunitinib) oder mTOR-Inhibitoren (z. B. Everolimus) wären weitere Optionen, jedoch weisen PRRT-Studien (insbesondere für Dünndarm-NETs) klarere Effekte auf.  
-   - Eine Chemotherapie ist bei G1-Tumoren nicht standardisiert, da deren Effekte begrenzt sind.  
-**Zusätzliche Maßnahmen:**  
-- Vor PRRT-Einsatz Empfehlung zur Durchführung einer somatostatinrezeptor-PET/CT (z. B. 68Ga-DOTATATE) zur Bestätigung der Rezeptorpositivität.  
-- Monitoring der Leberfunktion und Nierenfunktion sowie der klinischen Symptome während der Therapie.</t>
+Beginnen Sie mit der Kombinationstherapie aus **Everolimus** (4,5–5 mg/Tag) und **Somatostatinanalogen** (z. B. Lanreotid 120 mg alle 4 Wochen).  
+**Begründung:**  
+1. **Erkrankungsstand des Patienten:** Der Patient hat ein G1-Neuroendokrines Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen (ED 2015). Nach einer radikalen Operation und einer stabilen Erkrankung unter Somatostatinanalogen (Seit 02/2017) gibt es nun Hinweise auf eine geringe Progression der Lebermetastasen im CT 03/2019.  
+2. **ESMO-Leitlinien (NET):**  
+   - Für G1- und G2-NETs mit metastasierter Erkrankung und Progression unter Somatostatinanalogen wird laut ESMO **Everolimus** als erste Wahl der zweiten Therapielinie empfohlen.  
+   - Everolimus hat in klinischen Studien (z. B. RADIANT-1/2/4) bei G1/G2-NETs eine deutliche PFS-Verlängerung gezeigt, auch in Kombination mit Somatostatinanalogen.  
+   - PRRT (Peptide Receptor Radionuclide Therapy) wird laut ESMO primär bei fortgeschrittenen oder rezidivierten NETs mit somatostatinrezeptorpositiver Expression erwogen, dies ist in der Patientendokumentation nicht explizit angegeben.  
+   - Chemotherapie (z. B. mit Streptozocin) ist bei G1-NETs nicht erste Wahl, da diese Tumoren typischerweise langsam wachsen.  
+3. **Individuelle Anpassung:**  
+   - Der Patient ist seit 2017 unter Somatostatinanalogen, was die Notwendigkeit einer kombinierten Therapie rechtfertigt, um die Progression zu stoppen.  
+   - Die geringe Progression („gering progrediente Lebermetastasen“) deutet auf eine kontrollierte Erkrankung abgesehen von lokalen Veränderungen hin, was eine systemische Therapie wie Everolimus stärkt.  
+4. **Weitere Schritte:**  
+   - Überwachung der Therapieantwort durch CT-Untersuchungen (alle 6–12 Monate).  
+   - Bewertung der klinischen Verträglichkeit von Everolimus, insbesondere bei Thromboembolien oder Diabetes (falls bekannt).  
+5. **Alternative Optionen (sofern notwendig):**  
+   - Falls Everolimus nicht verträglich ist oder keine Antwort eintritt, könnte **Sunitinib** (12,5 mg/Tag) als alternatives Targeted Therapy in Betracht gezogen werden, obwohl dies in der ESMO-Leitlinie primär für G3-NETs (hochgradig) empfohlen wird.  
+   - Bei Rezidiv oder weiterer Progression könnten gezielte Operationen oder PRRT (nach Bestätigung der somatostatinrezeptorpositiven Expression) diskutiert werden.  
+Die Empfehlung orientiert sich streng an den ESMO-Leitlinien für die Therapie von metastasierten G1/G2-NETs und berücksichtigt die individuelle Krankheitsprogression des Patienten.</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Okay, let's see. The patient has a history of a well-differentiated neuroendocrine tumor (NET) of the small intestine with lymph node and liver metastases. The primary was resected in 2015 along with liver metastases in segments VI and VIII. Then in 2017, there was a new liver lesion, and the patient started somatostatin analogs (Somatoline) in February 2017. CT scans in 2018 showed stable disease, but by 2019, there was a slight progression in the liver.
-I need to check the ESMO guidelines for NETs. Typically, for progressive disease, especially in well-differentiated tumors, the options might include targeted therapies like everolimus or sunitinib. The NETTER-2 trial comes to mind, which evaluated 177Lu-DOTATATE for advanced midgut NETs. Since this is a small intestine NET, it would fall under that category. The study showed improved progression-free survival and overall survival with the peptide receptor radionuclide therapy (PRRT) plus octreotide compared to octreotide alone. 
-The patient has already been on somatostatin analogs (Somatoline) since 2017, and there's a slight progression by 2019. The ESMO guidelines would likely recommend considering PRRT in this scenario, especially given the proven benefit in the NETTER-2 trial. The patient's tumor is G1, which is well-differentiated, so PRRT might be an appropriate next step. Other options could be everolimus, but PRRT has shown significant benefits in terms of progression-free survival.
-I should make sure that the patient's tumor is expressing somatostatin receptors, which is typically the case for these tumors, and that the patient is fit for PRRT. Since the patient is already on a somatostatin analog, adding PRRT could be a viable option. The ESMO guidelines would support this approach based on the study data. Therefore, the recommendation would be to proceed with PRRT as per the NETTER-2 protocol.</t>
+          <t>Okay, let me try to work through this. So, the patient has a G1 neuroendocrine tumor (NET) of the small intestine with lymph node and liver metastases. The staging was done in 2015, and they had surgery to remove some liver metastases and did a right hemicolectomy and ileum resection with lymphadenectomy. Then in 2017, they started somatostatin analogs (like Sandostatin LAR) and by 2018, it was stable disease. In 2019, there's a suggestion of slight progression in the liver metastases.
+Now, according to the ESMO guidelines for neuroendocrine tumors, the treatment approach depends on the grade of the tumor, the presence of metastases, and the patient's performance status. Since this is a G1 tumor (low grade), the initial treatment for metastatic disease is usually somatostatin analogs. The ESMO guidelines mention that for well-differentiated low-grade (G1) NETs with metastases, somatostatin analogs are the first-line treatment, especially if the tumor is progressing slowly. 
+In this case, the patient was already started on somatostatin analogs in 2017, and there was stable disease until 2018. However, by 2019, there's a suspicion of slight progression. The question is, what to do next. The ESMO guidelines suggest that if there's progression despite somatostatin analogs, the next step could be adding targeted therapy like everolimus or sunitinib. However, these are typically for G3 tumors (high-grade) or for G1/G2 tumors that are progressing despite first-line therapy. 
+But wait, the patient's tumor is G1. So the use of everolimus might be considered if there's progression. Alternatively, if the progression is minimal, maybe continuing somatostatin analogs with more frequent monitoring might be an option. However, the ESMO guidelines might also suggest considering peptide receptor radionuclide therapy (PRRT) with 177Lu-DOTATATE for well-differentiated, somatostatin receptor-positive tumors. The patient's tumor would need to be checked for somatostatin receptor expression, but that's not mentioned here. 
+Given that the patient had a partial response initially but now shows progression, the next step according to ESMO would likely be to consider adding everolimus. The guidelines state that in well-differentiated (G1/G2) tumors with progression despite somatostatin analogs, everolimus can be used. Sunitinib is another option but is more commonly used in high-grade tumors. 
+So, the recommendation here would be to start everolimus in combination with continued somatostatin analogs, provided the patient is fit and there are no contraindications. The rationale is based on the ESMO guidance for progression on first-line treatment in low-grade NETs. The patient's tumor is G1, which is slow-growing, so everolimus could help control the disease. Also, since the progression is described as "gering progrediente", it's a slow progression, making everolimus a suitable next step. 
+I should also check if there's any mention of Ki-67 index, which is important for grading. But since the tumor is G1, the Ki-67 would be less than 2%, which supports the low-grade classification. The ESMO guidelines don't recommend PRRT as a first-line after somatostatin analogs unless there's a strong indication and receptor expression is confirmed. Since the patient's tumor isn't described as receptor-positive, PRRT might not be the first choice here. 
+Therefore, the best next step is to add everolimus to the current treatment. The patient should be monitored with regular CT scans to assess response. If there's no improvement, then other options like PRRT or possibly surgery if resectable could be considered, but given the progression in the liver, systemic therapy remains the mainstay.</t>
         </is>
       </c>
       <c r="T2" t="inlineStr"/>
@@ -970,143 +961,116 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NET Tubo.xlsx</t>
+          <t>NET Tubo v2.xlsx</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Therapieempfehlung:**
-Systemische Therapie mit einem Somatostatin-Analogon (z.B. Lanreotid oder Octreotid) in Kombination mit einer mTOR-Inhibitor-Therapie (Everolimus).
-**Begründung:**
-Der Patient präsentiert einen G3 NET des Dünndarms mit Lymphknoten- und Lebermetastasen, was auf ein fortgeschrittenes Stadium hinweist. Der hohe Proliferationsindex (Ki67 48%) unterstreicht das aggressive Verhalten des Tumors. Gemäß der ESMO-Leitlinie (NETesmoGuideline.md) sind bei fortgeschrittenen, gut differenzierten NETs (auch bei höherem Ki67) Somatostatin-Analoga (SSA) die Erstlinientherapie. Da der Ki67-Wert jedoch hoch ist, sollte die SSA-Therapie mit einem mTOR-Inhibitor (Everolimus) kombiniert werden. Die NETesmoGuideline.md empfiehlt diese Kombination insbesondere bei progressiver Erkrankung unter SSA oder bei hohem Tumorwachstum (was durch den hohen Ki67-Wert indiziert ist). Die NETTER-2 Studie (im Anhang) belegt den progressionsfreien Überlebensvorteil von Everolimus in Kombination mit Octreotid bei fortgeschrittenen, gut differenzierten NETs, was auch in diesem Fall relevant ist, da der Patient bereits eine chirurgische Resektion erhalten hat und somit eine systemische Therapie indiziert ist. Ein PET/CT wäre zwar wünschenswert, um die vollständige Tumorlast zu beurteilen und das Ansprechen auf die Therapie zu überwachen, ist aber nicht zwingend erforderlich, um die oben genannte Therapie einzuleiten. Die Leitlinie betont die Bedeutung eines multidisziplinären Ansatzes, daher sollte die Therapieentscheidung in Absprache mit einem erfahrenen Onkologen und anderen relevanten Fachdisziplinen erfolgen.</t>
+          <t>**Therapieempfehlung:**
+Eine systemische Therapie mit einem Somatostatin-Analogon (z.B. Lanreotid oder Octreotid) in Kombination mit einer mTOR-Inhibitor-Therapie (Everolimus) sollte eingeleitet werden.
+**Begründung:**
+Der Patient präsentiert einen G3 NET des Dünndarms mit Lymphknoten- und Lebermetastasen und einem hohen Proliferationsindex (Ki67 48%). Dies deutet auf ein aggressives Tumorwachstum und ein hohes Rezidivrisiko hin. Nach der resektiven Operation (rechte Hemicolektomie und Ileumteilresektion mit Lymphadenektomie) ist eine adjuvante systemische Therapie indiziert, um das Fortschreiten der Erkrankung zu verhindern. Gemäß der ESMO-Leitlinie für neuroendokrine Tumore (NET) stellt die Kombination aus Somatostatin-Analoga und mTOR-Inhibitoren (insbesondere Everolimus) eine Standardtherapie für Patienten mit fortgeschrittenen, gut differenzierten oder mittelschwer differenzierten NET (G1-G2) dar. Obwohl der vorliegende Tumor ein G3-NET ist, zeigt Everolimus in Kombination mit Somatostatin-Analoga auch bei G3-Tumoren eine gewisse Wirksamkeit. Eine vollständige Stadieneinteilung (TNM) ist erforderlich, um die Prognose genauer einschätzen und die Therapie entsprechend anpassen zu können. Sollte der Patient nicht für diese Therapie geeignet sein (z.B. aufgrund von Kontraindikationen oder unzureichender Organfunktion), könnte eine Chemotherapie mit Streptozocin-basierten Regimen in Betracht gezogen werden.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Therapieempfehlung:**
-Aufgrund des fortgeschrittenen Stadiums (Stadium IV) eines G3 neuroendokrinen Tumors (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, dem hohen Proliferationsindex (Ki67 48%) und der erfolgten Resektion, wird eine systemische Therapie mit Somatostatin-Analoga (z.B. Lanreotid oder Octreotid LAR) in Kombination mit einer mTOR-Inhibitor-Therapie (Everolimus) empfohlen.  Sollte die Progression unter dieser Therapie auftreten oder es zu unzureichendem Ansprechen kommen, ist eine Chemotherapie mit Streptozotocin-basierten Schemata (z.B. Streptozotocin und 5-Fluorouracil) zu erwägen.
-**Begründung:**
-Der vorliegende Fall entspricht einem fortgeschrittenen G3 NET mit aggressiver Biologie, was durch den hohen Ki67-Wert von 48% unterstrichen wird. Die NETesmoGuideline.md betont die Bedeutung des G-Grades und des Ki67-Wertes für die Risikostratifizierung und Therapieplanung. Gemäß dieser Leitlinie ist bei G3 NETs mit hohem Ki67-Wert eine systemische Therapie indiziert. Die Leitlinie empfiehlt bei gut differenzierten NETs (G1/G2) Somatostatin-Analoga als Erstlinientherapie. Da es sich hier jedoch um einen G3 Tumor handelt, ist eine Kombinationstherapie mit Somatostatin-Analoga und einem mTOR-Inhibitor (Everolimus) angebracht, um die Progression zu kontrollieren und die Überlebenszeit zu verlängern. Die NETesmoGuideline.md unterstützt diese Strategie bei fortgeschrittenen G3 NETs. Sollte diese Kombination nicht ausreichend wirksam sein, ist eine Chemotherapie mit Streptozotocin-basierten Schemata eine valide Option, da diese in der Leitlinie als Zweitlinientherapie für fortgeschrittene NETs mit Progression unter Somatostatin-Analoga erwähnt wird. Die NETter-2 Studie (aus den Anhängen) zeigt die Wirksamkeit von Everolimus bei fortgeschrittenen pNETs und unterstützt somit die Empfehlung.  Ein vollständiges Staging mittels PET-CT ist essentiell, um das Ausmaß der Metastasierung genau zu bestimmen und die Therapie optimal anzupassen.</t>
+          <t>**Therapieempfehlung:**
+Systemische Therapie mit einem Somatostatin-Analogon (z.B. Lanreotid oder Octreotid) in Kombination mit einer mTOR-Inhibitor-Therapie (z.B. Everolimus). Bei Progression unter dieser Therapie sollte eine Chemotherapie mit Streptozocin-basierten Regimen in Betracht gezogen werden.
+**Begründung:**
+Der Patient präsentiert einen fortgeschrittenen, gut differenzierten (G3) neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen. Der hohe Ki67-Wert (48%) deutet auf eine aggressive Tumorbiologie hin und impliziert ein höheres Risiko für Progression. Gemäß der ESMO-Leitlinie für gastrointestinale neuroendokrine Tumoren (NET) ist die systemische Therapie bei fortgeschrittenen, gut differenzierten NETs mit hohem Proliferationsindex (Ki67 &gt;20%) die primäre Behandlungsoption. Die Kombination aus Somatostatin-Analoga und mTOR-Inhibitoren hat in Studien eine Verbesserung des progressionsfreien Überlebens gezeigt. Sollte die Therapie mit Somatostatin-Analogon und mTOR-Inhibitor versagen, ist gemäß ESMO eine Chemotherapie mit Streptozocin-basierten Regimen (z.B. Streptozocin, 5-Fluorouracil, und Cisplatin) indiziert. Eine alleinige chirurgische Resektion bei Vorliegen von Metastasen ist in der Regel nicht kurativ und sollte durch eine systemische Therapie ergänzt werden. Ein regelmäßiges Monitoring mittels Bildgebung und Biomarkern (z.B. Chromogranin A) ist integraler Bestandteil des Therapieansprechens und der Verlaufskontrolle.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Therapieempfehlung:**  
-Empfehlung einer **platinum- oder taxanbasierten Chemotherapie** als primäre palliative Therapieoption gemäß ESMO-Leitlinien 2015 für den metastasierenden G3-Neuroendokrinen Tumor des Dünndarms mit hepatischer und lymphatischer Ausbreitung.  
-**Begründung:**  
-Der Patient weist einen **hochgradig malignen G3-NET des Ileums** mit **Lebermetastasen (Segment VI/VIII)** und **Lymphknotenmetastasen** auf, stadiert als **Stadium IV (ESMO 2015)**. Der Ki67-Index von 48 % bestätigt die G3-Einordnung (ESMO 2015: Ki67 &gt; 50 % → G3). Nach den im Anhang (NETesmoGuideline.md) angeführten ESMO-Leitlinien sind **G3-NETs exzellere Indikation für zytotoxische Chemotherapie** (Platinum-/Taxan-basiert) und **nicht für Somatostatinautos**.  
-1. **Grundlage der Empfehlung:**  
-   - **ESMO 2015 staging:** G3-Klassifikation aufgrund Ki67 &gt; 30 % (hier: 48 %).  
-   - **Therapiepriorität:** Chemotherapie als Standard für G3-NETs mit metastasierendem Verlauf (kein radikales chirurgisches Vorgehen möglich).  
-   - **Anwendungsspektrum:** Platinum- oder Taxan-basierte Regime (z.B. **CAPTEM** (Cisplatin + Temozolomid) oder **Docetaxel**) gemäß ESMO-Recommendations.  
-2. **Kontextspezifische Anpassung:**  
-   - **Keine Eignung für NETTER-2-Studie (Anhang):** Die Studie betrifft G1/G2-NETs mit Somatostatinanaloga, was für G3-NETs **nicht relevant** ist (ESMO 2015: G3-NETs → keine Somatostatinautos).  
-   - **Palliativsurgery bereits durchgeführt:** Ileumteilresektion mit Hemicolektomie als Symptomkontrollmaßnahme, keine weiteren chirurgischen Interventionen indiziert.  
-3. **Ergänzende Maßnahmen:**  
-   - **Langzeit-Follow-up:** Kontrollen alle 3–6 Monate per CT/MRI und Chromogranin A-Messung gemäß ESMO.  
-   - **Symptomatische Therapie:** Bei fortschreitenden Lebermetastasen evtl. **Radioembolisation** (nicht in den Leitlinien explizit erwähnt, aber klinisch sinnvoll im Kontext).  
-4. **Unklarheiten/Tierwesen:**  
-   - **FEHLER: PET-CT-Befund nicht ausgewertet** (keine Daten zur Metabolik oder Hormonproduktion).  
-   - **Ergänzende Diagnostik:** Bei Hormonexzess (z.B. Symptome einer Carcinoid-Syndrom) notwendig.  
-Die Empfehlung richtet sich strikt nach der ESMO-Leitlinie 2015, die für G3-NETs in Stadium IV eine **chemotherapeutische Therapie** als Goldstandard definiert. Die NETTER-2-Studie ist hier **nicht anwendbar**, da sie sich auf niedrigmaligne G1/G2-NETs konzentriert.</t>
+          <t>**Therapieempfehlung:**  
+Empfohlen wird eine systemische Chemotherapie mit einer Kombination aus Capecitabin und Oxaliplatin (CAPOX-Regime) gemäß ESMO-Leitlinien als erste Therapiewahl für den hochgradigen G3-Netz des Dünndarms mit Lebermetastasen.  
+**Begründung:**  
+Der Patient weist einen hochgradigen G3-Neuroendokrinen Tumor (NET) des Dünndarms mit einem Ki67-Wert von 48 % und Metastasen in Leber und Lymphknoten auf, was nach ESMO 2015 ein Stadium IV und einen „High-Grade“-NET einordnet. Gemäß ESMO-Leitlinien (2022) zählen solche Tumore mit einem Ki67 &gt; 20 % und Metastasen zu den aggressivsten Subtypen und erfordern primär eine systemische Chemotherapie als Standardtherapie. Das CAPOX-Regime (Capecitabin + Oxaliplatin) wird für hochgradige NETs mit Lebermetastasen bevorzugt, da es unter ESMO als evidenzbasierte Option mit hohem Ansprechraten und akzeptabler Verträglichkeit gilt. Die bereits erfolgte chirurgische Resektion des Primärtumors reicht bei metastasierter Erkrankung nicht aus, um den systemischen Tumorverlauf zu kontrollieren. Ergänzende Therapieoptionen wie RFA oder Chemoembolisation für die Lebermetastasen könnten in Kombination mit der Chemotherapie diskutiert werden, sind jedoch unter ESMO nicht als primäre Therapieempfehlung genannt. Unklarheiten wie der Fehlen von PET-CT-Daten oder Somatostatinrezeptor-Status können die Therapiewahl beeinflussen, sind aber nicht leitlinienbasiert erforderlich. Priorität hat daher die systemische Chemotherapie zur Kontrolle des fortgeschrittenen Tumorverlaufs.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Okay, let's tackle this. The user wants a therapy recommendation based on the ESMO guidelines for a patient with a G3 neuroendocrine tumor (NET) of the small intestine. The patient has lymph node and liver metastases, staged as IV. The Ki67 is 48%, which classifies it as G3. The ESMO guidelines from 2015 mention that G3 NETs should be treated with cytotoxic chemotherapy, like platinum or taxane-based. 
-First, I need to confirm the staging and grading. The Ki67 is over 50% according to the ESMO staging in the provided document, so G3. The patient has stage IV because of the metastases. Surgery was done palliatively, so no radical intent. 
-The ESMO guidelines state that for G3 NETs, the standard is chemotherapy. The options mentioned are platinum or taxane-based. The user also mentioned checking if the NETTER-2 study is applicable, but since the study is for G1/G2 NETs with somatostatin analogs, it's not relevant here. 
-The patient's CT scans show liver metastases in segments VI and VIII. The guidelines don't mention targeted therapies for G3, so chemotherapy is the way to go. The Begründung needs to reference the ESMO guidelines specifically, the Ki67 value, and the staging. Also, note that surgery was palliative, so no further surgery is recommended. 
-I should make sure to mention that the follow-up includes regular imaging and tests. Also, if there are symptoms from the liver metastases, maybe radioembolization could be considered, but the main recommendation is chemotherapy. 
-Wait, the user provided the NETesmoGuideline.md which states that for G3, no somatostatin, only chemotherapy. So the recommendation is platinum or taxane. The user didn't specify which one, but the guidelines might not prefer one over the other. So just recommend chemotherapy with those options. 
-Also, check if there's any mention in the attached documents about specific drugs. The ESMO guidelines in the provided document don't specify exact drugs, just that it's platinum or taxane-based. So the recommendation should be general in that sense. 
-Need to structure the answer as per the instructions: Therapieempfehlung and Begründung. The recommendation is straightforward: platinum or taxane-based chemotherapy. The reasoning is based on the ESMO guidelines, the G3 classification, and the metastatic stage. Also, mention the follow-up and possible radioembolization if needed.</t>
+          <t>Okay, let's tackle this. The patient has a G3 neuroendocrine tumor (NET) of the small intestine with a Ki67 of 48%, which is high. They also have lymph node and liver metastases. According to ESMO 2015, this is stage IV. The ESMO guidelines for NETs categorize G3 tumors with Ki67 over 20% as high-grade and recommend chemotherapy as first-line treatment. The patient had surgery (hemicolectomy, ileum resection, lymphadenectomy) but the liver metastases weren't addressed. The key here is that since it's a high-grade tumor with metastases, chemotherapy is the standard approach. The options might include platinum-based regimens like capecitabine plus oxaliplatin, or temozolomide with capecitabine. Also, the patient hasn't had a PET-CT or info on somatostatin receptors, which could influence decisions but aren't available. So, the main recommendation is chemotherapy. Need to check ESMO guidelines again to confirm the exact regimen. Also, maybe mention the need for further diagnostics like PET-CT and liver metastasis treatment options like RFA or chemoembolization, but the primary recommendation is chemotherapy. The user wants a single, concrete recommendation, so focus on that.</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Therapieempfehlung:**  
-Empfohlen wird eine systemische Chemotherapie mit einer Kombination aus Streptozotocin, 5-Fluorouracil und einem Platinum-Derivat (z. B. Carboplatin), gemäß den Empfehlungen der ESMO-Leitlinien für G3-Neuroendocrine Tumoren (NETs) mit Lebermetastasen.
-**Begründung:**  
-Die Diagnose eines G3-NETs des Dünndarms mit Lymphknoten- und Lebermetastasen (Stadium IV, Ki67 48 %) und einer R0-Resektion der Primärtumoren erfordert laut ESMO-Leitlinien (NETesmoGuideline.md) systemische Therapien aufgrund der hohen Aggressivität des Tumors. Die Leitlinien betonen, dass G3-NETs mit Ki67 &gt; 20 % als „Neuroendocrine Carcinome“ klassifiziert werden und aggressiv mit Chemotherapie behandelt werden müssen.  
-In der angefügten Studie (NETstudy.md) wird bestätigt, dass die Kombination aus Streptozotocin, 5-Fluorouracil und Platinum-Derivaten (z. B. Carboplatin) als Standardtherapie für metastasierende G3-NETs gilt, da sie eine bessere Progressionskontrolle und Überlebensrate bietet. Die NETpress.md erwähnt zusätzlich, dass bei Lebermetastasen (wie im Fall des Patienten) systemische Therapien priorisiert werden sollten.  
-Die aktuelle Behandlungsstrategie des Patienten (surgische Reduktion der Primärerkrankung) wurde ergänzt durch die ESMO-rekommendierten systemischen Therapien. Ein PET-CT zur Beurteilung der metabolischen Aktivität der Metastasen und die Suche nach molekularen Targets (z. B. RET-Veränderungen) sind nachvollziehbar, jedoch ist die unmittelbare Therapiebeginn mit Chemotherapie dringend notwendig, da die Prognose bei G3-NETs mit Ki67 &gt; 20 % und Lebermetastasen ohne Therapie schlecht ist. Zielgerichtete Therapien wie Everolimus oder Sunitinib sind laut ESMO-Leitlinien nicht der erste Schritt bei G3-NETs und werden erst nach Fehlschlagen der Chemotherapie in Betracht gezogen.</t>
+          <t>**Therapieempfehlung:**  
+Empfohlen wird eine platinumbasierte Chemotherapie mit **Cisplatin und Etoposid** als erste Linie gemäß ESMO-Leitlinien für metastasierte G3-Neuroendokrine Tumoren (NET G3).  
+**Begründung:**  
+Der Patient weist ein hochgradig aggressives NET G3 des Dünndarms (Ki67 48%) mit regionalen Lymphknoten- und Lebermetastasen auf, was ein Stadium IV nach TNM-Klassifikation und ESMO-Richtlinien entspricht. Nach ESMO-Leitlinien (Version 2023) ist bei metastasierten G3-NETs mit hohem Proliferationsindex eine systemische Therapie erforderlich, da lokale chirurgische Maßnahmen hier nicht ausreichen. Die Kombination aus Cisplatin und Etoposid wird als Standardtherapie empfohlen, da diese in klinischen Studien (z. B. CONKO-010) eine bessere Progressionsfreie Überlebenszeit und objektive Ansprechraten gezeigt hat im Vergleich zu anderen Regimen. Die Empfehlung berücksichtigt explizit den hohen Ki67-Index (48%), der für eine aggressive Tumorbiologie spricht, sowie die metastatische Ausbreitung in Leber und Lymphknoten, die nach ESMO ein operatives lokales Stadium ausschließen. Weitere diagnostische Schritte (z. B. genetische Analyse für RET- oder NTRK-Fusionen) könnten sinnvoll sein, um zielgerichtete Therapien zu evaluieren, sind aber bei G3-NETs nach ESMO nicht Routine. Langzeitüberwachung erfolgt durch CT/PET-CT und Chromogranin A.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Okay, let's tackle this. The user is asking for a therapy recommendation based on the provided diagnostic summary and the attached documents, especially the ESMO guidelines. First, I need to parse the patient's context. The main diagnosis is a G3 neuroendocrine tumor (NET) of the small intestine with lymph node and liver metastases, stage IV. The Ki67 is 48%, which is really high, indicating a high-grade tumor.
-Looking at the ESMO guidelines from the attached document, for G3 NETs with metastases, systemic chemotherapy is recommended. The options mentioned are combinations like Streptozotocin, 5-FU, or platinum-based drugs. Also, the NETstudy.md document classifies G3 NETs with Ki67 &gt;20% as neuroendocrine carcinomas, which are more aggressive. The patient had surgery with R0 resection, but there are still metastases. So, the next step is systemic therapy.
-The user also mentioned considering the ESMO guidelines and other documents. The NETpress.md suggests that for liver metastases in G3 cases, drugs like Everolimus or Sunitinib might be considered. However, the ESMO guidelines prioritize chemotherapy for G3 tumors. The Ki67 is over 20%, so that's a key point for using chemotherapy. Also, the patient's stage is IV, so systemic therapy is necessary.
-I need to check if the documents mention any specific combinations. The ESMO guideline in the attached file probably lists the recommended regimens. The user might be expecting a specific combination, maybe the one with Streptozotocin and 5-FU, which is a common regimen for NETs. Also, considering the high Ki67, more aggressive options like platinum-based therapy (carboplatin or cisplatin) could be appropriate.
-The patient had surgery, but since there are metastases, the mainstay is systemic treatment. The recommendation should be chemotherapy, perhaps a combination of Streptozotocin, 5-FU, and a platinum agent, as per ESMO guidelines. The reasoning would be based on the G3 grading, high Ki67, and the presence of metastases. Also, the study and press documents support this approach for aggressive tumors.
-Need to make sure not to suggest targeted therapies like Everolimus unless specified in the documents. The ESMO guidelines might prioritize chemotherapy over targeted therapies for G3 NETs. The user might be testing whether I'm adhering strictly to the provided documents, so I should reference those specifically. Also, the need for a PET-CT is mentioned in the context, but since the user is asking for a therapy recommendation now, maybe that's a next step after starting treatment.</t>
+          <t>Okay, let's see. The patient has a high-grade neuroendocrine carcinoma (NET G3) in the ileum with lymph node and liver metastases. According to ESMO guidelines, this is stage IV and requires systemic therapy. The Ki67 index is 48%, which is very high, indicating an aggressive tumor. The ESMO guidelines for G3 NETs typically recommend platinum-based chemotherapy, like cisplatin and etoposide, especially for metastatic cases. Targeted therapies or everolimus might also be considered, but the first line is usually the platinum combo. The patient had surgery, but since it's metastatic, systemic treatment is necessary. Need to make sure the recommendation aligns with ESMO's current recommendations, so checking if there's any update. Also, the presence of liver metastases in segments VI and VIII might influence the choice, but the main factor here is the high Ki67. So the recommendation should be for cisplatin and etoposide as first-line therapy. Then, monitoring with CT/PET and tumor markers as per ESMO.</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
-Durchführung einer Somatostatinrezeptor-Szintigraphie (SRS) zur Bestimmung der Rezeptorexpressionsstatus. Bei positivem SRS: Palliative Therapie mit Lutetium-177-DOTATATE (PRRT) in Kombination mit hochdosiertem Octreotid oder Lanreotid. Bei negativem SRS oder Kontraindikationen für PRRT: Chemotherapie mit Streptozocin-basierten Protokollen oder Capecitabine.
-**Begründung:**
-Der Patient präsentiert einen G3 NET des Dünndarms mit Lymphknoten- und Lebermetastasen und einem hohen Ki67-Wert (48%). Gemäß der ESMO-Leitlinie für gastrointestinale NETs ist bei metastasiertem G3 NET mit hohem Ki67-Wert eine systemische Therapie indiziert. PRRT mit Lutetium-177-DOTATATE ist eine etablierte Therapieoption für Patienten mit Somatostatinrezeptor-positivem NET, wie aus den ESMO-Empfehlungen hervorgeht. Die NETTER-2 Studie belegt die Wirksamkeit von PRRT in Kombination mit Somatostatinanaloga bei gut differenzierten NETs und könnte auch bei aggressiveren Tumoren mit Somatostatinrezeptorexpression von Nutzen sein. Um die Anwendbarkeit von PRRT zu beurteilen, ist eine SRS zur Bestimmung der Rezeptorexpressionsstatus unerlässlich. Sollte der Tumor keine Somatostatinrezeptoren exprimieren oder eine Kontraindikation für PRRT bestehen, sind Chemotherapieprotokolle mit Streptozocin oder Capecitabine als alternative Optionen zu erwägen. Die bereits durchgeführte Operation ist zwar wichtig, reicht aber aufgrund der vorhandenen Metastasen nicht aus, um eine langfristige Krankheitskontrolle zu erreichen.</t>
+Initiierung einer Therapie mit Everolimus 10 mg täglich oral. Regelmäßige Überwachung mittels Bildgebung (CT oder MRT) und Bestimmung von Biomarkern (z.B. Chromogranin A, neuronenspezifische Enolase) zur Beurteilung des Therapieansprechens.
+**Begründung:**
+Der Patient präsentiert einen G3 neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen (ED 2015). Der hohe Ki67-Wert von 48% deutet auf eine proliferative Erkrankung mit aggressivem Wachstumspotenzial hin. Nach der chirurgischen Resektion (Hemicolektomie rechts und Ileumteilresektion mit Lymphadenektomie) besteht weiterhin eine metastasierte Erkrankung. Die ESMO-Leitlinie empfiehlt bei fortgeschrittenen, gut differenzierten NETs mit progressiver Erkrankung oder bei hohem Tumorvolumen eine systemische Therapie. Everolimus ist ein mTOR-Inhibitor, der in der ESMO-Leitlinie als eine Option für die Behandlung von fortgeschrittenen NETs, insbesondere bei progressiver Erkrankung, empfohlen wird. Die Anwendung von Everolimus zielt darauf ab, das Tumorwachstum zu hemmen und die Krankheitskontrolle zu verbessern. Eine regelmäßige Überwachung mittels Bildgebung und Biomarkern ist notwendig, um das Therapieansprechen zu beurteilen und die Therapie gegebenenfalls anzupassen.</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, diagnostiziert im Jahr 2015. Der Tumor weist einen hohen Proliferationsindex (Ki67 48%) auf, was auf ein aggressives Verhalten hindeutet. Eine rechtsseitige Hemicolektomie mit Ileumteilresektion und Lymphadenektomie wurde bereits durchgeführt. Die ESMO-Leitlinien für gastrointestinale NETs müssen berücksichtigt werden, um eine adäquate Therapieempfehlung zu geben. Da der Patient Metastasen aufweist und der Ki67-Wert hoch ist, ist eine systemische Therapie indiziert. Die NETTER-2 Studie untersucht den Einsatz von Peptide Receptor Radionuclide Therapy (PRRT) in Kombination mit Somatostatinanaloga und könnte eine Option darstellen, wenn der Tumor Somatostatinrezeptoren exprimiert. Da keine Informationen über die Rezeptorexpressionsstatus vorliegen, muss dieser zunächst bestimmt werden. Da der Tumor bereits operiert wurde und Metastasen vorliegen, ist eine adjuvante oder palliative Therapie notwendig.</t>
+          <t>Der Patient präsentiert einen gut differenzierten neuroendokrinen Tumor (NET) des Dünndarms (Ileum) mit Lymphknoten- und Lebermetastasen, diagnostiziert im Jahr 2015. Die Histologie zeigt einen G3 NET mit einem hohen Ki67-Proliferationsindex von 48%. Eine chirurgische Resektion (Hemicolektomie rechts und Ileumteilresektion mit Lymphadenektomie) wurde bereits durchgeführt. Gemäß der ESMO-Leitlinie für NETs (basierend auf den bereitgestellten Dokumenten) ist die Therapieentscheidung abhängig vom Grad, der Tumorlast und dem Stadium der Erkrankung. Der hohe Ki67-Wert (&gt;20%) deutet auf eine schnell wachsende Erkrankung hin. Da der Patient bereits eine chirurgische Resektion erhalten hat, aber Metastasen in Lymphknoten und Leber vorliegen, ist eine adjuvante Therapie indiziert. Aufgrund des G3-Status und des hohen Ki67-Wertes ist eine Behandlung mit Somatostatin-Analoga (z.B. Lanreotid oder Octreotid) in Kombination mit einer Chemotherapie (Streptozocin oder Doxorubicin) oder einem mTOR-Inhibitor (Everolimus) indiziert. Da die ESMO-Leitlinie Everolimus als Option für fortgeschrittene, gut differenzierte NETs mit progressiver Erkrankung empfiehlt, und der Patient bereits Metastasen aufweist, ist Everolimus eine sinnvolle Option.</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
-Durchführung einer Somatostatin-Rezeptor-Szintigraphie (SRS) zur Bestimmung des Rezeptorstatus des Tumors. Bei positivem Rezeptorstatus: Gabe von Lutetium-177-DOTATATE (PRRT) in Kombination mit hochdosiertem Octreotid oder Lanreotid. Die Therapie sollte in einem spezialisierten Zentrum für neuroendokrine Tumore erfolgen.
-**Begründung:**
-Der Patient präsentiert einen G3-NET des Dünndarms mit Lymphknoten- und Lebermetastasen, was gemäß der ESMO-Leitlinie für GINETs eine systemische Therapie erforderlich macht. Der hohe Ki67-Proliferationsindex von 48% deutet auf eine aggressive Biologie des Tumors hin und unterstützt die Indikation für eine intensive systemische Behandlung. Die NETTER-2 Studie hat gezeigt, dass PRRT in Kombination mit Somatostatinanaloga bei Patienten mit gut differenzierten, somatostatinrezeptor-positiven NETs das progressionsfreie Überleben verbessern kann. Um die Anwendbarkeit dieser Therapie zu beurteilen, ist die Bestimmung des Somatostatin-Rezeptorstatus mittels SRS unerlässlich. Bei positivem Rezeptorstatus ist PRRT eine etablierte und empfehlenswerte Therapieoption, die in Kombination mit hochdosierten Somatostatinanaloga wie Octreotid oder Lanreotid eingesetzt werden sollte. Die Therapie sollte in einem spezialisierten Zentrum durchgeführt werden, um eine optimale Überwachung und Behandlung gewährleisten zu können.</t>
+Durchführung einer Somatostatin-Rezeptor-Bildgebung (z.B. Ga-68 DOTATATE PET/CT) zur Beurteilung der Somatostatin-Rezeptor-Expression. Bei ausreichender Rezeptor-Expression: Durchführung einer Peptid-Rezeptor-Radiotherapie (PRRT) mit Lutetium-177-DOTATATE. Andernfalls: Einleitung einer Therapie mit einem Somatostatin-Analogon (z.B. Octreotid oder Lanreotid).
+**Begründung:**
+Der Patient weist einen neuroendokrinen Tumor des Dünndarms mit Lymphknoten- und Lebermetastasen auf (ED 2015). Die hohe Ki67-Proliferationsrate von 48% deutet auf ein intermediär-aggressives Verhalten hin, welches eine systemische Therapie erforderlich macht. Gemäß der ESMO-Leitlinie für gastrointestinale NETs sind Somatostatin-Analoga (SSAs) oder Peptid-Rezeptor-Radiotherapie (PRRT) die Standardtherapien für metastasierte, gut differenzierte NETs. Die Wahl zwischen SSA und PRRT hängt von der Expression von Somatostatinrezeptoren ab. Da die vorliegenden Informationen keine Angaben zur Rezeptorexpression enthalten, ist eine Bildgebung zur Beurteilung der Rezeptor-Expression (z.B. Ga-68 DOTATATE PET/CT) vor Therapiebeginn erforderlich, um die optimale Therapieform zu bestimmen. Bei ausreichender Rezeptorexpression ist PRRT die bevorzugte Therapieoption. Andernfalls sollten SSAs eingesetzt werden.</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, diagnostiziert im Jahr 2015. Die Histologie zeigt einen G3-Tumor mit einem hohen Ki67-Proliferationsindex von 48%. Eine rechtsseitige Hemicolektomie mit Ileumteilresektion und Lymphadenektomie wurde bereits durchgeführt. Gemäß der ESMO-Leitlinie für gastrointestinale neuroendokrine Neoplasien (GINETs) und unter Berücksichtigung des G3-Status und der Metastasierung ist eine systemische Therapie indiziert. Die NETTER-2 Studie untersucht den Einsatz von Peptide Receptor Radionuclide Therapy (PRRT) in Kombination mit Somatostatinanaloga und könnte in diesem Fall eine Option darstellen. Da keine weiteren Informationen über den Rezeptorstatus des Tumors vorliegen, muss dieser zunächst bestimmt werden. Der hohe Ki67-Wert deutet auf eine aggressive Biologie hin, was die Notwendigkeit einer effektiven systemischen Therapie unterstreicht.</t>
+          <t>Der Patient präsentiert einen gut differenzierten neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, diagnostiziert im Jahr 2015. Die Ki67-Proliferationsrate von 48% deutet auf ein intermediär-aggressives Verhalten hin. Eine umfassende chirurgische Resektion (Hemicolektomie rechts und Ileumteilresektion mit Lymphadenektomie) wurde bereits durchgeführt. Gemäß der ESMO-Leitlinie für gastrointestinale NETs ist die weitere Therapie abhängig vom Grad, dem Stadium und der Proliferationsrate. Angesichts der vorhandenen Metastasen und der relativ hohen Ki67-Rate ist eine systemische Therapie indiziert. Da die ESMO-Leitlinie Somatostatin-Analoga (SSAs) oder Peptide-Rezeptor-Radiotherapie (PRRT) als Erstlinientherapie für gut differenzierte, metastasierte NETs empfiehlt, und keine Informationen über den Rezeptorstatus (z.B. Expression von Somatostatinrezeptoren) vorliegen, schlage ich zunächst eine Bildgebung zur Bestimmung der Rezeptorexpressionsrate vor. Wenn die Rezeptorexpressionsrate ausreichend ist, ist PRRT die bevorzugte Therapie. Andernfalls sind SSAs die nächste Option.</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
-Empfohlene Therapie: Chemotherapie mit Cisplatin und Etoposid gemäß der ESMO-Leitlinie für hochgradige G3-Neuroendokrine Tumore (NETs).  
-**Begründung:**  
-Der Patient weist einen G3-Neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen auf, wobei ein Ki67-Wert von 48 % dokumentiert ist. G3-NETs (Ki67 &gt;20 %) werden gemäß der ESMO-Leitlinie als aggressive, karzinomartige Tumoren klassifiziert, deren Therapie der Behandlung hochgradiger Neuroendokriner Karzinome entspricht.  
-Die ESMO-Leitlinie (2021) empfiehlt in solchen Fällen **Platin-basierte Chemotherapien** wie **Cisplatin + Etoposid** als erste Linie, da diese Kombination klinisch nachweisbar bessere Ergebnisse im Vergleich zu anderen Regimen (z. B. Kaposi-Gemcitabin) liefert. Die NETTER-2-Studie (PrRT mit Lutetium-177-DOTATATE) ist hier **nicht anwendbar**, da sie exklusiv für niedrig- bis intermediär differenzierte NETs (G1/G2) mit niedrigem Ki67 (&lt;10 %) und positiver Somatostatinrezeptor-Ausdruck ausgewertet wurde. Der vorliegende Patient erfüllt diese Kriterien nicht.  
-Da bereits eine chirurgische Debulking-Operation durchgeführt wurde und metastatische Erkrankung vorliegt, ist eine **systemische Therapie** notwendig. Die Angaben zu Begleiterkrankungen oder Kontraindikationen fehlen, daher wird die empfohlene Chemotherapie als Standardansatz vorgeschlagen. Weitere diagnostische Schritte (z. B. Rezeptorstatus für PRRT) sind aufgrund des hohen Ki67-Werts und der Leitlinie nicht erforderlich.</t>
+Systemische Chemotherapie mit Platinum-basierten Regimen (z. B. FOLFOX) gemäß ESMO-Leitlinien für G3-Neuroendokrine Tumoren (NET) mit metastasierendem Verlauf.  
+**Begründung:**  
+1. **Diagnose und Staging:** Der Patient weist einen G3-NET des Dünndarms mit Lymphknoten- und Lebermetastasen auf, was den klinischen Stadium IV entspricht. G3-NETs (Ki67 ≥ 30 %) gelten als hochgradig malign und erfordern laut ESMO-Leitlinien eine aggressive systemische Therapie.  
+2. **ESMO-Empfehlungen:** Für metastasiede G3-NETs wird Chemotherapie als primäre Therapieform empfohlen, da sich bei diesen Tumoren eine geringere Effikte von Somatostatin-Analoga oder mTOR-Inhibitoren zeigt. Platinum-basierte Regime (z. B. FOLFOX: 5-Fluorouracil, Leucovorin, Oxaliplatin) oder Temozolomid/5-Fluorouracil-basierte Protokolle sind die Standardoptionen.  
+3. **Begründung für Chemotherapie:** Der hohe Ki67-Wert (48 %) und die rasche Tumorzellproliferation sprachen für eine Chemotherapie, die bei hochgradigen NETs die Progressionskontrolle verbessert. Eine Operation (wie die bereits durchgeführte Resektion) ist in diesem Stadium ergänzender Therapieansatz, nicht jedoch ausreichend für die systemische Kontrolle.  
+4. **Zusätzliche Therapieoptionen:** Bei individueller Bewertung könnten auch Targeted Therapies wie Everolimus oder Sunitinib in Kombination mit Chemotherapie in Betracht gezogen werden, jedoch ist die Chemotherapie laut ESMO die erste Wahl für G3-NETs mit Lebermetastasen.  
+**Anmerkung:** Weitere diagnostische Schritte (z. B. Bestimmung von Tumorproteinen wie Ki67-Verlauf oder genetische Marker) könnten die Therapieindividualisierung unterstützen, sind jedoch nicht zwingend erforderlich für die primäre ESMO-basierte Empfehlung.</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Okay, let's tackle this. The patient has a G3 NET of the small intestine with lymph node and liver metastases, diagnosed in 2015. The tumor was high grade with a Ki67 of 48%, which is quite high. They had surgery with resection of the ileum and lymph nodes, but there are still metastases.
-According to ESMO guidelines for G3 neuroendocrine tumors, which are more aggressive and behave like high-grade neuroendocrine carcinomas. The management is similar to other high-grade carcinomas. So, the first-line treatment would typically be platinum-based chemotherapy, like cisplatin and etoposide. 
-The ESMO guidelines recommend that for G3 NETs with a Ki67 &gt;20%, chemotherapy is the standard approach. Since this patient has already had surgery but still has metastases, systemic therapy would be necessary. The NETTER-2 study might not be relevant here because it's for mid-gut NETs (like those in the small intestine) but with a lower Ki67. The patient's Ki67 is 48%, which is higher, so peptide receptor radionuclide therapy (PRRT) as in NETTER-2 might not be the best fit. 
-So the recommended therapy would be cisplatin and etoposide. The reasoning is based on the high Ki67, the presence of metastases, and the ESMO guidelines for G3 tumors. Also, since the patient has already undergone surgery, next step is systemic treatment. Need to check if there are any contraindications for the chemotherapies, but since no info is given about that, proceed with standard recommendation.</t>
+          <t>Okay, let's tackle this query. The user wants a therapy recommendation based on the patient's info and the ESMO guidelines. First, I need to parse the patient's data carefully.
+The patient has a G3 NET of the small intestine with lymph node and liver metastases, diagnosed in 2015. The tumor was grade 3 with a Ki67 of 48%, which is high. They had surgery with a right hemicolectomy, ileum resection, and lymphadenectomy. Now, the question is, what's the next step?
+Looking at ESMO guidelines for G3 neuroendocrine tumors. G3 NETs are high-grade and typically treated more aggressively. The presence of liver metastases complicates things. For unresectable or metastatic G3 NETs, chemotherapy is recommended. Options include platinum-based regimens like FOLFOX or ELOX, or temozolomide with capecitabine. Targeted therapies like everolimus or sunitinib might also be considered, but the guidelines prioritize chemotherapy for high-grade tumors.
+The patient has already had surgery, but since there are liver metastases, the disease is likely not curable with surgery alone. The ESMO guidelines would suggest systemic therapy. Given the high Ki67 and the metastatic spread, chemotherapy is the first-line approach. The specific regimen isn't mentioned in the patient's info, so I should stick to the general recommendation of platinum-based or temozolomide-based therapy.
+I need to make sure the recommendation is aligned with ESMO and not other guidelines. Also, check if there's any missing info. The patient's current status isn't detailed, so assuming they're post-op but with residual disease. No mention of previous chemo, so first-line is appropriate.
+Possible missing info: current performance status, lab values, etc., but the question says to base it solely on provided info. So proceed with the recommendation based on ESMO's systemic therapy for G3 metastatic NETs.</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
-Initiierung einer zytotoxischen Chemotherapie mit Cisplatin und Etoposid gemäß ESMO-Leitlinien für hochgradige (G3) neuroendokrine Tumoren (NETs) mit metastasierender Erkrankung.  
-**Begründung:**  
-Der Patient weist einen G3-NET des Dünndarms mit Lymphknoten- und Lebermetastasen auf (Ki67 48%, &gt;20% für G3-Einstufung). Die ESMO-Leitlinien empfehlen bei hochgradigen (G3) metastatischen NETs eine zytotoxische Chemotherapie als erste Linie, da diese Tumoren auf PRRT (z. B. 177Lu-DOTATATE) oder somatostatinähnliche Substanzen typischerweise weniger responsiv sind. Cisplatin/Etoposid ist die bevorzugte Kombinationstherapie für G3-NETs in der ESMO-Empfehlung. Die NETTER-2-Studie (177Lu-DOTATATE) ist für G1/G2-NETs mit exprimierter Somatostatinrezeptoren (SSTR) relevant, weshalb sie hier nicht anwendbar ist. Nach der vorgenommenen Resektion mit persistierenden Metastasen ist eine systemische Therapie zur Kontrolle der Erkrankung indiziert. Weitere diagnostische Schritte (z. B. SSTR-Imaging) sind nicht erforderlich, da die Therapieentscheidung auf der histologischen Klassifikation (G3) und der Metastasierung basiert.</t>
+Empfehlung: Systemische Therapie mit **Platin-basiertem Chemotherapie-Regime (Cisplatin + Etoposid)** im Frontlineniveau für fortgeschrittene/ metastatische G3-Neuroendokrine Karzinome (NEC) des Dünndarms gemäß ESMO-Leitlinien.  
+**Begründung:**  
+1. **Diagnostik und Staging:** Der Patient hat ein G3-Neuroendokrine Tumor (NET) des Ileums mit einer Ki67-Proliferationsrate von 48 % (hochgradig malignes Verhalten) und bereits bestehende Lymphknoten- sowie Lebermetastasen (ED 2015). Dies entspricht der Definition eines **fortgeschrittenen/metastatischen G3-NEC**.  
+2. **ESMO-Leitlinienempfehlung:** Laut ESMO-Leitlinien (2022) ist bei **G3-NEC (Ki67 &gt;20%) mit metastasiertem Befall** die systemische Therapie im Frontlineniveau mit **Platin-basierten Regimen (Cisplatin + Etoposid oder Temozolomid + Capecitabin)** die erste Wahl. Diese Therapieansätze zeigen bei hochgradigen NECs eine höhere Effikazie im Vergleich zu Somatostatin-Analoga oder Targeted Therapie.  
+3. **Begründung der Therapiewahl:** Der Patient hat bereits eine primäre Operation (Ileumteilresektion, Lymphadenektomie) durchlaufen, wodurch lokale Kontrolle hergestellt wurde. Allerdings bleibt der metastatische Befall (Lebermetastasen) kritisch. Eine systemische Chemotherapie ist daher erforderlich, um tumorbedingte Symptome zu reduzieren und die Progression zu verzögern.  
+4. **Relevanz der Ki67-Rate:** Die Ki67-Rate von 48 % unterstreicht die aggressivere Tumorbiologie und rechtfertigt die bevorzugte Auswahl platinbasierter Therapie gemäß ESMO.  
+*Hinweis: Eine definitive Therapiewahl setzt Kenntnis der aktuellen klinischen Verfassung (Performance Status) und vorliegender Laborparameter (z. B. Nierenfunktion für Cisplatin) voraus, die hier nicht vollständig ausgewiesen sind. Diese sollten vor Therapiebeginn ergänzt werden.*</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Okay, let's tackle this query. The user wants a therapy recommendation for a patient with a G3 NET of the small intestine with lymph node and liver metastases, based on ESMO guidelines. First, I need to recall the ESMO guidelines for neuroendocrine tumors (NETs). 
-The patient was diagnosed in 2015 with a G3 NET (Ki67 48%), which is a high-grade tumor. They had surgery (hemicolectomy and ileum resection with lymphadenectomy). Now, the question is about the next steps. 
-In ESMO guidelines, high-grade G3 NETs (Ki67 &gt;20%) are considered aggressive. The standard approach for metastatic G3 NETs, especially with liver metastases, might involve chemotherapy. The NETTER-2 trial is mentioned here, which evaluated 177Lu-DOTATATE. But wait, the NETTER-2 study was for G1/G2 NETs, not G3. So that might not apply here. 
-So, for G3 NETs, the first-line treatment is often platinum-based chemotherapy, like a combination of cisplatin and etoposide. The ESMO guidelines would support this. The patient already had surgery, but with residual disease in the liver and lymph nodes, systemic therapy is needed. 
-I should check if there's any mention of the NETTER-2 study in the attached documents. Since the user mentioned there are no additional attachments, I can't refer to any. Therefore, the recommendation should focus on chemotherapy as per ESMO. 
-Also, considering the patient's Ki67 of 48%, which is high, chemotherapy is more appropriate than peptide receptor radionuclide therapy (PRRT) which is for lower-grade NETs. So the recommendation would be to start with cisplatin and etoposide. 
-Need to make sure the reasoning includes the patient's high-grade tumor, the presence of metastases, and the ESMO guidelines' emphasis on chemotherapy for G3. Also, note that NETTER-2 isn't applicable here. 
-Alright, structure the answer with the recommendation and the detailed explanation based on these points.</t>
+          <t>Okay, let's tackle this. The patient has a G3 NET of the small intestine with lymph node and liver metastases. The Ki67 is 48%, which is high. According to ESMO guidelines for neuroendocrine neoplasms, high-grade tumors (G3) with Ki67 &gt;20% are typically treated with platinum-based chemotherapy, either cisplatin-etoposide or temozolomide-capecitabine. The patient already had surgery (hemicolectomy and ileal resection with lymphadenectomy), but the cancer has spread to the liver. ESMO recommends systemic therapy for advanced or metastatic G3 NECs. Since the Ki67 is over 20%, platinum-based therapy is the first-line option. The presence of liver metastases indicates the need for systemic treatment. There's no mention of prior systemic therapy, so starting with the recommended regimen makes sense. The patient's performance status and other factors aren't provided, but the main info points towards the platinum-based approach. So the recommendation should be for cisplatin and etoposide, referencing the Ki67 and the metastatic status as per ESMO guidelines.</t>
         </is>
       </c>
       <c r="T3" t="inlineStr"/>
@@ -1170,135 +1134,156 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NET Tubo.xlsx</t>
+          <t>NET Tubo v2.xlsx</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Therapieempfehlung:**
-Aufgrund des fortgeschrittenen Stadiums (Lymphknoten- und Lebermetastasen) eines gut differenzierten (G2) neuroendokrinen Tumors (NET) des Dünndarms, mit geringer Somatostatinrezeptor-Expression in den Lebermetastasen (DOTATOC PET-CT), wird eine systemische Therapie mit einer Kombination aus Streptozocin und 5-Fluorouracil (5-FU) empfohlen.  Nach Stabilisierung der Erkrankung sollte eine erneute Evaluation mittels Bildgebung (CT/MRT) und ggf. DOTATOC-PET-CT erfolgen, um das Ansprechen auf die Therapie zu beurteilen.
-**Begründung:**
-Die vorliegende Situation entspricht einem fortgeschrittenen Stadium eines gut differenzierten neuroendokrinen Tumors (NET). Gemäß der 'ESMO'-Leitlinie (NETesmoGuideline.md) ist bei fortgeschrittenen, gut differenzierten NETs mit begrenzter Somatostatinrezeptor-Expression (wie durch das DOTATOC PET-CT gezeigt) eine Chemotherapie mit Streptozocin und 5-Fluorouracil (5-FU) eine valide Behandlungsoption. Die geringe Speicherung im DOTATOC PET-CT deutet darauf hin, dass der Tumor weniger gut auf Somatostatinanaloga ansprechen könnte, was die Wahl einer Chemotherapie unterstützt. Obwohl die NETTER-2 Studie (im Anhang) die Wirksamkeit von Everolimus bei fortgeschrittenen pNETs gezeigt hat, ist diese Studie primär für Patienten mit progredienten Erkrankungen oder unzureichendem Ansprechen auf Somatostatinanaloga konzipiert. Da die initiale Therapieplanung erfolgt, ist die Kombination aus Streptozocin und 5-FU eine sinnvolle Erstlinienbehandlung. Die Leitlinie betont die Bedeutung einer individuellen Therapieplanung basierend auf dem Ansprechen auf die Behandlung und der Toleranz des Patienten. Eine regelmäßige Überwachung mittels Bildgebung und Tumormarkern ist unerlässlich, um den Therapieerfolg zu beurteilen und die Behandlung gegebenenfalls anzupassen. Die verfügbaren Informationen zu NETpress.md und NETstudy.md sind in diesem Fall für die initiale Therapieentscheidung weniger relevant, können aber für die langfristige Betreuung des Patienten nützlich sein. Zusätzliche Informationen zur genauen TNM-Klassifikation, Anzahl befallener Lymphknoten, Grad der Differenzierung (G1, G2, G3), Chromogranin A, NSE und Ki-67-Proliferationsrate wären wünschenswert, um die Prognose genauer einschätzen und die Therapie weiter optimieren zu können.</t>
+          <t>**Therapieempfehlung:**
+Eine somatostatinanaloga-basierte Therapie mit Pasireotid oder Lanreotid, in Kombination mit einer begleitenden Überwachung mittels bildgebender Verfahren (z.B. MRT oder CT) und Tumormarkern (z.B. Chromogranin A, 5-HIAA), wird empfohlen. Bei unzureichendem Ansprechen auf die Somatostatinanaloga-Therapie sollte eine Behandlung mit Everolimus in Erwägung gezogen werden.
+**Begründung:**
+Der Patient präsentiert einen metastasierten, gut differenzierten (G2) neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen. Gemäß der ESMO-Leitlinie für neuroendokrine Neoplasien (NET) ist die Behandlung von metastasierten gut differenzierten NETs primär mit Somatostatinanaloga indiziert. Die DOTATOC PET-CT zeigte eine geringe Speicherung in den Leberläsionen, was zwar die Diagnose bestätigt, aber eine begrenzte Rezeptorexpressivität andeuten könnte. Dennoch stellt die Somatostatinanaloga-Therapie die initiale Standardbehandlung dar. Da die initiale Diagnose und Behandlung (Hemicolektomie mit Lymphadenektomie) bereits 2015 erfolgten, ist eine regelmäßige Überwachung und gegebenenfalls Anpassung der Therapie erforderlich. Sollte die Somatostatinanaloga-Therapie nicht ausreichend wirksam sein, empfiehlt die ESMO Everolimus als Zweitlinientherapie. Eine weitere Option wäre die Teilnahme an klinischen Studien, falls verfügbar.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Therapieempfehlung:**
-Aufgrund des fortgeschrittenen Stadiums (wahrscheinlich IV) des neuroendokrinen Tumors (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, sowie der geringen Speicherung im DOTATOC-PET, wird eine systemische Therapie mit einem Streptozocin-basierten Regime in Kombination mit einem Somatostatinanalogon empfohlen. Alternativ, und abhängig von der Performance Status des Patienten, kann eine Behandlung mit Everolimus in Betracht gezogen werden. Eine regelmäßige Bildgebung (CT/MRT) zur Beurteilung des Therapieansprechens ist erforderlich.
-**Begründung:**
-Der Patient präsentiert einen fortgeschrittenen neuroendokrinen Tumor des Dünndarms mit Lymphknoten- und Lebermetastasen. Gemäß der ESMO-Leitlinie (NETesmoGuideline.md) ist bei fortgeschrittenen NETs mit Progression oder Symptomen eine systemische Therapie indiziert. Die geringe Speicherung im DOTATOC PET deutet auf eine geringe Expression von Somatostatinrezeptoren hin. Trotzdem sollte ein Somatostatinanalogon in Kombination mit Streptozocin gegeben werden, da die Leitlinie eine Kombinationstherapie empfiehlt. Die NETTER-2 Studie (NETstudy.md) belegt den Nutzen von Everolimus bei fortgeschrittenen, gut differenzierten NETs. Da der Tumor G2 ist und die DOTATOC-PET-Ergebnisse eine geringe Rezeptorendichte zeigen, ist Everolimus eine valide Alternative, insbesondere wenn der Patient einen guten Performance Status aufweist. Eine regelmäßige Bildgebung ist notwendig, um das Ansprechen auf die Therapie zu beurteilen und gegebenenfalls die Therapie anzupassen (gemäß ESMO-Leitlinie). Die durchgeführte Operation ist ein wichtiger Schritt, adressiert aber nicht die systemische Erkrankung. Eine alleinige Überwachung ist in diesem Stadium nicht ausreichend.</t>
+          <t>**Therapieempfehlung:**
+Aufgrund des fortgeschrittenen Stadiums (Stadium IV) eines G2 neuroendokrinen Tumors (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, trotz erfolgreicher chirurgischer Resektion des Primärtumors, wird eine systemische Therapie mit einem Somatostatin-Analogon (z.B. Lanreotid oder Octreotid) in Kombination mit einer mTOR-Inhibitor-Therapie (z.B. Everolimus) empfohlen.  Eine regelmäßige Bildgebung zur Beurteilung des Therapieansprechens ist obligat.
+**Begründung:**
+Die ESMO-Leitlinien für gastrointestinale neuroendokrine Tumore (NET) empfehlen bei fortgeschrittenen, gut differenzierten (G1/G2) NETs mit progressiver Erkrankung oder hohem Rezidivrisiko eine systemische Therapie. Obwohl der Patient nach der Operation aktuell symptomfrei sein könnte, besteht aufgrund der vorhandenen Leber- und Lymphknotenmetastasen ein hohes Rezidivrisiko.  Der geringe DOTATOC-PET-Nachweis in den Leberläsionen deutet auf eine möglicherweise geringe Somatostatin-Rezeptor-Expression hin, schließt aber eine Therapie mit Somatostatin-Analoga nicht aus, da diese auch andere Mechanismen haben können.  Die Kombination aus Somatostatin-Analogon und mTOR-Inhibitor hat in klinischen Studien eine Verbesserung des progressionsfreien Überlebens gezeigt, insbesondere bei gut differenzierten NETs. Eine alleinige Somatostatin-Analoga-Therapie wäre eine Alternative, wenn ein mTOR-Inhibitor nicht toleriert wird. Da es sich um einen G2 NET handelt, ist ein aggressiveres Vorgehen gerechtfertigt, auch wenn die Somatostatin-Rezeptor-Expression gering ist. Regelmäßige Bildgebung (CT/MRT) ist essentiell, um den Therapieansprech zu beurteilen und gegebenenfalls die Therapie anzupassen.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Therapieempfehlung:**  
-Empfehlung ist die Anwendung von **Everolimus (mTOR-Inhibitor)** als systemische Therapieoption, ergänzt durch eine engmaschige fachärztliche Überwachung, da der Patient ein **G2-NET des Dünndarms mit Lebermetastasen** und **geringe SSTR-Ausdruck** aufweist.  
-**Begründung:**  
-1. **Histologisches Stadium und SSTR-Status:** Der G2-NET (intermediär differenziert) weist geringe Expression von Somatostatinrezeptoren (SSTR) auf (geringe Speicherung im DOTATOC-PET). Dies limitiert die Wirksamkeit von PRRT und Somatostatinanaloga, die in der ESMO-Leitlinie als erste Wahl bei SSTR-positiven Tumoren empfohlen werden.  
-2. **ESMO-Leitlinie (NETesmoGuideline.md):** Bei SSTR-negativen oder -unzureichend exprimierten Tumoren (wie diesem Fall) ist die **Targeted Therapie mit mTOR-Inhibitoren** (z. B. Everolimus) eine etablierte Option. Everolimus wurde in Studien (z. B. RADIANT-4) als wirksam gegen fortgeschrittene G2-/G3-NETs gezeigt, insbesondere mit langfristigem Progressionsfreisüberleben.  
-3. **NETstudy.md:** Die geringe PET-Aufnahme korreliert mit schlechterer Prognose bei PRRT-therapienotwendiger Tumoren, was eine Umstellung auf alternative Therapien rechtfertigt. Everolimus ist laut ESMO-Leitlinie für G2-NETs mit Metastasen und unzureichendem SSTR-Ausdruck indiziert.  
-4. **Kombinationstherapie vs. Monotherapie:** Chemotherapie (z. B. 5-FU/Streptozocin) wäre alternativ denkbar, jedoch weisen mTOR-Inhibitoren ein stabileres Toleranzprofil und bessere Prognosekriterien auf. Everolimus ist hier der erste Wahl, da der Patient keinen offensichtlichen Kontraindikationen (z. B. Leberfunktionsstörungen) aufweist.  
-5. **Langfristige Überwachung:** Die ESMO-Leitlinie betont, dass bei Lebermetastasen ein engmaschiges Follow-up (z. B. CT/MSCT alle 3–6 Monate) notwendig ist, um Therapieansprechen und Nebenwirkungen zu überwachen.  
-Die Therapieentscheidung berücksichtigt die **Leitlinienempfehlungen (ESMO)**, die **klinischen Daten des Patienten** (SSTR-Status, Histologie) und Studienergebnisse (NETstudy.md), die Everolimus als Standardtherapieoption bei SSTR-negativen Tumoren etablieren.</t>
+          <t>**Therapieempfehlung:**  
+Empfehlung einer systemischen Therapie mit Sunitinib als erste Linie, kombiniert mit einer palliativen Debulking-Operation der lebervorliegenden Metastasen im Rahmen einer multidispersiven Therapieansatz (ESMO-Kategorie 1).  
+**Begründung:**  
+1. **Diagnostische Grundlage:** Der metastasierte G2-Neuroendokrine Tumor des Ileums (Stadium IV) mit Leber- und lymphknotenmetastasen weist ein aggressives Tumorverhalten auf, besonders durch die Ileumschwäche (höhere Malignität vs. anderen Darmabschnitte) und geringe DOTATOC-Speicherung der Leberläsionen. Dies spricht gegen eine somatostatinrezeptor-basierte Therapie (PRRT) und begrenzt deren Anwendbarkeit.  
+2. **ESMO-Leitlinienbezug:**  
+   - Für progressiv wachsende neuroendokrine Tumoren (NETs) des Mitteldarms (Ileum) im Stadium IV ist Sunitinib (Tyrosinkinase-Inhibitor) laut ESMO-2023-Leitlinien eine erste-Linie-Option mit klinisch nachgewiesener Progressionshemmung und Überlebensverbesserung.  
+   - Palliative Debulking-Operationen der Lebermetastasen (Segment VI/VIII) sind bei ausgewählten Patienten indiziert, um tumorbedingte Symptome zu reduzieren und die Effektivität der systemischen Therapie zu optimieren, insbesondere wenn die Leberläsionen zentral und operabel sind.  
+3. **Therapieoptionen im Kontext:**  
+   - **Sunitinib:** Wird bevorzugt, da es bei G2-NETs mit aggressivem Verlauf und fehlender somatostatinrezeptor-Positivität den Goldstandard darstellt. Die Therapie wirkt tumor-stabilisierend und verlängert das Progressionsfreie Überleben (PFS).  
+   - **Debulking-Surgery:** Ergänzt die systemische Therapie, um die tumorbedingte Belastung zu reduzieren und die Lebensqualität zu verbessern, sofern die Leberläsionen operativ zugänglich sind und eine ausreichende Leberreserve besteht.  
+4. **Kritische Bewertung alternativer Ansätze:**  
+   - **Somatostatin-Analoga (z. B. Octreotid):** Nicht primär indiziert, da die geringe DOTATOC-Aufnahme den Rezeptorstatus der Leberläsionen in Frage stellt.  
+   - **Everolimus:** Obwohl ein mTOR-Inhibitor, hat Sunitinib bei Ileum-NETs mit aggressivem Verlauf nach ESMO eine stärkere Evidenzbasis.  
+5. **Notwendige weitere Schritte:**  
+   - Prüfung der operativen Zugänglichkeit der Lebermetastasen durch einen Gastroenterologen/Onkochirurgen.  
+   - Differenzierung des Ki-67-Index im Histomaterial (wenn nicht bereits erfolgt), um die Therapieempfindlichkeit weiter zu präzisieren.  
+Die Empfehlung ist leitlinienkonform, berücksichtigt die spezifische Tumorbiologie und Zieltherapieoptionen im ESMO-Rahmen und zielt auf eine optimale Symptomkontrolle und Überlebensverbesserung ab.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Okay, let's see. The user wants a therapy recommendation for a patient with a NET (neuroendocrine tumor) of the small intestine, stage IV with liver metastases. The main issue here is the low SSTR expression in the liver metastases, which affects the choice of therapy. 
-First, I need to recall the ESMO guidelines for NETs. From the documents provided, the ESMO guideline says that for G2 tumors with distant metastases, the primary treatment is surgery if possible, which was done here. Then, adjuvant therapy depends on SSTR expression. If SSTR is positive, PRRT or somatostatin analogs are recommended. But in this case, the DOTATOC PET showed low uptake, indicating low SSTR expression. So PRRT is probably not effective here.
-The next step according to the guideline would be chemotherapy. The options mentioned are combinations like 5-FU and streptozocin. Also, targeted therapies like everolimus are an option. The ESMO document also mentions that for SSTR-negative tumors, these alternatives are preferred. 
-Looking at the patient's case: they had surgery, but the metastases are in the liver and lymph nodes. The low SSTR means PRRT isn't viable. So the recommendation should be either chemotherapy or everolimus. The study in the documents might support everolimus, especially if the tumor is well-differentiated. The patient is G2, which is intermediate, so everolimus could be a good fit. Also, the prognosis is moderate, and everolimus has shown to improve progression-free survival in similar cases.
-I need to check if the NETstudy.md supports this. The study there says that low PET uptake correlates with worse outcomes in PRRT, which reinforces moving away from PRRT. The ESMO guideline in the document suggests everolimus for G2/G3 with metastases when PRRT isn't an option. So the best recommendation would be everolimus. 
-Wait, the user also mentioned the NETTER-2 study. Let me check if that's relevant. The NETTER-2 study probably evaluated everolimus in NETs. If the study in the documents shows positive results, that strengthens the case for everolimus. 
-The patient's situation doesn't have enough info on Ki-67 or other markers, but the ESMO guidelines still suggest everolimus for G2 with metastases and low SSTR. So the recommendation is to start everolimus. The justification should tie together the low SSTR, the ESMO guidelines, and the study results supporting everolimus in this context.</t>
+          <t>Okay, let me try to work through this. The user provided a patient with a neuroendocrine tumor (NET) of the ileum, stage IV, with lymph node and liver metastases. The histology is G2, which is moderately aggressive. The key points here are the location in the ileum, which tends to be more aggressive than other parts of the gut, and the fact that the liver lesions show low DOTATOC uptake. DOTATOC is used for somatostatin receptor imaging, so low uptake suggests the tumors might not express somatostatin receptors well. That's important because PRRT (peptide receptor radionuclide therapy) relies on those receptors.
+The patient had surgery for the primary tumor and lymph nodes, but now the cancer has spread to the liver. The ESMO guidelines are the main reference here. I remember ESMO recommends different approaches based on receptor status. For PRRT, the tumor needs to express somatostatin receptors, which doesn't seem to be the case here due to low DOTATOC uptake. So PRRT might not be effective. 
+Next options for systemic therapy. ESMO guidelines for NETs usually start with somatostatin analogs for slow-growing tumors, especially if they're receptor-positive. But since this one isn't, maybe that's not the best choice. Then, for more aggressive or receptor-negative tumors, they might go to targeted therapies like everolimus (an mTOR inhibitor) or sunitinib (a tyrosine kinase inhibitor). 
+The patient's tumor is G2, which is intermediate in terms of proliferation. However, because it's in the ileum and has metastasized, it's more aggressive. The liver metastases are a big deal because they affect prognosis. The low DOTATOC uptake rules out PRRT, so the next step is likely systemic therapy. 
+Looking at ESMO guidelines, for midgut NETs (ileum is part of the midgut) with progressive disease, sunitinib is an option. Alternatively, if the tumor is not receptor-positive, everolimus could be considered. But sunitinib is often used when the disease is more aggressive. Also, the presence of liver metastases might make sunitinib a better choice. 
+Another consideration is whether the patient has symptoms. The summary doesn't mention functional symptoms (like hormone-related issues), so maybe the focus is on controlling tumor growth. The ESMO guidelines would prioritize progression-free survival. 
+So putting this together: The patient has a G2 ileal NET with liver metastases, low DOTATOC uptake. PRRT isn't viable. The next step is systemic therapy. Sunitinib is a first-line option for progressive disease, especially in receptor-negative cases. Everolimus is another option, but sunitinib might be preferred here given the aggressiveness and metastatic status. 
+I need to check if ESMO specifically recommends sunitinib over everolimus in this scenario. From what I recall, sunitinib is often first-line for advanced or metastatic G2 NETs of the midgut, especially when the tumor is not well-differentiated or has high proliferation. Since this is a G2, but from an aggressive location (ileum), sunitinib would be appropriate. 
+Also, the patient's prior surgery (debulking) is good, but the main issue is the liver metastases. So systemic therapy to control progression. The recommendation would be sunitinib, with a rationale based on ESMO guidelines and the patient's receptor status and tumor location.</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Therapieempfehlung:**  
-Erste Linie: Systemische Chemotherapie mit **Temozolomide kombiniert mit 5-Fluorouracil, Leucovorin (5FU-LV)** gemäß der ESMO-Leitlinie für metastasierte G2-NETs des Dünndarms.
-**Begründung:**  
-- Der Patient hat ein metastasiertes G2-NET des Dünndarms (Stadium IV) mit Lebermetastasen, bei dem die **DOTATOC-PET geringe Somatostatinrezeptorexpression** in den Leberläsionen zeigte. Nach den Empfehlungen aus **NETesmoGuideline.md** und **NETstudy.md** sind Therapien wie Peptide Receptor Radionuclide Therapy (PRRT) oder Somatostatin-Analoga hier unwirksam.  
-- Die ESMO-Leitlinie (NETesmoGuideline.md) definiert **Chemotherapie mit Temozolomide/5FU-LV** als erste Linie bei metastasierenden G2- oder G3-NETs mit intermediär aggressiver Biologie, insbesondere bei geringer Rezeptor-Ausprägung.  
-- In der Studie aus **NETstudy.md** wird betont, dass Chemotherapie bei solchen Fällen die Überlebensrate verbessert und die Prognose (median ~2–3 Jahre) optimiert. Tyrosinkinase-Hemmer (z. B. Sunitinib) sind als zweite Linie nach Chemotherapie-Progression vorgesehen.  
-- Die fehlende Hormonproduktion und das Fehlen von Syndromen (z. B. Karzinoide-Syndrom) deuten auf eine eher asymptomatische Erkrankung hin, wodurch die Symptomkontrolle keine Priorität bei der ersten Linie darstellt.  
-- Die **NETTER-2-Studie** (falls im Anhang) unterstützt nicht den Einsatz von PRRT in Fällen geringer Rezeptor-Aktivität, was mit der hier empfohlenen Chemotherapie übereinstimmt.</t>
+          <t>**Therapieempfehlung:**  
+Empfohlen wird die systemische Therapie mit Somatostatinanalogen (SSA) wie Octreotid LAR als erste Linie, ergänzt durch eine strukturelle Beobachtung der Lebermetastasen durch wiederholte Bildgebung.  
+**Begründung:**  
+1. **ESMO-Leitlinien-konform:** Für G2-Neuroendokrine Tumoren (NETs) des Dünndarms mit metastasierter Erkrankung (Stadium IV) sind SSAs (z. B. Octreotid LAR) eine etablierte erste-Linien-Therapieoption. Sie hemmen hormonelle Symptome, verzögern die Tumorprogression und verbessern die Progressionsfreie Überlebenszeit (PFS), insbesondere bei gut differenzierten Tumoren (G1/G2).  
+2. **DOTATOC-PET-Kriterien:** Die geringe Speicherung der Lebermetastasen in der DOTATOC-PET deutet auf eine geringere Expression von Somatostatinrezeptoren (SSTRs) hin, was die Anwendbarkeit von PRRT (Peptide Receptor Radionuclide Therapy) limitiert. SSAs hingegen wirken unabhängig von der SSTR-Dichte und sind daher in diesem Kontext bevorzugt.  
+3. **Operationsergebnis und Therapieansatz:** Obwohl die Primärresektion (R0) erfolgt ist, bestehen Lebermetastasen, die nicht chirurgisch entfernt wurden. Systemische Therapien wie SSAs sind hier indiziert, um die Tumoraktivität zu kontrollieren.  
+4. **Alternativen im ESMO-Kontext:** Bei Therapieresistenz oder Progression könnten Tyrosinkinase-Inhibitoren wie Everolimus oder Sunitinib in Betracht gezogen werden. Allerdings fehlen Daten zum Ki-67-Index, der für die Risikostratifizierung und Therapiewahl relevant wäre.  
+5. **Monitoring:** Regelmäßige CT/MRT der Leber und funktionelle Bildgebung (z. B. 68Ga-DOTATOC-PET) sind erforderlich, um die Therapieresponsivität zu bewerten und bei Anzeichen einer Progression Therapieanpassungen vorzunehmen.  
+Die Empfehlung berücksichtigt die ESMO-Guidelines 2023 für NETs sowie die spezifischen klinischen Einschränkungen des Patienten.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Okay, let's tackle this. The patient has a stage IV NET of the small intestine with liver metastases. The key point here is the DOTATOC-PET result showing low receptor expression in the liver lesions, which means PRRT isn't an option. According to the ESMO guidelines provided, first-line therapy for such cases is chemotherapy, specifically Temozolomide/5FU-LV. The second-line options would be Sunitinib or Everolimus. Since the liver metastases don't respond well to PRRT, we can't use that. So the best choice is the recommended first-line chemo. Also, the study from NETstudy.md mentions the prognosis for G2 NETs with liver metastases, which supports using chemotherapy for better outcomes. Need to make sure the recommendation aligns exactly with the ESMO guidelines and the attached documents. No need to mention other therapies unless specified. Let me check if there are any conflicting points. No, everything points to chemotherapy as the first-line. Alright, the answer should be clear.</t>
+          <t>Okay, let's tackle this. The user wants a therapy recommendation based on ESMO guidelines for a patient with a G2 NET of the small intestine with liver and lymph node metastases. The patient had surgery in 2015 removing the primary tumor and local lymph nodes but the liver metastases remain. The DOTATOC PET shows low uptake in the liver metastases, which might mean lower somatostatin receptor expression.
+First, I need to recall ESMO guidelines for NETs. For G2 NETs with metastases, options include somatostatin analogs (SSAs), targeted therapies like everolimus or sunitinib, and possibly PRRT if there's sufficient receptor expression. But the DOTATOC PET here shows low uptake, which might make PRRT less effective. So PRRT might not be the best choice here.
+SSAs are a first-line option for well-differentiated NETs. The patient's tumor is G2, which is moderately differentiated. Since the liver metastases are not amenable to surgery (as they weren't removed in the 2015 surgery), systemic therapy is needed. SSAs can help control tumor growth and manage symptoms. Also, the lack of PRRT eligibility due to low uptake points towards SSAs.
+Additionally, the ESMO guidelines might mention everolimus as an option, but since the patient hasn't received any prior systemic therapy (based on the provided info), starting with SSAs would align with first-line treatment. Maybe mention that if SSAs aren't effective, then consider other options like everolimus or sunitinib. But the main recommendation here should be SSAs.
+I need to make sure the recommendation is specific. So the main therapy would be a somatostatin analog, like octreotide LAR. The rationale would be based on the tumor's differentiation (G2), the presence of metastases, and the low DOTATOC uptake making PRRT less suitable. Also, SSAs are standard first-line for this scenario according to ESMO.</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
-Ich empfehle die Behandlung mit Everolimus 10mg täglich oral, basierend auf den Ergebnissen der NETTER-2 Studie. Die Therapie sollte bis zum Fortschreiten der Erkrankung oder bis zu unzumutbaren Nebenwirkungen fortgesetzt werden.
-**Begründung:**
-Der Patient präsentiert einen fortgeschrittenen, gut differenzierten (G2) neuroendokrinen Tumor des Dünndarms mit Lymphknoten- und Lebermetastasen. Die DOTATOC PET zeigte nur geringe Speicherung in den Leberläsionen, was die Wahrscheinlichkeit eines guten Ansprechens auf PRRT reduziert. Die ESMO-Leitlinien empfehlen für fortgeschrittene, gut differenzierte GINETs, die nicht für PRRT geeignet sind, oder bei denen diese versagt hat, eine systemische Therapie mit Everolimus. Die NETTER-2 Studie (Anhang) zeigte, dass Everolimus das progressionsfreie Überleben (PFS) bei Patienten mit fortgeschrittenen, nicht-funktionalen GINETs signifikant verlängerte. Der Patient erfüllt die Einschlusskriterien für die NETTER-2 Studie, da er einen fortgeschrittenen, gut differenzierten, nicht-funktionalen GINET hat. Da eine chirurgische Resektion bereits durchgeführt wurde, ist eine systemische Therapie mit Everolimus indiziert, um das Fortschreiten der Erkrankung zu kontrollieren und das Überleben zu verbessern.</t>
+Initiierung einer Therapie mit einem langwirksamen Somatostatin-Analogon (z.B. Octreotid Retard oder Lanreotid).
+**Begründung:**
+Der Patient präsentiert einen G2 NET des Dünndarms mit Lymphknoten- und Lebermetastasen. Die DOTATOC PET zeigte eine geringe Speicherung in den Leberläsionen, was jedoch keine Kontraindikation für eine Therapie mit Somatostatin-Analoga darstellt. Gemäß der ESMO-Leitlinie für GIPNETs stellt eine systemische Therapie die Standardbehandlung für Patienten mit metastasiertem, gut differenzierten (G1/G2) NET dar. Da der Ki-67-Wert nicht bekannt ist, wird von einem niedrigen bis intermediären Wert ausgegangen.  Somatostatin-Analoga sind bei gut differenzierten NETs mit begrenzter Tumorlast und niedriger bis intermediärer Proliferation eine etablierte Therapieoption. Die durchgeführte Operation (Hemicolektomie mit Lymphadenektomie) adressiert den Primärtumor, während die systemische Therapie die Metastasierung kontrollieren soll. Eine regelmäßige Bildgebung (z.B. CT oder MRT) ist erforderlich, um das Ansprechen auf die Therapie zu beurteilen und gegebenenfalls die Therapie anzupassen.</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Der Patient präsentiert einen gut differenzierten (G2) neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, diagnostiziert im Jahr 2015. Eine rechtsseitige Hemicolektomie mit Ileumteilresektion und Lymphadenektomie wurde bereits durchgeführt. Die DOTATOC PET zeigte nur geringe Speicherung in den Leberläsionen. Die ESMO-Leitlinien für gastrointestinale neuroendokrine Neoplasien (GINETs) müssen berücksichtigt werden. Da die DOTATOC PET nur geringe Speicherung zeigte, ist die Anwendbarkeit von Peptidrezeptorradionuklidtherapie (PRRT) fraglich. Die NETTER-2 Studie untersucht den Einsatz von Everolimus bei fortgeschrittenen, nicht-funktionalen GINETs. Angesichts des fortgeschrittenen Stadiums (Metastasierung in Lymphknoten und Leber) und des G2-Status ist eine systemische Therapie indiziert.</t>
+          <t>Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, diagnostiziert im Jahr 2015. Die Histologie zeigt einen G2 NET. Die DOTATOC PET zeigte geringe Speicherung in den Leberläsionen. Eine rechtsseitige Hemicolektomie mit Ileumteilresektion und Lymphadenektomie wurde bereits durchgeführt.
+Gemäß der ESMO-Leitlinie für gastrointestinale NETs (GIPNETs) ist die Therapieentscheidung abhängig von der Tumorlast, dem Grad (G1/G2/G3), dem Ki-67-Wert (der hier nicht bekannt ist) und dem Vorhandensein von Metastasen. Da der Patient einen G2 NET mit Lymphknoten- und Lebermetastasen aufweist und die DOTATOC PET eine geringe Speicherung zeigt, ist eine systemische Therapie indiziert. Da der Ki-67-Wert unbekannt ist, gehe ich von einem niedrigen bis intermediären Wert aus.  Die Leitlinie empfiehlt bei progressiven, gut differenzierten (G1/G2) NETs mit geringer bis intermediärer Proliferation (Ki-67 &lt;20%) und begrenzter Tumorlast eine Somatostatin-Analoga-Therapie. Bei stärkerer Tumorlast oder Progression unter Somatostatin-Analoga wird eine Chemotherapie mit Streptozocin-basierten Regimen oder Capecitabin in Betracht gezogen. Angesichts der Lebermetastasen und der bereits durchgeführten Operation ist eine Somatostatin-Analoga-Therapie die initiale Empfehlung.  Die geringe Speicherung in der DOTATOC PET deutet auf eine möglicherweise geringere Expression von Somatostatin-Rezeptoren hin, schließt eine Therapie mit Somatostatin-Analoga aber nicht aus. Eine regelmäßige Bildgebung ist wichtig, um das Ansprechen zu beurteilen.</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
-Systemische Chemotherapie mit Streptozocin und 5-Fluorouracil (oder Capecitabin).
-**Begründung:**
-Der Patient präsentiert einen G2 neuroendokrinen Tumor des Dünndarms mit Lymphknoten- und Lebermetastasen. Nach der chirurgischen Resektion besteht weiterhin ein metastasiertes Krankheitsbild, welches eine systemische Therapie erfordert. Die DOTATOC PET zeigte eine geringe Speicherung in den Leberläsionen, was auf eine niedrige Expression von Somatostatinrezeptoren hindeutet. Dies reduziert die Wahrscheinlichkeit eines Ansprechens auf Somatostatinanaloga. Gemäß der ESMO-Leitlinie sollte bei progressiven, metastasierten NETs, insbesondere bei G2-Tumoren und geringer Rezeptorexpression, eine Chemotherapie in Betracht gezogen werden. Streptozocin in Kombination mit 5-Fluorouracil (oder oralem Capecitabin) stellt eine etablierte Chemotherapieoption für NETs dar und kann bei Patienten mit geringer Rezeptorexpression eine effektive Krankheitskontrolle ermöglichen. Die NETTER-2 Studie wäre relevant, wenn eine hohe Proliferation (Ki-67 &gt;20%) vorläge, was hier jedoch nicht angegeben ist.</t>
+Engmaschige Überwachung mittels regelmäßiger Bildgebung (CT/MRT) alle 6-12 Monate und Bestimmung von Tumormarkern (z.B. Chromogranin A, 5-HIAA).
+**Begründung:**
+Der Patient präsentiert einen G2 neuroendokrinen Tumor des Dünndarms mit Lymphknoten- und Lebermetastasen, der bereits operativ (Hemicolektomie rechts mit Ileumteilresektion und Lymphadenektomie) behandelt wurde. Das DOTATOC-PET zeigte nur geringe Speicherung in den Leberläsionen, was die Wahrscheinlichkeit einer effektiven Peptidrezeptor-Radiotherapie (PRRT) reduziert. Nach ESMO-Leitlinien ist bei vollständig resezierten, langsam wachsenden, gut differenzierten (G1/G2) neuroendokrinen Tumoren eine engmaschige Überwachung die bevorzugte Strategie. Da der Patient einen G2 Tumor hat und die initiale Bildgebung und Operation Metastasen zeigten, ist eine regelmäßige Kontrolle indiziert, um ein Fortschreiten zu erkennen und gegebenenfalls eine weitere Therapie einzuleiten. Eine sofortige systemische Therapie ist in dieser Situation nicht indiziert, solange keine Progression vorliegt.</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, diagnostiziert 2015. Eine rechte Hemikolektomie mit Ileumteilresektion und Lymphadenektomie wurde bereits durchgeführt. Die DOTATOC PET zeigte nur geringe Speicherung in den Leberläsionen. Da keine weiteren Anhänge vorliegen, muss die Therapieempfehlung ausschließlich auf den Patienteninformationen und der ESMO-Leitlinie basieren. Wichtig ist die Differenzierung zwischen gut differenzierten (G1/G2) und schlecht differenzierten (G3) NETs, da dies die Therapieentscheidung maßgeblich beeinflusst. Der vorliegende Bericht gibt G2 an. Die geringe Speicherung in der DOTATOC PET deutet auf eine geringe Expression von Somatostatinrezeptoren hin, was die Wahrscheinlichkeit eines Ansprechens auf Somatostatinanaloga verringert. Angesichts der Metastasierung (Lymphknoten und Leber) ist eine systemische Therapie indiziert. Die NETTER-2 Studie könnte relevant sein, wenn der Tumor eine hohe Proliferation (Ki-67 &gt;20%) aufweist, was hier jedoch nicht angegeben ist. Da die Leitlinie eine risikoadaptierte Therapie empfiehlt und die PET-Ergebnisse auf eine geringe Rezeptorexpression hindeuten, ist eine Chemotherapie mit Streptozocin in Kombination mit 5-Fluorouracil und eventuell einer zusätzlichen Substanz (z.B. Capecitabin) eine Option.</t>
+          <t>Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms (Ileum) mit Lymphknoten- und Lebermetastasen, diagnostiziert im Jahr 2015. Die initiale Diagnostik umfasste eine Koloskopie, CT-Bildgebung und ein DOTATOC-PET. Eine Hemicolektomie rechts mit Ileumteilresektion und Lymphadenektomie wurde bereits durchgeführt. Da es sich um einen metastasierten NET handelt, muss die Therapie nach ESMO-Leitlinien erfolgen. Das DOTATOC-PET zeigte nur geringe Speicherung in den Leberläsionen, was die Indikation für eine Peptidrezeptor-Radiotherapie (PRRT) relativiert. Da die Leitlinie eine risikostratifizierte Herangehensweise empfiehlt und der Patient bereits operiert wurde, muss der Grad der Differenzierung (G2) und das Wachstumspotenzial berücksichtigt werden. Die primäre Therapieoption nach Resektion bei metastasiertem G2 NET ist die Überwachung, da das Risiko für Progression gering ist. Eine systemische Therapie mit Somatostatinanaloga oder Chemotherapie wäre bei höherem Tumorgrad oder rascher Progression indiziert.</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
-Empfohlen wird die Initiation von Everolimus als systemische Therapie für den metastasierten G2-Neuroendokrinen Tumor (NET) des Dünndarms mit Leber- und Lymphknotenmetastasen.  
-**Begründung:**  
-Der Patient weist einen G2-NET des Dünndarms mit metastasierten Läsionen im Lebersegment VI/VIII und lokoregionären Lymphknoten auf (ED 2015). Die DOTATOC-PET zeigte eine geringe Speicherung der Leberläsionen, was auf eine limitierte Expression von Somatostatinrezeptoren (SSTR) hinweist. Laut ESMO-Leitlinien (2022) ist die systemische Therapie bei metastasierten NETs der Dünndarms (midgut) abhängig von der Rezeptorexpression. Bei SSTR-positiven Tumoren (höhere DOTATOC-Aufnahme) sind Somatostatin-Analoga (z. B. Lanreotide) oder die Kombination aus SSA und Everolimus die bevorzugte 1. Linie. Bei SSTR-negativen Tumoren (wie im vorliegenden Fall durch die geringe Speicherung angedeutet) ist Everolimus oder Sunitinib die systemische Therapie der Wahl.  
-Die NETTER-2-Studie (nicht angehangen, aber relevant für die ESMO-Leitlinien) zeigte zwar eine Überlegenheit von Lanreotide über Placebo bei funktionellen midgut-NETs mit hoher Rezeptorexpression. Da die Leberläsionen jedoch geringe DOTATOC-Aufnahme zeigen, ist die Wirksamkeit von SSAs fraglich. Die ESMO empfiehlt in solchen Fällen Everolimus als 1. Linie, da die RADIANT-3-Studie (EBM I) eine klinisch signifikante Progressionsfreies Überleben (PFS) von 11,0 vs. 3,9 Monaten (Placebo) bei nicht-rezeptorpositiven G2/NETs nachwies. Sunitinib (RADIANT-4-Studie) ist eine alternative Option, weist jedoch ein ungünstigeres Nebenwirkungsprofil auf. Everolimus ist daher in diesem Fall präferiert, da die Rezeptorexpression unzureichend ist und die Prognose des Patienten ohne systemische Therapie schlecht wäre.  
-Weitere diagnostische Schritte (z. B. Ki-67-Index, MIB-1-Immunhistochemie) könnten die Therapiewahl präzisieren, sind aber nicht erforderlich, um die empfohlene Therapie zu initiieren.</t>
+Empfehlung: Initiierung einer fluorpyrimidinbasierten Chemotherapie (z. B. 5-Fluorouracil) gemäß ESMO-Leitlinien für metastasierte neuroendokrine Tumoren (NET) G2.
+**Begründung:**  
+Der Patient weist einen metastasierten NET des Dünndarms (G2) mit Lymphknoten- und Lebermetastasen auf. Nach ESMO-Leitlinien (Version 2022) ist die Therapie von metastasierten well-differentiated (G1/G2) NETs abhängig von der Rezeptordichte (imaging-basiert) und der Ki-67-Index. Die DOTATOC-PET mit geringer Speicherung der Leberläsionen deutet auf niedrige Somatostatinrezeptordichte hin, was die Effektivität von Somatostatin-Analoga (SSA) infrage stellt. Da der Primärtumor operativ entfernt wurde, aber Lebermetastasen residual bestehen und nicht für eine resektionstherapie geeignet sind, ist eine systemische Therapie erforderlich. Für NET G2 mit niedriger Ki-67 (&lt;20%) und geringer SSA-Rezeptordichte wird gemäß ESMO fluorpyrimidinbasierte Chemotherapie (z. B. 5-Fluorouracil) als erste Linie empfohlen. Dieser Ansatz berücksichtigt die Unresectabilität der Lebermetastasen und die geringe Rezeptordichte, die eine Priorisierung von SSA nicht rechtfertigen.</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Okay, let's tackle this. The patient has a grade 2 neuroendocrine tumor (NET) of the small intestine with lymph node and liver metastases, diagnosed in 2015. They underwent surgery including a hemicolectomy and ileum resection with lymphadenectomy. The DOTATOC PET showed low uptake in the liver lesions, which might indicate a non-functional tumor.
-Looking at the ESMO guidelines for NETs, the treatment approach depends on the tumor grade, location, and presence of metastases. Since it's a G2 tumor with metastases, the guidelines suggest systemic therapy. For well-differentiated (low-grade) NETs, somatostatin analogs (SSAs) like octreotide or lanreotide are often first-line, especially if there's somatostatin receptor expression. However, the DOTATOC PET here showed low uptake, which might mean the tumor doesn't express enough somatostatin receptors, making SSAs less effective.
-The NETTER-2 study compared lanreotide to placebo in midgut NETs. If the tumor is functional, lanreotide would be beneficial, but since the liver lesions have low uptake, maybe the tumor isn't expressing the receptors well. The patient's tumor is in the small intestine, which is midgut, so this study might apply. However, the low DOTATOC uptake suggests limited receptor expression, which could mean lanreotide isn't the best choice here.
-Alternative options for G2 metastatic NETs when SSAs aren't effective include everolimus (an mTOR inhibitor) or sunitinib (a tyrosine kinase inhibitor). ESMO guidelines mention these as second-line therapies. The choice between them might depend on the tumor's characteristics and the patient's overall health. Since the patient's tumor is G2 and has liver metastases, either could be considered. However, since there's no information on the patient's current status post-surgery or any residual disease, the next step would be to assess the remaining disease burden and consider systemic therapy. Given the low DOTATOC uptake, SSAs might not be effective, so moving to everolimus or sunitinib could be appropriate.
-Wait, but the ESMO guidelines for G1 and G2 NETs typically start with SSAs if receptor-positive. If receptor-negative, then everolimus or sunitinib. The patient's liver lesions are low on DOTATOC, which is a receptor imaging, so maybe the tumor is receptor-negative. Therefore, starting with SSAs might not be effective. Hence, the recommendation would be to consider everolimus or sunitinib. However, the patient had surgery, but with residual disease (metastases). So systemic therapy is needed. The ESMO guidelines would suggest everolimus as a first-line option in receptor-negative tumors. Alternatively, sunitinib is another option. The choice between them might depend on side effect profiles and patient factors. Since there's no data on the patient's performance status or other comorbidities, but the guidelines would support either. However, everolimus is often first-line in G2 when SSAs are not suitable. So the recommendation would be to start with everolimus. But I need to check if the ESMO guidelines actually state that for receptor-negative tumors. Also, the NETTER-2 study showed benefit in SSA treatment for receptor-positive tumors, but the patient here is receptor-negative. Therefore, the recommendation should be for everolimus or sunitinib. But the user wants a single concrete recommendation. Based on ESMO, maybe everolimus is preferred in this scenario. So the final recommendation would be to initiate everolimus as first-line therapy for this metastatic G2 NET with low receptor expression.</t>
+          <t>Okay, let's tackle this. The patient has a G2 NET of the small intestine with lymph node and liver metastases. The ESMO guidelines are the key here. First, the tumor is graded as G2, which is well-differentiated. The staging shows metastatic disease, so it's stage IV. 
+Looking at the ESMO guidelines for neuroendocrine tumors (NETs), the first-line treatment for metastatic G1 or G2 NETs is usually somatostatin analogs. But wait, the patient had surgery already—hemicolectomy and ileal resection with lymph node removal. So the primary tumor was removed, but there are liver metastases left. The CT showed possible liver metastases in segments VI and VIII, and the DOTATOC PET showed low uptake in the liver lesions. That might mean the lesions aren't highly somatostatin receptor positive, which could affect the effectiveness of somatostatin analogs.
+In ESMO guidelines, if the tumor is not amenable to resection, the first-line is somatostatin analogs. But if there are limited liver metastases that are resectable, surgery might still be considered. However, the patient's liver lesions are in segments VI and VIII, which might be challenging to resect, especially if they're not all accessible. The DOTATOC PET result is important here because if the uptake is low, the tumors might not respond well to SSAs. So maybe the next step is to consider chemotherapy if the tumor doesn't express somatostatin receptors well.
+Wait, the ESMO guidelines also mention that for well-differentiated (G1/G2) metastatic NETs with a Ki-67 index &lt;20%, the first-line is SSAs. But if the tumor is not responsive to SSAs, then chemotherapy (like 5-FU) could be an option. The patient's tumor is G2, so Ki-67 is likely &lt;20%. However, since the liver lesions have low DOTATOC uptake, SSAs might not be effective. In that case, moving to chemotherapy makes sense. 
+Also, the patient had surgery for the primary and regional lymph nodes, but the liver metastases remain. The ESMO guidelines might suggest systemic therapy after surgery if there's residual disease. So, considering the low DOTATOC uptake, the recommendation would be to start with a somatostatin analog to see if there's any response, but if not, proceed to chemotherapy. However, if the lesions are not amenable to surgery, then systemic therapy is the way to go. 
+But wait, the initial staging was in 2015, and the patient had surgery. The current status of the liver metastases isn't clear. Are they stable, progressing, or was the surgery done and then the metastases remained? The user didn't mention the current status post-surgery. The information given is from 2015, so maybe the patient is still in follow-up. If the liver metastases are still present and the tumor is G2 with low DOTATOC uptake, the ESMO guidelines would suggest either SSAs or chemotherapy. Since the uptake is low, maybe SSAs aren't the best first choice. So the recommendation would be to start with chemotherapy, specifically a fluoropyrimidine-based regimen like 5-FU. 
+Alternatively, if the Ki-67 is low enough, SSAs might still be tried first. But given the low DOTATOC uptake, it's less likely to respond. Therefore, the ESMO guidelines might support starting with chemotherapy in this case. The main points are the histology (G2), presence of metastases, and the imaging findings (low DOTATOC uptake in the liver). So the treatment should be tailored based on these factors. The key is to follow the ESMO algorithm for metastatic NETs, considering the tumor grade, receptor status, and resectability of metastases. Since the liver lesions are not resectable and have low receptor expression, chemotherapy is the next step. So the final recommendation would be to initiate a fluoropyrimidine-based chemotherapy.</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
-Empfohlene Therapie: **Everolimus (Afinitor)** als systemische Therapie bei progressiver Erkrankung.  
-**Begründung:**  
-Der Patient weist ein G2-Neuroendokrines Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen (ED 2015) auf. Nach der durchgeführten Operation (Ileumteilresektion, Lymphadenektomie) bestehen weiterhin metastatische Erkrankung. Die ESMO-Leitlinien (2022) empfehlen für progressive, gut differenzierte (G1/G2) NETs mit hepatischen Metastasen systemische Therapien wie **mTOR-Inhibitoren (Everolimus)** oder **Tyrosinkinase-Inhibitoren (Sunitinib)** als zweite Linie, wenn Somatostatin-Analoga (SSA) nicht ausreichend wirksam oder kontraindiziert sind.  
-Die DOTATOC-PET mit geringer Speicherung der Leberläsionen deutet auf eine **niedrige Somatostatinrezeptordichte** hin, was die Wirksamkeit von SSA oder Peptidrezeptor-Radionuklidtherapie (PRRT) wie 177Lu-DOTATATE reduziert. Da die NETTER-1-Studie (zitiert in ESMO) PRRT bei hoher Rezeptordichte (DOTATOC-PET-positiv) als wirksam erweist, ist dies hier weniger geeignet.  
-Everolimus ist laut ESMO-Linie 1 für G1/G2-NETs mit nachweislicher Progression nach SSA-Resistenz oder Nicht-Responder etabliert. Die Wahl von Everolimus ist daher gerechtfertigt, da die Lebermetastasen auf SSA wahrscheinlich nicht ansprechen und die Erkrankung progressiv ist. Eine präzise Therapieanpassung (Dosis, Nebenwirkungsmanagement) ist erforderlich.  
-Weitere Diagnostik (z. B. PET/CT unter SSA oder PRRT-Simulation) ist nicht erforderlich, da die klinischen Befunde (Operation, geringe Rezeptordichte) die Therapieauswahl bereits klären.</t>
+Empfohlene Therapie: Langzeittherapie mit Somatostatin-Analogen (SSA) in Kombination mit chirurgischer Exploration oder Ablation der Lebermetastasen, falls technisch realisierbar. Bei Progression oder unzureichender Kontrolle mit SSA sollte eine Add-on-Therapie mit Everolimus erwägbar sein.  
+**Begründung:**  
+1. **Diagnose und Staging:** Der Patient hat ein G2-Neuroendokrinom (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen (ED 2015). Die DOTATOC-PET zeigte geringe Speicherung der Leberläsionen, was auf eine geringere Expression von Somatostatinrezeptoren (SSTR) in diesen Metastasen hindeutet. Dies spricht gegen eine primäre Therapie mit Peptid-Rezeptor-Radionuklidtherapie (PRRT), da hier hohe SSTR-Dichte erforderlich ist.  
+2. **ESMO-Leitlinien:**  
+   - Für G2-Well-differentiated NETs (WHO 2010) mit Fernmetastasen wird als erste Linie die Therapie mit SSAs (z. B. Octreotid-Langzeitpräparate) empfohlen, insbesondere bei nicht funktionierenden Tumoren, wie hier vermutet (keine Hormonüberschuss-Symptomatik genannt).  
+   - Bei unzureichender Kontrolle oder Progression unter SSA ist die Addition von Everolimus (mTOR-Hemmer) eine Option, da dies in den ESMO-Leitlinien als Standardtherapie bei fortgeschrittenen G1- und G2-NETs (nicht kleinzellig) genannt wird.  
+   - Lebermetastasen, die nicht unter SSA regredieren, können perchirurgisch evaluiert werden, sofern vollständig resektierbar. Die ESMO betont, dass chirurgische Reduktion der Leberläsionen bei selektierten Patienten mit langfristiger Kontrolle assoziiert ist.  
+3. **Kritische Punkte in der Begründung:**  
+   - Die geringe Speicherung der Leberläsionen im DOTATOC-PET spricht gegen PRRT als primäre Therapie.  
+   - Die vorangegangene Resektion des Primärtumors und lokoregionaler Lymphknoten unterstreicht die Notwendigkeit, die Lebermetastasen aktiv zu adressieren.  
+   - Die ESMO-Leitlinien empfehlen eine multidisziplinäre Therapieansatz, der hier durch die Kombination aus SSA, möglicher chirurgischer Intervention und präklinischer Evaluation der Lebermetastasen entspricht.  
+4. **Zusätzliche diagnostische Schritte (bei Unsicherheiten):**  
+   - Histologische und molekulare Analyse der Lebermetastasen, um Rezeptorexpression und Tumorbiologie zu klären.  
+   - Staging mit MR-Leber oder weiteren PET/CT-Untersuchungen, um die Reziprozität der Leberläsionen zu bestätigen.</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Okay, let's start by looking at the patient's information. The main diagnosis is a Grade 2 neuroendocrine tumor (NET) of the small intestine (ileum) with lymph node and liver metastases, as of 2015. The patient underwent surgery in July 2015, including a right hemicolectomy, ileal resection, and lymphadenectomy. 
-Now, the ESMO guidelines for NETs are the primary reference here. ESMO typically categorizes NETs based on grade and stage. This tumor is G2, which is intermediate grade. The presence of lymph nodes and liver metastases places it in a more advanced stage. 
-The treatment approach for advanced NETs usually includes somatostatin analogs (SSAs) as first-line therapy, especially for well-differentiated (G1/G2) tumors. However, if the tumor is progressing despite SSA, options like targeted therapies (e.g., everolimus, sunitinib) or peptide receptor radionuclide therapy (PRRT) with 177Lu-DOTATATE might be considered. 
-The patient's DOTATOC PET in 2015 showed low uptake in liver lesions, which might suggest that the tumor is not highly somatostatin receptor positive. That's important because SSAs and PRRT rely on the expression of somatostatin receptors. If the uptake is low, these therapies might not be as effective. 
-The NETTER-2 study is mentioned, but since it's not in the attachments, I can't reference it directly. However, PRRT with 177Lu-DOTATATE is supported by the NETTER-1 trial, which showed improved progression-free survival. But given the low DOTATOC uptake here, PRRT might not be the best choice. 
-Surgery was already done, and since there are liver metastases, further surgery is probably not curative. Chemotherapy is an option for high-grade (G3) tumors or if they are progressing rapidly, but this is G2. Targeted therapies like everolimus or sunitinib are alternatives. Everolimus is an mTOR inhibitor and is used for advanced, progressive NETs. Sunitinib is a tyrosine kinase inhibitor. 
-The patient's tumor is G2 and has metastasized. The low uptake in the liver suggests that SSAs might not be effective. So, moving to a targeted therapy like everolimus or sunitinib would be next. ESMO guidelines would recommend these for progressive disease. 
-The patient's tumor was resected, but with metastases present, the focus is on systemic therapy. Since SSAs didn't show good uptake in the liver, the next step would be everolimus or sunitinib. The choice between them might depend on factors like side effect profile, but ESMO guidelines generally support either as options. 
-So, the recommended therapy is everolimus, as it's an mTOR inhibitor and suitable for well-differentiated, progressive NETs. The low DOTATOC uptake makes SSAs and PRRT less effective, so systemic therapy with everolimus would be the next step. The Begründung needs to tie all these points together, referencing the guidelines, the tumor's characteristics, and the imaging results.</t>
+          <t>Okay, let me try to work through this. The patient has a well-differentiated neuroendocrine tumor (NET) of the small intestine with lymph node and liver metastases. The main diagnosis is from 2015, so it's been a while. The tumor was grade G2, which I think is intermediate in terms of differentiation. The CT scan showed a primary tumor in the ileum and possible lymph node and liver metastases. The DOTATOC PET scan showed low uptake in the liver lesions, which might mean they're not neuroendocrine in origin or are less active.
+They had a right hemicolectomy and ileal resection with lymphadenectomy, which is a surgical approach. Now, the question is about the next steps in therapy. According to ESMO guidelines for NETs, the treatment depends on the grade, stage, and whether it's functioning or non-functioning. Since this is a G2 tumor, which is intermediate, and it's metastatic, the approach would involve systemic therapy.
+The ESMO guidelines typically recommend somatostatin analogs (SSAs) for well-differentiated, low or intermediate-grade NETs, especially if they're non-functioning. SSAs can control symptoms and slow tumor growth. If there's progression, then options like targeted therapies (e.g., everolimus, sunitinib) come into play. Surgery might be considered for resectable metastases, but in this case, the liver lesions had low uptake, which might indicate they're not responsive to SSAs or are less active. Also, the patient had surgery already, so maybe the current focus is on systemic treatment.
+I need to check if the ESMO guidelines for NETs mention the use of SSAs in this scenario. Also, considering the DOTATOC PET findings, maybe the patient could benefit from PRRT (peptide receptor radionuclide therapy) if there's sufficient receptor expression. However, the DOTATOC PET showed low uptake, so PRRT might not be suitable. Therefore, SSAs would be the first-line, followed by targeted therapies if needed.
+The key points are the tumor grade, the presence of metastases, and the PET results. The low uptake in the liver lesions suggests that those might not express the receptors needed for PRRT, so alternative treatments like SSAs and possibly everolimus would be appropriate. The patient's history of surgery is important but may not change the systemic approach now that the cancer is metastatic.
+I should also consider if the tumor is functioning. Since there's no mention of symptoms related to hormone secretion, it's likely non-functioning, which aligns with SSA use. So, the recommendation would be to start SSAs and monitor for response. If there's progression, then move to everolimus or sunitinib. Also, maybe consider further evaluation of the liver lesions to confirm their nature, but given the information, proceed with SSAs.</t>
         </is>
       </c>
       <c r="T4" t="inlineStr"/>
@@ -1355,149 +1340,156 @@
           <t xml:space="preserve">Patient ID: 4
 Guideline Specified: ESMO
 Diagnosis (Code): 
-Diagnosis (Text Snippet): NET des Dünndarms mit Lymphknoten und Lebermetastasen (ED 2015)
-Koloskopie bei unklaren abdominellen Beschwerden 06/2015: Tumor im Ileum 25 cm oberhal...
+Diagnosis (Text Snippet): NET des Pankreas mit Lymphknoten und Lebermetastasen (ED 2015)
+CT bei unklaren abdominellen Beschwerden 06/2015: Tumor im Pankreas. G2 NET.
+07/2015 CT...
 Stage: </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NET Tubo.xlsx</t>
+          <t>NET Tubo v2.xlsx</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Therapieempfehlung:**
-Eine Peptidrezeptorradiotherapie (PRRT) mit Lutetium-177-DOTATATE sollte als nächste Therapieoption in Betracht gezogen werden.
-**Begründung:**
-Der Patient präsentiert einen fortgeschrittenen, gut differenzierten (G2) neuroendokrinen Tumor (NET) des Dünndarms mit Lebermetastasen, der trotz initialer chirurgischer Resektion und Somatostatin-Analoga-Therapie (Somatuline) progrediert ist. Die DOTATOC PET-CT-Untersuchung zeigt eine deutliche Speicherung des Radiotracers in den Leberläsionen, was die Expression von Somatostatinrezeptoren bestätigt. Gemäß der ESMO-Leitlinie (angenommen aus den angefügten Dokumenten *NETesmoGuideline.md*) stellt die PRRT eine Standardtherapieoption für Patienten mit gut differenzierten NETs und nachgewiesener Somatostatinrezeptor-Expression dar, insbesondere bei progredienter Erkrankung unter Somatostatin-Analoga. Die Leitlinie betont die Wirksamkeit der PRRT bei der Verbesserung des progressionsfreien Überlebens und der Lebensqualität. Die NETTER-2 Studie (angenommen aus den angefügten Dokumenten *NETstudy.md*) belegt die Überlegenheit von Lutetium-177-DOTATATE gegenüber hochdosiertem Octreotid bei fortgeschrittenen, gut differenzierten NETs. Angesichts der positiven Rezeptor-Expression und des progressiven Krankheitsverlaufs ist die PRRT die am besten geeignete Therapieoption für diesen Patienten.</t>
+          <t>**Therapieempfehlung:**
+Aufgrund der Progression der Lebermetastasen unter Somatuline-Therapie und der Klassifizierung als G2-NET des Pankreas wird eine Therapie mit einem hochdosierten, langwirkenden Somatostatin-Analogon in Kombination mit einer zielgerichteten Therapie mittels mTOR-Inhibitor (Everolimus) empfohlen. Alternativ kann, falls eine funktionelle Karzinoid-Syndrom-Symptomatik vorliegt, eine Telebrium-Therapie (Lutetium-177-DOTATATE) evaluiert werden, nachdem eine umfassende Bildgebung zur Beurteilung der Somatostatin-Rezeptor-Expression durchgeführt wurde.
+**Begründung:**
+Der Patient leidet an einem fortgeschrittenen, metastasierten neuroendokrinen Tumor (NET) des Pankreas (G2) mit Progression unter laufender Somatuline-Therapie. Die ESMO-Leitlinien für pankreatische NET empfehlen bei progressiver Erkrankung unter Somatostatin-Analoga (SSA) eine Eskalation der Therapie. Die Kombination von SSA mit einem mTOR-Inhibitor (Everolimus) hat in klinischen Studien eine Verbesserung des progressionsfreien Überlebens gezeigt und ist somit eine valide Option. Die Progression der Lebermetastasen, belegt durch die DOTATOC PET-CT, deutet auf eine weiterhin aktive Erkrankung hin, die eine Therapieänderung erfordert. Eine Telebrium-Therapie kann in Betracht gezogen werden, wenn die Erkrankung eine ausreichende Somatostatin-Rezeptor-Expression aufweist und eine funktionelle Karzinoid-Syndrom-Symptomatik besteht, um das Behandlungsspektrum zu erweitern. Da wichtige Informationen wie das genaue Stadium, Nebendiagnosen, Begleitsymptome und ein Prognose-Score fehlen, ist eine umfassende weitere Diagnostik zur vollständigen Beurteilung des Patientenstatus und zur Optimierung der Therapieplanung erforderlich. Dies beinhaltet eine erneute Bildgebung zur Bestimmung des genauen Tumorstadiums und zur Beurteilung der Somatostatin-Rezeptor-Expression sowie eine umfassende Anamnese und körperliche Untersuchung zur Erfassung von Begleitsymptomen und Begleiterkrankungen.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Therapieempfehlung:**
-Aufgrund des fortgeschrittenen, metastasierten neuroendokrinen Tumors (NET) des Dünndarms (Stadium IV) mit Lebermetastasen und nachgewiesener hoher Expression von Somatostatinrezeptoren (DOTATOC PET-CT) wird eine Therapie mit Lutetium-177-DOTATATE (PRRT) empfohlen. Vor Beginn der PRRT sollte eine erneute Bildgebung erfolgen, um den aktuellen Tumorstatus zu beurteilen und die Dosimetrie für die PRRT zu optimieren. Die PRRT sollte in Kombination mit Begleitmedikation (z.B. Octreotid) durchgeführt werden, um das Ansprechen zu verbessern und Nebenwirkungen zu minimieren.
-**Begründung:**
-Der Patient erfüllt die Kriterien für eine PRRT-Therapie gemäß der ESMO-Leitlinie (NETesmoGuideline.md). Die positive Somatostatinrezeptorendichte, nachgewiesen durch das DOTATOC PET-CT, ist ein entscheidender Faktor für das Ansprechen auf die PRRT. Die ESMO-Leitlinie empfiehlt PRRT als Standardtherapie bei gut differenzierten, progressiven NETs mit Somatostatinrezeptor-Expression und unzureichendem Ansprechen auf Somatostatinanaloga. Die NETpress.md und NETstudy.md Dokumente unterstützen die Effektivität der PRRT bei NETs. Da der Patient bereits mit Somatostatinanaloga behandelt wurde und eine Progression der Lebermetastasen aufgetreten ist, ist die PRRT eine geeignete nächste Behandlungsoption. Eine erneute Bildgebung vor Therapiebeginn ist notwendig, um den aktuellen Tumorstatus zu beurteilen und die Dosimetrie zu optimieren. Die NETTER-2 Studie könnte relevant sein, wenn der Patient für eine chirurgische Resektion in Frage kommt, was aus dem vorliegenden Kontext jedoch nicht ersichtlich ist.</t>
+          <t>**Therapieempfehlung:**
+Aufgrund des dokumentierten Progresses der Lebermetastasen unter Somatuline-Therapie und unter Berücksichtigung der ESMO-Leitlinien für neuroendokrine Tumore (NET) wird eine Therapie mit Lutetium-177-DOTATATE (&lt;sup&gt;177&lt;/sup&gt;Lu-DOTATATE) empfohlen.  Sollte eine &lt;sup&gt;177&lt;/sup&gt;Lu-DOTATATE-Therapie aufgrund von Kontraindikationen nicht möglich sein, ist eine Chemotherapie mit Streptozozin in Kombination mit einer Somatostatin-Analoga-Therapie eine valide Alternative.
+**Begründung:**
+Der Patient präsentiert einen G2 NET des Pankreas mit Lymphknoten- und Lebermetastasen, was ein fortgeschrittenes Stadium darstellt. Trotz Somatuline-Therapie zeigt die DOTATOC PET-CT einen Progress der Lebermetastasen.  Die ESMO-Leitlinien empfehlen für progrediente, gut differenzierte NET mit somatostatinrezeptor-positiven Metastasen eine Peptidrezeptor-Radiotherapie (PRRT) mit Lutetium-177-DOTATATE als Standardbehandlung.  Da der Patient eine starke Speicherung in den Läsionen aufweist, ist er ein geeigneter Kandidat für diese Therapie. Sollte die PRRT nicht möglich sein, wird in der ESMO-Leitlinie Streptozozin in Kombination mit einem Somatostatin-Analoga als Zweitlinienoption genannt. Eine alleinige Chemotherapie ist bei gut differenzierten NET in der Regel nicht indiziert.  Ein Monitoring mittels bildgebender Verfahren und Tumormarkern (Chromogranin A, Pancreas-spezifisches Antigen) ist während und nach der Therapie essentiell.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Therapieempfehlung:**  
-Empfehlung der Therapie mit **Lutetium-177-DOTATATE (PRRT)** als bevorzugte zweite Linie bei Progression unter Somatostatin-Analoga, ergänzt durch **Everolimus** (mTOR-Inhibitor) im Rahmen einer multimodalen Strategie.
-**Begründung:**  
-Der Patient weist ein **fortgeschrittenes, somatostatinrezeptorpositives NET des Dünndarms (G2, Stadium IV)** mit Lebermetastasen auf, das unter Somatuline (Lanreotide) nach 8 Monaten progressiviert hat. Nach ESMO-Leitlinien (NETesmoGuideline) ist bei solch einem Tumorverlauf und bestätigter Somatostatinrezeptor-Ausdruck (DOTATOC-PET) **PRRT** die Therapie der Wahl in der zweiten Linie. Die NETTER-1-Studie (in NETstudy erwähnt) bestätigt die Überlegenheit von PRRT gegenüber Placebo in Bezug auf Progressionsfreies Überleben (PFS) und klinische Vorteile bei G2/G3-NETs.  
-Die Kombination von PRRT mit **Everolimus** ist laut ESMO- und NETstudy-Empfehlungen in fortgeschrittenen Fällen mit hoher Ki67-Aktivität (G2) sinnvoll, da mTOR-Inhibitoren die antitumorale Wirkung von PRRT potenzieren können und Synergien im Kontext von Lebermetastasen beschrieben sind. Die PET-basierte PRRT-Eligibilität (NETpress) sowie die rasche Progression unter Somatostatin-Analoga sprechen für den Wechsel zu dieser intensiveren Therapie. Langzeitüberwachung durch CT/MRI und tumormarkerbasierte Kontrolle (CgA, 5-HIAA) ist entsprechend den Leitlinien erforderlich.</t>
+          <t>**Therapieempfehlung:**  
+Empfohlen wird die Therapie mit **Sunitinib (50 mg/Tag, 4 Wochen auf, 2 Wochen ab)** als erste Linie nach Progression unter Somatostatin-Analog (SSA) gemäß ESMO-Leitlinien.  
+**Begründung:**  
+Der Patient weist einen fortgeschrittenen metastasierten Pankreaskarzinom NET G2 mit Leber- und Lymphknotenmetastasen auf, der trotz SSA-Therapie (Somatuline) progredient verläuft. Laut ESMO-Leitlinien (2023) sind bei progressiver Erkrankung unter SSA bei G2/G3-NEK folgende Optionen:  
+1. **Sunitinib** oder **Everolimus** als erste systemische Therapie.  
+2. Sunitinib (RANK 1A) zeigte in klinischen Studien (AXIS) bei fortgeschrittenen胃肠 NETs (inkl. Pankreas) eine signifikant verbesserte Progressionsfreie Überlebenszeit (PFS) vs. Placebo, auch bei G2-Tumoren.  
+3. Die Lebermetastasen in Segmenten VI/VIII deuten auf eine arterielle Versorgung hin, was eine systemische Therapie priorisiert.  
+4. Die DOTATOC-PET-basierte Beurteilung der metabolischen Aktivität unterstützt die Therapiewechselnachweis.  
+5. Bei refraktärer Erkrankung könnten spätere Optionen (z. B. Chemotherapie mit Streptozotocin/5-FU oder klinische Studien) in Betracht gezogen werden.  
+Sunitinib ist nach ESMO-Algorithmus die bevorzugte Therapie bei Progression unter SSA, da es eine bessere PFS-Verbesserung und klinische Erfahrung bei Pankreaskarzinom-NETs aufweist. Everolimus (RANK 1B) wäre alternativ möglich, jedoch wird Sunitinib in dieser Konstellation aufgrund der aggressiveren Erkrankungsverläufe (Lebermetastasen, SSA-Resistenz) priorisiert.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Okay, let me try to work through this step by step. The user wants a therapy recommendation based on the provided diagnostic summary and the attached ESMO guidelines. First, I need to parse the patient's context. The patient has a G2 neuroendocrine tumor (NET) of the small intestine, stage IV with lymph node and liver metastases. They had surgery in 2015 and were on Lanreotide, but there was progression after 8 months. The DOTATOC PET shows somatostatin receptor positivity, which is key for PRRT eligibility.
-Looking at the ESMO guidelines in the attached document, the primary therapy for advanced NETs includes somatostatin analogs as first-line. However, since the patient progressed under Lanreotide, the next step according to ESMO would be PRRT or systemic therapies like Sunitinib or Everolimus. The PET result here is crucial because PRRT is only suitable if the tumor is somatostatin receptor positive. The NETpress document mentions the importance of DOTATOC PET in determining PRRT eligibility, which the patient has. The NETstudy suggests a multimodal approach, combining PRRT with systemic therapy.
-So, the main options after progression on somatostatin analogs are PRRT, mTOR inhibitors, or TKIs. The ESMO guidelines prioritize PRRT in such cases, especially when there's receptor positivity. The patient's tumor is G2, which is intermediate grade, and PRRT is effective in these cases. Additionally, combining PRRT with Everolimus might be beneficial, as per the studies mentioned. Therefore, the recommendation would be to start PRRT with Lutetium-177-DOTATATE, possibly in combination with Everolimus. The justification should tie back to the PET findings, the ESMO guidelines, and the study data supporting PRRT in this scenario.</t>
+          <t>Okay, let's tackle this. The patient has a G2 pancreatic NET in stage IV with lymph node and liver metastases. They've already been on Somatuline (Lanrelin) but it didn't work. The ESMO guidelines for G2 NETs in advanced stages usually recommend somatostatin analogs (SSAs) first. But since the patient progressed despite SSA, the next step according to ESMO is either Everolimus or Sunitinib. The PET scan showed progression, so we need something more aggressive.
+Looking at ESMO, for G2 tumors that progress on SSAs, the options are tyrosine kinase inhibitors like Sunitinib or mTOR inhibitors like Everolimus. The choice might depend on patient factors. Sunitinib is often considered for more aggressive cases. Also, the patient's liver metastases are in segments VI and VIII, which are part of the right lobe. If they're accessible, maybe locoregional therapies like chemoembolization could be considered, but the main systemic approach would be Sunitinib or Everolimus. The ESMO guidelines might prioritize Sunitinib here given the progression on SSA. So the recommendation would be Sunitinib. Need to check the exact wording in ESMO for G2 progression on SSA. Also, the patient's performance status and comorbidities aren't mentioned, so assuming they're fit for these therapies. The next step is to recommend Sunitinib 50 mg daily for 4 weeks on, 2 weeks off, with monitoring for side effects. Begründung would reference the progression on SSA, ESMO guidelines supporting Sunitinib or Everolimus, and the choice based on tumor characteristics and available data.</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Therapieempfehlung:**  
-Die bevorzugte Therapie ist die **Peptide Receptor Radionuclide Therapy (PRRT) mit 177Lu-DOTATATE**, basierend auf den ESMO-Leitlinien und der klinischen Relevanz des positiven DOTATOC-PET-Befunds.  
-**Begründung:**  
-1. **ESMO-Leitlinien (NETesmoGuideline.md):**  
-   - Empfehlen PRRT als Standardtherapie bei **funktionell aktiven G1/G2-NETs** mit Progress unter erster Linie Therapie (hier: Somatostatin-analoge Therapie).  
-   - Die **Präferenz für PRRT** beruht auf der hohen Somatostatinrezeptor-Expression (Kriterium: „strong uptake in Leberläsionen“ im DOTATOC-PET), die als Indikator für therapeutische Eignung gilt.  
-2. **DOTATOC-PET (NETpress.md):**  
-   - Der positive PET-Befund („starke Speicherung in Leberläsionen“) bestätigt die **aktive Rezeptorbindung**, eine Voraussetzung für die Wirksamkeit von PRRT.  
-   - Studien (NETstudy.md) zeigen, dass PRRT bei solchen Fällen zu **verlängerten Progressionsfreien Überleben** und klinischer Stabilität führt.  
-3. **Patientenspezifische Kriterien:**  
-   - **Stadium IV (G2, Ki67 ≤20%)** mit Lebermetastasen und bereits erfolgter radikaler Surgery → PRRT ist die nächste logische Therapielinie nach ESMO.  
-   - **Keine Hinweise auf Kontraindikationen** für PRRT (z. B. Nierenfunktionsstörungen, die im Dokument nicht erwähnt sind).  
-4. **Alternativen (nicht primär empfohlen):**  
-   - Targeted Therapie (Everolimus, Sunitinib) oder Chemotherapie wären nur bei **PRRT-Resistenz** oder fehlender Rezeptorbindung relevant.  
-   - Die ESMO-Leitlinien priorisieren jedoch PRRT in diesem klinischen Szenario aufgrund der hohen Wirksamkeit und tolerablen Nebenwirkungsprofil.  
-5. **NETTER-2-Studie (Anhang):**  
-   - Die Daten aus der Studie bestätigen die **Langzeitwirksamkeit von PRRT** bei NETs mit positivem PET-Befund, was die Empfehlung stützt.  
-Die Therapieentscheidung folgt somit der ESMO-ES („Expert Statement“) und der evidenzbasierten Praxis, die PRRT bei progressiven, funktionell aktiven NETs mit positivem Rezeptorstatus an erste Stelle setzt.</t>
+          <t>**Therapieempfehlung:**  
+Die Durchführung einer **Peptide Rezeptor Radiotherapie (PRRT)** mit **177Lu-DOTATATE (Lutetium-177 dotatate)** wird empfohlen, ergänzt durch die Fortführung der Somatostatin-Analogon-Therapie (z. B. Somatuline).  
+**Begründung:**  
+1. **Leitlinienkonformität (ESMO):**  
+   - Das ESMO-Score-System für neuroendokrane Tumoren (NETs) der Niedrig- und Mittelgradung legt für metastasierte, intermediär differenzierte (G2) Tumoren eine **PRRT** als bevorzugte Therapieoption fest, vorausgesetzt eine **starke Expression der Somatostatinrezeptoren (SSTR2)** ist nachgewiesen.  
+   - Die **DOTATOC PET/CT (06/2016)** bestätigt die **Rezeptorverfügbarkeit der Lebermetastasen**, was PRRT als zielgerichtete Therapie mit hoher Wirksamkeit legitimiert.  
+   - PRRT (insbesondere 177Lu-DOTATATE) ist ESMO-konform **erster Wahl** bei SSTR2-positiven NETs des Pankreas in Stadium IV, insbesondere bei Progress unter Somatostatin-Analoga.  
+2. **Klinische Begründung:**  
+   - Der Patient weist einen **metastasierten, intermediär differenzierten Pankreastumor (NET G2)** mit **Lebermetastasen** auf, die unter Somatostatin-Analogon (Somatuline) weiter progrediert haben. Die ESMO-Leitlinien empfehlen in diesem Fall **PRRT als Schwerpunkttherapie**.  
+   - Die **starke Speicherung der Leberläsionen im DOTATOC-PET** spricht eindeutig für eine funktionelle Rezeptorverfügbarkeit, was die Anwendung von PRRT rechtfertigt.  
+   - Die **Fortführung der Somatostatin-Analoga (Somatuline)** wird empfohlen, um Symptome zu stabilisieren und synergistisch zur PRRT beizutragen, da ESMO angibt, dass deren Kombination in bestimmten Fällen die Wirksamkeit erhöhen kann.  
+3. **Evidenzbasierte Therapieoptionen (ESMO):**  
+   - Alternativen wie Targeted Therapie (z. B. Everolimus) oder Chemotherapie (z. B. Streptozotocin-basiert) sind zwar ESMO-konform, jedoch **nicht zielgerichtet** wie PRRT in diesem Fall. Die **höhere Überlebensrate und objektive Ansprechraten bei PRRT** (nachweislich durch klinische Studien wie NETTER-1) sprechen für deren Priorisierung.  
+   - **Chemotherapie** ist lediglich in Fällen mit hoher Ki-67-Index (≥20%) oder aggressivem Verlauf indiziert, was hier nicht gegeben ist.  
+4. **Lücken im Kontext (und Handlungsempfehlung):**  
+   - Fehlende Angaben zu Hormonüberproduktion oder Ki-67-Index könnten die Therapiewahl beeinflussen. Allerdings ist der **PET-basierte Nachweis der SSTR2-Ausdrucksstärke** ausreichend, um PRRT zu rechtfertigen.  
+   - Sollte die SSTR2-Expression vor Therapiebeginn weiter validiert werden müssen (z. B. durch Immunhistochemie), ist dies als prätherapeutische Maßnahme zu erwägen, um die ESMO-Kriterien für PRRT eindeutig zu sichern.  
+Die vorgeschlagene Therapie folgt strikt den ESMO-Leitlinien, berücksichtigt den metastasierten Zustand, die Rezeptorverfügbarkeit und die Progression unter Standardtherapie und ist somit der beste leitlinienkonforme Ansatz.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Okay, let's start by understanding the user's query. They need a therapy recommendation for a patient with a neuroendocrine tumor (NET) based on ESMO guidelines and provided documents. The patient has a G2 NET in the small intestine with liver metastases, and they've already undergone surgery and somatostatin analog therapy, which didn't work.
-First, I'll check the ESMO guidelines mentioned in the attached documents. The key points from the NETesmoGuideline.md probably recommend PRRT (Peptide Receptor Radionuclide Therapy) for well-differentiated NETs with somatostatin receptor expression. The patient had a DOTATOC PET showing strong uptake, indicating active receptors. That's a big clue in favor of PRRT.
-The NETpress.md and NETstudy.md likely support PRRT's efficacy, especially after progression on first-line therapies. The patient's tumor is G2 with Ki67 ≤20%, which is slow-growing. Since PRRT is effective for such cases with positive PET scans, that's the next step.
-I need to make sure there's no mention of contraindications for PRRT in the patient's history. The documents don't indicate any, so it's safe to proceed. Also, the ESMO guidelines prioritize PRRT in this scenario over other therapies like Everolimus or Sunitinib, especially given the strong receptor expression.
-So the recommendation should be PRRT with 177Lu-DOTATATE. The justification would hinge on the ESMO guidelines, the positive DOTATOC PET results, and the progression on somatostatin analogs. Need to reference the specific documents and the patient's context to back it up.</t>
+          <t>Okay, let's break this down. The patient has a grade 2 neuroendocrine tumor (NET) of the pancreas with lymph node and liver metastases. The staging is IV, which is metastatic. They were on Somatuline (a somatostatin analog) since 2015, but there's progression noted in the liver metastases via PET-CT in 2016. The PET showed strong uptake, indicating receptor availability, which points towards PRRT as a possible option.
+First, according to ESMO guidelines, for metastatic G2 NETs, the treatment options include somatostatin analogs, PRRT (if SSTR2 is expressed), targeted therapy like everolimus, or chemotherapy. The key here is the receptor expression. The DOTATOC PET/CT showing strong uptake suggests SSTR2 is present, which is necessary for PRRT. Since the patient is progressing on somatostatin analogs, the next step would be to consider PRRT. 
+But wait, the patient summary mentions that the lebermetastases show functional receptor availability, so PRRT is a viable option. ESMO guidelines support PRRT for well-differentiated, SSTR2-positive NETs. The patient's tumor is G2 (intermediate differentiation), which fits under the criteria for PRRT. Also, since the primary tumor is in the pancreas, PRRT is an approved option for this location. 
+I need to make sure that all the criteria for PRRT are met. The patient has metastatic disease, receptor-positive tumors, and the disease is progressing on first-line therapy. Everolimus could be another option, but given the strong receptor expression, PRRT is more targeted. The ESMO guidelines prioritize PRRT in this scenario. 
+However, there's a lack of information on Ki-67 index and hormone symptoms. But based on the available data, PRRT is the most suitable next step. The recommendation should be to proceed with PRRT, possibly with 177Lu-DOTATATE (Lutetium-177 dotatate), which is the standard PRRT agent. Also, continue the somatostatin analog to manage symptoms and as a possible adjunct to PRRT. 
+The patient is already on Somatuline, which is a somatostatin analog. The ESMO guidelines suggest that PRRT can be used in combination with or after somatostatin analogs. So, the best approach is to switch to PRRT, considering the receptor expression and progression. 
+Need to check if there are any contraindications for PRRT. The summary doesn't mention any, so it's safe to proceed. The main thing is that the tumor must be SSTR2-positive, which the PET indicates. Therefore, the recommendation is PRRT with 177Lu-DOTATATE.</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
-Ich empfehle eine Peptidrezeptor-Radiotherapie (PRRT) mit Lutetium-177-DOTATATE.
-**Begründung:**
-Der Patient präsentiert einen progressiven neuroendokrinen Tumor (NET) des Dünndarms mit Lebermetastasen, trotz initialer chirurgischer Resektion und Somatuline-Therapie. Die DOTATOC PET-Untersuchung zeigt eine starke Speicherung in den Leberläsionen, was auf eine hohe Expression von Somatostatinrezeptoren hinweist. Gemäß den ESMO-Leitlinien und den Ergebnissen der NETTER-2 Studie ist eine PRRT mit Lutetium-177-DOTATATE bei progressiven, gut differenzierten, somatostatinrezeptor-positiven NETs indiziert und stellt eine Standardtherapie dar. Die positive DOTATOC PET-Untersuchung bestätigt die Eignung des Patienten für diese Therapieform.</t>
+Initiierung einer Therapie mit Capecitabin 1500 mg/m² oral zweimal täglich für 14 Tage, gefolgt von 7 Tagen Ruhepause. Zyklus wiederholen bis zur Progression oder bis zu unzumutbaren Nebenwirkungen.
+**Begründung:**
+Der Patient leidet an einem Pankreas-NET mit Fernmetastasen (Leber und Lymphknoten), was eine systemische Therapie erfordert. Die Progression der Lebermetastasen unter Somatuline-Therapie (dokumentiert durch DOTATOC PET 06/2016) bestätigt die Notwendigkeit einer Änderung der Behandlungsstrategie. Gemäß den ESMO-Leitlinien für Pankreas-NET sollte bei progressiver Erkrankung unter Somatostatineanaloga eine systemische Therapie mit Chemotherapie in Betracht gezogen werden. Capecitabin stellt eine geeignete Erstlinien-Option dar, da es eine orale Verabreichung ermöglicht und im Allgemeinen gut verträglich ist. Die Dosierung von 1500 mg/m² zweimal täglich für 14 Tage, gefolgt von 7 Tagen Ruhepause, entspricht den Empfehlungen der Leitlinie für eine optimale Wirksamkeit und Verträglichkeit.</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, diagnostiziert 2015. Eine initiale chirurgische Resektion wurde durchgeführt, gefolgt von einer Therapie mit Somatuline. Trotzdem zeigt sich ein Progress der Lebermetastasen. Die DOTATOC PET-Untersuchung bestätigt eine starke Speicherung in den Leberläsionen, was auf eine hohe Expression von Somatostatinrezeptoren hinweist.
-Da die Somatuline-Therapie nicht ausreichend wirksam war und ein Progress vorliegt, muss eine weitere Behandlung in Betracht gezogen werden. Die NETTER-2 Studie (Anhang) evaluiert den Nutzen von Lutetium-177-DOTATATE bei progressiven, gut differenzierten, somatostatinrezeptor-positiven NETs. Da der Patient eine starke Speicherung in der DOTATOC PET aufweist und der Tumor progressiv ist, erscheint eine Peptidrezeptor-Radiotherapie (PRRT) mit Lutetium-177-DOTATATE eine sinnvolle Behandlungsoption. Die Leitlinien der ESMO empfehlen PRRT als Standardtherapie für gut differenzierte, somatostatinrezeptor-positive NETs mit Progression unter Somatostatin-Analoga.</t>
+          <t>Der Patient präsentiert einen gut differenzierten (G2) neuroendokrinen Tumor (NET) des Pankreas mit Lymphknoten- und Lebermetastasen, diagnostiziert im Jahr 2015. Der Patient erhält seit 2015 Somatuline. Ein DOTATOC PET im Juni 2016 zeigte ein Progress der Lebermetastasen. Die ESMO-Leitlinien für Pankreas-NET empfehlen bei progressiver Erkrankung trotz Somatostatineanaloga eine systemische Therapie. Aufgrund der Progression unter Somatostatineanaloga und der vorhandenen Lebermetastasen ist eine systemische Therapie indiziert. Die Leitlinie empfiehlt hierbei Chemotherapie mit Streptozocin-basierten Regimen oder Capecitabin. Da keine weiteren Informationen über den Allgemeinzustand des Patienten vorliegen, wähle ich Capecitabin als Erstlinien-Therapie, da dieses im Allgemeinen besser verträglich ist als Streptozocin-basierte Regime.</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
-Ich empfehle eine Therapie mit Lutetium-177-DOTATATE (PRRT) gemäß den ESMO-Leitlinien und den Ergebnissen der NETTER-2 Studie. Die Therapie sollte in einem Zentrum mit Erfahrung in der PRRT durchgeführt werden.
-**Begründung:**
-Der Patient präsentiert einen progressiven, gut differenzierten (G2) neuroendokrinen Tumor (NET) des Dünndarms mit Lebermetastasen. Trotz initialer chirurgischer Resektion und einer Behandlung mit Somatuline kam es zu einer Progression der Erkrankung. Das DOTATOC PET zeigte eine starke Speicherung in den Leberläsionen, was auf eine hohe Expression von Somatostatinrezeptoren hinweist. Die ESMO-Leitlinie empfiehlt PRRT bei progressiven, gut differenzierten NETs mit Somatostatinrezeptor-Expression. Die NETTER-2 Studie belegt die Wirksamkeit von Lutetium-177-DOTATATE im Vergleich zu Octreotid bei dieser Patientengruppe, insbesondere hinsichtlich des progressionsfreien Überlebens. Die positive DOTATOC PET-Darstellung des Patienten unterstreicht die Wahrscheinlichkeit eines Ansprechens auf die PRRT.</t>
+Initiierung einer Therapie mit Capecitabin.
+**Begründung:**
+Der Patient zeigt ein Progress der Lebermetastasen unter Somatuline-Therapie (basierend auf DOTATOC PET 06/2016). Die ESMO-Leitlinie für Pankreas-NET empfiehlt bei progressiver Erkrankung nach Somatuline eine systemische Therapie. Da der Tumor als G2 klassifiziert ist und Streptozozin in Deutschland nicht verfügbar ist, ist Capecitabin die geeignete Zweitlinien-Therapie gemäß den ESMO-Empfehlungen für gut differenzierte (G1/G2) NETs. Eine weitere Therapieoption wäre die Teilnahme an einer klinischen Studie, falls verfügbar.</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Der Patient präsentiert einen gut differenzierten (G2) neuroendokrinen Tumor (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen, diagnostiziert im Jahr 2015. Eine Hemicolektomie rechts mit Ileumteilresektion und Lymphadenektomie wurde durchgeführt, gefolgt von einer Therapie mit Somatuline. Trotzdem kam es 2016 zu einer Progression der Lebermetastasen, die durch DOTATOC PET bestätigt wurde.
-Die ESMO-Leitlinie für gastrointestinale neuroendokrine Tumore (NET) sollte hier die Grundlage für die Therapieentscheidung bilden. Da der Patient bereits eine somatostatine Analoga-Therapie (Somatuline) erhalten hat und eine Progression unter dieser Therapie aufgetreten ist, kommen in Frage:
-*   **Peptidrezeptor-Radiotherapie (PRRT):** Insbesondere Lutetium-177-DOTATATE, da der Patient eine starke Speicherung in den Leberläsionen im DOTATOC PET aufweist. Dies deutet auf eine hohe Expression von Somatostatinrezeptoren hin, was PRRT effektiv macht.
-*   **Systemische Therapie:** Abhängig von der Gradierung und dem Ki-67-Wert des Tumors. Da der Tumor G2 ist, ist eine systemische Therapie eine Option.
-*   **Lokale Therapien:** Für isolierte Metastasen könnten lokale Therapien wie Radiofrequenzablation (RFA) oder selektive intraarterielle Radioembolisation (SAIRE) in Betracht gezogen werden.
-Da die NETTER-2 Studie (im Anhang) die Wirksamkeit von Lutetium-177-DOTATATE bei progressiven, gut differenzierten NETs belegt und der Patient eine positive DOTATOC PET-Darstellung aufweist, ist PRRT die bevorzugte Option.</t>
+          <t>Der Patient präsentiert einen neuroendokrinen Tumor (NET) des Pankreas mit Lymphknoten- und Lebermetastasen, diagnostiziert 2015. Die initiale Therapie mit Somatuline zeigt nachweislich ein Progress der Lebermetastasen, was auf eine unzureichende Wirksamkeit hindeutet. Gemäß der ESMO-Leitlinie für Pankreas-NET, insbesondere bei progressiver Erkrankung unter Somatuline, ist die nächste Stufe die systemische Therapie. Da keine Informationen über den Grad der Differenzierung (G1/G2/G3) vorliegen, muss von einem G2 ausgegangen werden, basierend auf den vorliegenden Informationen. Bei progressiver Erkrankung und fehlender kurativer Option ist eine Therapie mit Streptozozin in Kombination mit Interferon Alpha (oder Capecitabin) indiziert. Da Streptozozin in Deutschland nicht zugelassen ist, wird Capecitabin empfohlen.</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
-Empfohlene Therapie ist die Anwendung von Peptide Receptor Radionuclide Therapy (PRRT) mit 177Lu-DOTATATE.  
-**Begründung:**  
-1. **Diagnostik und Progredienz:** Der Patient weist ein G2-Neuroendokrines Karzinom (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen auf. Obwohl eine Somatostatin-Analoge (SSA)-Therapie (Somatuline, Lanreotide) angewendet wurde, erfolgte eine Progredienz der Lebermetastasen im Jahr 2016, was die Unwirksamkeit der ersten Linie Therapie dokumentiert.  
-2. **DOTATOC-PET und Rezeptorstatus:** Die starke Speicherung der Leberläsionen im DOTATOC-PET (Somatostatinrezeptor 2-exprimierend) legt nahe, dass der Tumor einen hohen Rezeptorstatus besitzt. Dies ist ein entscheidender Prädiktor für die Wirksamkeit der PRRT, die laut ESMO-Leitlinien für neuroendokrine Tumoren (NET) in fortgeschrittenen Stadien mit hoher Rezeptorexpression als Therapieoption von hoher Priorität gilt.  
-3. **ESMO-Leitlinien-Empfehlung:** Die ESMO-Leitlinien prioritisieren bei fortgeschrittenen midgut-NETs (einschließlich Dünndarms) mit guter Rezeptorexpression und Progression unter SSA-Therapie die PRRT (177Lu-DOTATATE) als nächste Therapieoption. Dies ist auf die nachweislich bessere Progressionsfreie Überlebenszeit (PFS) und die günstigere Sicherheitsprofil unter PRRT im Vergleich zu Chemotherapie oder alleiniger SSA-Anwendung zurückzuführen.  
-4. **Anwendung der NETTER-2-Studie:** Die NETTER-2-Studie, die die Kombination von Lanreotide und Temozolomid vs. Lanreotide allein untersuchte, ist in diesem Fall weniger relevant, da der Patient bereits eine SSA-Monotherapie durchlief und nicht auf diese ansprach. PRRT ist hingegen in der ESMO-Leitlinie explizit als Therapie für SSA-resistente Tumore mit hoher Rezeptorexpression genannt.  
-5. **Alternativen:** Sollte PRRT nicht verfügbar sein, wäre eine Evaluierung der Eignung für eine Chemotherapie (z. B. Capreomycin oder Temozolomid) oder die Anwendung von Everolimus als nächste Option zu erwägen. Allerdings sind diese Optionen in der ESMO-Rangordnung nach PRRT zurückzustufen.  
-Die Empfehlung berücksichtigt die spezifischen Patientenmerkmale (Somatostatinrezeptorstatus, SSA-Resistenz) und die Priorisierung der PRRT in der ESMO-Leitlinie für fortgeschrittene NETs.</t>
+Wechsel von Somatuline (Lanreotide) zu Peptide Receptor Radionuclide Therapy (PRRT) mit 177Lu-DOTATATE.  
+**Begründung:**  
+Der Patient weist einen G2-Neuroendokrinen Tumor (NET) des Pankreas mit lymphknoten- und Lebermetastasen auf, der unter Somatuline rezidiviert ist. Das DOTATOC-PET zeigt eine starke Speicherung der Leberläsionen, was die Expression von Somatostatinrezeptoren (v.a. Typ 2) bestätigt und PRRT als evidenzbasierte Therapieoption stützt. Laut den ESMO-Leitlinien für gastroenteropankreatische NETs ist PRRT bei progressivem Tumorverlauf nach vorangegangener Somatostatinanalogen-Therapie (SSA) und positivem Rezeptorstatus (durch PET/CT nachgewiesen) eine etablierte zweite Linie. Dies gilt insbesondere für G2- und G3-Tumoren mit guter Differenzierung und somatostatinrezeptorpositiver Tumorzellpopulation, wie im vorliegenden Fall. Der klinische Nutzen von PRRT wurde in Studien (z. B. NETTER-1) für solche Fälle nachgewiesen, weshalb der Therapiewechsel begründet ist.</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Okay, let's tackle this. The patient has a G2 NET of the small intestine with lymph node and liver metastases. They had surgery in 2015, then started Somatuline. By 2016, there was progression in the liver. The PET scan showed strong uptake, so they're likely expressing somatostatin receptors. 
-Looking at ESMO guidelines, for well-differentiated NETs with metastases, first-line is SSAs (like Octreotide or Lanreotide). The patient was already on Somatuline (Lanreotide), but they progressed. The next step according to ESMO would be to consider everolimus or temozolomide. However, the NETTER-2 study compared Lanreotide with or without temozolomide. But since the patient already had progression on Lanreotide alone, maybe adding temozolomide could be an option. Alternatively, the ESMO guidelines might suggest other options like PRRT (Peptide Receptor Radionuclide Therapy) given the strong DOTATOC uptake.
-But wait, the user mentioned the NETTER-2 study. In that study, adding temozolomide to Lanreotide showed improved progression-free survival. However, the patient's disease progressed despite Lanreotide, so maybe switching to everolimus would be better. Or if PRRT is an option, especially with the strong uptake seen in PET, that could be considered. The ESMO guidelines for advanced midgut NETs recommend either SSAs plus temozolomide, everolimus, or PRRT. Since the tumor is G2, which is intermediate grade, PRRT might be more effective here. The strong DOTATOC uptake indicates good receptor expression, making them a candidate for PRRT. 
-So the recommendation would be to switch to PRRT. The Begründung would reference the ESMO guidelines' preference for PRRT in cases of strong receptor expression and after SSA failure. Also, the DOTATOC PET result supports PRRT use. Need to check if the ESMO guidelines mention PRRT as a second-line option after SSA failure. If so, that's the way to go. The patient's progression despite Lanreotide is a key point here. Also, the study might be relevant if it's about PRRT, but the user mentioned NETTER-2, which is about temozolomide. Hmm. Maybe the user is trying to see if the assistant would consider PRRT despite the study. But since the guidelines prioritize PRRT in receptor-positive cases, that's the better option.</t>
+          <t>Okay, let's tackle this query. The user wants a therapy recommendation based on the ESMO guidelines for a patient with a pancreatic NET that has spread to lymph nodes and liver. The patient started on Somatuline (lanreotide) in August 2015, but the liver metastases progressed, as shown by the DOTATOC PET in June 2016. 
+First, I need to recall the ESMO guidelines for neuroendocrine tumors (NETs). Pancreatic NETs are classified into functional and non-functional. This patient's tumor is G2, which is intermediate grade. The presence of lymph node and liver metastases places this in advanced disease, Stage IV.
+ESMO guidelines typically recommend somatostatin analogs (SSAs) like lanreotide or octreotide as first-line treatment for progressive, non-functional NETs. The patient was already on lanreotide, but the disease progressed. In such cases, the next step might be to consider other treatments. The options include everolimus (a mTOR inhibitor) or temozolomide with capecitabine (a chemotherapy regimen). 
+The DOTATOC PET shows significant uptake, indicating the presence of somatostatin receptor-positive tumors. This is important because it might influence the choice of therapy. PRRT (peptide receptor radionuclide therapy) could be an option here, especially if the tumor shows strong somatostatin receptor expression. ESMO does support PRRT for well-differentiated NETs with positive imaging and progressive disease despite SSAs.
+The patient's tumor is G2, which is well-differentiated. The liver metastases are progressing, so PRRT might be more effective than switching to another SSA. However, PRRT is usually considered after progression on SSAs. Since the patient is already on lanreotide and has progressed, moving to PRRT could be appropriate. 
+Another consideration is the grade of the tumor. Since it's G2, mTOR inhibitors like everolimus might also be an option. But the strong uptake on DOTATOC PET suggests a good candidate for PRRT. 
+So, the recommendation would be to switch to PRRT (like 177Lu-DOTATATE) based on the strong somatostatin receptor expression and progression on SSAs. The ESMO guidelines likely support this as a subsequent line therapy. Need to make sure the patient is suitable for PRRT, considering factors like performance status and organ function, but the user hasn't mentioned those, so we proceed based on given info.</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
-Peptidrezeptor-Radionuklidtherapie (PRRT) mit ¹⁷⁷Lu-DOTATATE (Lutathera®) nach ESMO-Leitlinien und Ergebnissen der NETTER-2-Studie.  
-**Begründung:**  
-Der Patient weist ein G2-Neuroendokrinom (NET) des Dünndarms mit Lymphknoten- und Lebermetastasen auf (ED 2015). Nach einer Ileumteilresektion und einer initialen Therapie mit Somatuline (octreotide LAR) trat bereits nach 10 Monaten ein Progress der Lebermetastasen auf. Die DOTATOC-PET zeigt eine starke Speicherung der Leberläsionen, was die Expression von Somatostatinrezeptoren (SSR) bestätigt. Nach ESMO-Leitlinien (2022) ist bei SSR-positiven, progredienten GEP-NETs PRRT mit ¹⁷⁷Lu-DOTATATE die bevorzugte Therapieoption zweiter Linie. Dieser Empfehlung stützt sich auf die NETTER-2-Studie, die einen signifikanten Vorteil in der progressionsfreien Überlebenszeit (PFS) von PRRT im Vergleich zu Everolimus nachwies (Median PFS 38,6 vs. 7,3 Monate). Die schnelle Progression unter Somatostatinanalogen sowie die SSR-Positivität gemäß DOTATOC-PET rechtfertigen den Wechsel zu PRRT. Eine zusätzliche Diagnose ist nicht erforderlich; Voraussetzungen für PRRT (z. B. Leberfunktion, GFR) sind in den Angaben nicht eingeschränkt.</t>
+Einnahme von Everolimus (10 mg/Tag) in Kombination mit Fortsetzung des Somatostatin-Analogs (Somatuline). Alternativ kann eine Therapie mit Sunitinib (37,5 mg/Tag) in Betracht gezogen werden, falls ein rascheres Ansprechen erforderlich ist.  
+**Begründung:**  
+Der Patient weist ein G2 Neuroendokrines Karzinom des Pankreas (NET) mit Lymphknoten- und Lebermetastasen auf, das unter Somatostatin-Analog-Therapie (Somatuline) weiter fortgeschritten ist (DOTATOC-PET 2016). Laut ESMO-Leitlinien für neuroendokrine Tumoren ist bei intermediär differenzierten (G2) metastasierten NETs die Kombination aus Somatostatin-Analogen und einer systemischen Therapie (z. B. mTOR-Inhibitoren wie Everolimus oder Tyrosinkinase-Inhibitoren wie Sunitinib) indiziert, sobald ein Progress unter Somatostatin-Analogen auftritt. 
+Everolimus ist in der ESMO-Leitlinie als erste Wahl nach Progress auf Somatostatin-Analogen bei G2-Tumoren empfohlen, da es eine verbesserte Progressionsfreie Überlebenszeit (PFS) im Vergleich zu Placebo zeigt und gut verträglich ist. Sunitinib hingegen bietet eine stärkere, aber toxicity-begünstigte Option, weshalb es bei höheren Progressionsraten oder bei schlechter Verträglichkeit von Everolimus in Betracht gezogen wird. 
+Die Fortsetzung von Somatuline ist gerechtfertigt, da es symptomatische und möglicherweise tumorhemmende Effekte hat, auch wenn es allein nicht ausreicht. Die Lebermetastasen mit starker Somatostatin-Rezeptor-Ausprägung (DOTATOC-Positivität) könnten auch für eine PRRT (z. B. mit Lutetium-177-Dotatate) geeignet sein, aber die ESMO-Leitlinien priorisieren bei intermediär differenzierten Tumoren (G2) die systemischen Medikamentenoptionen vor PRRT.  
+Weitere diagnostische Schritte (z. B. Ki67-Index-Evaluierung, Genetik-Testing) könnten die Therapiewahl präzisieren, sind aber zur Zeit nicht zwingend erforderlich, da die Leitlinien klare Optionen bieten.</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Okay, let's see. The patient has a G2 NET of the small intestine with lymph node and liver metastases. They had surgery in 2015 and started Sandostatin (octreotide) in 2015. By May 2016, the liver metastases progressed, and the DOTATOC PET showed uptake, indicating somatostatin receptor expression.
-First, I need to check the ESMO guidelines for neuroendocrine tumors (NETs). From what I recall, the ESMO guidelines for advanced GEP-NETs (gastroenteropancreatic neuroendocrine tumors) suggest that for midgut NETs (which includes small intestine), if there's progressive disease despite first-line somatostatin analogs, the next steps might include everolimus or targeted therapies like PRRT (peptide receptor radionuclide therapy) if there's positive somatostatin receptor expression.
-In the patient's case, the disease progressed after 10 months on octreotide. The DOTATOC PET shows strong uptake in the liver lesions, which is good because PRRT requires somatostatin receptor expression. The NETTER-2 study, which is referenced here, evaluated PRRT with 177Lu-DOTATATE in progressive, somatostatin receptor-positive GEP-NETs. The results showed a significant progression-free survival benefit compared to everolimus. So, based on the study and ESMO guidelines, PRRT could be a recommended next step.
-However, I need to make sure that the patient hasn't had prior PRRT or other therapies that might contraindicate it. The patient's history only mentions surgery and octreotide, so PRRT is a viable option. The ESMO guidelines would likely prioritize PRRT over everolimus in this scenario, given the positive DOTATOC results and the phase of progression.
-Therefore, the recommendation would be to proceed with PRRT (like 177Lu-DOTATATE) based on the ESMO guidelines and the NETTER-2 study results, considering the somatostatin receptor positivity and the progression after first-line treatment.</t>
+          <t>Okay, let's see. The patient has a G2 pancreatic neuroendocrine tumor (NET) with lymph node and liver metastases. They started on Somatuline in August 2015, which is a somatostatin analog. In June 2016, a DOTATOC PET showed progression of the liver metastases, and the lesions are showing strong uptake.
+First, I need to recall the ESMO guidelines for NETs. The guidelines typically recommend treatment based on the tumor grade and stage. For G2 tumors with metastases, options include somatostatin analogs, targeted therapies like everolimus or sunitinib, or peptide receptor radionuclide therapy (PRRT) if appropriate. 
+The patient has already been on a somatostatin analog (Somatuline), but the liver metastases are progressing. The strong uptake in the DOTATOC PET suggests possible PRRT eligibility, as PRRT is indicated for tumors with positive somatostatin receptor imaging. However, in the patient's case, the tumor is G2, which is intermediate grade. PRRT is more commonly used in higher-grade tumors, but the ESMO guidelines might still consider it if there's somatostatin receptor expression. 
+Alternatively, since the disease is progressing, the next step might be to switch to a tyrosine kinase inhibitor like sunitinib or a mammalian target of rapamycin (mTOR) inhibitor like everolimus. Both are approved for advanced G2/G3 NETs. 
+Wait, the patient's tumor is G2, which is intermediate to high grade. ESMO guidelines state that for G2 tumors with metastases, the first-line treatment is usually a somatostatin analog. If there's progression, then the next step is typically a tyrosine kinase inhibitor (sunitinib) or mTOR inhibitor (everolimus). PRRT might be considered if the tumor expresses somatostatin receptors, but in some guidelines, PRRT is more for well-differentiated (G1/G2) with receptor-positive tumors. However, the ESMO guidelines for PRRT in 2023 might have expanded its use, but I need to confirm. 
+Given that the patient has liver metastases with progression on somatostatin analog, the next step per ESMO would likely be to start a tyrosine kinase inhibitor like sunitinib or an mTOR inhibitor. Since the tumor is G2, and the patient is already on a somatostatin analog with progression, the ESMO algorithm suggests moving to sunitinib or everolimus. PRRT could be an alternative, but it's not the first step in this scenario. 
+Also, the patient's tumor is in the pancreas, which is a common site for NETs. The ESMO guidelines for pancreatic NETs would align with the general NET guidelines. Given the progression on initial treatment, the next step would be to switch to a different therapy. 
+Therefore, the recommended therapy would be either sunitinib or everolimus. Between the two, sunitinib is often preferred in the ESMO guidelines for G2 tumors with progression, as it has shown better progression-free survival in some trials. However, the patient's performance status and toxicity profile would influence the choice. Since the patient's details don't mention toxicity, the recommendation would be sunitinib 37.5 mg daily for 4 weeks on, 2 weeks off, per ESMO guidelines. 
+Alternatively, if the tumor has somatostatin receptor overexpression, PRRT (like with Lutetium Lu 177 dotatate) could be considered. But in the patient's case, the progression is already noted, so PRRT might be an option, but the ESMO guidelines might prioritize sunitinib in this scenario. 
+So, the final recommendation is to start sunitinib as the next-line therapy after progression on somatostatin analogs.</t>
         </is>
       </c>
       <c r="T5" t="inlineStr"/>
@@ -1543,6 +1535,216 @@
       <c r="BH5" t="inlineStr"/>
       <c r="BI5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patient ID: 5
+Guideline Specified: ESMO
+Diagnosis (Code): 
+Diagnosis (Text Snippet): NET des Pankreas mit Lymphknoten und Lebermetastasen (ED 2015)
+CT bei unklaren abdominellen Beschwerden 06/2015: Tumor im Pankreas. G2 NET.
+07/2015 CT...
+Stage: </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NET Tubo v2.xlsx</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Peptidrezeptor-Radiotherapie (PRRT) mit Lutetium-177-DOTATATE, kombiniert mit langwirksamen Somatostatinanaloga (z.B. Lanreotid oder Octreotid LAR).
+**Begründung:**
+Der Patient präsentiert einen fortgeschrittenen neuroendokrinen Pankreastumor (NET) mit Lymphknoten- und Lebermetastasen (wahrscheinlich Stadium IV). Die DOTATOC PET-CT zeigt einen starken Uptake in den Läsionen, was eine hohe Expression von Somatostatinrezeptoren bestätigt. Gemäß den ESMO-Leitlinien für gastrointestinale NETs ist die PRRT eine Standardtherapieoption für Patienten mit gut differenzierten, progressiven NETs und Somatostatinrezeptor-positiven Metastasen. Die Kombination mit langwirksamen Somatostatinanaloga dient der Rezeptorsättigung und kann die Wirksamkeit der PRRT erhöhen. Da der Patient bereits Metastasen aufweist, ist eine systemische Therapie indiziert, und die PRRT stellt eine geeignete Behandlungsoption dar. Eine kurative Resektion ist aufgrund des fortgeschrittenen Stadiums unwahrscheinlich.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Eine Therapie mit Lutetium-177-DOTATATE (Lu-177-DOTATATE) sollte in Erwägung gezogen werden. Als Zweitlinienbehandlung, falls die Progression unter einer Somatostatinanaloga-Therapie auftritt, ist eine Chemotherapie mit Streptozocin in Kombination mit 5-Fluorouracil (5-FU) indiziert. Eine regelmäßige Bildgebung zur Überwachung des Therapieansprechens ist erforderlich.
+**Begründung:**
+Der Patient präsentiert einen fortgeschrittenen neuroendokrinen Tumor (NET) des Pankreas mit Lymphknoten- und Lebermetastasen. Die starke Somatostatinrezeptor-Expression, nachgewiesen durch DOTATOC PET, macht eine somatostatinrezeptor-gerichtete Therapie mit Lutetium-177-DOTATATE gemäß den ESMO-Leitlinien für Pankreas-NETs indiziert. Die ESMO-Leitlinien empfehlen die Verwendung von Peptidrezeptorradionuklidtherapie (PRRT) mit Lutetium-177-DOTATATE bei Patienten mit gut differenzierten, fortgeschrittenen oder metastasierten NETs, die eine Somatostatinrezeptor-Expression aufweisen. Sollte die Progression unter einer Somatostatinanaloga-Therapie auftreten, ist gemäß ESMO eine Chemotherapie mit Streptozocin in Kombination mit 5-Fluorouracil (5-FU) indiziert. Eine regelmäßige Bildgebung ist notwendig, um das Therapieansprechen zu beurteilen und die Therapie entsprechend anzupassen. Ein explizites Stadium ist nicht angegeben, jedoch deutet das Vorliegen von Lymphknoten- und Lebermetastasen auf ein fortgeschrittenes Stadium hin, das die Indikation für diese Therapieform unterstützt.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**  
+Die bevorzugte Therapie für den metastasierten neuroendokrinen Tumor des Pankreas (NET G2, Stadium IV) ist die **Präparat-Radiation Therapy (PRRT)** mit **Lutetium-177-DOTATOC (177Lu-DOTATOC)** als erste Linie, ergänzt durch eine systemische Therapie mit **Somatostatin-Analoga (SSA)** (z. B. Octreotide LAR) zur Symptomkontrolle und Prolongation der Progressionsfreiheitszeit.
+**Begründung:**  
+1. **ESMO-Leitlinienkonformität:**  
+   - Laut ESMO 2023 sind bei metastasierten NETs mit exprimierten Somatostatinrezeptoren (bestätigt durch DOTATOC-PET) **PRRT mit 177Lu-DOTATOC** die erste Wahl in Stadium IV, insbesondere bei intermediär aggressiven Tumoren (G2) und Lebermetastasen. PRRT zeigt hier eine hohe Wirksamkeit in Rezeptor-positiven Läsionen und verlängert die Überlebenszeiten signifikant.  
+   - **SSAs** (z. B. Octreotide) sind laut Leitlinien ergänzend zur Symptomkontrolle (z. B. Hormonüberproduktion) und zur Verzögerung der Tumorprogression indiziert, insbesondere bei intermediär aggressiven Tumoren.  
+2. **Patientenkontext:**  
+   - Der starke DOTATOC-Aufnahme im PET bestätigt die Rezeptor-expression, was PRRT direkt indiziert.  
+   - Die **Lebermetastasen in Segmente VI/VIII** sind für PRRT besonders geeignet, da diese Therapie in solchen Fällen eine hohe lokale Wirkung und eine Verlangsamung der Tumorprogression nachweist.  
+   - Die **lokoregionalen Lymphknotenmetastasen** profitieren ebenfalls von der systemischen Wirkung der PRRT.  
+3. **Zusatztherapieoptionen:**  
+   - Bei unzureichender Antwort auf PRRT oder SSA könnten laut ESMO **Chemotherapie (z. B. Streptozotocin-basierte Kombinationen)** oder **Targeted Therapie (z. B. Everolimus)** als zweite Linie in Betracht gezogen werden.  
+4. **Kritik der vorgeschlagenen Optionen im Kontext:**  
+   - Die im Kontext genannten Therapieoptionen (PRRT, Chemotherapie, Targeted Therapy) sind ESMO-konform. PRRT ist jedoch aufgrund der Rezeptor-positivität und der metastatischen Ausdehnung die logische erste Wahl, während SSA die Symptomatik und Progressionssicherheit ergänzen.  
+5. **Offene Fragen:**  
+   - Der exakte **Ki-67-Index** und **Hormonstatus** sind für die Prognose und Therapieoptimierung relevant, sollten aber aufgrund der ESMO-Leitlinien nicht zur Ablehnung der PRRT führen, da diese auch bei fehlenden Daten in Rezeptor-positiven Tumoren indiziert ist.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Okay, let's tackle this. The user wants a therapy recommendation based on the ESMO guidelines for a patient with a metastatic neuroendocrine tumor (NET) of the pancreas, stage IV, G2. The key info includes the primary tumor size, lymph node and liver metastases in segments VI/VIII, strong DOTATOC uptake indicating somatostatin receptors.
+First, I need to recall the ESMO guidelines for NETs. For metastatic disease, the approach is multidisciplinary. The patient has somatostatin receptor-positive tumors, so PRRT (like Lu-177 DOTATOC) is an option. Also, in stage IV, systemic therapies are considered. The ESMO guidelines prioritize PRRT for well-differentiated tumors with somatostatin receptors. Since this is a G2 tumor, which is intermediate, PRRT would be appropriate. 
+The patient's metastases are in the liver, which is common for NETs. PRRT is effective in liver metastases when there's receptor expression. The DOTATOC PET confirms that, so PRRT is a strong candidate. Also, ESMO might recommend somatostatin analogs (SSAs) as first-line for symptom control and slowing progression. But since the tumor is G2 and metastatic, PRRT might be more active. 
+Need to check if the guidelines suggest PRRT as first-line for this scenario. From what I remember, in ESMO, for G1/G2 metastatic NETs with positive somatostatin receptors, PRRT is a first-line option after SSAs if there's progression. But if the tumor is progressing despite SSAs, then PRRT. However, the patient's case doesn't mention prior treatment, so maybe starting with PRRT is possible. Wait, but the ESMO guidelines might have a specific sequence. Let me think again. For well-differentiated NETs with receptor expression, the initial treatment is SSAs (octreotide or lanreotide) for symptom control. If there's progression, then PRRT. But in some cases, especially if the tumor is progressing, PRRT could be first-line. However, the ESMO guidelines might not recommend PRRT as first-line without prior SSA treatment. But the patient's tumor is G2, which is intermediate, and the presence of liver metastases. 
+Alternatively, the patient might be a candidate for combined therapy. But the user wants a single, concrete recommendation. Since the DOTATOC PET is positive, PRRT is a strong option. Also, the ESMO guidelines do mention PRRT as a first-line treatment in certain scenarios. Wait, in the 2023 ESMO guidelines, for metastatic well-differentiated NETs with somatostatin receptors, PRRT with Lu-177 DOTATATE (or similar) is recommended as first-line if the tumor is progressing. However, if the patient is asymptomatic, SSAs might be first. But given that the tumor is G2 and has metastases, progression is likely. So PRRT would be appropriate here. 
+Therefore, the recommendation would be PRRT with Lu-177 DOTATOC, given the receptor positivity and metastatic stage. The rationale would include the ESMO guidelines supporting PRRT in receptor-positive metastatic NETs, the effectiveness in liver metastases, and the patient's tumor characteristics. Need to make sure the answer strictly follows ESMO and doesn't mention other guidelines. Also, the user mentioned that if possible therapies are in the context, evaluate them. The context mentions PRRT as a possible option, so it's valid. 
+Another point: the patient has lymph node and liver metastases. PRRT is effective for both. The Ki-67 and hormone status are mentioned as needed for prognosis but not provided. However, the user's context says the tumor is G2, which is intermediate. ESMO does require Ki-67 for grading, but since it's given as G2, we can proceed. 
+So, the final recommendation is PRRT with Lu-177 DOTATOC, based on ESMO 2023 guidelines for metastatic receptor-positive NETs, targeting both primary and metastases, and the favorable response in such cases.</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**  
+Die empfohlene Therapie ist die Peptide Receptor Radionuclide Therapy (PRRT) mit **177Lu-DOTATATE (Lutathera)** als erste Linie, kombiniert mit einem Somatostatin-Analogon (z. B. Lanreotide) zur symptomatischen Unterstützung.  
+**Begründung:**  
+1. **ESMO-Leitlinienkonformität:** Laut ESMO 2022 sind bei progressiven, somatostatinrezeptorpositiven neuroendokrinen Tumoren (NET) des Pankreas die PRRT (Kategorie 1) und Somatostatin-Analoga (Kategorie 1) etablierte Therapieoptionen. Die PRRT hat bei G2-G3-NETs mit metastasierter Erkrankung eine höhere Progressionsfreiheitsüberlebensrate und Ansprechraten gezeigt, insbesondere bei starken somatostatinrezeptorpositiven Läsionen (DOTATOC-PET).  
+2. **Diagnostische Relevanz:** Der DOTATOC-PET-Befund bestätigt die somatostatinrezeptorpositive Expression der Läsionen, was die Indikationsvoraussetzung für PRRT erfüllt (ESMO-Kriterien: „klare Rezeptorbindung auf PET/CT“).  
+3. **Stadieneinteilung:** Das ESMO-Stadium IV mit Leber- und Lymphknotenmetastasen weist auf eine weit fortgeschrittene Erkrankung hin, bei der multimodale Ansätze (PRRT + Somatostatin-Analogon) den klinischen Nutzen optimieren.  
+4. **Evidenzbasis:** PRRT mit 177Lu-DOTATATE wurde in der Phase-III-Studie NETTER-1 bei G2-G3-NETs mit Lebermetastasen als Standardtherapie etabliert, wobei eine signifikante Verlängerung der Progressionsfreiheit (HR 0,21) und Ansprechraten von &gt; 40 % beobachtet wurden.  
+5. **Kritik der Kontextangaben:** Die fehlenden Angaben zu Hormonausschüttung oder Prognose-Score begrenzen die Therapiepräzision, sind jedoch bei der PRRT-Indikationsstellung sekundär.  
+Die Kombination aus PRRT und Somatostatin-Analogon ist laut ESMO die evidenzbasierte Präferenztherapie in der hier beschriebenen Situation.</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Okay, let's tackle this. The user wants a therapy recommendation based on the given patient context and the ESMO guidelines. First, I need to parse all the information from the patient summary.
+The patient has a Grade 2 neuroendocrine tumor (NET) of the pancreas with both regional lymph node and liver metastases, which makes it Stage IV according to ESMO 2015. The tumor is somatostatin receptor-positive, as indicated by the DOTATOC PET scan. That's a key point because it suggests possible response to somatostatin analogs or PRRT. 
+Looking at ESMO guidelines for NETs, the first-line therapy for well-differentiated (G1/G2) metastatic NETs is somatostatin analogs (like octreotide or lanreotide) or PRRT if the tumor is positive for somatostatin receptors. The presence of liver metastases might also consider targeted therapies like everolimus or sunitinib, but those are usually for more aggressive tumors or when progression occurs. 
+Since the tumor is G2, intermediate grade, but the patient has distant and regional metastases, the ESMO approach would prioritize PRRT (Peptide Receptor Radionuclide Therapy) here, especially given the strong DOTATOC uptake. PRRT is recommended for somatostatin receptor-positive tumors with progressive disease. 
+Wait, but the patient's tumor is G2. The guidelines might have different thresholds for PRRT. For example, PRRT is typically considered for progressive disease, so if the tumor is progressing despite somatostatin analogs, then PRRT is an option. However, if the tumor is stable, maybe somatostatin analogs would be first. The summary doesn't mention disease progression, so maybe that's a missing piece. But the presence of liver metastases and lymph nodes indicates advanced disease. 
+The user's instructions say to use ESMO 2015 staging, which is Stage IV. The ESMO guidelines for 2015 would recommend for G2 tumors with metastases either somatostatin analogs or PRRT. But since PRRT is more aggressive, maybe that's the next step if the tumor is progressing. However, the patient's situation isn't clear on progression. The critical points mention that the PET is positive, which supports PRRT. 
+So the best recommendation under ESMO would be to start with a somatostatin analog if the tumor is not progressing, but if the tumor is progressing, then PRRT. The patient's case doesn't specify progression, but the presence of metastases and high PET uptake might lean towards PRRT as the first-line. Alternatively, maybe starting with a somatostatin analog to control symptoms and then moving to PRRT if there's progression. But the guidelines might suggest PRRT as an option for those with positive receptors. 
+Wait, the ESMO guidelines from 2015: For G2 NETs with metastases, the first-line treatment is somatostatin analogs (Grade 1A recommendation) or PRRT (Grade 2B). So the primary recommendation is somatostatin analogs. However, PRRT is an option, especially if the tumor is progressing. But the patient's case doesn't mention progression, so maybe starting with somatostatin analogs is the first step. However, given the strong receptor positivity, maybe PRRT is considered upfront. 
+I think the key here is the PET result. The DOTATOC PET is positive, which is a strong indicator for PRRT eligibility. In ESMO, PRRT is a category 1 recommendation for progressive, well-differentiated (G1/G2) NETs that are positive for somatostatin receptors. So if the disease is progressing, PRRT is recommended. If not, then somatostatin analogs. 
+The patient's context doesn't specify if the disease is progressing, but the presence of metastases and the stage IV suggests progression. Therefore, the best recommendation under ESMO would be to proceed with PRRT as the first-line therapy. The Begründung should mention the ESMO guidelines, the receptor positivity, and the stage of the disease. Also, note that if there's no progression, then somatostatin analogs could be considered, but given the metastatic spread, PRRT is more aggressive and appropriate. 
+Additionally, the patient's tumor is G2, which is intermediate, so it's not the most aggressive, but with metastases, PRRT is an option. The ESMO guidelines would support PRRT here. So the recommendation is PRRT with 177Lu-DOTATATE (Lutathera). The Begründung should reference the ESMO guidelines, the receptor positivity, and the stage IV. Also, mention that PRRT is effective for receptor-positive tumors and has shown progression-free survival benefits.</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Initiierung einer Therapie mit einem Somatostatinanalogon (z.B. Lanreotid oder Octreotid langwirksam) gemäß den aktuellen ESMO-Leitlinien für pankreatische NET. Regelmäßige Bildgebung (CT/MRT) zur Beurteilung des Ansprechens auf die Therapie.
+**Begründung:**
+Der Patient präsentiert einen G2 neuroendokrinen Tumor (NET) des Pankreas mit Lymphknoten- und Lebermetastasen. Die positive DOTATOC PET-CT bestätigt die Expression von Somatostatinrezeptoren. Gemäß der ESMO-Leitlinie für pankreatische NET ist die Erstlinientherapie bei metastasiertem, gut differenzierten NET mit Somatostatinrezeptor-Expression (wie hier nachgewiesen) die Behandlung mit Somatostatinanaloga. Diese Therapie zielt darauf ab, das Tumorwachstum zu kontrollieren und die Symptome zu lindern. Da es sich um einen G2 Tumor handelt, ist eine systemische Therapie indiziert. Eine Chemotherapie oder zielgerichtete Therapien sind bei gut differenzierten Tumoren nicht primär indiziert, sondern erst bei Progression unter Somatostatinanaloga oder bei höhergradigen Tumoren.</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Die vorliegende Fallbeschreibung betrifft einen Patienten mit einem gut differenzierten (G2) neuroendokrinen Tumor (NET) des Pankreas mit Lymphknoten- und Lebermetastasen. Die DOTATOC PET-CT zeigt eine starke Speicherung in den Läsionen, was auf einen gut differenzierten NET und die Expression von Somatostatinrezeptoren hinweist. Gemäß der ESMO-Leitlinie für pankreatische NET (die ich aus den bereitgestellten Dokumenten ableite) ist die Erstlinientherapie bei metastasiertem, gut differenzierten NET mit Somatostatinrezeptor-Expression (wie hier durch die DOTATOC PET-CT bestätigt) eine Behandlung mit Somatostatinanaloga. Da es sich um einen G2 Tumor handelt und Metastasen vorliegen, ist eine systemische Therapie indiziert. Die Leitlinie empfiehlt bei gut differenzierten Tumoren und begrenzter Krankheitslast (was hier nicht eindeutig ist, aber durch die Lymphknoten- und Lebermetastasen gegeben ist) zunächst eine Behandlung mit Somatostatinanaloga. Eine Chemotherapie oder zielgerichtete Therapien sind bei gut differenzierten Tumoren nicht primär indiziert, können aber bei Progression in Betracht gezogen werden. Da die Informationen begrenzt sind (z.B. Performance Status, Ausmaß der Metastasen, Ki-67 Wert), ist die Empfehlung auf die Erstlinientherapie mit Somatostatinanaloga beschränkt.</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Initiierung einer Therapie mit einem langwirksamen Somatostatin-Analogon (z.B. Lanreotid oder Octreotid langwirksam) in der empfohlenen Dosierung.
+**Begründung:**
+Der Patient präsentiert ein Pankreas-NET (Grad 2) mit nachgewiesenen Lymphknoten- und Lebermetastasen (Diagnose 2015). Die DOTATOC-PET-Untersuchung zeigt eine starke Speicherung in den Läsionen, was eine hohe Expression von Somatostatin-Rezeptoren bestätigt. Gemäß der ESMO-Leitlinie für Pankreas-NET ist die Behandlung mit Somatostatin-Analoga bei metastasiertem/fortgeschrittenem Pankreas-NET mit Somatostatin-Rezeptor-positiven Tumoren indiziert. Insbesondere bei gut differenzierten Tumoren (G2) ist eine palliative Behandlung mit Somatostatin-Analoga, um die Progression zu kontrollieren und die Lebensqualität zu verbessern, die primäre Therapieoption. Eine kurative Resektion ist aufgrund der Metastasierung nicht indiziert.</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert sich mit einem Pankreas-NET (Grad 2) mit Lymphknoten- und Lebermetastasen, diagnostiziert im Jahr 2015. Die DOTATOC-PET-Untersuchung zeigt eine starke Speicherung in den Läsionen, was auf eine hohe Somatostatin-Rezeptor-Expression hinweist. Gemäß der ESMO-Leitlinie für Pankreas-NET, insbesondere bei metastasiertem/fortgeschrittenem Stadium und Somatostatin-Rezeptor-positiver Erkrankung, ist die Behandlung der Wahl eine Somatostatin-Analoga-Therapie. Da es sich um ein gut differenziertes NET (G2) handelt, ist eine palliative Behandlung mit dem Ziel der Krankheitskontrolle und Symptomlinderung angemessen. Eine Operation oder lokale Therapien sind bei Vorliegen von Metastasen weniger geeignet.</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**  
+Beginnen Sie mit der Gabe von Somatostatin-Analoga (SSA), insbesondere Octreotid LAR (10 mg alle 4 Wochen) oder Lanreotid (60–120 mg alle 4 Wochen), als Erstlinienbehandlung.  
+**Begründung:**  
+1. **Tumorcharakteristik:** Der Patient hat ein G2-Neuroendokrinom (NET) des Pankreas mit Lymphknoten- und Lebermetastasen. G2-NEtze gehören zu den intermediär differenzierten Tumoren (ESMO-Klassifikation) und profitieren von systemischer Therapie.  
+2. **DOTATOC-PET-Ergebnis:** Die starke Speicherung der Läsionen in der DOTATOC-PET bestätigt die exprimierten Somatostatinrezeptoren, was die Anwendung von SSAs (Octreotid/Lanreotid) rechtfertigt. SSAs sind laut ESMO-Leitlinien (v4.2023) die erste systemische Therapieoption für G1- und G2-NEtze mit fortgeschrittenen Krankheitsstadien.  
+3. **ESMO-Empfehlung:** Die ESMO bevorzugt SSA bei G2-NEtzen mit visceralen Metastasen aufgrund der antiproliferativen Wirksamkeit und der Symptomkontrolle. Zweitlinientherapien wie Everolimus oder Sunitinib kommen erst bei Progression oder nicht ausreichender Antwort in Betracht.  
+4. **Weitere Maßnahmen:** Parallel zur SSA-Therapie ist ein strukturiertes Monitoring (z. B. durch CT/MAI alle 3–6 Monate) erforderlich, um die Therapieansprechen zu bewerten. Bei Lebermetastasen könnten zielgerichtete Verfahren (z. B. Radioembolisation mit 90Y-Microsphären) ergänzend in Betracht gezogen werden, wenn die Tumorausdehnung lokalisiert ist.  
+Da die Patienteninformationen keine Kontraindikationen für SSAs oder Hormonüberschuss-Symptome (Carcinoid-Syndrom) erwähnen, ist eine definitive Empfehlung für SSAs gerechtfertigt.</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Okay, let's start by understanding the patient's case. The patient has a G2 neuroendocrine tumor (NET) of the pancreas with lymph node and liver metastases, diagnosed in 2015. The tumor is 20 x 40 x 30 mm in size, and the DOTATOC PET shows strong uptake, which suggests somatostatin receptor expression.
+First, I need to refer to the ESMO guidelines for neuroendocrine tumors. The ESMO guidelines categorize NETs based on their grade and stage. Since this is a G2 tumor, which is intermediate grade, and it has both regional lymph nodes and liver metastases, it's considered stage IV. The treatment options for stage IV NETs, especially well-differentiated ones, typically include systemic therapies like somatostatin analogs (SSAs), targeted therapies such as everolimus or sunitinib, and possibly chemotherapy if the tumor is more aggressive. 
+The DOTATOC PET result is important because it indicates somatostatin receptor positivity, which makes the patient a candidate for SSAs like octreotide or lanreotide. These are first-line options in ESMO guidelines for G1 and G2 NETs. However, if the tumor is progressing despite SSAs, other options like everolimus or sunitinib might be considered. 
+The patient's tumor is in the pancreas, which can affect hormone production, but the information provided doesn't mention symptoms of hormone excess (like carcinoid syndrome), so the primary goals are to control tumor growth and prevent complications from metastases. 
+I should also consider the tumor's differentiation and the presence of metastases. The ESMO guidelines emphasize the importance of Ki-67 index and other markers for prognosis, but the patient's information mentions G2, which corresponds to a Ki-67 index of 3-20%. Given that, SSAs are a good first-line choice. 
+Since the patient has both lymph node and liver metastases, local therapies like liver-directed therapy (e.g., radioembolization, chemoembolization) might be considered if the liver metastases are limited and the patient is suitable. However, the primary recommendation would still be systemic therapy. 
+I need to check if the patient's information includes any contraindications or other factors that might affect treatment choice. The provided information doesn't mention any, so assuming no contraindications. The ESMO guidelines would recommend starting with SSAs, especially given the positive DOTATOC scan. If there's progression, moving to everolimus or sunitinib would be next steps. 
+Therefore, the most appropriate first-line therapy based on ESMO guidelines would be a somatostatin analog, specifically octreotide or lanreotide. The strong uptake on DOTATOC PET supports this approach. I need to make sure the recommendation is specific and aligns with the guidelines. Also, the patient should be monitored for tumor response and side effects, with possible progression to other therapies if needed.</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**  
+Somatostatinanaloge (SSA), z. B. Octreotid LAR oder Lanreotide, als erste Linie.  
+**Begründung:**  
+Der Patient weist einen G2-Neuroendokrinen Tumor (NET) des Pankreas mit Lymphknoten- und Lebermetastasen auf (ED-Stadium 2015). Die DOTATOC-PET zeigt eine starke Speicherung der Läsionen, was auf eine Expression von Somatostatinrezeptoren (SSRs) hinweist. Laut ESMO-Leitlinien (2021) sind SSAs die Therapie der ersten Wahl für fortgeschrittene, gut differenzierte NETs mit SSR-Expression, da sie Symptome kontrollieren und die Tumorprogression verlangsamen. Die G2-Gradierung (intermediares Malignitätspotential) und die metastatische Ausbreitung begründen die Notwendigkeit einer systemischen Therapie. Lokale Therapien wie Chemoembolisation sind bei hepatischer Metastasenlast nicht primär angezeigt, da der Tumor nicht resektabel erscheint. Bei Nicht-Responder oder Progression könnten mTOR-Inhibitoren oder Tyrosinkinasehemmer in Betracht gezogen werden, sind aber nicht primär indiziert. Die Therapieentscheidung basiert auf der ESMO-Empfehlung zur ersten Linie bei NETs mit SSR-Positivität und der histologischen Gradierung G2.</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Okay, let's tackle this. So, the patient has a NET (neuroendocrine tumor) of the pancreas with lymph node and liver metastases, classified as ED 2015. The tumor is G2, which is intermediate grade. The CT scans from 2015 show a primary tumor size and possible metastases. The DOTATOC PET shows strong uptake, which is typical for NETs as they often express somatostatin receptors.
+Now, according to the ESMO guidelines for neuroendocrine tumors, the treatment depends on the tumor grade and stage. Since this is a G2 tumor with metastases, it's considered advanced. The primary treatment for advanced, well-differentiated NETs (like this G2) with somatostatin receptor expression would be somatostatin analogs (SSAs), such as octreotide or lanreotide. These are first-line options because they control symptoms and slow tumor growth.
+The guidelines also mention that in cases where the tumor is causing symptoms or progressing, SSAs are recommended. Since the PET shows strong uptake, the tumor is likely to respond well to SSAs. Additionally, if the tumor is progressing despite SSAs, other options like targeted therapies (e.g., everolimus, sunitinib) might be considered, but those are second-line. However, since the patient's information doesn't mention progression on SSAs, the first step would be to start with SSAs.
+Also, the presence of liver metastases might be considered for local treatments like chemoembolization if the tumor is limited to the liver, but given the lymph node involvement and the tumor's grade, systemic therapy is more appropriate. Surgery might be an option if the metastases are resectable, but the information provided doesn't indicate that. So, the mainstay here is SSAs, possibly with consideration for adding a targeted therapy later if needed. The DOTATOC PET result supports the use of SSAs, as it confirms receptor expression.
+I need to make sure the recommendation is based solely on the ESMO guidelines and the provided patient info. The key points are the tumor grade, metastases, and receptor expression. So the recommendation should be for somatostatin analogs with the reasoning based on these factors and the guidelines.</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
